--- a/data/results/results_sfldt.xlsx
+++ b/data/results/results_sfldt.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoavz\GitHub\APPETITE\data\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B507617C-010F-42D6-8129-092C0F15D567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7557EE46-2FB1-4507-BE1E-0853DE2DCA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{254EC2FD-D695-490A-84A4-C1AAE2218E49}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{254EC2FD-D695-490A-84A4-C1AAE2218E49}"/>
   </bookViews>
   <sheets>
     <sheet name="total wasted effort" sheetId="9" r:id="rId1"/>
@@ -22,13 +22,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="13" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
   <si>
     <t>after size</t>
   </si>
@@ -592,12 +592,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - הדגשה1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2741,7 +2742,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.662364298578739</c:v>
+                  <c:v>30.064070661351636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2794,7 +2795,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15.643669090197939</c:v>
+                  <c:v>32.084263971873163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2847,7 +2848,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.569297785847034</c:v>
+                  <c:v>29.909193083825127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2900,7 +2901,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15.648678567507682</c:v>
+                  <c:v>32.100882119338891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2953,7 +2954,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.0970102107830808</c:v>
+                  <c:v>18.868941004528327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3006,7 +3007,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.0977802790897542</c:v>
+                  <c:v>18.873021575490338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4593,7 +4594,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.51911395011415</c:v>
+                  <c:v>8.3863201719979337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4646,7 +4647,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20.366744853995357</c:v>
+                  <c:v>20.304248170185506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4699,7 +4700,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.0336960056261386</c:v>
+                  <c:v>7.1767239384685801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4752,7 +4753,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.9272911638308239</c:v>
+                  <c:v>9.1937061321386171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4805,7 +4806,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.1955880308552223</c:v>
+                  <c:v>8.3069373395282131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4858,7 +4859,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.2517731415097417</c:v>
+                  <c:v>8.0568346578396142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4913,7 +4914,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.2700292576119923</c:v>
+                  <c:v>9.3327306285102729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4968,7 +4969,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.3300276514241984</c:v>
+                  <c:v>9.5409636313540691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7817,37 +7818,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.242882766571146</c:v>
+                  <c:v>22.695489725113426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.56548493773901</c:v>
+                  <c:v>23.02329419759559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8360343896004832</c:v>
+                  <c:v>21.600905363051254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.669988526282427</c:v>
+                  <c:v>21.780575981748896</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.356228588533988</c:v>
+                  <c:v>21.299438528526959</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.323080191503379</c:v>
+                  <c:v>21.251286711504882</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.371885496192677</c:v>
+                  <c:v>21.308061653935308</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.372021200237434</c:v>
+                  <c:v>21.382747240978929</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.123403936493409</c:v>
+                  <c:v>20.929747004288402</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.4592635294075613</c:v>
+                  <c:v>20.939344332517081</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.3670410126662311</c:v>
+                  <c:v>20.736130665822895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7933,37 +7934,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.870286516972405</c:v>
+                  <c:v>24.294138203644678</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.115017270775914</c:v>
+                  <c:v>24.430275423767515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.344234497663923</c:v>
+                  <c:v>22.679688391353078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.110775821619104</c:v>
+                  <c:v>22.706378189686568</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.824507282208204</c:v>
+                  <c:v>22.238243993220564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.8348079494074</c:v>
+                  <c:v>22.265600525509988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.874168731525357</c:v>
+                  <c:v>22.273431552074989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.854661477542633</c:v>
+                  <c:v>22.31947293961154</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.570532935564513</c:v>
+                  <c:v>21.799187540541975</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9144497948641916</c:v>
+                  <c:v>21.815975469583282</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.7782285366519801</c:v>
+                  <c:v>21.562134433069087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8049,37 +8050,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.236722112746349</c:v>
+                  <c:v>22.707979291112654</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.531005930719276</c:v>
+                  <c:v>23.129384276418669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8059344838911322</c:v>
+                  <c:v>21.512013342192333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.573771311810669</c:v>
+                  <c:v>21.575430535928191</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.305654567225075</c:v>
+                  <c:v>21.151132266430515</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.212688064515437</c:v>
+                  <c:v>21.012819058506704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.272261079202478</c:v>
+                  <c:v>21.149446715826972</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.251820705333422</c:v>
+                  <c:v>21.114249963363356</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.055112277312434</c:v>
+                  <c:v>20.756437255671052</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3655681734964897</c:v>
+                  <c:v>20.744795853531425</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.2785482002674993</c:v>
+                  <c:v>20.542171992272969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8165,37 +8166,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.869978396414085</c:v>
+                  <c:v>24.324945501601945</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.083415324844058</c:v>
+                  <c:v>24.531645255600537</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.342654334721207</c:v>
+                  <c:v>22.68448701686566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.115015608151298</c:v>
+                  <c:v>22.714283860161046</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.833495478415765</c:v>
+                  <c:v>22.241749952558671</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.837193801676834</c:v>
+                  <c:v>22.278723736509161</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.857878992042901</c:v>
+                  <c:v>22.31999965923346</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.857669977341045</c:v>
+                  <c:v>22.329309878366345</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.572905127624658</c:v>
+                  <c:v>21.80369722132799</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.915694273522746</c:v>
+                  <c:v>21.820835147889284</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.780955776646465</c:v>
+                  <c:v>21.568523603333468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8281,37 +8282,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5.9171612606934234</c:v>
+                  <c:v>13.706834650110025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0348984251322904</c:v>
+                  <c:v>13.720729945141768</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.716705336426914</c:v>
+                  <c:v>12.609109167052569</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3053394396647127</c:v>
+                  <c:v>12.688918089161957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1244696793315372</c:v>
+                  <c:v>12.386467398098782</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1305128573789105</c:v>
+                  <c:v>12.39003210058921</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1828263314254333</c:v>
+                  <c:v>12.460709908951198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1592418646738043</c:v>
+                  <c:v>12.446410454407106</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0215777232273417</c:v>
+                  <c:v>12.207466685784441</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5271566051586696</c:v>
+                  <c:v>12.237293229861999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4522296098084038</c:v>
+                  <c:v>12.085263498414033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8397,37 +8398,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5.9162521293122232</c:v>
+                  <c:v>13.717708880290981</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0225045673476165</c:v>
+                  <c:v>13.782992673501301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7181906789986119</c:v>
+                  <c:v>12.612890181945088</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3034568115459599</c:v>
+                  <c:v>12.68477982869415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1278562479905094</c:v>
+                  <c:v>12.383469068252261</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1311613594078933</c:v>
+                  <c:v>12.394165976717531</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1738356657861289</c:v>
+                  <c:v>12.487022829228398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1570508919945262</c:v>
+                  <c:v>12.442681266838765</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0222596931981052</c:v>
+                  <c:v>12.208633743193602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5278147901399066</c:v>
+                  <c:v>12.238313426762142</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4527372075275515</c:v>
+                  <c:v>12.086340865702132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10300,13 +10301,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.3909641595153959</c:v>
+                  <c:v>14.781928319030792</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.636209622769369</c:v>
+                  <c:v>25.272419245538739</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.739540620348219</c:v>
+                  <c:v>30.227415060404105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10365,13 +10366,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.6875315497223626</c:v>
+                  <c:v>15.375063099444725</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.565866217210242</c:v>
+                  <c:v>27.131732434420485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.723215983690345</c:v>
+                  <c:v>32.253758882524018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10430,13 +10431,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.341998990408884</c:v>
+                  <c:v>14.683997980817768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.525771344836174</c:v>
+                  <c:v>25.051542689672349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.647049837027785</c:v>
+                  <c:v>30.07460481944381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10495,13 +10496,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.7978293791014641</c:v>
+                  <c:v>15.595658758202928</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.606401278865702</c:v>
+                  <c:v>27.212802557731404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.726890221891294</c:v>
+                  <c:v>32.268193613817445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10560,13 +10561,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.417592125189298</c:v>
+                  <c:v>10.835184250378596</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.477677769862094</c:v>
+                  <c:v>16.955355539724188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1217770667284128</c:v>
+                  <c:v>18.935581279142333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10625,13 +10626,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.4361433619384147</c:v>
+                  <c:v>10.872286723876829</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4849553729156177</c:v>
+                  <c:v>16.969910745831235</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1223037632507289</c:v>
+                  <c:v>18.93931003292742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13120,37 +13121,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-4.5904197745810853</c:v>
+                  <c:v>-8.9728013771824848</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.7886681623518741</c:v>
+                  <c:v>-5.2404182272205748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4262984255241084</c:v>
+                  <c:v>1.9147601243355328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3570118395977095</c:v>
+                  <c:v>5.5797902201136447</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7279930329204891</c:v>
+                  <c:v>8.2634678570095002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1088578627907646</c:v>
+                  <c:v>9.4339409120380449</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.6062213164543984</c:v>
+                  <c:v>10.65787216010588</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.72603935938546</c:v>
+                  <c:v>11.22798547115452</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.713028384182769</c:v>
+                  <c:v>14.434568714478958</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.713480289330315</c:v>
+                  <c:v>14.582319808540886</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.338897663216812</c:v>
+                  <c:v>15.088771525860553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13236,37 +13237,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>11.170107108375463</c:v>
+                  <c:v>10.019816202760797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.883869751976055</c:v>
+                  <c:v>13.031740407771503</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.639322903131962</c:v>
+                  <c:v>15.364801150041279</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.012157762606584</c:v>
+                  <c:v>16.250221350682885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.105317976129413</c:v>
+                  <c:v>17.503654040624205</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.055588745847317</c:v>
+                  <c:v>17.460599528196568</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.480201802258609</c:v>
+                  <c:v>19.134795727090893</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.74018118793887</c:v>
+                  <c:v>19.713079595743313</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.133415615182631</c:v>
+                  <c:v>19.993727528634949</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.701688281737106</c:v>
+                  <c:v>20.481009089338848</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.885974252041816</c:v>
+                  <c:v>21.425085635093037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13352,37 +13353,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.4066094746639151</c:v>
+                  <c:v>6.2853597375245398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.547768458314382</c:v>
+                  <c:v>9.7136655884138019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7749656743021625</c:v>
+                  <c:v>9.0900131458847024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2888934509791499</c:v>
+                  <c:v>9.4011892203990381</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6972844701286096</c:v>
+                  <c:v>10.253114389343706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4611658158321079</c:v>
+                  <c:v>10.099292461167995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3176624268939721</c:v>
+                  <c:v>9.5386713057566563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2157173696889991</c:v>
+                  <c:v>9.2682958756642062</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2221530697644809</c:v>
+                  <c:v>9.8877675753951149</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9424775498388662</c:v>
+                  <c:v>9.946829455985128</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8629189190120283</c:v>
+                  <c:v>9.9498793990730015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13468,37 +13469,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.94969523368542297</c:v>
+                  <c:v>6.4845394613880671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6385110873488014</c:v>
+                  <c:v>10.31933071446441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6801545164996678</c:v>
+                  <c:v>9.4796261247769049</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.132827727114023</c:v>
+                  <c:v>10.500751905903993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5891082155591914</c:v>
+                  <c:v>11.582299346158587</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2665423362072916</c:v>
+                  <c:v>11.370798236350852</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.406856235852521</c:v>
+                  <c:v>11.716005793773293</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3761810523115772</c:v>
+                  <c:v>11.087225357225673</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3498874643388241</c:v>
+                  <c:v>11.735999160956945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3239086808880502</c:v>
+                  <c:v>12.571926934581922</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3389601816426566</c:v>
+                  <c:v>12.544434677033131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13584,37 +13585,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.57679932503265441</c:v>
+                  <c:v>3.7062620522638037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.435043628520988</c:v>
+                  <c:v>5.8128120126228433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6849549757439863</c:v>
+                  <c:v>6.8045661096959229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7654535578056043</c:v>
+                  <c:v>7.2213735674404669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0493013065464467</c:v>
+                  <c:v>7.7436516535999411</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9159247302630957</c:v>
+                  <c:v>8.0182573738025997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5737812788573615</c:v>
+                  <c:v>7.3856657079888723</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4659299159338941</c:v>
+                  <c:v>7.0073593515434061</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4925227207986387</c:v>
+                  <c:v>7.3814638648898976</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0938668825425184</c:v>
+                  <c:v>7.8015140677106922</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1122879808306836</c:v>
+                  <c:v>7.9888935142422008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13700,37 +13701,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.35838415028174747</c:v>
+                  <c:v>4.6521744314031288</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9194844907428812</c:v>
+                  <c:v>7.8127522087527161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3169089313257611</c:v>
+                  <c:v>7.2123181689977383</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7431245911159152</c:v>
+                  <c:v>8.8147973640901753</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1070967850639661</c:v>
+                  <c:v>9.6394944186155893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6369228820205324</c:v>
+                  <c:v>8.6930663083709341</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6969300556136382</c:v>
+                  <c:v>8.9110826398137934</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.679663133186752</c:v>
+                  <c:v>8.5920222819742555</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6642535516425569</c:v>
+                  <c:v>8.7795599045516788</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2903391707916008</c:v>
+                  <c:v>9.2501436246493594</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2853388177907554</c:v>
+                  <c:v>9.1892633353658688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13818,37 +13819,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.7753922118469769</c:v>
+                  <c:v>8.6183126649873927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4938550986008829</c:v>
+                  <c:v>12.977002979470223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8977146625557797</c:v>
+                  <c:v>12.76788614657851</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4246169168892315</c:v>
+                  <c:v>14.447983197670817</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6838843282903762</c:v>
+                  <c:v>15.596558476401793</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4791772239044763</c:v>
+                  <c:v>15.0818805680272</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4608392578439053</c:v>
+                  <c:v>14.179175272491536</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3958962218562316</c:v>
+                  <c:v>14.529736797488354</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5344839254385745</c:v>
+                  <c:v>15.310881355743311</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9897325414417883</c:v>
+                  <c:v>15.426702930214949</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9249447338548471</c:v>
+                  <c:v>15.517839130159302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13936,37 +13937,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.6531124711535956</c:v>
+                  <c:v>8.7573358007517488</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3885306091015783</c:v>
+                  <c:v>13.727451597424377</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9766402849426186</c:v>
+                  <c:v>13.083065064269466</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5202766642310213</c:v>
+                  <c:v>14.962394506708222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8392994150210864</c:v>
+                  <c:v>15.68277648059706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6128366702164643</c:v>
+                  <c:v>15.305643445602445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5102241160491916</c:v>
+                  <c:v>14.693212796785087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.451704671635424</c:v>
+                  <c:v>14.619306568487247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6218727786780578</c:v>
+                  <c:v>15.32410087178677</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0924469456106012</c:v>
+                  <c:v>15.779892779668488</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.986424118606374</c:v>
+                  <c:v>15.761547175532376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14725,7 +14726,7 @@
                   <c:v>2.3395431116197707</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.1470011730425542</c:v>
+                  <c:v>-0.98795183005735665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14790,7 +14791,7 @@
                   <c:v>18.998241483228103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.895880590420912</c:v>
+                  <c:v>20.252530298172974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14849,13 +14850,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.7636671306376339</c:v>
+                  <c:v>9.5273342612752678</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1748951395372766</c:v>
+                  <c:v>6.3497902790745533</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5828777008376975</c:v>
+                  <c:v>4.8601865810713818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14914,13 +14915,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.5424464492210168</c:v>
+                  <c:v>11.084892898442034</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2703995640486285</c:v>
+                  <c:v>8.5407991280972571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8259338099190354</c:v>
+                  <c:v>8.53853023239569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14979,13 +14980,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.5805616438348422</c:v>
+                  <c:v>7.1611232876696844</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8789500084931063</c:v>
+                  <c:v>5.7579000169862127</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5556858395409559</c:v>
+                  <c:v>6.119017225905905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15044,13 +15045,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.2530829067241394</c:v>
+                  <c:v>8.5061658134482769</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1040473316722905</c:v>
+                  <c:v>6.208094663344581</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.706423057177993</c:v>
+                  <c:v>6.5199553782457906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15111,13 +15112,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.0986858002687603</c:v>
+                  <c:v>14.197371600537519</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5446232543954617</c:v>
+                  <c:v>9.0892465087909233</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5103833386118719</c:v>
+                  <c:v>6.5056764847143729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15178,13 +15179,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.2467818308341911</c:v>
+                  <c:v>14.493563661668384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6876668478650902</c:v>
+                  <c:v>9.3753336957301787</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6481705956411385</c:v>
+                  <c:v>6.9350709524642156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18955,11 +18956,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yoav Zelinger" refreshedDate="45774.954576736112" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="254" xr:uid="{D3473215-8F58-4FE3-8104-F09011E9EE42}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yoav Zelinger" refreshedDate="45775.89365578704" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="128" xr:uid="{571CD4F0-D7E9-40AD-904C-18E17D35EB3C}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:T1048576" sheet="results_sfldt" r:id="rId2"/>
+    <worksheetSource ref="A1:U1048576" sheet="results_sfldt" r:id="rId2"/>
   </cacheSource>
-  <cacheFields count="35">
+  <cacheFields count="36">
     <cacheField name="after size" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.5" maxValue="10" count="12">
         <n v="0.5"/>
@@ -18997,52 +18998,55 @@
       </sharedItems>
     </cacheField>
     <cacheField name="count" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="584808"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="790483"/>
     </cacheField>
     <cacheField name="after accuracy decrease" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="185.71428571428501" maxValue="34435552.696423702"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="185.71428571428501" maxValue="48355862.530691899"/>
     </cacheField>
     <cacheField name="after retrain accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-8947532.0121683907" maxValue="8369957.1536858901"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-10062914.087640001" maxValue="11784858.330156401"/>
     </cacheField>
     <cacheField name="before after retrain accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-129553.787878787" maxValue="15072482.759619899"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-129553.787878787" maxValue="19097095.700796299"/>
     </cacheField>
     <cacheField name="SFLDT fix accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-56737.142857142797" maxValue="6288782.3085302999"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-56737.142857142797" maxValue="6856182.4815736301"/>
     </cacheField>
     <cacheField name="SFLDT wasted effort" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="19" maxValue="15405396"/>
     </cacheField>
     <cacheField name="STAT_SFLDT fix accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-161518.095238095" maxValue="7218998.7358063096"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-161518.095238095" maxValue="7764357.5593357198"/>
     </cacheField>
     <cacheField name="STAT_SFLDT wasted effort" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="16413265"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="16704538"/>
     </cacheField>
     <cacheField name="SFLDT_Features fix accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-49256.190476190401" maxValue="6680450.6657706304"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-49256.190476190401" maxValue="7364239.1363588599"/>
     </cacheField>
     <cacheField name="SFLDT_Features wasted effort" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="9" maxValue="9678373"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="9" maxValue="9696153"/>
+    </cacheField>
+    <cacheField name="fuzzy count" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="790483"/>
     </cacheField>
     <cacheField name="fuzzy participation SFLDT fix accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-176223.809523809" maxValue="6512197.2967111999"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-176223.809523809" maxValue="7649173.2967111999"/>
     </cacheField>
     <cacheField name="fuzzy participation SFLDT wasted effort" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="24" maxValue="15282317"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="24" maxValue="15327191"/>
     </cacheField>
     <cacheField name="fuzzy participation STAT_SFLDT fix accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-154660" maxValue="6533790.1616700199"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-154660" maxValue="7118727.8087288402"/>
     </cacheField>
     <cacheField name="fuzzy participation STAT_SFLDT wasted effort" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="16419893"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="16719904"/>
     </cacheField>
     <cacheField name="fuzzy participation SFLDT_Features fix accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-49510.476190476104" maxValue="6798565.4713635696"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-49510.476190476104" maxValue="7574944.2948929798"/>
     </cacheField>
     <cacheField name="fuzzy participation SFLDT_Features wasted effort" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="15" maxValue="9679564"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="15" maxValue="9699558"/>
     </cacheField>
     <cacheField name="average after accuracy decrease" numFmtId="0" formula="'after accuracy decrease'/count" databaseField="0"/>
     <cacheField name="average after retrain accuracy increase" numFmtId="0" formula="'after retrain accuracy increase'/count" databaseField="0"/>
@@ -19051,13 +19055,13 @@
     <cacheField name="average STAT_SFLDT wasted effort" numFmtId="0" formula="'STAT_SFLDT wasted effort'/count" databaseField="0"/>
     <cacheField name="average SFLDT_Features fix increase" numFmtId="0" formula="'SFLDT_Features fix accuracy increase'/count" databaseField="0"/>
     <cacheField name="average SFLDT_Features wasted effort" numFmtId="0" formula="'SFLDT_Features wasted effort'/count" databaseField="0"/>
-    <cacheField name="average fuzzy participation STAT_SFLDT fix increase" numFmtId="0" formula="'fuzzy participation STAT_SFLDT fix accuracy increase'/count" databaseField="0"/>
-    <cacheField name="average fuzzy participation STAT_SFLDT wasted effort" numFmtId="0" formula="'fuzzy participation STAT_SFLDT wasted effort'/count" databaseField="0"/>
-    <cacheField name="average fuzzy participation SFLDT_Features fix increase" numFmtId="0" formula="'fuzzy participation SFLDT_Features fix accuracy increase'/count" databaseField="0"/>
-    <cacheField name="average fuzzy participation SFLDT_Features wasted effort" numFmtId="0" formula="'fuzzy participation SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average fuzzy participation STAT_SFLDT fix increase" numFmtId="0" formula="'fuzzy participation STAT_SFLDT fix accuracy increase'/'fuzzy count'" databaseField="0"/>
+    <cacheField name="average fuzzy participation STAT_SFLDT wasted effort" numFmtId="0" formula="'fuzzy participation STAT_SFLDT wasted effort'/'fuzzy count'" databaseField="0"/>
+    <cacheField name="average fuzzy participation SFLDT_Features fix increase" numFmtId="0" formula="'fuzzy participation SFLDT_Features fix accuracy increase'/'fuzzy count'" databaseField="0"/>
+    <cacheField name="average fuzzy participation SFLDT_Features wasted effort" numFmtId="0" formula="'fuzzy participation SFLDT_Features wasted effort'/'fuzzy count'" databaseField="0"/>
     <cacheField name="average SFLDT fix increase" numFmtId="0" formula="'SFLDT fix accuracy increase'/count" databaseField="0"/>
-    <cacheField name="average fuzzy participation SFLDT fix increase" numFmtId="0" formula="'fuzzy participation SFLDT fix accuracy increase'/count" databaseField="0"/>
-    <cacheField name="average fuzzy participation SFLDT wasted effort" numFmtId="0" formula="'fuzzy participation SFLDT wasted effort'/count" databaseField="0"/>
+    <cacheField name="average fuzzy participation SFLDT fix increase" numFmtId="0" formula="'fuzzy participation SFLDT fix accuracy increase'/'fuzzy count'" databaseField="0"/>
+    <cacheField name="average fuzzy participation SFLDT wasted effort" numFmtId="0" formula="'fuzzy participation SFLDT wasted effort'/'fuzzy count'" databaseField="0"/>
     <cacheField name="average SFLDT wasted effort" numFmtId="0" formula="'SFLDT wasted effort'/count" databaseField="0"/>
   </cacheFields>
   <extLst>
@@ -19069,7 +19073,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="254">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="128">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -19085,12 +19089,13 @@
     <n v="5516"/>
     <n v="2809.5699287858902"/>
     <n v="3569"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="326"/>
+    <n v="1208.241429038"/>
+    <n v="4909"/>
+    <n v="1516.6088646374201"/>
+    <n v="5646"/>
+    <n v="2854.8914710450699"/>
+    <n v="3587"/>
   </r>
   <r>
     <x v="0"/>
@@ -19107,12 +19112,13 @@
     <n v="599"/>
     <n v="488.09523809523802"/>
     <n v="362"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="113"/>
+    <n v="-1433.3333333333301"/>
+    <n v="783"/>
+    <n v="-1575"/>
+    <n v="759"/>
+    <n v="708.17099567099501"/>
+    <n v="434"/>
   </r>
   <r>
     <x v="0"/>
@@ -19129,12 +19135,13 @@
     <n v="421634"/>
     <n v="68106.045940452299"/>
     <n v="255530"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="14645"/>
+    <n v="33000.184770018997"/>
+    <n v="379808"/>
+    <n v="38953.277291527404"/>
+    <n v="423105"/>
+    <n v="69157.821971029203"/>
+    <n v="255941"/>
   </r>
   <r>
     <x v="0"/>
@@ -19151,34 +19158,36 @@
     <n v="4764"/>
     <n v="2217.53246753246"/>
     <n v="2584"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="696"/>
+    <n v="-18450"/>
+    <n v="3996"/>
+    <n v="-18300"/>
+    <n v="3980"/>
+    <n v="3222.5108225108202"/>
+    <n v="2104"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <s v="numeric, numeric, numeric"/>
     <x v="0"/>
-    <n v="357752"/>
-    <n v="20801462.247590199"/>
-    <n v="-8947532.0121683907"/>
-    <n v="3831842.73710931"/>
-    <n v="1217121.2400394699"/>
-    <n v="10261020"/>
-    <n v="810612.139745555"/>
-    <n v="11138479"/>
-    <n v="1606296.24400998"/>
-    <n v="6187211"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="496783"/>
+    <n v="29312404.700420398"/>
+    <n v="-10062914.087640001"/>
+    <n v="5610594.6239017602"/>
+    <n v="1013936.33437909"/>
+    <n v="15310749"/>
+    <n v="2460596.1020097001"/>
+    <n v="16704538"/>
+    <n v="1568816.99872696"/>
+    <n v="9696153"/>
+    <n v="496783"/>
+    <n v="1311442.5752894499"/>
+    <n v="15327191"/>
+    <n v="1764966.8732074399"/>
+    <n v="16719904"/>
+    <n v="1681330.5770086499"/>
+    <n v="9699558"/>
   </r>
   <r>
     <x v="0"/>
@@ -19195,12 +19204,13 @@
     <n v="36096"/>
     <n v="22727.272727272699"/>
     <n v="17920"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="4432"/>
+    <n v="-57488.744588744499"/>
+    <n v="30752"/>
+    <n v="-56222.0779220779"/>
+    <n v="31216"/>
+    <n v="5961.9047619047496"/>
+    <n v="15360"/>
   </r>
   <r>
     <x v="0"/>
@@ -19217,12 +19227,13 @@
     <n v="6949839"/>
     <n v="1328169.8939449401"/>
     <n v="3634152"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="475236"/>
+    <n v="840769.23605985299"/>
+    <n v="6784122"/>
+    <n v="521009.89895046002"/>
+    <n v="6951355"/>
+    <n v="1164938.7009483799"/>
+    <n v="3634152"/>
   </r>
   <r>
     <x v="1"/>
@@ -19239,12 +19250,13 @@
     <n v="4740"/>
     <n v="4061.8019325741798"/>
     <n v="3256"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="313"/>
+    <n v="1819.4101599509499"/>
+    <n v="4177"/>
+    <n v="2445.3914413396001"/>
+    <n v="4855"/>
+    <n v="4296.6923499938302"/>
+    <n v="3272"/>
   </r>
   <r>
     <x v="1"/>
@@ -19261,12 +19273,13 @@
     <n v="2075"/>
     <n v="6442.4242424242402"/>
     <n v="1082"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="209"/>
+    <n v="577.92207792207796"/>
+    <n v="2107"/>
+    <n v="1556.1688311688299"/>
+    <n v="1919"/>
+    <n v="5800.3787878787798"/>
+    <n v="1010"/>
   </r>
   <r>
     <x v="1"/>
@@ -19283,12 +19296,13 @@
     <n v="395528"/>
     <n v="104883.42305039099"/>
     <n v="245303"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="13878"/>
+    <n v="61688.464193419903"/>
+    <n v="358010"/>
+    <n v="71136.873096064606"/>
+    <n v="396774"/>
+    <n v="112013.386841135"/>
+    <n v="245813"/>
   </r>
   <r>
     <x v="1"/>
@@ -19305,34 +19319,36 @@
     <n v="33884"/>
     <n v="144212.12121212101"/>
     <n v="16744"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="2376"/>
+    <n v="8775.54112554112"/>
+    <n v="22716"/>
+    <n v="17729.653679653598"/>
+    <n v="21212"/>
+    <n v="72809.956709956707"/>
+    <n v="10504"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
     <s v="numeric, numeric, numeric"/>
     <x v="0"/>
-    <n v="345619"/>
-    <n v="19736769.3489834"/>
-    <n v="-6607051.6660540104"/>
-    <n v="3869433.0441543302"/>
-    <n v="1955515.2065590699"/>
-    <n v="10144441"/>
-    <n v="1624903.72986572"/>
-    <n v="10916223"/>
-    <n v="2181797.3882031501"/>
-    <n v="6140724"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="485901"/>
+    <n v="28335474.065964501"/>
+    <n v="-7747158.2698275903"/>
+    <n v="7530138.7045316901"/>
+    <n v="1885337.8480684999"/>
+    <n v="15248578"/>
+    <n v="3190099.9562808098"/>
+    <n v="16515194"/>
+    <n v="2248373.8032974899"/>
+    <n v="9680266"/>
+    <n v="485901"/>
+    <n v="2158312.5809744098"/>
+    <n v="15321283"/>
+    <n v="2428873.8908632598"/>
+    <n v="16526161"/>
+    <n v="2470760.1135165901"/>
+    <n v="9686137"/>
   </r>
   <r>
     <x v="1"/>
@@ -19349,12 +19365,13 @@
     <n v="243008"/>
     <n v="1183510.8225108201"/>
     <n v="114816"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="24112"/>
+    <n v="117931.168831168"/>
+    <n v="209600"/>
+    <n v="196899.13419913399"/>
+    <n v="197312"/>
+    <n v="882180.08658008603"/>
+    <n v="94080"/>
   </r>
   <r>
     <x v="1"/>
@@ -19371,12 +19388,13 @@
     <n v="9552374"/>
     <n v="4925262.5082301097"/>
     <n v="4960290"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="561589"/>
+    <n v="5667950.5063605402"/>
+    <n v="9255620"/>
+    <n v="6289006.4644373199"/>
+    <n v="9551470"/>
+    <n v="5012960.0488155903"/>
+    <n v="4960290"/>
   </r>
   <r>
     <x v="2"/>
@@ -19393,12 +19411,13 @@
     <n v="5297"/>
     <n v="4290.0097452503796"/>
     <n v="3574"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="336"/>
+    <n v="2286.3342128578302"/>
+    <n v="4884"/>
+    <n v="2423.3389047832402"/>
+    <n v="5401"/>
+    <n v="4395.9098615945404"/>
+    <n v="3572"/>
   </r>
   <r>
     <x v="2"/>
@@ -19415,12 +19434,13 @@
     <n v="2295"/>
     <n v="9824.2424242424204"/>
     <n v="1178"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="237"/>
+    <n v="5057.5757575757498"/>
+    <n v="2559"/>
+    <n v="5049.2424242424204"/>
+    <n v="2295"/>
+    <n v="9470.0757575757507"/>
+    <n v="1178"/>
   </r>
   <r>
     <x v="2"/>
@@ -19437,12 +19457,13 @@
     <n v="405530"/>
     <n v="121127.81710715299"/>
     <n v="250452"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="14404"/>
+    <n v="83845.828492316898"/>
+    <n v="371765"/>
+    <n v="79778.120513978894"/>
+    <n v="406643"/>
+    <n v="126380.192337051"/>
+    <n v="250874"/>
   </r>
   <r>
     <x v="2"/>
@@ -19459,34 +19480,36 @@
     <n v="41916"/>
     <n v="225921.21212121201"/>
     <n v="20584"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="4392"/>
+    <n v="116548.484848484"/>
+    <n v="46716"/>
+    <n v="116015.151515151"/>
+    <n v="41916"/>
+    <n v="224954.545454545"/>
+    <n v="20584"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
     <s v="numeric, numeric, numeric"/>
     <x v="0"/>
-    <n v="380013"/>
-    <n v="22026886.087178499"/>
-    <n v="-4049820.0389999901"/>
-    <n v="5529572.1695740502"/>
-    <n v="2151050.4201994101"/>
-    <n v="11105251"/>
-    <n v="1810219.0208469899"/>
-    <n v="11933716"/>
-    <n v="2632671.78249727"/>
-    <n v="6746957"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="459221"/>
+    <n v="26372802.1249144"/>
+    <n v="-3239743.6239056499"/>
+    <n v="7522892.9242910296"/>
+    <n v="2744667.4013314899"/>
+    <n v="14112190"/>
+    <n v="3632554.8699035901"/>
+    <n v="15077930"/>
+    <n v="2929715.1787236901"/>
+    <n v="8768665"/>
+    <n v="459221"/>
+    <n v="3020402.8124200101"/>
+    <n v="14134768"/>
+    <n v="2834057.4863687698"/>
+    <n v="15078447"/>
+    <n v="3126298.2785575502"/>
+    <n v="8772752"/>
   </r>
   <r>
     <x v="2"/>
@@ -19503,34 +19526,36 @@
     <n v="445440"/>
     <n v="2967563.6363636302"/>
     <n v="215040"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="54352"/>
+    <n v="1544490.9090909001"/>
+    <n v="491520"/>
+    <n v="1544557.5757575701"/>
+    <n v="445440"/>
+    <n v="2965296.9696969702"/>
+    <n v="215040"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
     <s v="numeric, numeric, numeric, numeric"/>
     <x v="0"/>
-    <n v="490156"/>
-    <n v="27640948.433767799"/>
-    <n v="1360932.7981735"/>
-    <n v="8917265.0720982999"/>
-    <n v="5096186.4631799897"/>
-    <n v="6545547"/>
-    <n v="4969383.4739144696"/>
-    <n v="6693445"/>
-    <n v="5172189.0854207901"/>
-    <n v="3554097"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="659066"/>
+    <n v="38803404.198473699"/>
+    <n v="4037426.20993821"/>
+    <n v="11817435.8956277"/>
+    <n v="5384311.1690623499"/>
+    <n v="10718791"/>
+    <n v="5107247.70920859"/>
+    <n v="11055962"/>
+    <n v="5358042.4971855003"/>
+    <n v="5770666"/>
+    <n v="659066"/>
+    <n v="6846975.6622845"/>
+    <n v="10590280"/>
+    <n v="5501670.3924874403"/>
+    <n v="11059948"/>
+    <n v="5295955.9655102799"/>
+    <n v="5770666"/>
   </r>
   <r>
     <x v="3"/>
@@ -19547,12 +19572,13 @@
     <n v="5445"/>
     <n v="4955.6582368010904"/>
     <n v="3646"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="343"/>
+    <n v="2476.9311336320802"/>
+    <n v="4979"/>
+    <n v="3023.4754958829299"/>
+    <n v="5539"/>
+    <n v="5132.10131580092"/>
+    <n v="3679"/>
   </r>
   <r>
     <x v="3"/>
@@ -19569,12 +19595,13 @@
     <n v="2927"/>
     <n v="9261.6450216450194"/>
     <n v="1518"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="293"/>
+    <n v="5141.38528138528"/>
+    <n v="3323"/>
+    <n v="5159.0259740259698"/>
+    <n v="2927"/>
+    <n v="8907.4783549783497"/>
+    <n v="1518"/>
   </r>
   <r>
     <x v="3"/>
@@ -19591,12 +19618,13 @@
     <n v="414043"/>
     <n v="138982.69207833899"/>
     <n v="257449"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="14872"/>
+    <n v="90474.903566523601"/>
+    <n v="382144"/>
+    <n v="96516.333228871794"/>
+    <n v="415584"/>
+    <n v="144045.322804681"/>
+    <n v="257447"/>
   </r>
   <r>
     <x v="3"/>
@@ -19613,12 +19641,13 @@
     <n v="53708"/>
     <n v="208832.42424242399"/>
     <n v="26632"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="5576"/>
+    <n v="116680.86580086499"/>
+    <n v="60212"/>
+    <n v="118093.419913419"/>
+    <n v="53556"/>
+    <n v="209150.04329004299"/>
+    <n v="26536"/>
   </r>
   <r>
     <x v="3"/>
@@ -19635,12 +19664,13 @@
     <n v="879"/>
     <n v="-1780.9523809523801"/>
     <n v="576"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="96"/>
+    <n v="1986.6666666666599"/>
+    <n v="1041"/>
+    <n v="1986.6666666666599"/>
+    <n v="880"/>
+    <n v="-1780.9523809523801"/>
+    <n v="576"/>
   </r>
   <r>
     <x v="3"/>
@@ -19657,12 +19687,13 @@
     <n v="16097492"/>
     <n v="3231865.33608195"/>
     <n v="9441758"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="488967"/>
+    <n v="3190986.6109835599"/>
+    <n v="15032197"/>
+    <n v="3374678.4480760298"/>
+    <n v="16105717"/>
+    <n v="3430506.22152388"/>
+    <n v="9437030"/>
   </r>
   <r>
     <x v="3"/>
@@ -19679,12 +19710,13 @@
     <n v="560576"/>
     <n v="2806088.39826839"/>
     <n v="272320"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="68596"/>
+    <n v="1546039.4805194801"/>
+    <n v="621208"/>
+    <n v="1554771.0822510801"/>
+    <n v="560280"/>
+    <n v="2804092.2077922001"/>
+    <n v="272180"/>
   </r>
   <r>
     <x v="3"/>
@@ -19701,12 +19733,13 @@
     <n v="7740"/>
     <n v="-16314.285714285699"/>
     <n v="4320"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1000"/>
+    <n v="10511.4285714285"/>
+    <n v="9436"/>
+    <n v="10511.4285714285"/>
+    <n v="8952"/>
+    <n v="-19215.238095238001"/>
+    <n v="5000"/>
   </r>
   <r>
     <x v="3"/>
@@ -19723,34 +19756,36 @@
     <n v="7200"/>
     <n v="-16040.9523809523"/>
     <n v="4320"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="864"/>
+    <n v="17657.1428571428"/>
+    <n v="7506"/>
+    <n v="17657.1428571428"/>
+    <n v="7200"/>
+    <n v="-16040.9523809523"/>
+    <n v="4320"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
     <s v="numeric, numeric, numeric, numeric"/>
     <x v="0"/>
-    <n v="548977"/>
-    <n v="32074475.3741864"/>
-    <n v="5530264.6669646101"/>
-    <n v="9936030.2191564497"/>
-    <n v="5454021.2262777202"/>
-    <n v="7822946"/>
-    <n v="5536525.1482702196"/>
-    <n v="7950077"/>
-    <n v="5888771.9226850998"/>
-    <n v="4231702"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="729214"/>
+    <n v="44079013.727127597"/>
+    <n v="8136115.2551998999"/>
+    <n v="13378901.5132741"/>
+    <n v="5830131.81451301"/>
+    <n v="12245283"/>
+    <n v="5514327.2659172704"/>
+    <n v="12589192"/>
+    <n v="6139772.3932733396"/>
+    <n v="6606505"/>
+    <n v="729214"/>
+    <n v="6817618.8167608101"/>
+    <n v="12137906"/>
+    <n v="5483030.8469417002"/>
+    <n v="12591011"/>
+    <n v="6125809.2344763903"/>
+    <n v="6606505"/>
   </r>
   <r>
     <x v="4"/>
@@ -19767,12 +19802,13 @@
     <n v="5366"/>
     <n v="5302.8298819766096"/>
     <n v="3677"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="340"/>
+    <n v="2632.84156222398"/>
+    <n v="4954"/>
+    <n v="3277.4281023293001"/>
+    <n v="5437"/>
+    <n v="5332.1440034030002"/>
+    <n v="3680"/>
   </r>
   <r>
     <x v="4"/>
@@ -19789,12 +19825,13 @@
     <n v="36"/>
     <n v="-2.8571428571428501"/>
     <n v="28"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="52"/>
+    <n v="0"/>
+    <n v="36"/>
+    <n v="-2.8571428571428501"/>
+    <n v="28"/>
   </r>
   <r>
     <x v="4"/>
@@ -19811,12 +19848,13 @@
     <n v="2259"/>
     <n v="8505.1082251082207"/>
     <n v="1234"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="245"/>
+    <n v="5256.6233766233699"/>
+    <n v="2523"/>
+    <n v="5248.2900432900396"/>
+    <n v="2259"/>
+    <n v="8517.6082251082207"/>
+    <n v="1234"/>
   </r>
   <r>
     <x v="4"/>
@@ -19833,12 +19871,13 @@
     <n v="398582"/>
     <n v="151076.68306346299"/>
     <n v="246985"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="14541"/>
+    <n v="96941.401454467705"/>
+    <n v="368229"/>
+    <n v="105354.266609072"/>
+    <n v="400020"/>
+    <n v="152900.69166400901"/>
+    <n v="247421"/>
   </r>
   <r>
     <x v="4"/>
@@ -19861,6 +19900,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -19877,12 +19917,13 @@
     <n v="42042"/>
     <n v="201418.18181818101"/>
     <n v="21544"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="4504"/>
+    <n v="118811.341991341"/>
+    <n v="45188"/>
+    <n v="118312.294372294"/>
+    <n v="41532"/>
+    <n v="205694.37229437201"/>
+    <n v="21256"/>
   </r>
   <r>
     <x v="4"/>
@@ -19899,12 +19940,13 @@
     <n v="1624"/>
     <n v="-4595.23809523809"/>
     <n v="1104"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="184"/>
+    <n v="4543.8095238095202"/>
+    <n v="2072"/>
+    <n v="4543.8095238095202"/>
+    <n v="1625"/>
+    <n v="-4492.3809523809496"/>
+    <n v="1104"/>
   </r>
   <r>
     <x v="4"/>
@@ -19921,12 +19963,13 @@
     <n v="14394294"/>
     <n v="3475846.0472861002"/>
     <n v="8416104"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="449573"/>
+    <n v="3307989.2584259999"/>
+    <n v="13467772"/>
+    <n v="3470423.9192901999"/>
+    <n v="14403747"/>
+    <n v="3627621.4647957999"/>
+    <n v="8418618"/>
   </r>
   <r>
     <x v="4"/>
@@ -19943,12 +19986,13 @@
     <n v="439428"/>
     <n v="2716895.9307359299"/>
     <n v="217380"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="55264"/>
+    <n v="1552007.0995670899"/>
+    <n v="469328"/>
+    <n v="1552992.8138528101"/>
+    <n v="443960"/>
+    <n v="2715506.4069264"/>
+    <n v="219600"/>
   </r>
   <r>
     <x v="4"/>
@@ -19965,12 +20009,13 @@
     <n v="20606"/>
     <n v="-49256.190476190401"/>
     <n v="11690"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="2904"/>
+    <n v="49130.476190476104"/>
+    <n v="28104"/>
+    <n v="49711.4285714285"/>
+    <n v="25818"/>
+    <n v="-49510.476190476104"/>
+    <n v="14520"/>
   </r>
   <r>
     <x v="4"/>
@@ -19987,34 +20032,36 @@
     <n v="12456"/>
     <n v="-39308.571428571398"/>
     <n v="7920"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1584"/>
+    <n v="38794.285714285703"/>
+    <n v="14304"/>
+    <n v="38794.285714285703"/>
+    <n v="12456"/>
+    <n v="-34820.952380952302"/>
+    <n v="7920"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
     <s v="numeric, numeric, numeric, numeric"/>
     <x v="0"/>
-    <n v="553670"/>
-    <n v="32477525.8850508"/>
-    <n v="6902565.8835447105"/>
-    <n v="9974589.9912850503"/>
-    <n v="5660231.9058074104"/>
-    <n v="7961270"/>
-    <n v="5732293.63772061"/>
-    <n v="8114621"/>
-    <n v="5838254.9636768"/>
-    <n v="4329761"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="735577"/>
+    <n v="44595989.885050803"/>
+    <n v="9507868.4717800003"/>
+    <n v="13372202.2265791"/>
+    <n v="5980770.7293368196"/>
+    <n v="12461551"/>
+    <n v="6366508.6965441396"/>
+    <n v="12787689"/>
+    <n v="6599023.66955915"/>
+    <n v="6726240"/>
+    <n v="735577"/>
+    <n v="6806595.36914666"/>
+    <n v="12347734"/>
+    <n v="6351566.9909054898"/>
+    <n v="12792696"/>
+    <n v="6838405.8640138097"/>
+    <n v="6726240"/>
   </r>
   <r>
     <x v="5"/>
@@ -20031,12 +20078,13 @@
     <n v="4"/>
     <n v="45.714285714285701"/>
     <n v="12"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="4"/>
+    <n v="-48.571428571428498"/>
+    <n v="24"/>
+    <n v="-48.571428571428498"/>
+    <n v="5"/>
+    <n v="45.714285714285701"/>
+    <n v="15"/>
   </r>
   <r>
     <x v="5"/>
@@ -20053,12 +20101,13 @@
     <n v="5577"/>
     <n v="5474.2540021836703"/>
     <n v="4012"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="362"/>
+    <n v="2983.2536273831802"/>
+    <n v="5352"/>
+    <n v="3230.2336974351902"/>
+    <n v="5640"/>
+    <n v="5556.1512153762096"/>
+    <n v="4036"/>
   </r>
   <r>
     <x v="5"/>
@@ -20075,12 +20124,13 @@
     <n v="740"/>
     <n v="731.42857142857099"/>
     <n v="448"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="80"/>
+    <n v="-971.42857142857099"/>
+    <n v="780"/>
+    <n v="-971.42857142857099"/>
+    <n v="948"/>
+    <n v="914.28571428571399"/>
+    <n v="560"/>
   </r>
   <r>
     <x v="5"/>
@@ -20097,12 +20147,13 @@
     <n v="3386"/>
     <n v="9973.4415584415601"/>
     <n v="1951"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="363"/>
+    <n v="4128.7662337662296"/>
+    <n v="3612"/>
+    <n v="4162.0995670995599"/>
+    <n v="3358"/>
+    <n v="9860.9415584415601"/>
+    <n v="1951"/>
   </r>
   <r>
     <x v="5"/>
@@ -20119,12 +20170,13 @@
     <n v="424065"/>
     <n v="148601.09428376099"/>
     <n v="264965"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="15471"/>
+    <n v="105464.752925352"/>
+    <n v="389038"/>
+    <n v="103388.568196313"/>
+    <n v="425417"/>
+    <n v="152502.34448792401"/>
+    <n v="265262"/>
   </r>
   <r>
     <x v="5"/>
@@ -20141,12 +20193,13 @@
     <n v="4128"/>
     <n v="3946.6666666666601"/>
     <n v="1920"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="512"/>
+    <n v="-6217.1428571428496"/>
+    <n v="4560"/>
+    <n v="-6217.1428571428496"/>
+    <n v="6592"/>
+    <n v="5851.4285714285697"/>
+    <n v="3072"/>
   </r>
   <r>
     <x v="5"/>
@@ -20163,12 +20216,13 @@
     <n v="61778"/>
     <n v="229428.65800865801"/>
     <n v="30668"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="6485"/>
+    <n v="97236.103896103799"/>
+    <n v="65119"/>
+    <n v="97131.341991341906"/>
+    <n v="65329"/>
+    <n v="230310.56277056201"/>
+    <n v="32654"/>
   </r>
   <r>
     <x v="5"/>
@@ -20185,12 +20239,13 @@
     <n v="10071"/>
     <n v="5776.1904761904698"/>
     <n v="6306"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1051"/>
+    <n v="-4939.0476190476202"/>
+    <n v="11960"/>
+    <n v="-4939.0476190476202"/>
+    <n v="10029"/>
+    <n v="5486.6666666666597"/>
+    <n v="6306"/>
   </r>
   <r>
     <x v="5"/>
@@ -20207,12 +20262,13 @@
     <n v="15584875"/>
     <n v="3363015.3864716599"/>
     <n v="9128808"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="482855"/>
+    <n v="3440898.3079084898"/>
+    <n v="14439881"/>
+    <n v="3231443.49833387"/>
+    <n v="15588913"/>
+    <n v="3552269.5283518098"/>
+    <n v="9131095"/>
   </r>
   <r>
     <x v="5"/>
@@ -20229,12 +20285,13 @@
     <n v="5632"/>
     <n v="8167.6190476190404"/>
     <n v="2560"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="512"/>
+    <n v="-7558.0952380952303"/>
+    <n v="3776"/>
+    <n v="-7558.0952380952303"/>
+    <n v="5632"/>
+    <n v="8167.6190476190404"/>
+    <n v="2560"/>
   </r>
   <r>
     <x v="5"/>
@@ -20251,12 +20308,13 @@
     <n v="542710"/>
     <n v="2896723.5497835502"/>
     <n v="260680"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="63189"/>
+    <n v="1448301.38528138"/>
+    <n v="538266"/>
+    <n v="1453656.62337662"/>
+    <n v="538069"/>
+    <n v="2896507.3593073501"/>
+    <n v="258505"/>
   </r>
   <r>
     <x v="5"/>
@@ -20273,12 +20331,13 @@
     <n v="180560"/>
     <n v="114553.33333333299"/>
     <n v="91240"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="17813"/>
+    <n v="-117704.76190476101"/>
+    <n v="173924"/>
+    <n v="-110210.47619047599"/>
+    <n v="176562"/>
+    <n v="108240"/>
+    <n v="89065"/>
   </r>
   <r>
     <x v="5"/>
@@ -20295,34 +20354,36 @@
     <n v="46844"/>
     <n v="9090.4761904761908"/>
     <n v="28250"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="5650"/>
+    <n v="-4040"/>
+    <n v="56334"/>
+    <n v="-4040"/>
+    <n v="46844"/>
+    <n v="4960"/>
+    <n v="28250"/>
   </r>
   <r>
     <x v="5"/>
     <x v="3"/>
     <s v="numeric, numeric, numeric, numeric"/>
     <x v="0"/>
-    <n v="570480"/>
-    <n v="33631573.273770899"/>
-    <n v="3292740.1373524298"/>
-    <n v="10849203.2505178"/>
-    <n v="5814929.4539730595"/>
-    <n v="8163525"/>
-    <n v="6319803.5656339703"/>
-    <n v="8374570"/>
-    <n v="5970872.9313593898"/>
-    <n v="4462183"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="763241"/>
+    <n v="46571821.744359098"/>
+    <n v="6492208.1373524303"/>
+    <n v="14331107.956400201"/>
+    <n v="6320017.6892671799"/>
+    <n v="12968429"/>
+    <n v="6803888.0362222102"/>
+    <n v="13364512"/>
+    <n v="6692214.8137123296"/>
+    <n v="7002840"/>
+    <n v="763241"/>
+    <n v="7525806.3015651004"/>
+    <n v="12834125"/>
+    <n v="6498068.4521243405"/>
+    <n v="13371990"/>
+    <n v="6822015.2353124302"/>
+    <n v="7002840"/>
   </r>
   <r>
     <x v="6"/>
@@ -20339,12 +20400,13 @@
     <n v="5"/>
     <n v="73.3333333333333"/>
     <n v="15"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="4"/>
+    <n v="-48.571428571428498"/>
+    <n v="34"/>
+    <n v="-48.571428571428498"/>
+    <n v="6"/>
+    <n v="73.3333333333333"/>
+    <n v="18"/>
   </r>
   <r>
     <x v="6"/>
@@ -20361,12 +20423,13 @@
     <n v="5802"/>
     <n v="5314.7532702134504"/>
     <n v="4264"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="376"/>
+    <n v="2855.1243976072001"/>
+    <n v="5792"/>
+    <n v="3434.7828317006702"/>
+    <n v="5862"/>
+    <n v="5510.0875294449997"/>
+    <n v="4273"/>
   </r>
   <r>
     <x v="6"/>
@@ -20383,12 +20446,13 @@
     <n v="1018"/>
     <n v="1466.6666666666599"/>
     <n v="560"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="64"/>
+    <n v="-777.142857142857"/>
+    <n v="658"/>
+    <n v="-777.142857142857"/>
+    <n v="806"/>
+    <n v="1173.3333333333301"/>
+    <n v="448"/>
   </r>
   <r>
     <x v="6"/>
@@ -20405,12 +20469,13 @@
     <n v="3380"/>
     <n v="11018.3766233766"/>
     <n v="1949"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="357"/>
+    <n v="3728.2900432900401"/>
+    <n v="3625"/>
+    <n v="4028.2900432900401"/>
+    <n v="3367"/>
+    <n v="11313.8528138528"/>
+    <n v="1949"/>
   </r>
   <r>
     <x v="6"/>
@@ -20427,12 +20492,13 @@
     <n v="443023"/>
     <n v="144858.438828596"/>
     <n v="279726"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="16161"/>
+    <n v="100881.36552956799"/>
+    <n v="410520"/>
+    <n v="111057.115639864"/>
+    <n v="444510"/>
+    <n v="150148.76311914399"/>
+    <n v="279871"/>
   </r>
   <r>
     <x v="6"/>
@@ -20449,12 +20515,13 @@
     <n v="3328"/>
     <n v="4693.3333333333303"/>
     <n v="1536"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="512"/>
+    <n v="-6217.1428571428496"/>
+    <n v="4544"/>
+    <n v="-6217.1428571428496"/>
+    <n v="6592"/>
+    <n v="9386.6666666666606"/>
+    <n v="3072"/>
   </r>
   <r>
     <x v="6"/>
@@ -20471,12 +20538,13 @@
     <n v="62116"/>
     <n v="241715.19480519401"/>
     <n v="30898"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="6572"/>
+    <n v="95683.246753246698"/>
+    <n v="65210"/>
+    <n v="98037.056277056196"/>
+    <n v="65214"/>
+    <n v="248243.76623376599"/>
+    <n v="32608"/>
   </r>
   <r>
     <x v="6"/>
@@ -20493,12 +20561,13 @@
     <n v="10728"/>
     <n v="12180"/>
     <n v="6702"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1117"/>
+    <n v="-6508.5714285714203"/>
+    <n v="12836"/>
+    <n v="-6508.5714285714203"/>
+    <n v="10710"/>
+    <n v="11760.9523809523"/>
+    <n v="6702"/>
   </r>
   <r>
     <x v="6"/>
@@ -20515,12 +20584,13 @@
     <n v="16413265"/>
     <n v="3231782.8823308698"/>
     <n v="9678373"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="506731"/>
+    <n v="3326083.8507750002"/>
+    <n v="15282317"/>
+    <n v="3574038.4915752499"/>
+    <n v="16419893"/>
+    <n v="3417438.4921439299"/>
+    <n v="9679564"/>
   </r>
   <r>
     <x v="6"/>
@@ -20537,12 +20607,13 @@
     <n v="11264"/>
     <n v="18773.333333333299"/>
     <n v="5120"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="512"/>
+    <n v="-7558.0952380952303"/>
+    <n v="3760"/>
+    <n v="-7558.0952380952303"/>
+    <n v="5632"/>
+    <n v="11824.761904761899"/>
+    <n v="2560"/>
   </r>
   <r>
     <x v="6"/>
@@ -20559,12 +20630,13 @@
     <n v="576029"/>
     <n v="3043314.1991341901"/>
     <n v="276555"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="64139"/>
+    <n v="1435068.05194805"/>
+    <n v="544047"/>
+    <n v="1440748.05194805"/>
+    <n v="543273"/>
+    <n v="3012289.4372294298"/>
+    <n v="260855"/>
   </r>
   <r>
     <x v="6"/>
@@ -20581,12 +20653,13 @@
     <n v="206603"/>
     <n v="241758.095238095"/>
     <n v="105845"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="19577"/>
+    <n v="-162373.33333333299"/>
+    <n v="193253"/>
+    <n v="-154660"/>
+    <n v="192471"/>
+    <n v="224262.85714285701"/>
+    <n v="97885"/>
   </r>
   <r>
     <x v="6"/>
@@ -20603,34 +20676,36 @@
     <n v="52199"/>
     <n v="39001.904761904698"/>
     <n v="31535"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="6307"/>
+    <n v="-18213.333333333299"/>
+    <n v="63508"/>
+    <n v="-18213.333333333299"/>
+    <n v="52199"/>
+    <n v="36392.380952380903"/>
+    <n v="31535"/>
   </r>
   <r>
     <x v="6"/>
     <x v="3"/>
     <s v="numeric, numeric, numeric, numeric"/>
     <x v="0"/>
-    <n v="584132"/>
-    <n v="34435552.696423702"/>
-    <n v="5479407.2969845496"/>
-    <n v="13486834.3522765"/>
-    <n v="6122954.2611528896"/>
-    <n v="8334591"/>
-    <n v="6707065.4005251098"/>
-    <n v="8503251"/>
-    <n v="6207490.5403654603"/>
-    <n v="4526013"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="786160"/>
+    <n v="48103573.872894302"/>
+    <n v="9638292.23816102"/>
+    <n v="17123177.411100101"/>
+    <n v="6752848.3787999498"/>
+    <n v="13371875"/>
+    <n v="7251815.2828780599"/>
+    <n v="13690459"/>
+    <n v="7007537.59918899"/>
+    <n v="7187743"/>
+    <n v="786160"/>
+    <n v="7385305.1032596603"/>
+    <n v="13200774"/>
+    <n v="6862829.3667166997"/>
+    <n v="13689171"/>
+    <n v="7088135.8080709903"/>
+    <n v="7187743"/>
   </r>
   <r>
     <x v="7"/>
@@ -20647,12 +20722,13 @@
     <n v="7"/>
     <n v="1.9047619047619"/>
     <n v="24"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="4"/>
+    <n v="-48.571428571428498"/>
+    <n v="53"/>
+    <n v="-48.571428571428498"/>
+    <n v="4"/>
+    <n v="1.9047619047619"/>
+    <n v="24"/>
   </r>
   <r>
     <x v="7"/>
@@ -20669,12 +20745,13 @@
     <n v="5873"/>
     <n v="5635.6331155207199"/>
     <n v="4281"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="384"/>
+    <n v="2767.4268569702699"/>
+    <n v="5823"/>
+    <n v="3382.2760739774399"/>
+    <n v="5917"/>
+    <n v="5670.3861866682901"/>
+    <n v="4276"/>
   </r>
   <r>
     <x v="7"/>
@@ -20691,12 +20768,13 @@
     <n v="1247"/>
     <n v="45.714285714285701"/>
     <n v="672"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="96"/>
+    <n v="-1165.7142857142801"/>
+    <n v="1086"/>
+    <n v="-1146.6666666666599"/>
+    <n v="1238"/>
+    <n v="45.714285714285701"/>
+    <n v="672"/>
   </r>
   <r>
     <x v="7"/>
@@ -20713,12 +20791,13 @@
     <n v="3338"/>
     <n v="9885.4220779220796"/>
     <n v="1946"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="358"/>
+    <n v="3955.6709956709901"/>
+    <n v="3686"/>
+    <n v="4313.1709956709901"/>
+    <n v="3292"/>
+    <n v="9733.3982683982704"/>
+    <n v="1946"/>
   </r>
   <r>
     <x v="7"/>
@@ -20735,12 +20814,13 @@
     <n v="443949"/>
     <n v="154136.74741373301"/>
     <n v="279773"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="16285"/>
+    <n v="94698.701135447001"/>
+    <n v="411427"/>
+    <n v="107311.021677785"/>
+    <n v="445146"/>
+    <n v="154725.51075626799"/>
+    <n v="279593"/>
   </r>
   <r>
     <x v="7"/>
@@ -20757,12 +20837,13 @@
     <n v="9984"/>
     <n v="365.71428571428601"/>
     <n v="4608"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="768"/>
+    <n v="-9325.7142857142808"/>
+    <n v="7104"/>
+    <n v="-9020.9523809523798"/>
+    <n v="9984"/>
+    <n v="365.71428571428601"/>
+    <n v="4608"/>
   </r>
   <r>
     <x v="7"/>
@@ -20779,12 +20860,13 @@
     <n v="69757"/>
     <n v="218772.38095237999"/>
     <n v="35068"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="7002"/>
+    <n v="96488.484848484804"/>
+    <n v="69360"/>
+    <n v="100409.675324675"/>
+    <n v="69663"/>
+    <n v="218132.85714285701"/>
+    <n v="35068"/>
   </r>
   <r>
     <x v="7"/>
@@ -20801,12 +20883,13 @@
     <n v="10758"/>
     <n v="2793.3333333333298"/>
     <n v="6744"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1124"/>
+    <n v="-2049.5238095238101"/>
+    <n v="12652"/>
+    <n v="-1330.4761904761899"/>
+    <n v="10746"/>
+    <n v="2379.0476190476202"/>
+    <n v="6744"/>
   </r>
   <r>
     <x v="7"/>
@@ -20823,12 +20906,13 @@
     <n v="16377758"/>
     <n v="3373287.32124223"/>
     <n v="9638640"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="506419"/>
+    <n v="3122283.93837468"/>
+    <n v="15227010"/>
+    <n v="3483061.2124113599"/>
+    <n v="16382046"/>
+    <n v="3439868.28372342"/>
+    <n v="9633532"/>
   </r>
   <r>
     <x v="7"/>
@@ -20845,12 +20929,13 @@
     <n v="22528"/>
     <n v="975.23809523809598"/>
     <n v="10240"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="2048"/>
+    <n v="-24868.571428571398"/>
+    <n v="14464"/>
+    <n v="-23649.523809523798"/>
+    <n v="22528"/>
+    <n v="975.23809523809598"/>
+    <n v="10240"/>
   </r>
   <r>
     <x v="7"/>
@@ -20867,12 +20952,13 @@
     <n v="642071"/>
     <n v="2861072.0779220699"/>
     <n v="307275"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="73487"/>
+    <n v="1375585.19480519"/>
+    <n v="622582"/>
+    <n v="1397845.19480519"/>
+    <n v="642041"/>
+    <n v="2854173.0303030298"/>
+    <n v="307275"/>
   </r>
   <r>
     <x v="7"/>
@@ -20889,12 +20975,13 @@
     <n v="242062"/>
     <n v="81729.523809523802"/>
     <n v="125585"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="25117"/>
+    <n v="-106159.04761904701"/>
+    <n v="242527"/>
+    <n v="-82218.095238095193"/>
+    <n v="242000"/>
+    <n v="75794.285714285696"/>
+    <n v="125585"/>
   </r>
   <r>
     <x v="7"/>
@@ -20911,34 +20998,36 @@
     <n v="55658"/>
     <n v="13700"/>
     <n v="33295"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="6659"/>
+    <n v="13939.9999999999"/>
+    <n v="64004"/>
+    <n v="19137.1428571428"/>
+    <n v="55656"/>
+    <n v="10906.666666666601"/>
+    <n v="33295"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <s v="numeric, numeric, numeric, numeric"/>
     <x v="0"/>
-    <n v="568160"/>
-    <n v="33366541.493794799"/>
-    <n v="7710795.1261024298"/>
-    <n v="13139404.8222649"/>
-    <n v="6129663.6691118898"/>
-    <n v="8164358"/>
-    <n v="6649971.3848278103"/>
-    <n v="8337940"/>
-    <n v="6313123.79118188"/>
-    <n v="4431481"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="779593"/>
+    <n v="47752876.787912399"/>
+    <n v="10839570.890808299"/>
+    <n v="16943710.939911999"/>
+    <n v="6696325.5514648296"/>
+    <n v="13456875"/>
+    <n v="7240241.2671807501"/>
+    <n v="13794020"/>
+    <n v="7065971.3205936402"/>
+    <n v="7217587"/>
+    <n v="779593"/>
+    <n v="7331549.9378001802"/>
+    <n v="13286606"/>
+    <n v="6898436.2118982105"/>
+    <n v="13802711"/>
+    <n v="7243754.1630774802"/>
+    <n v="7217587"/>
   </r>
   <r>
     <x v="8"/>
@@ -20955,12 +21044,13 @@
     <n v="6"/>
     <n v="0.952380952380949"/>
     <n v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="3"/>
+    <n v="-40"/>
+    <n v="30"/>
+    <n v="-40"/>
+    <n v="6"/>
+    <n v="0.952380952380949"/>
+    <n v="18"/>
   </r>
   <r>
     <x v="8"/>
@@ -20977,12 +21067,13 @@
     <n v="5817"/>
     <n v="6016.2239918547402"/>
     <n v="4256"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="390"/>
+    <n v="2940.9152989017298"/>
+    <n v="5744"/>
+    <n v="3490.3670424888101"/>
+    <n v="5861"/>
+    <n v="6021.4192616598202"/>
+    <n v="4279"/>
   </r>
   <r>
     <x v="8"/>
@@ -20999,12 +21090,13 @@
     <n v="941"/>
     <n v="68.571428571428598"/>
     <n v="546"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="78"/>
+    <n v="-1011.42857142857"/>
+    <n v="742"/>
+    <n v="-971.42857142857099"/>
+    <n v="929"/>
+    <n v="68.571428571428598"/>
+    <n v="546"/>
   </r>
   <r>
     <x v="8"/>
@@ -21021,12 +21113,13 @@
     <n v="3960"/>
     <n v="10140.6168831168"/>
     <n v="2337"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="443"/>
+    <n v="4238.9935064934998"/>
+    <n v="4479"/>
+    <n v="4058.6580086580002"/>
+    <n v="3937"/>
+    <n v="10015.974025973999"/>
+    <n v="2337"/>
   </r>
   <r>
     <x v="8"/>
@@ -21043,12 +21136,13 @@
     <n v="441663"/>
     <n v="165758.15838972499"/>
     <n v="280070"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="16359"/>
+    <n v="100988.401563846"/>
+    <n v="411154"/>
+    <n v="111394.36639977799"/>
+    <n v="442771"/>
+    <n v="166704.502841423"/>
+    <n v="280270"/>
   </r>
   <r>
     <x v="8"/>
@@ -21065,12 +21159,13 @@
     <n v="8422"/>
     <n v="822.857142857143"/>
     <n v="3960"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="660"/>
+    <n v="-8400"/>
+    <n v="5465"/>
+    <n v="-7851.4285714285697"/>
+    <n v="8420"/>
+    <n v="822.857142857143"/>
+    <n v="3960"/>
   </r>
   <r>
     <x v="8"/>
@@ -21087,12 +21182,13 @@
     <n v="80502"/>
     <n v="227967.09956709901"/>
     <n v="41808"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="8664"/>
+    <n v="94965.584415584395"/>
+    <n v="84134"/>
+    <n v="96258.257575757496"/>
+    <n v="80365"/>
+    <n v="226104.004329004"/>
+    <n v="41808"/>
   </r>
   <r>
     <x v="8"/>
@@ -21109,12 +21205,13 @@
     <n v="10833"/>
     <n v="1668.57142857142"/>
     <n v="7014"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1169"/>
+    <n v="-4377.1428571428496"/>
+    <n v="13211"/>
+    <n v="-3740.9523809523798"/>
+    <n v="10819"/>
+    <n v="900"/>
+    <n v="7014"/>
   </r>
   <r>
     <x v="8"/>
@@ -21131,12 +21228,13 @@
     <n v="16163418"/>
     <n v="3640121.8422945798"/>
     <n v="9575573"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="504508"/>
+    <n v="3294956.9339622702"/>
+    <n v="15172359"/>
+    <n v="3630255.3550481"/>
+    <n v="16167814"/>
+    <n v="3764186.33430538"/>
+    <n v="9577034"/>
   </r>
   <r>
     <x v="8"/>
@@ -21153,12 +21251,13 @@
     <n v="20140"/>
     <n v="2742.8571428571399"/>
     <n v="9160"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1832"/>
+    <n v="-23017.1428571428"/>
+    <n v="12439"/>
+    <n v="-21099.0476190476"/>
+    <n v="20140"/>
+    <n v="2742.8571428571399"/>
+    <n v="9160"/>
   </r>
   <r>
     <x v="8"/>
@@ -21175,12 +21274,13 @@
     <n v="768803"/>
     <n v="2930430.6493506399"/>
     <n v="376795"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="92511"/>
+    <n v="1353419.5670995601"/>
+    <n v="778781"/>
+    <n v="1375664.71861471"/>
+    <n v="768777"/>
+    <n v="2922624.93506493"/>
+    <n v="376795"/>
   </r>
   <r>
     <x v="8"/>
@@ -21197,12 +21297,13 @@
     <n v="250505"/>
     <n v="69790.476190476198"/>
     <n v="132195"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="26439"/>
+    <n v="-176223.809523809"/>
+    <n v="254622"/>
+    <n v="-148046.66666666599"/>
+    <n v="250543"/>
+    <n v="60649.523809523802"/>
+    <n v="132195"/>
   </r>
   <r>
     <x v="8"/>
@@ -21219,34 +21320,36 @@
     <n v="57265"/>
     <n v="3454.2857142857101"/>
     <n v="35590"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="7118"/>
+    <n v="2112.38095238094"/>
+    <n v="69348"/>
+    <n v="5912.3809523809496"/>
+    <n v="57258"/>
+    <n v="-3029.5238095238001"/>
+    <n v="35590"/>
   </r>
   <r>
     <x v="8"/>
     <x v="3"/>
     <s v="numeric, numeric, numeric, numeric"/>
     <x v="0"/>
-    <n v="581083"/>
-    <n v="34121816.177750804"/>
-    <n v="6288317.1943514403"/>
-    <n v="13588035.141662501"/>
-    <n v="6288782.3085302999"/>
-    <n v="8230863"/>
-    <n v="6910525.6535673598"/>
-    <n v="8429221"/>
-    <n v="6680450.6657706304"/>
-    <n v="4479338"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="790483"/>
+    <n v="48355862.530691899"/>
+    <n v="10447195.547292599"/>
+    <n v="17686332.788721301"/>
+    <n v="6852772.4261773601"/>
+    <n v="13461255"/>
+    <n v="7506214.8300379496"/>
+    <n v="13810869"/>
+    <n v="7364239.1363588599"/>
+    <n v="7239534"/>
+    <n v="790483"/>
+    <n v="7649173.2967111999"/>
+    <n v="13297963"/>
+    <n v="7118727.8087288402"/>
+    <n v="13812046"/>
+    <n v="7574944.2948929798"/>
+    <n v="7239534"/>
   </r>
   <r>
     <x v="9"/>
@@ -21263,12 +21366,13 @@
     <n v="73"/>
     <n v="-12.5"/>
     <n v="54"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="6"/>
+    <n v="-40"/>
+    <n v="123"/>
+    <n v="-52.5"/>
+    <n v="72"/>
+    <n v="-37.499999999999901"/>
+    <n v="60"/>
   </r>
   <r>
     <x v="9"/>
@@ -21285,12 +21389,13 @@
     <n v="5624"/>
     <n v="6028.9141427838304"/>
     <n v="4087"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="384"/>
+    <n v="3082.5904864071699"/>
+    <n v="5541"/>
+    <n v="3660.0560136132499"/>
+    <n v="5713"/>
+    <n v="6191.6581840707104"/>
+    <n v="4088"/>
   </r>
   <r>
     <x v="9"/>
@@ -21307,12 +21412,13 @@
     <n v="2098"/>
     <n v="-134.76190476190399"/>
     <n v="1205"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="131"/>
+    <n v="-954.28571428571399"/>
+    <n v="2212"/>
+    <n v="-1178.0952380952299"/>
+    <n v="2086"/>
+    <n v="-484.76190476190402"/>
+    <n v="1205"/>
   </r>
   <r>
     <x v="9"/>
@@ -21329,12 +21435,13 @@
     <n v="3490"/>
     <n v="10199.707792207701"/>
     <n v="2050"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="406"/>
+    <n v="3888.5281385281301"/>
+    <n v="3438"/>
+    <n v="4528.64718614718"/>
+    <n v="3465"/>
+    <n v="10199.707792207701"/>
+    <n v="2050"/>
   </r>
   <r>
     <x v="9"/>
@@ -21351,12 +21458,13 @@
     <n v="429382"/>
     <n v="166920.56933448999"/>
     <n v="273062"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="16066"/>
+    <n v="99882.670567585694"/>
+    <n v="401868"/>
+    <n v="111778.516277028"/>
+    <n v="430560"/>
+    <n v="175799.21947916399"/>
+    <n v="273199"/>
   </r>
   <r>
     <x v="9"/>
@@ -21373,12 +21481,13 @@
     <n v="12899"/>
     <n v="224.76190476190399"/>
     <n v="6576"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="904"/>
+    <n v="-8045.7142857142799"/>
+    <n v="11456"/>
+    <n v="-8732.3809523809505"/>
+    <n v="12891"/>
+    <n v="-975.23809523809405"/>
+    <n v="6576"/>
   </r>
   <r>
     <x v="9"/>
@@ -21395,12 +21504,13 @@
     <n v="69541"/>
     <n v="229987.85714285701"/>
     <n v="35406"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="7469"/>
+    <n v="92570.2705627705"/>
+    <n v="64862"/>
+    <n v="99106.580086579997"/>
+    <n v="69429"/>
+    <n v="229957.38095237999"/>
+    <n v="35406"/>
   </r>
   <r>
     <x v="9"/>
@@ -21417,34 +21527,36 @@
     <n v="10773"/>
     <n v="873.33333333333405"/>
     <n v="6846"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1141"/>
+    <n v="-3981.9047619047601"/>
+    <n v="12925"/>
+    <n v="-2278.0952380952299"/>
+    <n v="10765"/>
+    <n v="741.90476190476295"/>
+    <n v="6846"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <s v="numeric, numeric, numeric"/>
     <x v="0"/>
-    <n v="407817"/>
-    <n v="24017182.559981499"/>
-    <n v="2651818.0064030602"/>
-    <n v="9111120.7612795606"/>
-    <n v="2396187.7666897601"/>
-    <n v="11620921"/>
-    <n v="3045718.3617451601"/>
-    <n v="12390746"/>
-    <n v="3566855.1320033101"/>
-    <n v="7150408"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="493827"/>
+    <n v="28762763.692056999"/>
+    <n v="2599311.40262947"/>
+    <n v="11642342.4593927"/>
+    <n v="2725609.4648029702"/>
+    <n v="14909341"/>
+    <n v="4930616.4749527099"/>
+    <n v="15768488"/>
+    <n v="3843605.1320033101"/>
+    <n v="9342651"/>
+    <n v="493827"/>
+    <n v="3262297.0327355498"/>
+    <n v="14807029"/>
+    <n v="3605219.9029577798"/>
+    <n v="15769265"/>
+    <n v="4273783.4513032502"/>
+    <n v="9343936"/>
   </r>
   <r>
     <x v="9"/>
@@ -21461,12 +21573,13 @@
     <n v="21636"/>
     <n v="4525.7142857142799"/>
     <n v="9840"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1968"/>
+    <n v="-24182.857142857101"/>
+    <n v="14208"/>
+    <n v="-21306.666666666599"/>
+    <n v="21636"/>
+    <n v="4525.7142857142799"/>
+    <n v="9840"/>
   </r>
   <r>
     <x v="9"/>
@@ -21483,12 +21596,13 @@
     <n v="635758"/>
     <n v="2961369.6969696898"/>
     <n v="306215"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="75067"/>
+    <n v="1348876.1471861401"/>
+    <n v="589146"/>
+    <n v="1378644.2424242401"/>
+    <n v="635629"/>
+    <n v="2960971.6017315998"/>
+    <n v="306215"/>
   </r>
   <r>
     <x v="9"/>
@@ -21505,12 +21619,13 @@
     <n v="244313"/>
     <n v="52846.666666666599"/>
     <n v="129170"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="25834"/>
+    <n v="-161360"/>
+    <n v="249339"/>
+    <n v="-112988.571428571"/>
+    <n v="244279"/>
+    <n v="50390.476190476104"/>
+    <n v="129170"/>
   </r>
   <r>
     <x v="9"/>
@@ -21527,34 +21642,36 @@
     <n v="58077"/>
     <n v="1713.3333333333301"/>
     <n v="34380"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="6876"/>
+    <n v="5792.3809523809396"/>
+    <n v="66261"/>
+    <n v="20201.904761904701"/>
+    <n v="58082"/>
+    <n v="43.809523809527697"/>
+    <n v="34380"/>
   </r>
   <r>
     <x v="9"/>
     <x v="3"/>
     <s v="numeric, numeric, numeric, numeric"/>
     <x v="0"/>
-    <n v="575677"/>
-    <n v="33694454.013492003"/>
-    <n v="8125164.0167890796"/>
-    <n v="13832316.9130284"/>
-    <n v="6213936.4578215303"/>
-    <n v="8117935"/>
-    <n v="7110464.6695587197"/>
-    <n v="8318921"/>
-    <n v="6412559.6836941699"/>
-    <n v="4418724"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="770631"/>
+    <n v="46826325.072315499"/>
+    <n v="11219543.781494901"/>
+    <n v="17779116.4424401"/>
+    <n v="6775391.5166450599"/>
+    <n v="12975519"/>
+    <n v="7670056.9048528299"/>
+    <n v="13295703"/>
+    <n v="7136684.3895765198"/>
+    <n v="6989357"/>
+    <n v="770631"/>
+    <n v="7474881.1961028501"/>
+    <n v="12829035"/>
+    <n v="6981266.09521857"/>
+    <n v="13300790"/>
+    <n v="7373651.4501600899"/>
+    <n v="6989357"/>
   </r>
   <r>
     <x v="10"/>
@@ -21571,12 +21688,13 @@
     <n v="7"/>
     <n v="0"/>
     <n v="24"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="4"/>
+    <n v="-48.571428571428498"/>
+    <n v="58"/>
+    <n v="-48.571428571428498"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="24"/>
   </r>
   <r>
     <x v="10"/>
@@ -21593,12 +21711,13 @@
     <n v="5757"/>
     <n v="6005.4037433716503"/>
     <n v="4169"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="383"/>
+    <n v="3140.2732185831601"/>
+    <n v="5701"/>
+    <n v="3604.8163393580198"/>
+    <n v="5821"/>
+    <n v="6099.7187569310299"/>
+    <n v="4175"/>
   </r>
   <r>
     <x v="10"/>
@@ -21615,12 +21734,13 @@
     <n v="1105"/>
     <n v="0"/>
     <n v="672"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="96"/>
+    <n v="-1165.7142857142801"/>
+    <n v="1168"/>
+    <n v="-1067.61904761904"/>
+    <n v="1103"/>
+    <n v="0"/>
+    <n v="672"/>
   </r>
   <r>
     <x v="10"/>
@@ -21637,12 +21757,13 @@
     <n v="3907"/>
     <n v="10267.196969696901"/>
     <n v="2297"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="421"/>
+    <n v="4444.9567099567103"/>
+    <n v="4150"/>
+    <n v="4624.0151515151501"/>
+    <n v="3878"/>
+    <n v="10267.196969696901"/>
+    <n v="2297"/>
   </r>
   <r>
     <x v="10"/>
@@ -21659,12 +21780,13 @@
     <n v="428175"/>
     <n v="168531.55743606499"/>
     <n v="272043"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="15977"/>
+    <n v="103254.984766332"/>
+    <n v="400278"/>
+    <n v="110382.578894751"/>
+    <n v="429240"/>
+    <n v="176856.64948632801"/>
+    <n v="272180"/>
   </r>
   <r>
     <x v="10"/>
@@ -21681,12 +21803,13 @@
     <n v="9876"/>
     <n v="0"/>
     <n v="4608"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="768"/>
+    <n v="-9325.7142857142808"/>
+    <n v="7552"/>
+    <n v="-7920"/>
+    <n v="9876"/>
+    <n v="0"/>
+    <n v="4608"/>
   </r>
   <r>
     <x v="10"/>
@@ -21703,12 +21826,13 @@
     <n v="80393"/>
     <n v="230025.86580086499"/>
     <n v="41724"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="8474"/>
+    <n v="99351.515151515094"/>
+    <n v="80151"/>
+    <n v="103085.757575757"/>
+    <n v="80404"/>
+    <n v="229945.86580086499"/>
+    <n v="41724"/>
   </r>
   <r>
     <x v="10"/>
@@ -21725,34 +21849,36 @@
     <n v="10114"/>
     <n v="-3127.61904761904"/>
     <n v="6456"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1076"/>
+    <n v="-1089.5238095238101"/>
+    <n v="12267"/>
+    <n v="-160.95238095238099"/>
+    <n v="10134"/>
+    <n v="-3127.61904761904"/>
+    <n v="6456"/>
   </r>
   <r>
     <x v="10"/>
     <x v="2"/>
     <s v="numeric, numeric, numeric"/>
     <x v="0"/>
-    <n v="402301"/>
-    <n v="23696481.303725801"/>
-    <n v="3978533.9140268802"/>
-    <n v="9710767.06173761"/>
-    <n v="2365346.0813494199"/>
-    <n v="11393911"/>
-    <n v="3031905.33150016"/>
-    <n v="12151915"/>
-    <n v="3624701.7474298798"/>
-    <n v="7030251"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="486907"/>
+    <n v="28341965.26599"/>
+    <n v="5722305.6121400902"/>
+    <n v="12186659.5145678"/>
+    <n v="2810696.0813494199"/>
+    <n v="14616660"/>
+    <n v="4912389.2937643202"/>
+    <n v="15498953"/>
+    <n v="3975003.6342223398"/>
+    <n v="9186316"/>
+    <n v="486907"/>
+    <n v="3372631.8061524699"/>
+    <n v="14515880"/>
+    <n v="3560973.51376537"/>
+    <n v="15502546"/>
+    <n v="4399651.7000295101"/>
+    <n v="9187695"/>
   </r>
   <r>
     <x v="10"/>
@@ -21769,12 +21895,13 @@
     <n v="22528"/>
     <n v="0"/>
     <n v="10240"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="2048"/>
+    <n v="-24868.571428571398"/>
+    <n v="15360"/>
+    <n v="-19820.952380952302"/>
+    <n v="22528"/>
+    <n v="0"/>
+    <n v="10240"/>
   </r>
   <r>
     <x v="10"/>
@@ -21791,12 +21918,13 @@
     <n v="770189"/>
     <n v="2966397.8354978301"/>
     <n v="376630"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="91838"/>
+    <n v="1394366.32034632"/>
+    <n v="750594"/>
+    <n v="1419626.1471861401"/>
+    <n v="771384"/>
+    <n v="2965777.8354978301"/>
+    <n v="376630"/>
   </r>
   <r>
     <x v="10"/>
@@ -21813,12 +21941,13 @@
     <n v="226352"/>
     <n v="-25495.238095238099"/>
     <n v="120510"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="24102"/>
+    <n v="-94533.333333333299"/>
+    <n v="233649"/>
+    <n v="-53933.333333333299"/>
+    <n v="226381"/>
+    <n v="-27448.571428571398"/>
+    <n v="120510"/>
   </r>
   <r>
     <x v="10"/>
@@ -21835,2778 +21964,7 @@
     <n v="53195"/>
     <n v="-29690.4761904761"/>
     <n v="32005"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="584808"/>
-    <n v="34385844.184330702"/>
-    <n v="8369957.1536858901"/>
-    <n v="15072482.759619899"/>
-    <n v="6227787.1874559801"/>
-    <n v="8349202"/>
-    <n v="7218998.7358063096"/>
-    <n v="8505366"/>
-    <n v="6545817.3136682501"/>
-    <n v="4515246"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="numeric"/>
-    <x v="0"/>
-    <n v="326"/>
-    <n v="20447.282706512899"/>
-    <n v="-2925.1332489614902"/>
-    <n v="3266.4600821000199"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1208.241429038"/>
-    <n v="4909"/>
-    <n v="1516.6088646374201"/>
-    <n v="5646"/>
-    <n v="2854.8914710450699"/>
-    <n v="3587"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="113"/>
-    <n v="7597.2943722943701"/>
-    <n v="-1499.6753246753201"/>
-    <n v="-1448.4848484848401"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-1433.3333333333301"/>
-    <n v="783"/>
-    <n v="-1575"/>
-    <n v="759"/>
-    <n v="708.17099567099501"/>
-    <n v="434"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
-    <x v="0"/>
-    <n v="14645"/>
-    <n v="895470.46250280505"/>
-    <n v="-258900.62839272601"/>
-    <n v="156228.77022453601"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="33000.184770018997"/>
-    <n v="379808"/>
-    <n v="38953.277291527404"/>
-    <n v="423105"/>
-    <n v="69157.821971029203"/>
-    <n v="255941"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="696"/>
-    <n v="48387.229437229398"/>
-    <n v="-15703.896103896101"/>
-    <n v="-17873.484848484801"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-18450"/>
-    <n v="3996"/>
-    <n v="-18300"/>
-    <n v="3980"/>
-    <n v="3222.5108225108202"/>
-    <n v="2104"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="357752"/>
-    <n v="20801462.247590199"/>
-    <n v="-8947532.0121683907"/>
-    <n v="3831842.73710931"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="187062.386610213"/>
-    <n v="10270984"/>
-    <n v="126423.476981031"/>
-    <n v="11140340"/>
-    <n v="1575223.97323507"/>
-    <n v="6188198"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="4432"/>
-    <n v="253291.34199134199"/>
-    <n v="-121329.437229437"/>
-    <n v="-56768.398268398203"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-57488.744588744499"/>
-    <n v="30752"/>
-    <n v="-56222.0779220779"/>
-    <n v="31216"/>
-    <n v="5961.9047619047496"/>
-    <n v="15360"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="475236"/>
-    <n v="26887392.8712046"/>
-    <n v="5492497.2927764999"/>
-    <n v="5653848.6260933597"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="840769.23605985299"/>
-    <n v="6784122"/>
-    <n v="521009.89895046002"/>
-    <n v="6951355"/>
-    <n v="1164938.7009483799"/>
-    <n v="3634152"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="numeric"/>
-    <x v="0"/>
-    <n v="313"/>
-    <n v="19233.371459011902"/>
-    <n v="-1640.25090512004"/>
-    <n v="4078.9347476324801"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1819.4101599509499"/>
-    <n v="4177"/>
-    <n v="2445.3914413396001"/>
-    <n v="4855"/>
-    <n v="4296.6923499938302"/>
-    <n v="3272"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="209"/>
-    <n v="10785.606060606"/>
-    <n v="5991.6666666666597"/>
-    <n v="2338.6363636363599"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="577.92207792207796"/>
-    <n v="2107"/>
-    <n v="1556.1688311688299"/>
-    <n v="1919"/>
-    <n v="5800.3787878787798"/>
-    <n v="1010"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
-    <x v="0"/>
-    <n v="13878"/>
-    <n v="834718.78470617102"/>
-    <n v="-185798.029213223"/>
-    <n v="196779.57774248399"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="61688.464193419903"/>
-    <n v="358010"/>
-    <n v="71136.873096064606"/>
-    <n v="396774"/>
-    <n v="112013.386841135"/>
-    <n v="245813"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="2376"/>
-    <n v="127721.861471861"/>
-    <n v="68146.969696969696"/>
-    <n v="26673.8636363636"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="8775.54112554112"/>
-    <n v="22716"/>
-    <n v="17729.653679653598"/>
-    <n v="21212"/>
-    <n v="72809.956709956707"/>
-    <n v="10504"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="345619"/>
-    <n v="19736769.3489834"/>
-    <n v="-6607051.6660540104"/>
-    <n v="3869433.0441543302"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="676894.65644611605"/>
-    <n v="10184441"/>
-    <n v="878578.60784439195"/>
-    <n v="10914163"/>
-    <n v="2259715.77389395"/>
-    <n v="6143665"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="24112"/>
-    <n v="1138008.6580086499"/>
-    <n v="809749.78354978305"/>
-    <n v="385249.67532467499"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="117931.168831168"/>
-    <n v="209600"/>
-    <n v="196899.13419913399"/>
-    <n v="197312"/>
-    <n v="882180.08658008603"/>
-    <n v="94080"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="561589"/>
-    <n v="32445178.829754401"/>
-    <n v="4032149.8918022602"/>
-    <n v="9616512.0376763009"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5667950.5063605402"/>
-    <n v="9255620"/>
-    <n v="6289006.4644373199"/>
-    <n v="9551470"/>
-    <n v="5012960.0488155903"/>
-    <n v="4960290"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="numeric"/>
-    <x v="0"/>
-    <n v="336"/>
-    <n v="20685.816629510799"/>
-    <n v="643.35940177673899"/>
-    <n v="5162.5731864138697"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="2286.3342128578302"/>
-    <n v="4884"/>
-    <n v="2423.3389047832402"/>
-    <n v="5401"/>
-    <n v="4395.9098615945404"/>
-    <n v="3572"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="237"/>
-    <n v="9525"/>
-    <n v="9979.5454545454504"/>
-    <n v="6516.5584415584399"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5057.5757575757498"/>
-    <n v="2559"/>
-    <n v="5049.2424242424204"/>
-    <n v="2295"/>
-    <n v="9470.0757575757507"/>
-    <n v="1178"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
-    <x v="0"/>
-    <n v="14404"/>
-    <n v="868066.78920369898"/>
-    <n v="-59049.267404298997"/>
-    <n v="227213.74294902699"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="83845.828492316898"/>
-    <n v="371765"/>
-    <n v="79778.120513978894"/>
-    <n v="406643"/>
-    <n v="126380.192337051"/>
-    <n v="250874"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="4392"/>
-    <n v="150493.93939393901"/>
-    <n v="223015.151515151"/>
-    <n v="140814.44805194801"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="116548.484848484"/>
-    <n v="46716"/>
-    <n v="116015.151515151"/>
-    <n v="41916"/>
-    <n v="224954.545454545"/>
-    <n v="20584"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="380013"/>
-    <n v="22026886.087178499"/>
-    <n v="-4049820.0389999901"/>
-    <n v="5529572.1695740502"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1226999.0388351099"/>
-    <n v="11104570"/>
-    <n v="1018047.10901028"/>
-    <n v="11928691"/>
-    <n v="2804773.7502556602"/>
-    <n v="6749341"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="54352"/>
-    <n v="1772393.9393939299"/>
-    <n v="2913593.9393939301"/>
-    <n v="1823552.5974025901"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1544490.9090909001"/>
-    <n v="491520"/>
-    <n v="1544557.5757575701"/>
-    <n v="445440"/>
-    <n v="2965296.9696969702"/>
-    <n v="215040"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="490156"/>
-    <n v="27640948.433767799"/>
-    <n v="1360932.7981735"/>
-    <n v="8917265.0720982999"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5864936.1328727398"/>
-    <n v="6489433"/>
-    <n v="5383503.8042521402"/>
-    <n v="6694270"/>
-    <n v="5147310.5537455799"/>
-    <n v="3554097"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <s v="numeric"/>
-    <x v="0"/>
-    <n v="343"/>
-    <n v="20968.758452811599"/>
-    <n v="1913.8680454989801"/>
-    <n v="5573.8259232842302"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="2476.9311336320802"/>
-    <n v="4979"/>
-    <n v="3023.4754958829299"/>
-    <n v="5539"/>
-    <n v="5132.10131580092"/>
-    <n v="3679"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="293"/>
-    <n v="13920.3246753246"/>
-    <n v="6890.8874458874398"/>
-    <n v="3533.3549783549702"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5141.38528138528"/>
-    <n v="3323"/>
-    <n v="5159.0259740259698"/>
-    <n v="2927"/>
-    <n v="8907.4783549783497"/>
-    <n v="1518"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
-    <x v="0"/>
-    <n v="14872"/>
-    <n v="898760.07541655295"/>
-    <n v="-9017.5967924946908"/>
-    <n v="256655.819340735"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="90474.903566523601"/>
-    <n v="382144"/>
-    <n v="96516.333228871794"/>
-    <n v="415584"/>
-    <n v="144045.322804681"/>
-    <n v="257447"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="5576"/>
-    <n v="246706.40692640599"/>
-    <n v="150246.49350649299"/>
-    <n v="75997.543290043206"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="116680.86580086499"/>
-    <n v="60212"/>
-    <n v="118093.419913419"/>
-    <n v="53556"/>
-    <n v="209150.04329004299"/>
-    <n v="26536"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <s v="binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="96"/>
-    <n v="6093.3333333333303"/>
-    <n v="1952.38095238095"/>
-    <n v="2299.0476190476102"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1986.6666666666599"/>
-    <n v="1041"/>
-    <n v="1986.6666666666599"/>
-    <n v="880"/>
-    <n v="-1780.9523809523801"/>
-    <n v="576"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="488967"/>
-    <n v="28442811.407520801"/>
-    <n v="-2845049.9145265101"/>
-    <n v="9034018.6735555306"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="3190986.6109835599"/>
-    <n v="15032197"/>
-    <n v="3374678.4480760298"/>
-    <n v="16105717"/>
-    <n v="3430506.22152388"/>
-    <n v="9437030"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="68596"/>
-    <n v="2903574.89177489"/>
-    <n v="2046062.5108225101"/>
-    <n v="989253.29004328896"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1546039.4805194801"/>
-    <n v="621208"/>
-    <n v="1554771.0822510801"/>
-    <n v="560280"/>
-    <n v="2804092.2077922001"/>
-    <n v="272180"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="binary, binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="1000"/>
-    <n v="65092.380952380903"/>
-    <n v="19602.857142857101"/>
-    <n v="21506.666666666599"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="10511.4285714285"/>
-    <n v="9436"/>
-    <n v="10511.4285714285"/>
-    <n v="8952"/>
-    <n v="-19215.238095238001"/>
-    <n v="5000"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="binary, numeric, numeric, numeric"/>
-    <x v="1"/>
-    <n v="864"/>
-    <n v="54982.857142857101"/>
-    <n v="17428.571428571398"/>
-    <n v="20989.523809523798"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="17657.1428571428"/>
-    <n v="7506"/>
-    <n v="17657.1428571428"/>
-    <n v="7200"/>
-    <n v="-16040.9523809523"/>
-    <n v="4320"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="548977"/>
-    <n v="32074475.374186501"/>
-    <n v="5530264.6669646101"/>
-    <n v="9936030.2191564497"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5783566.3461725703"/>
-    <n v="7764907"/>
-    <n v="5532681.9057652298"/>
-    <n v="7949030"/>
-    <n v="5905928.2932999199"/>
-    <n v="4231702"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <s v="numeric"/>
-    <x v="0"/>
-    <n v="340"/>
-    <n v="20851.361569715998"/>
-    <n v="2809.5790713832298"/>
-    <n v="5951.2423738122297"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="2632.84156222398"/>
-    <n v="4954"/>
-    <n v="3277.4281023293001"/>
-    <n v="5437"/>
-    <n v="5332.1440034030002"/>
-    <n v="3680"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <s v="binary, binary"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="256.19047619047598"/>
-    <n v="79.047619047618994"/>
-    <n v="-10.4761904761904"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="52"/>
-    <n v="0"/>
-    <n v="36"/>
-    <n v="-2.8571428571428501"/>
-    <n v="28"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="245"/>
-    <n v="10017.3809523809"/>
-    <n v="9512.6190476190495"/>
-    <n v="5916.9913419913401"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5256.6233766233699"/>
-    <n v="2523"/>
-    <n v="5248.2900432900396"/>
-    <n v="2259"/>
-    <n v="8517.6082251082207"/>
-    <n v="1234"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
-    <x v="0"/>
-    <n v="14541"/>
-    <n v="880787.15049781697"/>
-    <n v="59853.801175864697"/>
-    <n v="281717.303450762"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="96941.401454467705"/>
-    <n v="368229"/>
-    <n v="105354.266609072"/>
-    <n v="400020"/>
-    <n v="152900.69166400901"/>
-    <n v="247421"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="4504"/>
-    <n v="156670.12987012899"/>
-    <n v="212513.93939393901"/>
-    <n v="125188.214285714"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="118811.341991341"/>
-    <n v="45188"/>
-    <n v="118312.294372294"/>
-    <n v="41532"/>
-    <n v="205694.37229437201"/>
-    <n v="21256"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <s v="binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="184"/>
-    <n v="11336.190476190401"/>
-    <n v="4084.7619047619"/>
-    <n v="4918.0952380952303"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="4543.8095238095202"/>
-    <n v="2072"/>
-    <n v="4543.8095238095202"/>
-    <n v="1625"/>
-    <n v="-4492.3809523809496"/>
-    <n v="1104"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="449573"/>
-    <n v="25859559.327397"/>
-    <n v="496745.70677252201"/>
-    <n v="9666240.8834377509"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="3307989.2584259999"/>
-    <n v="13467772"/>
-    <n v="3470423.9192901999"/>
-    <n v="14403747"/>
-    <n v="3627621.4647957999"/>
-    <n v="8418618"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="55264"/>
-    <n v="1828178.7012986999"/>
-    <n v="2748184.5887445798"/>
-    <n v="1588810.9740259701"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1552007.0995670899"/>
-    <n v="469328"/>
-    <n v="1552992.8138528101"/>
-    <n v="443960"/>
-    <n v="2715506.4069264"/>
-    <n v="219600"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="3"/>
-    <s v="binary, binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="2904"/>
-    <n v="172499.04761904699"/>
-    <n v="70883.809523809497"/>
-    <n v="67754.285714285696"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="49130.476190476104"/>
-    <n v="28104"/>
-    <n v="49711.4285714285"/>
-    <n v="25818"/>
-    <n v="-49510.476190476104"/>
-    <n v="14520"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="3"/>
-    <s v="binary, numeric, numeric, numeric"/>
-    <x v="1"/>
-    <n v="1584"/>
-    <n v="97765.714285714203"/>
-    <n v="34988.571428571398"/>
-    <n v="40760"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="38794.285714285703"/>
-    <n v="14304"/>
-    <n v="38794.285714285703"/>
-    <n v="12456"/>
-    <n v="-34820.952380952302"/>
-    <n v="7920"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="553670"/>
-    <n v="32477525.8850508"/>
-    <n v="6902565.8835447105"/>
-    <n v="9974589.9912850503"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5754256.7809113599"/>
-    <n v="7906413"/>
-    <n v="5706816.8732584296"/>
-    <n v="8114681"/>
-    <n v="6013748.9228373403"/>
-    <n v="4329761"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <s v="binary"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="260.95238095238"/>
-    <n v="74.285714285714207"/>
-    <n v="54.285714285714199"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-48.571428571428498"/>
-    <n v="24"/>
-    <n v="-48.571428571428498"/>
-    <n v="5"/>
-    <n v="45.714285714285701"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <s v="numeric"/>
-    <x v="0"/>
-    <n v="362"/>
-    <n v="22452.429735833099"/>
-    <n v="3378.5366595202099"/>
-    <n v="6336.2937130342398"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="2983.2536273831802"/>
-    <n v="5352"/>
-    <n v="3230.2336974351902"/>
-    <n v="5640"/>
-    <n v="5556.1512153762096"/>
-    <n v="4036"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <s v="binary, binary"/>
-    <x v="2"/>
-    <n v="80"/>
-    <n v="5184.7619047619"/>
-    <n v="1520"/>
-    <n v="1131.42857142857"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-971.42857142857099"/>
-    <n v="780"/>
-    <n v="-971.42857142857099"/>
-    <n v="948"/>
-    <n v="914.28571428571399"/>
-    <n v="560"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="363"/>
-    <n v="17600.833333333299"/>
-    <n v="12551.8073593073"/>
-    <n v="4227.49999999999"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="4128.7662337662296"/>
-    <n v="3612"/>
-    <n v="4162.0995670995599"/>
-    <n v="3358"/>
-    <n v="9860.9415584415601"/>
-    <n v="1951"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
-    <x v="0"/>
-    <n v="15471"/>
-    <n v="941940.76388173702"/>
-    <n v="72170.974018340596"/>
-    <n v="310750.158755143"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="105464.752925352"/>
-    <n v="389038"/>
-    <n v="103388.568196313"/>
-    <n v="425417"/>
-    <n v="152502.34448792401"/>
-    <n v="265262"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <s v="binary, binary, binary"/>
-    <x v="2"/>
-    <n v="512"/>
-    <n v="33040"/>
-    <n v="9870.4761904761908"/>
-    <n v="7384.7619047619"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-6217.1428571428496"/>
-    <n v="4560"/>
-    <n v="-6217.1428571428496"/>
-    <n v="6592"/>
-    <n v="5851.4285714285697"/>
-    <n v="3072"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="6485"/>
-    <n v="282208.22510822501"/>
-    <n v="273598.00865800801"/>
-    <n v="95623.290043290006"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="97236.103896103799"/>
-    <n v="65119"/>
-    <n v="97131.341991341906"/>
-    <n v="65329"/>
-    <n v="230310.56277056201"/>
-    <n v="32654"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <s v="binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="1051"/>
-    <n v="65327.619047619002"/>
-    <n v="22756.190476190401"/>
-    <n v="19667.619047618999"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-4939.0476190476202"/>
-    <n v="11960"/>
-    <n v="-4939.0476190476202"/>
-    <n v="10029"/>
-    <n v="5486.6666666666597"/>
-    <n v="6306"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="482855"/>
-    <n v="27954468.4453381"/>
-    <n v="862257.21408525598"/>
-    <n v="10598222.2084045"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="3440898.3079084898"/>
-    <n v="14439881"/>
-    <n v="3231443.49833387"/>
-    <n v="15588913"/>
-    <n v="3552269.5283518098"/>
-    <n v="9131095"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, binary"/>
-    <x v="2"/>
-    <n v="512"/>
-    <n v="29870.4761904761"/>
-    <n v="13040"/>
-    <n v="8864.7619047618991"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-7558.0952380952303"/>
-    <n v="3776"/>
-    <n v="-7558.0952380952303"/>
-    <n v="5632"/>
-    <n v="8167.6190476190404"/>
-    <n v="2560"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="63189"/>
-    <n v="2323344.4155844101"/>
-    <n v="3189732.98701298"/>
-    <n v="1007172.29437229"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1448301.38528138"/>
-    <n v="538266"/>
-    <n v="1453656.62337662"/>
-    <n v="538069"/>
-    <n v="2896507.3593073501"/>
-    <n v="258505"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <s v="binary, binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="17813"/>
-    <n v="1098994.2857142801"/>
-    <n v="393904.76190476102"/>
-    <n v="335659.04761904699"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-117704.76190476101"/>
-    <n v="173924"/>
-    <n v="-110210.47619047599"/>
-    <n v="176562"/>
-    <n v="108240"/>
-    <n v="89065"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <s v="binary, numeric, numeric, numeric"/>
-    <x v="1"/>
-    <n v="5650"/>
-    <n v="346468.57142857101"/>
-    <n v="127055.238095238"/>
-    <n v="116339.04761904701"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-4040"/>
-    <n v="56334"/>
-    <n v="-4040"/>
-    <n v="46844"/>
-    <n v="4960"/>
-    <n v="28250"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="570480"/>
-    <n v="33631573.273770899"/>
-    <n v="3292740.1373524298"/>
-    <n v="10849203.2505178"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="6496497.3603886301"/>
-    <n v="8102784"/>
-    <n v="6044933.1580066904"/>
-    <n v="8377161"/>
-    <n v="6097152.6470771302"/>
-    <n v="4462183"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <s v="binary"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="260.95238095238"/>
-    <n v="74.285714285714207"/>
-    <n v="98.095238095238102"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-48.571428571428498"/>
-    <n v="34"/>
-    <n v="-48.571428571428498"/>
-    <n v="6"/>
-    <n v="73.3333333333333"/>
-    <n v="18"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <s v="numeric"/>
-    <x v="0"/>
-    <n v="376"/>
-    <n v="23523.347629333199"/>
-    <n v="3975.70570655452"/>
-    <n v="7173.1271381993001"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="2855.1243976072001"/>
-    <n v="5792"/>
-    <n v="3434.7828317006702"/>
-    <n v="5862"/>
-    <n v="5510.0875294449997"/>
-    <n v="4273"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <s v="binary, binary"/>
-    <x v="2"/>
-    <n v="64"/>
-    <n v="4140.9523809523798"/>
-    <n v="1222.8571428571399"/>
-    <n v="1485.7142857142801"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-777.142857142857"/>
-    <n v="658"/>
-    <n v="-777.142857142857"/>
-    <n v="806"/>
-    <n v="1173.3333333333301"/>
-    <n v="448"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="357"/>
-    <n v="16791.309523809501"/>
-    <n v="12077.9761904761"/>
-    <n v="7775.5627705627703"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="3728.2900432900401"/>
-    <n v="3625"/>
-    <n v="4028.2900432900401"/>
-    <n v="3367"/>
-    <n v="11313.8528138528"/>
-    <n v="1949"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
-    <x v="0"/>
-    <n v="16161"/>
-    <n v="991627.25185350899"/>
-    <n v="90048.466808820303"/>
-    <n v="344899.96092531399"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="100881.36552956799"/>
-    <n v="410520"/>
-    <n v="111057.115639864"/>
-    <n v="444510"/>
-    <n v="150148.76311914399"/>
-    <n v="279871"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <s v="binary, binary, binary"/>
-    <x v="2"/>
-    <n v="512"/>
-    <n v="33044.761904761901"/>
-    <n v="9865.7142857142808"/>
-    <n v="11417.1428571428"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-6217.1428571428496"/>
-    <n v="4544"/>
-    <n v="-6217.1428571428496"/>
-    <n v="6592"/>
-    <n v="9386.6666666666606"/>
-    <n v="3072"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="6572"/>
-    <n v="288822.51082251"/>
-    <n v="256000.909090909"/>
-    <n v="176628.54978354901"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="95683.246753246698"/>
-    <n v="65210"/>
-    <n v="98037.056277056196"/>
-    <n v="65214"/>
-    <n v="248243.76623376599"/>
-    <n v="32608"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <s v="binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="1117"/>
-    <n v="70400"/>
-    <n v="23215.238095238099"/>
-    <n v="27479.0476190476"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-6508.5714285714203"/>
-    <n v="12836"/>
-    <n v="-6508.5714285714203"/>
-    <n v="10710"/>
-    <n v="11760.9523809523"/>
-    <n v="6702"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="506731"/>
-    <n v="29651469.665951099"/>
-    <n v="900725.29061567399"/>
-    <n v="11663358.4880885"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="3326083.8507750002"/>
-    <n v="15282317"/>
-    <n v="3574038.4915752499"/>
-    <n v="16419893"/>
-    <n v="3417438.4921439299"/>
-    <n v="9679564"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, binary"/>
-    <x v="2"/>
-    <n v="512"/>
-    <n v="30095.238095238001"/>
-    <n v="12815.238095238001"/>
-    <n v="13603.809523809499"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-7558.0952380952303"/>
-    <n v="3760"/>
-    <n v="-7558.0952380952303"/>
-    <n v="5632"/>
-    <n v="11824.761904761899"/>
-    <n v="2560"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="64139"/>
-    <n v="2378226.32034632"/>
-    <n v="3021320.7792207701"/>
-    <n v="1956666.3095237999"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1435068.05194805"/>
-    <n v="544047"/>
-    <n v="1440748.05194805"/>
-    <n v="543273"/>
-    <n v="3012289.4372294298"/>
-    <n v="260855"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="binary, binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="19577"/>
-    <n v="1222422.8571428501"/>
-    <n v="418316.19047619001"/>
-    <n v="478440.95238095202"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-162373.33333333299"/>
-    <n v="193253"/>
-    <n v="-154660"/>
-    <n v="192471"/>
-    <n v="224262.85714285701"/>
-    <n v="97885"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="binary, numeric, numeric, numeric"/>
-    <x v="1"/>
-    <n v="6307"/>
-    <n v="396126.66666666599"/>
-    <n v="132460"/>
-    <n v="156509.523809523"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-18213.333333333299"/>
-    <n v="63508"/>
-    <n v="-18213.333333333299"/>
-    <n v="52199"/>
-    <n v="36392.380952380903"/>
-    <n v="31535"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="584132"/>
-    <n v="34435552.696423702"/>
-    <n v="5479407.2969845496"/>
-    <n v="13486834.3522765"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="6296072.1620831899"/>
-    <n v="8246590"/>
-    <n v="6319069.1314225802"/>
-    <n v="8502090"/>
-    <n v="6183027.1021886403"/>
-    <n v="4526013"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <s v="binary"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="260.95238095238"/>
-    <n v="74.285714285714207"/>
-    <n v="95.238095238095198"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-48.571428571428498"/>
-    <n v="53"/>
-    <n v="-48.571428571428498"/>
-    <n v="4"/>
-    <n v="1.9047619047619"/>
-    <n v="24"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <s v="numeric"/>
-    <x v="0"/>
-    <n v="384"/>
-    <n v="24094.890912945099"/>
-    <n v="4282.1726485222398"/>
-    <n v="7553.4367879103102"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="2767.4268569702699"/>
-    <n v="5823"/>
-    <n v="3382.2760739774399"/>
-    <n v="5917"/>
-    <n v="5670.3861866682901"/>
-    <n v="4276"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <s v="binary, binary"/>
-    <x v="2"/>
-    <n v="96"/>
-    <n v="6245.7142857142799"/>
-    <n v="1800"/>
-    <n v="2288.5714285714198"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-1165.7142857142801"/>
-    <n v="1086"/>
-    <n v="-1146.6666666666599"/>
-    <n v="1238"/>
-    <n v="45.714285714285701"/>
-    <n v="672"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="358"/>
-    <n v="16776.309523809501"/>
-    <n v="12211.655844155801"/>
-    <n v="6377.22943722943"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="3955.6709956709901"/>
-    <n v="3686"/>
-    <n v="4313.1709956709901"/>
-    <n v="3292"/>
-    <n v="9733.3982683982704"/>
-    <n v="1946"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
-    <x v="0"/>
-    <n v="16285"/>
-    <n v="1004777.3573386"/>
-    <n v="121398.546451741"/>
-    <n v="340953.53151604597"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="94698.701135447001"/>
-    <n v="411427"/>
-    <n v="107311.021677785"/>
-    <n v="445146"/>
-    <n v="154725.51075626799"/>
-    <n v="279593"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <s v="binary, binary, binary"/>
-    <x v="2"/>
-    <n v="768"/>
-    <n v="49834.285714285703"/>
-    <n v="14531.4285714285"/>
-    <n v="18330.4761904761"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-9325.7142857142808"/>
-    <n v="7104"/>
-    <n v="-9020.9523809523798"/>
-    <n v="9984"/>
-    <n v="365.71428571428601"/>
-    <n v="4608"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="7002"/>
-    <n v="312782.51082251"/>
-    <n v="269187.70562770503"/>
-    <n v="144497.651515151"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="96488.484848484804"/>
-    <n v="69360"/>
-    <n v="100409.675324675"/>
-    <n v="69663"/>
-    <n v="218132.85714285701"/>
-    <n v="35068"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <s v="binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="1124"/>
-    <n v="69470.476190476096"/>
-    <n v="24731.4285714285"/>
-    <n v="29916.190476190401"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-2049.5238095238101"/>
-    <n v="12652"/>
-    <n v="-1330.4761904761899"/>
-    <n v="10746"/>
-    <n v="2379.0476190476202"/>
-    <n v="6744"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="506419"/>
-    <n v="29729241.227063499"/>
-    <n v="2032336.02931941"/>
-    <n v="11324860.729980599"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="3122283.93837468"/>
-    <n v="15227010"/>
-    <n v="3483061.2124113599"/>
-    <n v="16382046"/>
-    <n v="3439868.28372342"/>
-    <n v="9633532"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, binary"/>
-    <x v="2"/>
-    <n v="2048"/>
-    <n v="132590.47619047601"/>
-    <n v="39051.4285714285"/>
-    <n v="48952.380952380903"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-24868.571428571398"/>
-    <n v="14464"/>
-    <n v="-23649.523809523798"/>
-    <n v="22528"/>
-    <n v="975.23809523809598"/>
-    <n v="10240"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="73487"/>
-    <n v="2965375.8441558401"/>
-    <n v="3217264.5021644998"/>
-    <n v="1548469.97835497"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1375585.19480519"/>
-    <n v="622582"/>
-    <n v="1397845.19480519"/>
-    <n v="642041"/>
-    <n v="2854173.0303030298"/>
-    <n v="307275"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="3"/>
-    <s v="binary, binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="25117"/>
-    <n v="1537376.1904761901"/>
-    <n v="567667.61904761905"/>
-    <n v="678593.33333333302"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-106159.04761904701"/>
-    <n v="242527"/>
-    <n v="-82218.095238095193"/>
-    <n v="242000"/>
-    <n v="75794.285714285696"/>
-    <n v="125585"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="3"/>
-    <s v="binary, numeric, numeric, numeric"/>
-    <x v="1"/>
-    <n v="6659"/>
-    <n v="410174.28571428498"/>
-    <n v="147913.33333333299"/>
-    <n v="177538.095238095"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="13939.9999999999"/>
-    <n v="64004"/>
-    <n v="19137.1428571428"/>
-    <n v="55656"/>
-    <n v="10906.666666666601"/>
-    <n v="33295"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="568160"/>
-    <n v="33366541.493794799"/>
-    <n v="7710795.1261024298"/>
-    <n v="13139404.8222649"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="6222789.4672119496"/>
-    <n v="8084796"/>
-    <n v="6307187.7413099697"/>
-    <n v="8339937"/>
-    <n v="6397576.04543042"/>
-    <n v="4431481"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="0"/>
-    <s v="binary"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="185.71428571428501"/>
-    <n v="59.999999999999901"/>
-    <n v="84.761904761904702"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-40"/>
-    <n v="30"/>
-    <n v="-40"/>
-    <n v="6"/>
-    <n v="0.952380952380949"/>
-    <n v="18"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="0"/>
-    <s v="numeric"/>
-    <x v="0"/>
-    <n v="390"/>
-    <n v="24452.710094587201"/>
-    <n v="5612.7855047902303"/>
-    <n v="7772.7730139916303"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="2940.9152989017298"/>
-    <n v="5744"/>
-    <n v="3490.3670424888101"/>
-    <n v="5861"/>
-    <n v="6021.4192616598202"/>
-    <n v="4279"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <s v="binary, binary"/>
-    <x v="2"/>
-    <n v="78"/>
-    <n v="4900"/>
-    <n v="1499.99999999999"/>
-    <n v="2080.9523809523798"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-1011.42857142857"/>
-    <n v="742"/>
-    <n v="-971.42857142857099"/>
-    <n v="929"/>
-    <n v="68.571428571428598"/>
-    <n v="546"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="443"/>
-    <n v="23152.543290043199"/>
-    <n v="9469.0800865800793"/>
-    <n v="7522.8463203463198"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="4238.9935064934998"/>
-    <n v="4479"/>
-    <n v="4058.6580086580002"/>
-    <n v="3937"/>
-    <n v="10015.974025973999"/>
-    <n v="2337"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
-    <x v="0"/>
-    <n v="16359"/>
-    <n v="1007974.92153444"/>
-    <n v="207877.10115120499"/>
-    <n v="358953.62598140398"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="100988.401563846"/>
-    <n v="411154"/>
-    <n v="111394.36639977799"/>
-    <n v="442771"/>
-    <n v="166704.502841423"/>
-    <n v="280270"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="2"/>
-    <s v="binary, binary, binary"/>
-    <x v="2"/>
-    <n v="660"/>
-    <n v="41800"/>
-    <n v="12411.4285714285"/>
-    <n v="16704.761904761901"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-8400"/>
-    <n v="5465"/>
-    <n v="-7851.4285714285697"/>
-    <n v="8420"/>
-    <n v="822.857142857143"/>
-    <n v="3960"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="8664"/>
-    <n v="438200.519480519"/>
-    <n v="203420.30303030301"/>
-    <n v="163659.74025974001"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="94965.584415584395"/>
-    <n v="84134"/>
-    <n v="96258.257575757496"/>
-    <n v="80365"/>
-    <n v="226104.004329004"/>
-    <n v="41808"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="2"/>
-    <s v="binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="1169"/>
-    <n v="73157.142857142797"/>
-    <n v="23100.952380952302"/>
-    <n v="30942.857142857101"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-4377.1428571428496"/>
-    <n v="13211"/>
-    <n v="-3740.9523809523798"/>
-    <n v="10819"/>
-    <n v="900"/>
-    <n v="7014"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="504508"/>
-    <n v="29539002.989170399"/>
-    <n v="5984091.2167334398"/>
-    <n v="11808500.4693198"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="3294956.9339622702"/>
-    <n v="15172359"/>
-    <n v="3630255.3550481"/>
-    <n v="16167814"/>
-    <n v="3764186.33430538"/>
-    <n v="9577034"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, binary"/>
-    <x v="2"/>
-    <n v="1832"/>
-    <n v="116584.76190476101"/>
-    <n v="33952.380952380903"/>
-    <n v="44279.047619047597"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-23017.1428571428"/>
-    <n v="12439"/>
-    <n v="-21099.0476190476"/>
-    <n v="20140"/>
-    <n v="2742.8571428571399"/>
-    <n v="9160"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="92511"/>
-    <n v="4456165.7142857099"/>
-    <n v="2338403.0303030298"/>
-    <n v="1804355.1839826801"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1353419.5670995601"/>
-    <n v="778781"/>
-    <n v="1375664.71861471"/>
-    <n v="768777"/>
-    <n v="2922624.93506493"/>
-    <n v="376795"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="3"/>
-    <s v="binary, binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="26439"/>
-    <n v="1645293.33333333"/>
-    <n v="530555.23809523799"/>
-    <n v="695752.38095238095"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-176223.809523809"/>
-    <n v="254622"/>
-    <n v="-148046.66666666599"/>
-    <n v="250543"/>
-    <n v="60649.523809523802"/>
-    <n v="132195"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="3"/>
-    <s v="binary, numeric, numeric, numeric"/>
-    <x v="1"/>
-    <n v="7118"/>
-    <n v="445773.33333333302"/>
-    <n v="141364.76190476099"/>
-    <n v="185869.523809523"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="2112.38095238094"/>
-    <n v="69348"/>
-    <n v="5912.3809523809496"/>
-    <n v="57258"/>
-    <n v="-3029.5238095238001"/>
-    <n v="35590"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="581083"/>
-    <n v="34121816.177750804"/>
-    <n v="6288317.1943514403"/>
-    <n v="13588035.141662501"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="6512197.2967111999"/>
-    <n v="8149449"/>
-    <n v="6533790.1616700199"/>
-    <n v="8429745"/>
-    <n v="6798565.4713635696"/>
-    <n v="4479338"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="0"/>
-    <s v="binary"/>
-    <x v="2"/>
-    <n v="6"/>
-    <n v="398.21428571428498"/>
-    <n v="90.714285714285694"/>
-    <n v="114.404761904761"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-40"/>
-    <n v="123"/>
-    <n v="-52.5"/>
-    <n v="72"/>
-    <n v="-37.499999999999901"/>
-    <n v="60"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="0"/>
-    <s v="numeric"/>
-    <x v="0"/>
-    <n v="384"/>
-    <n v="23894.755814551201"/>
-    <n v="5596.3904396166599"/>
-    <n v="7873.18878293739"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="3082.5904864071699"/>
-    <n v="5541"/>
-    <n v="3660.0560136132499"/>
-    <n v="5713"/>
-    <n v="6191.6581840707104"/>
-    <n v="4088"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-    <s v="binary, binary"/>
-    <x v="2"/>
-    <n v="131"/>
-    <n v="8677.1428571428496"/>
-    <n v="2079.0476190476102"/>
-    <n v="2497.61904761904"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-954.28571428571399"/>
-    <n v="2212"/>
-    <n v="-1178.0952380952299"/>
-    <n v="2086"/>
-    <n v="-484.76190476190402"/>
-    <n v="1205"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="406"/>
-    <n v="19770.5952380952"/>
-    <n v="13637.803030302999"/>
-    <n v="9107.3917748917702"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="3888.5281385281301"/>
-    <n v="3438"/>
-    <n v="4528.64718614718"/>
-    <n v="3465"/>
-    <n v="10199.707792207701"/>
-    <n v="2050"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
-    <x v="0"/>
-    <n v="16066"/>
-    <n v="985051.28281748702"/>
-    <n v="153575.90763683099"/>
-    <n v="357380.368046686"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="99882.670567585694"/>
-    <n v="401868"/>
-    <n v="111778.516277028"/>
-    <n v="430560"/>
-    <n v="175799.21947916399"/>
-    <n v="273199"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="2"/>
-    <s v="binary, binary, binary"/>
-    <x v="2"/>
-    <n v="904"/>
-    <n v="59300.952380952302"/>
-    <n v="15571.4285714285"/>
-    <n v="17476.190476190401"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-8045.7142857142799"/>
-    <n v="11456"/>
-    <n v="-8732.3809523809505"/>
-    <n v="12891"/>
-    <n v="-975.23809523809405"/>
-    <n v="6576"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="7469"/>
-    <n v="339987.27272727201"/>
-    <n v="286747.18614718597"/>
-    <n v="191091.94805194801"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="92570.2705627705"/>
-    <n v="64862"/>
-    <n v="99106.580086579997"/>
-    <n v="69429"/>
-    <n v="229957.38095237999"/>
-    <n v="35406"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="2"/>
-    <s v="binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="1141"/>
-    <n v="71121.904761904705"/>
-    <n v="24504.761904761901"/>
-    <n v="29137.1428571428"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-3981.9047619047601"/>
-    <n v="12925"/>
-    <n v="-2278.0952380952299"/>
-    <n v="10765"/>
-    <n v="741.90476190476295"/>
-    <n v="6846"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="407817"/>
-    <n v="24017182.559981499"/>
-    <n v="2651818.0064030602"/>
-    <n v="9111120.7612795606"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1418530.05160348"/>
-    <n v="11521344"/>
-    <n v="1704431.2237125"/>
-    <n v="12392778"/>
-    <n v="3645094.7720579598"/>
-    <n v="7151738"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, binary"/>
-    <x v="2"/>
-    <n v="1968"/>
-    <n v="126739.04761904701"/>
-    <n v="38198.0952380952"/>
-    <n v="38600"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-24182.857142857101"/>
-    <n v="14208"/>
-    <n v="-21306.666666666599"/>
-    <n v="21636"/>
-    <n v="4525.7142857142799"/>
-    <n v="9840"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="75067"/>
-    <n v="3058689.1774891699"/>
-    <n v="3326463.7229437199"/>
-    <n v="2119197.5757575701"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1348876.1471861401"/>
-    <n v="589146"/>
-    <n v="1378644.2424242401"/>
-    <n v="635629"/>
-    <n v="2960971.6017315998"/>
-    <n v="306215"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="3"/>
-    <s v="binary, binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="25834"/>
-    <n v="1600953.33333333"/>
-    <n v="563907.61904761905"/>
-    <n v="647493.33333333302"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-161360"/>
-    <n v="249339"/>
-    <n v="-112988.571428571"/>
-    <n v="244279"/>
-    <n v="50390.476190476104"/>
-    <n v="129170"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="3"/>
-    <s v="binary, numeric, numeric, numeric"/>
-    <x v="1"/>
-    <n v="6876"/>
-    <n v="428014.28571428498"/>
-    <n v="148260"/>
-    <n v="176463.809523809"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5792.3809523809396"/>
-    <n v="66261"/>
-    <n v="20201.904761904701"/>
-    <n v="58082"/>
-    <n v="43.809523809527697"/>
-    <n v="34380"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="575677"/>
-    <n v="33694454.013492003"/>
-    <n v="8125164.0167890796"/>
-    <n v="13832316.9130284"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="6394124.2549263798"/>
-    <n v="8031392"/>
-    <n v="6432365.38933622"/>
-    <n v="8318733"/>
-    <n v="6561567.4501600899"/>
-    <n v="4418724"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="0"/>
-    <s v="binary"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="260.95238095238"/>
-    <n v="74.285714285714207"/>
-    <n v="95.238095238095198"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-48.571428571428498"/>
-    <n v="58"/>
-    <n v="-48.571428571428498"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="24"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="0"/>
-    <s v="numeric"/>
-    <x v="0"/>
-    <n v="383"/>
-    <n v="23847.465590876702"/>
-    <n v="5765.0688662223201"/>
-    <n v="8196.2700455429094"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="3140.2732185831601"/>
-    <n v="5701"/>
-    <n v="3604.8163393580198"/>
-    <n v="5821"/>
-    <n v="6099.7187569310299"/>
-    <n v="4175"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="1"/>
-    <s v="binary, binary"/>
-    <x v="2"/>
-    <n v="96"/>
-    <n v="6245.7142857142799"/>
-    <n v="1800"/>
-    <n v="2201.9047619047601"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-1165.7142857142801"/>
-    <n v="1168"/>
-    <n v="-1067.61904761904"/>
-    <n v="1103"/>
-    <n v="0"/>
-    <n v="672"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="421"/>
-    <n v="21545.995670995599"/>
-    <n v="10887.456709956699"/>
-    <n v="9845.4437229437208"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="4444.9567099567103"/>
-    <n v="4150"/>
-    <n v="4624.0151515151501"/>
-    <n v="3878"/>
-    <n v="10267.196969696901"/>
-    <n v="2297"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
-    <x v="0"/>
-    <n v="15977"/>
-    <n v="980994.90410371101"/>
-    <n v="202425.72622261901"/>
-    <n v="372691.55138763197"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="103254.984766332"/>
-    <n v="400278"/>
-    <n v="110382.578894751"/>
-    <n v="429240"/>
-    <n v="176856.64948632801"/>
-    <n v="272180"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="2"/>
-    <s v="binary, binary, binary"/>
-    <x v="2"/>
-    <n v="768"/>
-    <n v="49834.285714285703"/>
-    <n v="14531.4285714285"/>
-    <n v="17340.952380952302"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-9325.7142857142808"/>
-    <n v="7552"/>
-    <n v="-7920"/>
-    <n v="9876"/>
-    <n v="0"/>
-    <n v="4608"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="8474"/>
-    <n v="424570.04329004302"/>
-    <n v="236172.337662337"/>
-    <n v="197007.727272727"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="99351.515151515094"/>
-    <n v="80151"/>
-    <n v="103085.757575757"/>
-    <n v="80404"/>
-    <n v="229945.86580086499"/>
-    <n v="41724"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="2"/>
-    <s v="binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="1076"/>
-    <n v="66356.190476190401"/>
-    <n v="25194.285714285699"/>
-    <n v="27474.285714285699"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-1089.5238095238101"/>
-    <n v="12267"/>
-    <n v="-160.95238095238099"/>
-    <n v="10134"/>
-    <n v="-3127.61904761904"/>
-    <n v="6456"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="402301"/>
-    <n v="23696481.303725801"/>
-    <n v="3978533.9140268802"/>
-    <n v="9710767.06173761"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1508299.73068077"/>
-    <n v="11288163"/>
-    <n v="1666495.21187858"/>
-    <n v="12157086"/>
-    <n v="3743271.5113502601"/>
-    <n v="7031264"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, binary"/>
-    <x v="2"/>
-    <n v="2048"/>
-    <n v="132590.47619047601"/>
-    <n v="39051.4285714285"/>
-    <n v="46345.714285714203"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-24868.571428571398"/>
-    <n v="15360"/>
-    <n v="-19820.952380952302"/>
-    <n v="22528"/>
-    <n v="0"/>
-    <n v="10240"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="91838"/>
-    <n v="4408327.6190476101"/>
-    <n v="2721550.4761904702"/>
-    <n v="2080150.55194805"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1394366.32034632"/>
-    <n v="750594"/>
-    <n v="1419626.1471861401"/>
-    <n v="771384"/>
-    <n v="2965777.8354978301"/>
-    <n v="376630"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="3"/>
-    <s v="binary, binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="24102"/>
-    <n v="1472324.76190476"/>
-    <n v="565206.66666666605"/>
-    <n v="627146.66666666605"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-94533.333333333299"/>
-    <n v="233649"/>
-    <n v="-53933.333333333299"/>
-    <n v="226381"/>
-    <n v="-27448.571428571398"/>
-    <n v="120510"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="3"/>
-    <s v="binary, numeric, numeric, numeric"/>
-    <x v="1"/>
     <n v="6401"/>
-    <n v="392298.09523809497"/>
-    <n v="156509.523809523"/>
-    <n v="165838.095238095"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
     <n v="23950.4761904761"/>
     <n v="61684"/>
     <n v="32595.238095238001"/>
@@ -24619,22 +21977,23 @@
     <x v="3"/>
     <s v="numeric, numeric, numeric, numeric"/>
     <x v="0"/>
-    <n v="584808"/>
-    <n v="34385844.184330702"/>
-    <n v="8369957.1536858901"/>
-    <n v="15072482.759619899"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="6359523.1453233901"/>
-    <n v="8270135"/>
-    <n v="6501942.5750538502"/>
-    <n v="8504025"/>
-    <n v="6561442.8294027699"/>
-    <n v="4515246"/>
+    <n v="774208"/>
+    <n v="47093074.301977701"/>
+    <n v="11784858.330156401"/>
+    <n v="19097095.700796299"/>
+    <n v="6856182.4815736301"/>
+    <n v="13088004"/>
+    <n v="7764357.5593357198"/>
+    <n v="13350341"/>
+    <n v="7319897.3136682501"/>
+    <n v="7015194"/>
+    <n v="774208"/>
+    <n v="7452767.61591163"/>
+    <n v="12931496"/>
+    <n v="7051750.3397597298"/>
+    <n v="13353393"/>
+    <n v="7414189.8882262995"/>
+    <n v="7015194"/>
   </r>
   <r>
     <x v="11"/>
@@ -24657,14 +22016,15 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C1545803-8843-4E78-9217-8F386223FE9C}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="37" rowHeaderCaption="after size">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E372528D-AEC0-434B-87ED-F52BD71FBBB2}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="37" rowHeaderCaption="after size">
   <location ref="A5:F6" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="35">
+  <pivotFields count="36">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -24702,6 +22062,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -24766,12 +22127,12 @@
     <pageField fld="0" hier="-1"/>
   </pageFields>
   <dataFields count="6">
-    <dataField name=" average SFLDT wasted effort" fld="34" baseField="0" baseItem="0"/>
-    <dataField name=" average STAT_SFLDT wasted effort" fld="24" baseField="0" baseItem="0"/>
-    <dataField name=" average fuzzy participation SFLDT wasted effort" fld="33" baseField="0" baseItem="0"/>
-    <dataField name=" average fuzzy participation STAT_SFLDT wasted effort" fld="28" baseField="0" baseItem="0"/>
-    <dataField name=" average SFLDT_Features wasted effort" fld="26" baseField="0" baseItem="0"/>
-    <dataField name=" average fuzzy participation SFLDT_Features wasted effort" fld="30" baseField="0" baseItem="0"/>
+    <dataField name=" average SFLDT wasted effort" fld="35" baseField="0" baseItem="0"/>
+    <dataField name=" average STAT_SFLDT wasted effort" fld="25" baseField="0" baseItem="0"/>
+    <dataField name=" average fuzzy participation SFLDT wasted effort" fld="34" baseField="0" baseItem="0"/>
+    <dataField name=" average fuzzy participation STAT_SFLDT wasted effort" fld="29" baseField="0" baseItem="0"/>
+    <dataField name=" average SFLDT_Features wasted effort" fld="27" baseField="0" baseItem="0"/>
+    <dataField name=" average fuzzy participation SFLDT_Features wasted effort" fld="31" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="6">
     <chartFormat chart="36" format="30" series="1">
@@ -24842,9 +22203,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5254CC51-8137-4AD8-88E5-523AE29A60BE}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="36" rowHeaderCaption="after size">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{29BA5BA9-F541-4EAF-BF63-2FAFC05DFC17}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="36" rowHeaderCaption="after size">
   <location ref="A5:H6" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="35">
+  <pivotFields count="36">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -24882,6 +22243,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -24952,14 +22314,14 @@
     <pageField fld="0" hier="-1"/>
   </pageFields>
   <dataFields count="8">
-    <dataField name=" average after retrain accuracy increase" fld="21" baseField="0" baseItem="0"/>
-    <dataField name=" average before after retrain accuracy increase" fld="22" baseField="0" baseItem="0"/>
-    <dataField name=" average SFLDT fix increase" fld="31" baseField="0" baseItem="0"/>
-    <dataField name=" average STAT_SFLDT fix increase" fld="23" baseField="0" baseItem="0"/>
-    <dataField name=" average fuzzy participation SFLDT fix increase" fld="32" baseField="0" baseItem="0"/>
-    <dataField name=" average fuzzy participation STAT_SFLDT fix increase" fld="27" baseField="0" baseItem="0"/>
-    <dataField name=" average SFLDT_Features fix increase" fld="25" baseField="0" baseItem="0"/>
-    <dataField name=" average fuzzy participation SFLDT_Features fix increase" fld="29" baseField="0" baseItem="0"/>
+    <dataField name=" average after retrain accuracy increase" fld="22" baseField="0" baseItem="0"/>
+    <dataField name=" average before after retrain accuracy increase" fld="23" baseField="0" baseItem="0"/>
+    <dataField name=" average SFLDT fix increase" fld="32" baseField="0" baseItem="0"/>
+    <dataField name=" average STAT_SFLDT fix increase" fld="24" baseField="0" baseItem="0"/>
+    <dataField name=" average fuzzy participation SFLDT fix increase" fld="33" baseField="0" baseItem="0"/>
+    <dataField name=" average fuzzy participation STAT_SFLDT fix increase" fld="28" baseField="0" baseItem="0"/>
+    <dataField name=" average SFLDT_Features fix increase" fld="26" baseField="0" baseItem="0"/>
+    <dataField name=" average fuzzy participation SFLDT_Features fix increase" fld="30" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="20">
     <chartFormat chart="8" format="0" series="1">
@@ -25156,9 +22518,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F32967DB-FB49-497D-A10D-7BC5797C90D5}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="36" rowHeaderCaption="after size">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58009BBD-F97C-4DC0-AB42-11A675C4A8A5}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="36" rowHeaderCaption="after size">
   <location ref="A5:G17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="35">
+  <pivotFields count="36">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -25196,6 +22558,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -25297,12 +22660,12 @@
     <pageField fld="1" hier="-1"/>
   </pageFields>
   <dataFields count="6">
-    <dataField name=" average SFLDT wasted effort" fld="34" baseField="0" baseItem="0"/>
-    <dataField name=" average STAT_SFLDT wasted effort" fld="24" baseField="0" baseItem="0"/>
-    <dataField name=" average fuzzy participation SFLDT wasted effort" fld="33" baseField="0" baseItem="0"/>
-    <dataField name=" average fuzzy participation STAT_SFLDT wasted effort" fld="28" baseField="0" baseItem="0"/>
-    <dataField name=" average SFLDT_Features wasted effort" fld="26" baseField="0" baseItem="0"/>
-    <dataField name=" average fuzzy participation SFLDT_Features wasted effort" fld="30" baseField="0" baseItem="0"/>
+    <dataField name=" average SFLDT wasted effort" fld="35" baseField="0" baseItem="0"/>
+    <dataField name=" average STAT_SFLDT wasted effort" fld="25" baseField="0" baseItem="0"/>
+    <dataField name=" average fuzzy participation SFLDT wasted effort" fld="34" baseField="0" baseItem="0"/>
+    <dataField name=" average fuzzy participation STAT_SFLDT wasted effort" fld="29" baseField="0" baseItem="0"/>
+    <dataField name=" average SFLDT_Features wasted effort" fld="27" baseField="0" baseItem="0"/>
+    <dataField name=" average fuzzy participation SFLDT_Features wasted effort" fld="31" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="6">
     <chartFormat chart="34" format="37" series="1">
@@ -25373,9 +22736,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8FF3B6-6F35-45DF-9132-711D6647F3C0}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="38" rowHeaderCaption="drift size">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF41BFB9-4D29-48EE-8C29-9F5E40C3B2EA}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="38" rowHeaderCaption="drift size">
   <location ref="A5:G9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="35">
+  <pivotFields count="36">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -25413,6 +22776,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -25490,12 +22854,12 @@
     <pageField fld="0" hier="-1"/>
   </pageFields>
   <dataFields count="6">
-    <dataField name=" average SFLDT wasted effort" fld="34" baseField="0" baseItem="0"/>
-    <dataField name=" average STAT_SFLDT wasted effort" fld="24" baseField="0" baseItem="0"/>
-    <dataField name=" average fuzzy participation SFLDT wasted effort" fld="33" baseField="0" baseItem="0"/>
-    <dataField name=" average fuzzy participation STAT_SFLDT wasted effort" fld="28" baseField="0" baseItem="0"/>
-    <dataField name=" average SFLDT_Features wasted effort" fld="26" baseField="0" baseItem="0"/>
-    <dataField name=" average fuzzy participation SFLDT_Features wasted effort" fld="30" baseField="0" baseItem="0"/>
+    <dataField name=" average SFLDT wasted effort" fld="35" baseField="0" baseItem="0"/>
+    <dataField name=" average STAT_SFLDT wasted effort" fld="25" baseField="0" baseItem="0"/>
+    <dataField name=" average fuzzy participation SFLDT wasted effort" fld="34" baseField="0" baseItem="0"/>
+    <dataField name=" average fuzzy participation STAT_SFLDT wasted effort" fld="29" baseField="0" baseItem="0"/>
+    <dataField name=" average SFLDT_Features wasted effort" fld="27" baseField="0" baseItem="0"/>
+    <dataField name=" average fuzzy participation SFLDT_Features wasted effort" fld="31" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="18">
     <chartFormat chart="35" format="16" series="1">
@@ -25674,9 +23038,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE51A16D-817B-4A06-80E0-9AF23A735685}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="36" rowHeaderCaption="after size">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C170A04-F675-4EC3-A246-381DE41B0E8A}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="36" rowHeaderCaption="after size">
   <location ref="A5:I17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="35">
+  <pivotFields count="36">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -25697,10 +23061,10 @@
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="6">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -25714,6 +23078,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -25821,14 +23186,14 @@
     <pageField fld="3" hier="-1"/>
   </pageFields>
   <dataFields count="8">
-    <dataField name=" average after retrain accuracy increase" fld="21" baseField="0" baseItem="0"/>
-    <dataField name=" average before after retrain accuracy increase" fld="22" baseField="0" baseItem="0"/>
-    <dataField name=" average SFLDT fix increase" fld="31" baseField="0" baseItem="0"/>
-    <dataField name=" average STAT_SFLDT fix increase" fld="23" baseField="0" baseItem="0"/>
-    <dataField name=" average fuzzy participation SFLDT fix increase" fld="32" baseField="0" baseItem="0"/>
-    <dataField name=" average fuzzy participation STAT_SFLDT fix increase" fld="27" baseField="0" baseItem="0"/>
-    <dataField name=" average SFLDT_Features fix increase" fld="25" baseField="0" baseItem="0"/>
-    <dataField name=" average fuzzy participation SFLDT_Features fix increase" fld="29" baseField="0" baseItem="0"/>
+    <dataField name=" average after retrain accuracy increase" fld="22" baseField="0" baseItem="0"/>
+    <dataField name=" average before after retrain accuracy increase" fld="23" baseField="0" baseItem="0"/>
+    <dataField name=" average SFLDT fix increase" fld="32" baseField="0" baseItem="0"/>
+    <dataField name=" average STAT_SFLDT fix increase" fld="24" baseField="0" baseItem="0"/>
+    <dataField name=" average fuzzy participation SFLDT fix increase" fld="33" baseField="0" baseItem="0"/>
+    <dataField name=" average fuzzy participation STAT_SFLDT fix increase" fld="28" baseField="0" baseItem="0"/>
+    <dataField name=" average SFLDT_Features fix increase" fld="26" baseField="0" baseItem="0"/>
+    <dataField name=" average fuzzy participation SFLDT_Features fix increase" fld="30" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="32">
     <chartFormat chart="8" format="0" series="1">
@@ -26133,9 +23498,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{772F8062-B764-492D-A6C7-D810B5AAD579}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="34" rowHeaderCaption="drift size">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6C05B2F-78BB-4EE7-B274-4A6EDF84BD59}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="34" rowHeaderCaption="drift size">
   <location ref="A5:I9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="35">
+  <pivotFields count="36">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -26173,6 +23538,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -26256,14 +23622,14 @@
     <pageField fld="0" hier="-1"/>
   </pageFields>
   <dataFields count="8">
-    <dataField name=" average after retrain accuracy increase" fld="21" baseField="0" baseItem="0"/>
-    <dataField name=" average before after retrain accuracy increase" fld="22" baseField="0" baseItem="0"/>
-    <dataField name=" average SFLDT fix increase" fld="31" baseField="0" baseItem="0"/>
-    <dataField name=" average STAT_SFLDT fix increase" fld="23" baseField="0" baseItem="0"/>
-    <dataField name=" average fuzzy participation SFLDT fix increase" fld="32" baseField="0" baseItem="0"/>
-    <dataField name=" average fuzzy participation STAT_SFLDT fix increase" fld="27" baseField="0" baseItem="0"/>
-    <dataField name=" average SFLDT_Features fix increase" fld="25" baseField="0" baseItem="0"/>
-    <dataField name=" average fuzzy participation SFLDT_Features fix increase" fld="29" baseField="0" baseItem="0"/>
+    <dataField name=" average after retrain accuracy increase" fld="22" baseField="0" baseItem="0"/>
+    <dataField name=" average before after retrain accuracy increase" fld="23" baseField="0" baseItem="0"/>
+    <dataField name=" average SFLDT fix increase" fld="32" baseField="0" baseItem="0"/>
+    <dataField name=" average STAT_SFLDT fix increase" fld="24" baseField="0" baseItem="0"/>
+    <dataField name=" average fuzzy participation SFLDT fix increase" fld="33" baseField="0" baseItem="0"/>
+    <dataField name=" average fuzzy participation STAT_SFLDT fix increase" fld="28" baseField="0" baseItem="0"/>
+    <dataField name=" average SFLDT_Features fix increase" fld="26" baseField="0" baseItem="0"/>
+    <dataField name=" average fuzzy participation SFLDT_Features fix increase" fld="30" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="16">
     <chartFormat chart="8" format="0" series="1">
@@ -26742,19 +24108,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F855C8-0C2D-4100-B4FB-E8E8BCF6113E}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView rightToLeft="1" topLeftCell="A8" zoomScale="71" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="54.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="55.6640625" bestFit="1" customWidth="1"/>
@@ -26815,23 +24180,23 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>14.662364298578739</v>
-      </c>
-      <c r="B6">
-        <v>15.643669090197939</v>
-      </c>
-      <c r="C6">
-        <v>14.569297785847034</v>
-      </c>
-      <c r="D6">
-        <v>15.648678567507682</v>
-      </c>
-      <c r="E6">
-        <v>9.0970102107830808</v>
-      </c>
-      <c r="F6">
-        <v>9.0977802790897542</v>
+      <c r="A6" s="3">
+        <v>30.064070661351636</v>
+      </c>
+      <c r="B6" s="3">
+        <v>32.084263971873163</v>
+      </c>
+      <c r="C6" s="3">
+        <v>29.909193083825127</v>
+      </c>
+      <c r="D6" s="3">
+        <v>32.100882119338891</v>
+      </c>
+      <c r="E6" s="3">
+        <v>18.868941004528327</v>
+      </c>
+      <c r="F6" s="3">
+        <v>18.873021575490338</v>
       </c>
     </row>
   </sheetData>
@@ -26844,20 +24209,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB362A3-FDA4-4E63-9F8E-5B7A18C16D01}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="C1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView rightToLeft="1" topLeftCell="A7" zoomScale="61" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="55.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="61.58203125" bestFit="1" customWidth="1"/>
@@ -26923,29 +24288,29 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>7.51911395011415</v>
-      </c>
-      <c r="B6">
-        <v>20.366744853995357</v>
-      </c>
-      <c r="C6">
-        <v>4.0336960056261386</v>
-      </c>
-      <c r="D6">
-        <v>4.9272911638308239</v>
-      </c>
-      <c r="E6">
-        <v>4.1955880308552223</v>
-      </c>
-      <c r="F6">
-        <v>4.2517731415097417</v>
-      </c>
-      <c r="G6">
-        <v>5.2700292576119923</v>
-      </c>
-      <c r="H6">
-        <v>5.3300276514241984</v>
+      <c r="A6" s="3">
+        <v>8.3863201719979337</v>
+      </c>
+      <c r="B6" s="3">
+        <v>20.304248170185506</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7.1767239384685801</v>
+      </c>
+      <c r="D6" s="3">
+        <v>9.1937061321386171</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8.3069373395282131</v>
+      </c>
+      <c r="F6" s="3">
+        <v>8.0568346578396142</v>
+      </c>
+      <c r="G6" s="3">
+        <v>9.3327306285102729</v>
+      </c>
+      <c r="H6" s="3">
+        <v>9.5409636313540691</v>
       </c>
     </row>
   </sheetData>
@@ -26958,8 +24323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42166CC-14C0-4644-8AC5-54235010DB3F}">
   <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView rightToLeft="1" topLeftCell="A24" zoomScale="98" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -27028,276 +24393,276 @@
       <c r="A6" s="2">
         <v>0.5</v>
       </c>
-      <c r="B6">
-        <v>10.242882766571146</v>
-      </c>
-      <c r="C6">
-        <v>10.870286516972405</v>
-      </c>
-      <c r="D6">
-        <v>10.236722112746349</v>
-      </c>
-      <c r="E6">
-        <v>10.869978396414085</v>
-      </c>
-      <c r="F6">
-        <v>5.9171612606934234</v>
-      </c>
-      <c r="G6">
-        <v>5.9162521293122232</v>
+      <c r="B6" s="3">
+        <v>22.695489725113426</v>
+      </c>
+      <c r="C6" s="3">
+        <v>24.294138203644678</v>
+      </c>
+      <c r="D6" s="3">
+        <v>22.707979291112654</v>
+      </c>
+      <c r="E6" s="3">
+        <v>24.324945501601945</v>
+      </c>
+      <c r="F6" s="3">
+        <v>13.706834650110025</v>
+      </c>
+      <c r="G6" s="3">
+        <v>13.717708880290981</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>10.56548493773901</v>
-      </c>
-      <c r="C7">
-        <v>11.115017270775914</v>
-      </c>
-      <c r="D7">
-        <v>10.531005930719276</v>
-      </c>
-      <c r="E7">
-        <v>11.083415324844058</v>
-      </c>
-      <c r="F7">
-        <v>6.0348984251322904</v>
-      </c>
-      <c r="G7">
-        <v>6.0225045673476165</v>
+      <c r="B7" s="3">
+        <v>23.02329419759559</v>
+      </c>
+      <c r="C7" s="3">
+        <v>24.430275423767515</v>
+      </c>
+      <c r="D7" s="3">
+        <v>23.129384276418669</v>
+      </c>
+      <c r="E7" s="3">
+        <v>24.531645255600537</v>
+      </c>
+      <c r="F7" s="3">
+        <v>13.720729945141768</v>
+      </c>
+      <c r="G7" s="3">
+        <v>13.782992673501301</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8">
-        <v>9.8360343896004832</v>
-      </c>
-      <c r="C8">
-        <v>10.344234497663923</v>
-      </c>
-      <c r="D8">
-        <v>9.8059344838911322</v>
-      </c>
-      <c r="E8">
-        <v>10.342654334721207</v>
-      </c>
-      <c r="F8">
-        <v>5.716705336426914</v>
-      </c>
-      <c r="G8">
-        <v>5.7181906789986119</v>
+      <c r="B8" s="3">
+        <v>21.600905363051254</v>
+      </c>
+      <c r="C8" s="3">
+        <v>22.679688391353078</v>
+      </c>
+      <c r="D8" s="3">
+        <v>21.512013342192333</v>
+      </c>
+      <c r="E8" s="3">
+        <v>22.68448701686566</v>
+      </c>
+      <c r="F8" s="3">
+        <v>12.609109167052569</v>
+      </c>
+      <c r="G8" s="3">
+        <v>12.612890181945088</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>10.669988526282427</v>
-      </c>
-      <c r="C9">
-        <v>11.110775821619104</v>
-      </c>
-      <c r="D9">
-        <v>10.573771311810669</v>
-      </c>
-      <c r="E9">
-        <v>11.115015608151298</v>
-      </c>
-      <c r="F9">
-        <v>6.3053394396647127</v>
-      </c>
-      <c r="G9">
-        <v>6.3034568115459599</v>
+      <c r="B9" s="3">
+        <v>21.780575981748896</v>
+      </c>
+      <c r="C9" s="3">
+        <v>22.706378189686568</v>
+      </c>
+      <c r="D9" s="3">
+        <v>21.575430535928191</v>
+      </c>
+      <c r="E9" s="3">
+        <v>22.714283860161046</v>
+      </c>
+      <c r="F9" s="3">
+        <v>12.688918089161957</v>
+      </c>
+      <c r="G9" s="3">
+        <v>12.68477982869415</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>10.356228588533988</v>
-      </c>
-      <c r="C10">
-        <v>10.824507282208204</v>
-      </c>
-      <c r="D10">
-        <v>10.305654567225075</v>
-      </c>
-      <c r="E10">
-        <v>10.833495478415765</v>
-      </c>
-      <c r="F10">
-        <v>6.1244696793315372</v>
-      </c>
-      <c r="G10">
-        <v>6.1278562479905094</v>
+      <c r="B10" s="3">
+        <v>21.299438528526959</v>
+      </c>
+      <c r="C10" s="3">
+        <v>22.238243993220564</v>
+      </c>
+      <c r="D10" s="3">
+        <v>21.151132266430515</v>
+      </c>
+      <c r="E10" s="3">
+        <v>22.241749952558671</v>
+      </c>
+      <c r="F10" s="3">
+        <v>12.386467398098782</v>
+      </c>
+      <c r="G10" s="3">
+        <v>12.383469068252261</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11">
-        <v>10.323080191503379</v>
-      </c>
-      <c r="C11">
-        <v>10.8348079494074</v>
-      </c>
-      <c r="D11">
-        <v>10.212688064515437</v>
-      </c>
-      <c r="E11">
-        <v>10.837193801676834</v>
-      </c>
-      <c r="F11">
-        <v>6.1305128573789105</v>
-      </c>
-      <c r="G11">
-        <v>6.1311613594078933</v>
+      <c r="B11" s="3">
+        <v>21.251286711504882</v>
+      </c>
+      <c r="C11" s="3">
+        <v>22.265600525509988</v>
+      </c>
+      <c r="D11" s="3">
+        <v>21.012819058506704</v>
+      </c>
+      <c r="E11" s="3">
+        <v>22.278723736509161</v>
+      </c>
+      <c r="F11" s="3">
+        <v>12.39003210058921</v>
+      </c>
+      <c r="G11" s="3">
+        <v>12.394165976717531</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12">
-        <v>10.371885496192677</v>
-      </c>
-      <c r="C12">
-        <v>10.874168731525357</v>
-      </c>
-      <c r="D12">
-        <v>10.272261079202478</v>
-      </c>
-      <c r="E12">
-        <v>10.857878992042901</v>
-      </c>
-      <c r="F12">
-        <v>6.1828263314254333</v>
-      </c>
-      <c r="G12">
-        <v>6.1738356657861289</v>
+      <c r="B12" s="3">
+        <v>21.308061653935308</v>
+      </c>
+      <c r="C12" s="3">
+        <v>22.273431552074989</v>
+      </c>
+      <c r="D12" s="3">
+        <v>21.149446715826972</v>
+      </c>
+      <c r="E12" s="3">
+        <v>22.31999965923346</v>
+      </c>
+      <c r="F12" s="3">
+        <v>12.460709908951198</v>
+      </c>
+      <c r="G12" s="3">
+        <v>12.487022829228398</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>6.9999999999999902</v>
       </c>
-      <c r="B13">
-        <v>10.372021200237434</v>
-      </c>
-      <c r="C13">
-        <v>10.854661477542633</v>
-      </c>
-      <c r="D13">
-        <v>10.251820705333422</v>
-      </c>
-      <c r="E13">
-        <v>10.857669977341045</v>
-      </c>
-      <c r="F13">
-        <v>6.1592418646738043</v>
-      </c>
-      <c r="G13">
-        <v>6.1570508919945262</v>
+      <c r="B13" s="3">
+        <v>21.382747240978929</v>
+      </c>
+      <c r="C13" s="3">
+        <v>22.31947293961154</v>
+      </c>
+      <c r="D13" s="3">
+        <v>21.114249963363356</v>
+      </c>
+      <c r="E13" s="3">
+        <v>22.329309878366345</v>
+      </c>
+      <c r="F13" s="3">
+        <v>12.446410454407106</v>
+      </c>
+      <c r="G13" s="3">
+        <v>12.442681266838765</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14">
-        <v>10.123403936493409</v>
-      </c>
-      <c r="C14">
-        <v>10.570532935564513</v>
-      </c>
-      <c r="D14">
-        <v>10.055112277312434</v>
-      </c>
-      <c r="E14">
-        <v>10.572905127624658</v>
-      </c>
-      <c r="F14">
-        <v>6.0215777232273417</v>
-      </c>
-      <c r="G14">
-        <v>6.0222596931981052</v>
+      <c r="B14" s="3">
+        <v>20.929747004288402</v>
+      </c>
+      <c r="C14" s="3">
+        <v>21.799187540541975</v>
+      </c>
+      <c r="D14" s="3">
+        <v>20.756437255671052</v>
+      </c>
+      <c r="E14" s="3">
+        <v>21.80369722132799</v>
+      </c>
+      <c r="F14" s="3">
+        <v>12.207466685784441</v>
+      </c>
+      <c r="G14" s="3">
+        <v>12.208633743193602</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15">
-        <v>9.4592635294075613</v>
-      </c>
-      <c r="C15">
-        <v>9.9144497948641916</v>
-      </c>
-      <c r="D15">
-        <v>9.3655681734964897</v>
-      </c>
-      <c r="E15">
-        <v>9.915694273522746</v>
-      </c>
-      <c r="F15">
-        <v>5.5271566051586696</v>
-      </c>
-      <c r="G15">
-        <v>5.5278147901399066</v>
+      <c r="B15" s="3">
+        <v>20.939344332517081</v>
+      </c>
+      <c r="C15" s="3">
+        <v>21.815975469583282</v>
+      </c>
+      <c r="D15" s="3">
+        <v>20.744795853531425</v>
+      </c>
+      <c r="E15" s="3">
+        <v>21.820835147889284</v>
+      </c>
+      <c r="F15" s="3">
+        <v>12.237293229861999</v>
+      </c>
+      <c r="G15" s="3">
+        <v>12.238313426762142</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16">
-        <v>9.3670410126662311</v>
-      </c>
-      <c r="C16">
-        <v>9.7782285366519801</v>
-      </c>
-      <c r="D16">
-        <v>9.2785482002674993</v>
-      </c>
-      <c r="E16">
-        <v>9.780955776646465</v>
-      </c>
-      <c r="F16">
-        <v>5.4522296098084038</v>
-      </c>
-      <c r="G16">
-        <v>5.4527372075275515</v>
+      <c r="B16" s="3">
+        <v>20.736130665822895</v>
+      </c>
+      <c r="C16" s="3">
+        <v>21.562134433069087</v>
+      </c>
+      <c r="D16" s="3">
+        <v>20.542171992272969</v>
+      </c>
+      <c r="E16" s="3">
+        <v>21.568523603333468</v>
+      </c>
+      <c r="F16" s="3">
+        <v>12.085263498414033</v>
+      </c>
+      <c r="G16" s="3">
+        <v>12.086340865702132</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
-        <v>10.152391391071861</v>
-      </c>
-      <c r="C17">
-        <v>10.639180179429067</v>
-      </c>
-      <c r="D17">
-        <v>10.076443864557595</v>
-      </c>
-      <c r="E17">
-        <v>10.637258893643651</v>
-      </c>
-      <c r="F17">
-        <v>5.9679211333215303</v>
-      </c>
-      <c r="G17">
-        <v>5.96624170541652</v>
+      <c r="B17" s="3">
+        <v>21.473580297200645</v>
+      </c>
+      <c r="C17" s="3">
+        <v>22.489800270156991</v>
+      </c>
+      <c r="D17" s="3">
+        <v>21.321748951457426</v>
+      </c>
+      <c r="E17" s="3">
+        <v>22.508562051414625</v>
+      </c>
+      <c r="F17" s="3">
+        <v>12.57755537348152</v>
+      </c>
+      <c r="G17" s="3">
+        <v>12.585119666016379</v>
       </c>
     </row>
   </sheetData>
@@ -27380,92 +24745,92 @@
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>7.3909641595153959</v>
-      </c>
-      <c r="C6">
-        <v>7.6875315497223626</v>
-      </c>
-      <c r="D6">
-        <v>7.341998990408884</v>
-      </c>
-      <c r="E6">
-        <v>7.7978293791014641</v>
-      </c>
-      <c r="F6">
-        <v>5.417592125189298</v>
-      </c>
-      <c r="G6">
-        <v>5.4361433619384147</v>
+      <c r="B6" s="3">
+        <v>14.781928319030792</v>
+      </c>
+      <c r="C6" s="3">
+        <v>15.375063099444725</v>
+      </c>
+      <c r="D6" s="3">
+        <v>14.683997980817768</v>
+      </c>
+      <c r="E6" s="3">
+        <v>15.595658758202928</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10.835184250378596</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10.872286723876829</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>12.636209622769369</v>
-      </c>
-      <c r="C7">
-        <v>13.565866217210242</v>
-      </c>
-      <c r="D7">
-        <v>12.525771344836174</v>
-      </c>
-      <c r="E7">
-        <v>13.606401278865702</v>
-      </c>
-      <c r="F7">
-        <v>8.477677769862094</v>
-      </c>
-      <c r="G7">
-        <v>8.4849553729156177</v>
+      <c r="B7" s="3">
+        <v>25.272419245538739</v>
+      </c>
+      <c r="C7" s="3">
+        <v>27.131732434420485</v>
+      </c>
+      <c r="D7" s="3">
+        <v>25.051542689672349</v>
+      </c>
+      <c r="E7" s="3">
+        <v>27.212802557731404</v>
+      </c>
+      <c r="F7" s="3">
+        <v>16.955355539724188</v>
+      </c>
+      <c r="G7" s="3">
+        <v>16.969910745831235</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>14.739540620348219</v>
-      </c>
-      <c r="C8">
-        <v>15.723215983690345</v>
-      </c>
-      <c r="D8">
-        <v>14.647049837027785</v>
-      </c>
-      <c r="E8">
-        <v>15.726890221891294</v>
-      </c>
-      <c r="F8">
-        <v>9.1217770667284128</v>
-      </c>
-      <c r="G8">
-        <v>9.1223037632507289</v>
+      <c r="B8" s="3">
+        <v>30.227415060404105</v>
+      </c>
+      <c r="C8" s="3">
+        <v>32.253758882524018</v>
+      </c>
+      <c r="D8" s="3">
+        <v>30.07460481944381</v>
+      </c>
+      <c r="E8" s="3">
+        <v>32.268193613817445</v>
+      </c>
+      <c r="F8" s="3">
+        <v>18.935581279142333</v>
+      </c>
+      <c r="G8" s="3">
+        <v>18.93931003292742</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>14.662364298578739</v>
-      </c>
-      <c r="C9">
-        <v>15.643669090197939</v>
-      </c>
-      <c r="D9">
-        <v>14.569297785847034</v>
-      </c>
-      <c r="E9">
-        <v>15.648678567507682</v>
-      </c>
-      <c r="F9">
-        <v>9.0970102107830808</v>
-      </c>
-      <c r="G9">
-        <v>9.0977802790897542</v>
+      <c r="B9" s="3">
+        <v>30.064070661351636</v>
+      </c>
+      <c r="C9" s="3">
+        <v>32.084263971873163</v>
+      </c>
+      <c r="D9" s="3">
+        <v>29.909193083825127</v>
+      </c>
+      <c r="E9" s="3">
+        <v>32.100882119338891</v>
+      </c>
+      <c r="F9" s="3">
+        <v>18.868941004528327</v>
+      </c>
+      <c r="G9" s="3">
+        <v>18.873021575490338</v>
       </c>
     </row>
   </sheetData>
@@ -27478,21 +24843,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2791CC83-05E7-452A-907A-78EFC74A9A34}">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A25" zoomScale="61" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" zoomScale="83" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="55.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="61.58203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="60.5" bestFit="1" customWidth="1"/>
@@ -27510,8 +24875,8 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+      <c r="B2" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -27555,348 +24920,348 @@
       <c r="A6" s="2">
         <v>0.5</v>
       </c>
-      <c r="B6">
-        <v>-4.5904197745810853</v>
-      </c>
-      <c r="C6">
-        <v>11.170107108375463</v>
-      </c>
-      <c r="D6">
-        <v>1.4066094746639151</v>
-      </c>
-      <c r="E6">
-        <v>0.94969523368542297</v>
-      </c>
-      <c r="F6">
-        <v>0.57679932503265441</v>
-      </c>
-      <c r="G6">
-        <v>0.35838415028174747</v>
-      </c>
-      <c r="H6">
-        <v>1.7753922118469769</v>
-      </c>
-      <c r="I6">
-        <v>1.6531124711535956</v>
+      <c r="B6" s="3">
+        <v>-8.9728013771824848</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10.019816202760797</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6.2853597375245398</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6.4845394613880671</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.7062620522638037</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.6521744314031288</v>
+      </c>
+      <c r="H6" s="3">
+        <v>8.6183126649873927</v>
+      </c>
+      <c r="I6" s="3">
+        <v>8.7573358007517488</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>-1.7886681623518741</v>
-      </c>
-      <c r="C7">
-        <v>14.883869751976055</v>
-      </c>
-      <c r="D7">
-        <v>3.547768458314382</v>
-      </c>
-      <c r="E7">
-        <v>4.6385110873488014</v>
-      </c>
-      <c r="F7">
-        <v>3.435043628520988</v>
-      </c>
-      <c r="G7">
-        <v>3.9194844907428812</v>
-      </c>
-      <c r="H7">
-        <v>4.4938550986008829</v>
-      </c>
-      <c r="I7">
-        <v>4.3885306091015783</v>
+      <c r="B7" s="3">
+        <v>-5.2404182272205748</v>
+      </c>
+      <c r="C7" s="3">
+        <v>13.031740407771503</v>
+      </c>
+      <c r="D7" s="3">
+        <v>9.7136655884138019</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10.31933071446441</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5.8128120126228433</v>
+      </c>
+      <c r="G7" s="3">
+        <v>7.8127522087527161</v>
+      </c>
+      <c r="H7" s="3">
+        <v>12.977002979470223</v>
+      </c>
+      <c r="I7" s="3">
+        <v>13.727451597424377</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8">
-        <v>0.4262984255241084</v>
-      </c>
-      <c r="C8">
-        <v>17.639322903131962</v>
-      </c>
-      <c r="D8">
-        <v>4.7749656743021625</v>
-      </c>
-      <c r="E8">
-        <v>4.6801545164996678</v>
-      </c>
-      <c r="F8">
-        <v>4.6849549757439863</v>
-      </c>
-      <c r="G8">
-        <v>4.3169089313257611</v>
-      </c>
-      <c r="H8">
-        <v>5.8977146625557797</v>
-      </c>
-      <c r="I8">
-        <v>5.9766402849426186</v>
+      <c r="B8" s="3">
+        <v>1.9147601243355328</v>
+      </c>
+      <c r="C8" s="3">
+        <v>15.364801150041279</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9.0900131458847024</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9.4796261247769049</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6.8045661096959229</v>
+      </c>
+      <c r="G8" s="3">
+        <v>7.2123181689977383</v>
+      </c>
+      <c r="H8" s="3">
+        <v>12.76788614657851</v>
+      </c>
+      <c r="I8" s="3">
+        <v>13.083065064269466</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>4.3570118395977095</v>
-      </c>
-      <c r="C9">
-        <v>18.012157762606584</v>
-      </c>
-      <c r="D9">
-        <v>4.2888934509791499</v>
-      </c>
-      <c r="E9">
-        <v>5.132827727114023</v>
-      </c>
-      <c r="F9">
-        <v>4.7654535578056043</v>
-      </c>
-      <c r="G9">
-        <v>4.7431245911159152</v>
-      </c>
-      <c r="H9">
-        <v>5.4246169168892315</v>
-      </c>
-      <c r="I9">
-        <v>5.5202766642310213</v>
+      <c r="B9" s="3">
+        <v>5.5797902201136447</v>
+      </c>
+      <c r="C9" s="3">
+        <v>16.250221350682885</v>
+      </c>
+      <c r="D9" s="3">
+        <v>9.4011892203990381</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10.500751905903993</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7.2213735674404669</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8.8147973640901753</v>
+      </c>
+      <c r="H9" s="3">
+        <v>14.447983197670817</v>
+      </c>
+      <c r="I9" s="3">
+        <v>14.962394506708222</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>9.7279930329204891</v>
-      </c>
-      <c r="C10">
-        <v>20.105317976129413</v>
-      </c>
-      <c r="D10">
-        <v>4.6972844701286096</v>
-      </c>
-      <c r="E10">
-        <v>5.5891082155591914</v>
-      </c>
-      <c r="F10">
-        <v>5.0493013065464467</v>
-      </c>
-      <c r="G10">
-        <v>5.1070967850639661</v>
-      </c>
-      <c r="H10">
-        <v>5.6838843282903762</v>
-      </c>
-      <c r="I10">
-        <v>5.8392994150210864</v>
+      <c r="B10" s="3">
+        <v>8.2634678570095002</v>
+      </c>
+      <c r="C10" s="3">
+        <v>17.503654040624205</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10.253114389343706</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11.582299346158587</v>
+      </c>
+      <c r="F10" s="3">
+        <v>7.7436516535999411</v>
+      </c>
+      <c r="G10" s="3">
+        <v>9.6394944186155893</v>
+      </c>
+      <c r="H10" s="3">
+        <v>15.596558476401793</v>
+      </c>
+      <c r="I10" s="3">
+        <v>15.68277648059706</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11">
-        <v>7.1088578627907646</v>
-      </c>
-      <c r="C11">
-        <v>20.055588745847317</v>
-      </c>
-      <c r="D11">
-        <v>4.4611658158321079</v>
-      </c>
-      <c r="E11">
-        <v>5.2665423362072916</v>
-      </c>
-      <c r="F11">
-        <v>4.9159247302630957</v>
-      </c>
-      <c r="G11">
-        <v>4.6369228820205324</v>
-      </c>
-      <c r="H11">
-        <v>5.4791772239044763</v>
-      </c>
-      <c r="I11">
-        <v>5.6128366702164643</v>
+      <c r="B11" s="3">
+        <v>9.4339409120380449</v>
+      </c>
+      <c r="C11" s="3">
+        <v>17.460599528196568</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10.099292461167995</v>
+      </c>
+      <c r="E11" s="3">
+        <v>11.370798236350852</v>
+      </c>
+      <c r="F11" s="3">
+        <v>8.0182573738025997</v>
+      </c>
+      <c r="G11" s="3">
+        <v>8.6930663083709341</v>
+      </c>
+      <c r="H11" s="3">
+        <v>15.0818805680272</v>
+      </c>
+      <c r="I11" s="3">
+        <v>15.305643445602445</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12">
-        <v>8.6062213164543984</v>
-      </c>
-      <c r="C12">
-        <v>23.480201802258609</v>
-      </c>
-      <c r="D12">
-        <v>4.3176624268939721</v>
-      </c>
-      <c r="E12">
-        <v>5.406856235852521</v>
-      </c>
-      <c r="F12">
-        <v>4.5737812788573615</v>
-      </c>
-      <c r="G12">
-        <v>4.6969300556136382</v>
-      </c>
-      <c r="H12">
-        <v>5.4608392578439053</v>
-      </c>
-      <c r="I12">
-        <v>5.5102241160491916</v>
+      <c r="B12" s="3">
+        <v>10.65787216010588</v>
+      </c>
+      <c r="C12" s="3">
+        <v>19.134795727090893</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9.5386713057566563</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11.716005793773293</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7.3856657079888723</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8.9110826398137934</v>
+      </c>
+      <c r="H12" s="3">
+        <v>14.179175272491536</v>
+      </c>
+      <c r="I12" s="3">
+        <v>14.693212796785087</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>6.9999999999999902</v>
       </c>
-      <c r="B13">
-        <v>11.72603935938546</v>
-      </c>
-      <c r="C13">
-        <v>22.74018118793887</v>
-      </c>
-      <c r="D13">
-        <v>4.2157173696889991</v>
-      </c>
-      <c r="E13">
-        <v>5.3761810523115772</v>
-      </c>
-      <c r="F13">
-        <v>4.4659299159338941</v>
-      </c>
-      <c r="G13">
-        <v>4.679663133186752</v>
-      </c>
-      <c r="H13">
-        <v>5.3958962218562316</v>
-      </c>
-      <c r="I13">
-        <v>5.451704671635424</v>
+      <c r="B13" s="3">
+        <v>11.22798547115452</v>
+      </c>
+      <c r="C13" s="3">
+        <v>19.713079595743313</v>
+      </c>
+      <c r="D13" s="3">
+        <v>9.2682958756642062</v>
+      </c>
+      <c r="E13" s="3">
+        <v>11.087225357225673</v>
+      </c>
+      <c r="F13" s="3">
+        <v>7.0073593515434061</v>
+      </c>
+      <c r="G13" s="3">
+        <v>8.5920222819742555</v>
+      </c>
+      <c r="H13" s="3">
+        <v>14.529736797488354</v>
+      </c>
+      <c r="I13" s="3">
+        <v>14.619306568487247</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14">
-        <v>12.713028384182769</v>
-      </c>
-      <c r="C14">
-        <v>23.133415615182631</v>
-      </c>
-      <c r="D14">
-        <v>4.2221530697644809</v>
-      </c>
-      <c r="E14">
-        <v>5.3498874643388241</v>
-      </c>
-      <c r="F14">
-        <v>4.4925227207986387</v>
-      </c>
-      <c r="G14">
-        <v>4.6642535516425569</v>
-      </c>
-      <c r="H14">
-        <v>5.5344839254385745</v>
-      </c>
-      <c r="I14">
-        <v>5.6218727786780578</v>
+      <c r="B14" s="3">
+        <v>14.434568714478958</v>
+      </c>
+      <c r="C14" s="3">
+        <v>19.993727528634949</v>
+      </c>
+      <c r="D14" s="3">
+        <v>9.8877675753951149</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11.735999160956945</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7.3814638648898976</v>
+      </c>
+      <c r="G14" s="3">
+        <v>8.7795599045516788</v>
+      </c>
+      <c r="H14" s="3">
+        <v>15.310881355743311</v>
+      </c>
+      <c r="I14" s="3">
+        <v>15.32410087178677</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15">
-        <v>13.713480289330315</v>
-      </c>
-      <c r="C15">
-        <v>23.701688281737106</v>
-      </c>
-      <c r="D15">
-        <v>3.9424775498388662</v>
-      </c>
-      <c r="E15">
-        <v>5.3239086808880502</v>
-      </c>
-      <c r="F15">
-        <v>4.0938668825425184</v>
-      </c>
-      <c r="G15">
-        <v>4.2903391707916008</v>
-      </c>
-      <c r="H15">
-        <v>5.9897325414417883</v>
-      </c>
-      <c r="I15">
-        <v>6.0924469456106012</v>
+      <c r="B15" s="3">
+        <v>14.582319808540886</v>
+      </c>
+      <c r="C15" s="3">
+        <v>20.481009089338848</v>
+      </c>
+      <c r="D15" s="3">
+        <v>9.946829455985128</v>
+      </c>
+      <c r="E15" s="3">
+        <v>12.571926934581922</v>
+      </c>
+      <c r="F15" s="3">
+        <v>7.8015140677106922</v>
+      </c>
+      <c r="G15" s="3">
+        <v>9.2501436246493594</v>
+      </c>
+      <c r="H15" s="3">
+        <v>15.426702930214949</v>
+      </c>
+      <c r="I15" s="3">
+        <v>15.779892779668488</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16">
-        <v>14.338897663216812</v>
-      </c>
-      <c r="C16">
-        <v>24.885974252041816</v>
-      </c>
-      <c r="D16">
-        <v>3.8629189190120283</v>
-      </c>
-      <c r="E16">
-        <v>5.3389601816426566</v>
-      </c>
-      <c r="F16">
-        <v>4.1122879808306836</v>
-      </c>
-      <c r="G16">
-        <v>4.2853388177907554</v>
-      </c>
-      <c r="H16">
-        <v>5.9249447338548471</v>
-      </c>
-      <c r="I16">
-        <v>5.986424118606374</v>
+      <c r="B16" s="3">
+        <v>15.088771525860553</v>
+      </c>
+      <c r="C16" s="3">
+        <v>21.425085635093037</v>
+      </c>
+      <c r="D16" s="3">
+        <v>9.9498793990730015</v>
+      </c>
+      <c r="E16" s="3">
+        <v>12.544434677033131</v>
+      </c>
+      <c r="F16" s="3">
+        <v>7.9888935142422008</v>
+      </c>
+      <c r="G16" s="3">
+        <v>9.1892633353658688</v>
+      </c>
+      <c r="H16" s="3">
+        <v>15.517839130159302</v>
+      </c>
+      <c r="I16" s="3">
+        <v>15.761547175532376</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
-        <v>7.51911395011415</v>
-      </c>
-      <c r="C17">
-        <v>20.36674485399536</v>
-      </c>
-      <c r="D17">
-        <v>4.0336960056261386</v>
-      </c>
-      <c r="E17">
-        <v>4.9272911638308239</v>
-      </c>
-      <c r="F17">
-        <v>4.1955880308552223</v>
-      </c>
-      <c r="G17">
-        <v>4.2517731415097417</v>
-      </c>
-      <c r="H17">
-        <v>5.2700292576119923</v>
-      </c>
-      <c r="I17">
-        <v>5.3300276514241984</v>
+      <c r="B17" s="3">
+        <v>7.5365823656387541</v>
+      </c>
+      <c r="C17" s="3">
+        <v>17.536635437754267</v>
+      </c>
+      <c r="D17" s="3">
+        <v>9.4364488199737462</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10.94256376246355</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7.046707892294255</v>
+      </c>
+      <c r="G17" s="3">
+        <v>8.3801083021858034</v>
+      </c>
+      <c r="H17" s="3">
+        <v>14.135400492988637</v>
+      </c>
+      <c r="I17" s="3">
+        <v>14.423413654188083</v>
       </c>
     </row>
   </sheetData>
@@ -27909,8 +25274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EAC832-D305-4AAF-916C-446F27EDFB7F}">
   <dimension ref="A2:I9"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A21" zoomScale="67" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView rightToLeft="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -27986,116 +25351,116 @@
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>7.4706838175777488</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>17.51031897253203</v>
       </c>
-      <c r="D6">
-        <v>4.7636671306376339</v>
-      </c>
-      <c r="E6">
-        <v>5.5424464492210168</v>
-      </c>
-      <c r="F6">
-        <v>3.5805616438348422</v>
-      </c>
-      <c r="G6">
-        <v>4.2530829067241394</v>
-      </c>
-      <c r="H6">
-        <v>7.0986858002687603</v>
-      </c>
-      <c r="I6">
-        <v>7.2467818308341911</v>
+      <c r="D6" s="3">
+        <v>9.5273342612752678</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11.084892898442034</v>
+      </c>
+      <c r="F6" s="3">
+        <v>7.1611232876696844</v>
+      </c>
+      <c r="G6" s="3">
+        <v>8.5061658134482769</v>
+      </c>
+      <c r="H6" s="3">
+        <v>14.197371600537519</v>
+      </c>
+      <c r="I6" s="3">
+        <v>14.493563661668384</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>2.3395431116197707</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>18.998241483228103</v>
       </c>
-      <c r="D7">
-        <v>3.1748951395372766</v>
-      </c>
-      <c r="E7">
-        <v>4.2703995640486285</v>
-      </c>
-      <c r="F7">
-        <v>2.8789500084931063</v>
-      </c>
-      <c r="G7">
-        <v>3.1040473316722905</v>
-      </c>
-      <c r="H7">
-        <v>4.5446232543954617</v>
-      </c>
-      <c r="I7">
-        <v>4.6876668478650902</v>
+      <c r="D7" s="3">
+        <v>6.3497902790745533</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8.5407991280972571</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5.7579000169862127</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6.208094663344581</v>
+      </c>
+      <c r="H7" s="3">
+        <v>9.0892465087909233</v>
+      </c>
+      <c r="I7" s="3">
+        <v>9.3753336957301787</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>-1.1470011730425542</v>
-      </c>
-      <c r="C8">
-        <v>19.895880590420912</v>
-      </c>
-      <c r="D8">
-        <v>2.5828777008376975</v>
-      </c>
-      <c r="E8">
-        <v>3.8259338099190354</v>
-      </c>
-      <c r="F8">
-        <v>2.5556858395409559</v>
-      </c>
-      <c r="G8">
-        <v>2.706423057177993</v>
-      </c>
-      <c r="H8">
-        <v>3.5103833386118719</v>
-      </c>
-      <c r="I8">
-        <v>3.6481705956411385</v>
+      <c r="B8" s="3">
+        <v>-0.98795183005735665</v>
+      </c>
+      <c r="C8" s="3">
+        <v>20.252530298172974</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4.8601865810713818</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8.53853023239569</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6.119017225905905</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6.5199553782457906</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6.5056764847143729</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6.9350709524642156</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>-1.022736211143316</v>
-      </c>
-      <c r="C9">
-        <v>19.863756310799843</v>
-      </c>
-      <c r="D9">
-        <v>2.6045423493525481</v>
-      </c>
-      <c r="E9">
-        <v>3.842261201417648</v>
-      </c>
-      <c r="F9">
-        <v>2.567385056510195</v>
-      </c>
-      <c r="G9">
-        <v>2.7210384228961497</v>
-      </c>
-      <c r="H9">
-        <v>3.5480567308327431</v>
-      </c>
-      <c r="I9">
-        <v>3.6860292198538338</v>
+      <c r="B9" s="3">
+        <v>-0.88052814377412369</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20.212354726676004</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.9089028080762791</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8.5404108174856521</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6.1087534131491399</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6.5118642912204789</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6.5898832589844742</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7.0148156386483533</v>
       </c>
     </row>
   </sheetData>

--- a/data/results/results_sfldt.xlsx
+++ b/data/results/results_sfldt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoavz\GitHub\APPETITE\data\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7557EE46-2FB1-4507-BE1E-0853DE2DCA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393D7555-5FAB-4276-8B48-36BD6A89674E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{254EC2FD-D695-490A-84A4-C1AAE2218E49}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{254EC2FD-D695-490A-84A4-C1AAE2218E49}"/>
   </bookViews>
   <sheets>
     <sheet name="total wasted effort" sheetId="9" r:id="rId1"/>
@@ -22,13 +22,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId7"/>
+    <pivotCache cacheId="36" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
   <si>
     <t>after size</t>
   </si>
@@ -2742,7 +2742,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30.064070661351636</c:v>
+                  <c:v>1.8798586572438163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2795,7 +2795,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32.084263971873163</c:v>
+                  <c:v>1.3387178192831903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,7 +2848,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>29.909193083825127</c:v>
+                  <c:v>2.1292276627965676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2901,7 +2901,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32.100882119338891</c:v>
+                  <c:v>1.4974760222110046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2954,7 +2954,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18.868941004528327</c:v>
+                  <c:v>3.753407370015144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3007,7 +3007,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18.873021575490338</c:v>
+                  <c:v>3.9015648662291773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4594,7 +4594,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.3863201719979337</c:v>
+                  <c:v>7.277052173182895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4647,7 +4647,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20.304248170185506</c:v>
+                  <c:v>17.557434499666257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4700,7 +4700,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.1767239384685801</c:v>
+                  <c:v>11.201747491894595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4753,7 +4753,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.1937061321386171</c:v>
+                  <c:v>14.545135128218421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4806,7 +4806,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.3069373395282131</c:v>
+                  <c:v>9.0895543606655078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4859,7 +4859,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.0568346578396142</c:v>
+                  <c:v>12.955623721845447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4914,7 +4914,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.3327306285102729</c:v>
+                  <c:v>11.838153077748728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4969,7 +4969,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.5409636313540691</c:v>
+                  <c:v>12.045692913181046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7818,37 +7818,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>22.695489725113426</c:v>
+                  <c:v>1.9033232628398791</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.02329419759559</c:v>
+                  <c:v>1.779874213836478</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.600905363051254</c:v>
+                  <c:v>1.861764705882353</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.780575981748896</c:v>
+                  <c:v>1.9476744186046511</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.299438528526959</c:v>
+                  <c:v>1.7617647058823529</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.251286711504882</c:v>
+                  <c:v>1.9192200557103065</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.308061653935308</c:v>
+                  <c:v>1.9573333333333334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.382747240978929</c:v>
+                  <c:v>2.0052219321148823</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.929747004288402</c:v>
+                  <c:v>1.7627551020408163</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.939344332517081</c:v>
+                  <c:v>1.8414322250639386</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.736130665822895</c:v>
+                  <c:v>1.9228791773778919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7934,37 +7934,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>24.294138203644678</c:v>
+                  <c:v>2.226586102719033</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.430275423767515</c:v>
+                  <c:v>1.5911949685534592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.679688391353078</c:v>
+                  <c:v>1.3705882352941177</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.706378189686568</c:v>
+                  <c:v>1.4186046511627908</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.238243993220564</c:v>
+                  <c:v>1.2323529411764707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.265600525509988</c:v>
+                  <c:v>1.1894150417827298</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.273431552074989</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.31947293961154</c:v>
+                  <c:v>1.2167101827676241</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.799187540541975</c:v>
+                  <c:v>1.1326530612244898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.815975469583282</c:v>
+                  <c:v>1.1406649616368287</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.562134433069087</c:v>
+                  <c:v>1.1696658097686374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8050,37 +8050,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>22.707979291112654</c:v>
+                  <c:v>2.1661631419939575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.129384276418669</c:v>
+                  <c:v>2.0628930817610063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.512013342192333</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.575430535928191</c:v>
+                  <c:v>2.2761627906976742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.151132266430515</c:v>
+                  <c:v>1.9705882352941178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.012819058506704</c:v>
+                  <c:v>2.1002785515320332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.149446715826972</c:v>
+                  <c:v>2.2186666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.114249963363356</c:v>
+                  <c:v>2.2245430809399478</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.756437255671052</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.744795853531425</c:v>
+                  <c:v>2.0434782608695654</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.542171992272969</c:v>
+                  <c:v>2.1619537275064267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8166,37 +8166,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>24.324945501601945</c:v>
+                  <c:v>2.6646525679758306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.531645255600537</c:v>
+                  <c:v>1.9748427672955975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.68448701686566</c:v>
+                  <c:v>1.5617647058823529</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.714283860161046</c:v>
+                  <c:v>1.5639534883720929</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.241749952558671</c:v>
+                  <c:v>1.3911764705882352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.278723736509161</c:v>
+                  <c:v>1.3091922005571031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.31999965923346</c:v>
+                  <c:v>1.296</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.329309878366345</c:v>
+                  <c:v>1.2663185378590078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.80369722132799</c:v>
+                  <c:v>1.1989795918367347</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.820835147889284</c:v>
+                  <c:v>1.2327365728900255</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.568523603333468</c:v>
+                  <c:v>1.2544987146529563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8282,37 +8282,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13.706834650110025</c:v>
+                  <c:v>3.5589123867069485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.720729945141768</c:v>
+                  <c:v>3.6761006289308176</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.609109167052569</c:v>
+                  <c:v>3.45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.688918089161957</c:v>
+                  <c:v>3.7238372093023258</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.386467398098782</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.39003210058921</c:v>
+                  <c:v>3.6740947075208914</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.460709908951198</c:v>
+                  <c:v>3.8586666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.446410454407106</c:v>
+                  <c:v>3.9921671018276763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.207466685784441</c:v>
+                  <c:v>3.8265306122448979</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.237293229861999</c:v>
+                  <c:v>3.7774936061381075</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.085263498414033</c:v>
+                  <c:v>3.9588688946015425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8398,37 +8398,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13.717708880290981</c:v>
+                  <c:v>3.7915407854984893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.782992673501301</c:v>
+                  <c:v>3.8962264150943398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.612890181945088</c:v>
+                  <c:v>3.7529411764705882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.68477982869415</c:v>
+                  <c:v>3.9912790697674421</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.383469068252261</c:v>
+                  <c:v>3.861764705882353</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.394165976717531</c:v>
+                  <c:v>3.818941504178273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.487022829228398</c:v>
+                  <c:v>4.0346666666666664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.442681266838765</c:v>
+                  <c:v>4.0809399477806787</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.208633743193602</c:v>
+                  <c:v>3.9285714285714284</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.238313426762142</c:v>
+                  <c:v>3.7698209718670075</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.086340865702132</c:v>
+                  <c:v>3.961439588688946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10279,35 +10279,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'drift size x wasted effort'!$A$6:$A$9</c:f>
+              <c:f>'drift size x wasted effort'!$A$6:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'drift size x wasted effort'!$B$6:$B$9</c:f>
+              <c:f>'drift size x wasted effort'!$B$6:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.781928319030792</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.272419245538739</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.227415060404105</c:v>
+                  <c:v>1.8798586572438163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10344,35 +10332,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'drift size x wasted effort'!$A$6:$A$9</c:f>
+              <c:f>'drift size x wasted effort'!$A$6:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'drift size x wasted effort'!$C$6:$C$9</c:f>
+              <c:f>'drift size x wasted effort'!$C$6:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15.375063099444725</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.131732434420485</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.253758882524018</c:v>
+                  <c:v>1.3387178192831903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10409,35 +10385,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'drift size x wasted effort'!$A$6:$A$9</c:f>
+              <c:f>'drift size x wasted effort'!$A$6:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'drift size x wasted effort'!$D$6:$D$9</c:f>
+              <c:f>'drift size x wasted effort'!$D$6:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.683997980817768</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.051542689672349</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.07460481944381</c:v>
+                  <c:v>2.1292276627965676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10474,35 +10438,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'drift size x wasted effort'!$A$6:$A$9</c:f>
+              <c:f>'drift size x wasted effort'!$A$6:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'drift size x wasted effort'!$E$6:$E$9</c:f>
+              <c:f>'drift size x wasted effort'!$E$6:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15.595658758202928</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.212802557731404</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.268193613817445</c:v>
+                  <c:v>1.4974760222110046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10539,35 +10491,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'drift size x wasted effort'!$A$6:$A$9</c:f>
+              <c:f>'drift size x wasted effort'!$A$6:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'drift size x wasted effort'!$F$6:$F$9</c:f>
+              <c:f>'drift size x wasted effort'!$F$6:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10.835184250378596</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.955355539724188</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.935581279142333</c:v>
+                  <c:v>3.753407370015144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10604,35 +10544,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'drift size x wasted effort'!$A$6:$A$9</c:f>
+              <c:f>'drift size x wasted effort'!$A$6:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'drift size x wasted effort'!$G$6:$G$9</c:f>
+              <c:f>'drift size x wasted effort'!$G$6:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10.872286723876829</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.969910745831235</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.93931003292742</c:v>
+                  <c:v>3.9015648662291773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13121,37 +13049,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-8.9728013771824848</c:v>
+                  <c:v>-9.3332330609760046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.2404182272205748</c:v>
+                  <c:v>-5.8430737516391762</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9147601243355328</c:v>
+                  <c:v>2.0452123727817915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5797902201136447</c:v>
+                  <c:v>5.424680287580963</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2634678570095002</c:v>
+                  <c:v>8.066570602810037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.4339409120380449</c:v>
+                  <c:v>8.9585938208570877</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.65787216010588</c:v>
+                  <c:v>10.379280500854346</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.22798547115452</c:v>
+                  <c:v>10.974577310143886</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.434568714478958</c:v>
+                  <c:v>14.532185507990768</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.582319808540886</c:v>
+                  <c:v>14.402065017302883</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.088771525860553</c:v>
+                  <c:v>15.001361068213072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13237,37 +13165,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.019816202760797</c:v>
+                  <c:v>10.164633474698503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.031740407771503</c:v>
+                  <c:v>13.058886545330958</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.364801150041279</c:v>
+                  <c:v>15.069169179485733</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.250221350682885</c:v>
+                  <c:v>16.344147972485072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.503654040624205</c:v>
+                  <c:v>17.513097943577243</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.460599528196568</c:v>
+                  <c:v>17.810038409930353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.134795727090893</c:v>
+                  <c:v>19.135110195072745</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.713079595743313</c:v>
+                  <c:v>19.686649206522471</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.993727528634949</c:v>
+                  <c:v>20.095034245525</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.481009089338848</c:v>
+                  <c:v>20.491793389790804</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.425085635093037</c:v>
+                  <c:v>21.454953120029803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13353,37 +13281,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.2853597375245398</c:v>
+                  <c:v>6.5419084712532261</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7136655884138019</c:v>
+                  <c:v>10.381560998654804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0900131458847024</c:v>
+                  <c:v>9.4641784661031441</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4011892203990381</c:v>
+                  <c:v>11.148435291668015</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.253114389343706</c:v>
+                  <c:v>12.051443116766242</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.099292461167995</c:v>
+                  <c:v>12.146204121128315</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5386713057566563</c:v>
+                  <c:v>11.713370536837212</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.2682958756642062</c:v>
+                  <c:v>11.770304675551717</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.8877675753951149</c:v>
+                  <c:v>12.444373097176209</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.946829455985128</c:v>
+                  <c:v>12.482049562767873</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.9498793990730015</c:v>
+                  <c:v>12.196757912980228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13469,37 +13397,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.4845394613880671</c:v>
+                  <c:v>9.6161712107186812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.31933071446441</c:v>
+                  <c:v>13.846352453914758</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4796261247769049</c:v>
+                  <c:v>13.901895221597806</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.500751905903993</c:v>
+                  <c:v>15.055999895480179</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.582299346158587</c:v>
+                  <c:v>15.091407724756461</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.370798236350852</c:v>
+                  <c:v>15.404847637655649</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.716005793773293</c:v>
+                  <c:v>15.049829747048685</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.087225357225673</c:v>
+                  <c:v>14.760777512221182</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.735999160956945</c:v>
+                  <c:v>15.473227911286433</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.571926934581922</c:v>
+                  <c:v>15.486475094233249</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.544434677033131</c:v>
+                  <c:v>15.569728313087802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13585,37 +13513,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.7062620522638037</c:v>
+                  <c:v>5.7477222488426998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8128120126228433</c:v>
+                  <c:v>8.4717402342566164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8045661096959229</c:v>
+                  <c:v>7.595928945410515</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2213735674404669</c:v>
+                  <c:v>9.3369508216350816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7436516535999411</c:v>
+                  <c:v>9.4886340410295826</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0182573738025997</c:v>
+                  <c:v>9.710362207291853</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3856657079888723</c:v>
+                  <c:v>9.723591931570013</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0073593515434061</c:v>
+                  <c:v>9.0433218786711436</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3814638648898976</c:v>
+                  <c:v>10.026501691876412</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8015140677106922</c:v>
+                  <c:v>10.011107837830814</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.9888935142422008</c:v>
+                  <c:v>10.166969938223961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13701,37 +13629,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.6521744314031288</c:v>
+                  <c:v>7.5895177864773222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8127522087527161</c:v>
+                  <c:v>11.755446634647653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2123181689977383</c:v>
+                  <c:v>11.883560284130128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.8147973640901753</c:v>
+                  <c:v>13.099419542109336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6394944186155893</c:v>
+                  <c:v>13.225954607058785</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6930663083709341</c:v>
+                  <c:v>13.926049196087067</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.9110826398137934</c:v>
+                  <c:v>13.968138745551537</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5920222819742555</c:v>
+                  <c:v>13.799768921534339</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.7795599045516788</c:v>
+                  <c:v>14.105385565158548</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.2501436246493594</c:v>
+                  <c:v>14.13237418247399</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.1892633353658688</c:v>
+                  <c:v>14.032130458883431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13819,37 +13747,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>8.6183126649873927</c:v>
+                  <c:v>7.1355859997586437</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.977002979470223</c:v>
+                  <c:v>10.394732821822959</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.76788614657851</c:v>
+                  <c:v>10.56889286969691</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.447983197670817</c:v>
+                  <c:v>12.568072005557768</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.596558476401793</c:v>
+                  <c:v>12.756621629770802</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.0818805680272</c:v>
+                  <c:v>12.617719879485209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.179175272491536</c:v>
+                  <c:v>12.281432067723706</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.529736797488354</c:v>
+                  <c:v>12.212649889185574</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.310881355743311</c:v>
+                  <c:v>13.101802712389404</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.426702930214949</c:v>
+                  <c:v>12.659238869443705</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.517839130159302</c:v>
+                  <c:v>13.066463650773699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13937,37 +13865,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>8.7573358007517488</c:v>
+                  <c:v>7.3584876391991578</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.727451597424377</c:v>
+                  <c:v>10.483879111647928</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.083065064269466</c:v>
+                  <c:v>10.779365595202879</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.962394506708222</c:v>
+                  <c:v>12.83615505613861</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.68277648059706</c:v>
+                  <c:v>12.860604771175419</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.305643445602445</c:v>
+                  <c:v>12.913070863630921</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.693212796785087</c:v>
+                  <c:v>12.437083282593095</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.619306568487247</c:v>
+                  <c:v>12.041834600217586</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.32410087178677</c:v>
+                  <c:v>13.229653638716254</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.779892779668488</c:v>
+                  <c:v>13.233700710136874</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.761547175532376</c:v>
+                  <c:v>13.445122275384342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14698,35 +14626,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'drift size x accuracy increase'!$A$6:$A$9</c:f>
+              <c:f>'drift size x accuracy increase'!$A$6:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'drift size x accuracy increase'!$B$6:$B$9</c:f>
+              <c:f>'drift size x accuracy increase'!$B$6:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.4706838175777488</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3395431116197707</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.98795183005735665</c:v>
+                  <c:v>7.2087266614272254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14763,35 +14679,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'drift size x accuracy increase'!$A$6:$A$9</c:f>
+              <c:f>'drift size x accuracy increase'!$A$6:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'drift size x accuracy increase'!$C$6:$C$9</c:f>
+              <c:f>'drift size x accuracy increase'!$C$6:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17.51031897253203</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.998241483228103</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.252530298172974</c:v>
+                  <c:v>17.708218950963509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14828,35 +14732,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'drift size x accuracy increase'!$A$6:$A$9</c:f>
+              <c:f>'drift size x accuracy increase'!$A$6:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'drift size x accuracy increase'!$D$6:$D$9</c:f>
+              <c:f>'drift size x accuracy increase'!$D$6:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.5273342612752678</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.3497902790745533</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8601865810713818</c:v>
+                  <c:v>11.403994834927037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14893,35 +14785,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'drift size x accuracy increase'!$A$6:$A$9</c:f>
+              <c:f>'drift size x accuracy increase'!$A$6:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'drift size x accuracy increase'!$E$6:$E$9</c:f>
+              <c:f>'drift size x accuracy increase'!$E$6:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11.084892898442034</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.5407991280972571</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.53853023239569</c:v>
+                  <c:v>14.794285076362415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14958,35 +14838,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'drift size x accuracy increase'!$A$6:$A$9</c:f>
+              <c:f>'drift size x accuracy increase'!$A$6:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'drift size x accuracy increase'!$F$6:$F$9</c:f>
+              <c:f>'drift size x accuracy increase'!$F$6:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.1611232876696844</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.7579000169862127</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.119017225905905</c:v>
+                  <c:v>9.2268125224583688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15023,35 +14891,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'drift size x accuracy increase'!$A$6:$A$9</c:f>
+              <c:f>'drift size x accuracy increase'!$A$6:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'drift size x accuracy increase'!$G$6:$G$9</c:f>
+              <c:f>'drift size x accuracy increase'!$G$6:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.5061658134482769</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.208094663344581</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.5199553782457906</c:v>
+                  <c:v>13.17784662871105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15090,35 +14946,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'drift size x accuracy increase'!$A$6:$A$9</c:f>
+              <c:f>'drift size x accuracy increase'!$A$6:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'drift size x accuracy increase'!$H$6:$H$9</c:f>
+              <c:f>'drift size x accuracy increase'!$H$6:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.197371600537519</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.0892465087909233</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.5056764847143729</c:v>
+                  <c:v>12.083339364566648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15157,35 +15001,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'drift size x accuracy increase'!$A$6:$A$9</c:f>
+              <c:f>'drift size x accuracy increase'!$A$6:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'drift size x accuracy increase'!$I$6:$I$9</c:f>
+              <c:f>'drift size x accuracy increase'!$I$6:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.493563661668384</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.3753336957301787</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.9350709524642156</c:v>
+                  <c:v>12.293214910468446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18956,7 +18788,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yoav Zelinger" refreshedDate="45775.89365578704" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="128" xr:uid="{571CD4F0-D7E9-40AD-904C-18E17D35EB3C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yoav Zelinger" refreshedDate="45781.808850347225" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="23" xr:uid="{571CD4F0-D7E9-40AD-904C-18E17D35EB3C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:U1048576" sheet="results_sfldt" r:id="rId2"/>
   </cacheSource>
@@ -18980,10 +18812,10 @@
     <cacheField name="drift size" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="5">
         <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
         <m/>
+        <n v="2" u="1"/>
+        <n v="3" u="1"/>
+        <n v="4" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="drifted features types" numFmtId="0">
@@ -18991,62 +18823,62 @@
     </cacheField>
     <cacheField name="total drift type" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
+        <s v="binary"/>
         <s v="numeric"/>
-        <s v="mixed"/>
-        <s v="binary"/>
         <m/>
+        <s v="mixed" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="count" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="790483"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="385"/>
     </cacheField>
     <cacheField name="after accuracy decrease" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="185.71428571428501" maxValue="48355862.530691899"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="133.333333333333" maxValue="24137.569401946501"/>
     </cacheField>
     <cacheField name="after retrain accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-10062914.087640001" maxValue="11784858.330156401"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-2994.3323831606299" maxValue="5629.8524160058696"/>
     </cacheField>
     <cacheField name="before after retrain accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-129553.787878787" maxValue="19097095.700796299"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-11.4942528735632" maxValue="8210.8912576641196"/>
     </cacheField>
     <cacheField name="SFLDT fix accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-56737.142857142797" maxValue="6856182.4815736301"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-33.725820016820798" maxValue="4884.0535195822804"/>
     </cacheField>
     <cacheField name="SFLDT wasted effort" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="19" maxValue="15405396"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="16" maxValue="729"/>
     </cacheField>
     <cacheField name="STAT_SFLDT fix accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-161518.095238095" maxValue="7764357.5593357198"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-20.801794224838801" maxValue="6086.3071354491203"/>
     </cacheField>
     <cacheField name="STAT_SFLDT wasted effort" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="16704538"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="18" maxValue="713"/>
     </cacheField>
     <cacheField name="SFLDT_Features fix accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-49256.190476190401" maxValue="7364239.1363588599"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-40.622371740958798" maxValue="5152.1107563320602"/>
     </cacheField>
     <cacheField name="SFLDT_Features wasted effort" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="9" maxValue="9696153"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="22" maxValue="1496"/>
     </cacheField>
     <cacheField name="fuzzy count" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="790483"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="385"/>
     </cacheField>
     <cacheField name="fuzzy participation SFLDT fix accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-176223.809523809" maxValue="7649173.2967111999"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-19.932716568545001" maxValue="3941.2703415732699"/>
     </cacheField>
     <cacheField name="fuzzy participation SFLDT wasted effort" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="24" maxValue="15327191"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="14" maxValue="816"/>
     </cacheField>
     <cacheField name="fuzzy participation STAT_SFLDT fix accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-154660" maxValue="7118727.8087288402"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-20.801794224838801" maxValue="5550.1129357669897"/>
     </cacheField>
     <cacheField name="fuzzy participation STAT_SFLDT wasted effort" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="16719904"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="857"/>
     </cacheField>
     <cacheField name="fuzzy participation SFLDT_Features fix accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-49510.476190476104" maxValue="7574944.2948929798"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-40.622371740958798" maxValue="5244.0578076252104"/>
     </cacheField>
     <cacheField name="fuzzy participation SFLDT_Features wasted effort" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="15" maxValue="9699558"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="22" maxValue="1530"/>
     </cacheField>
     <cacheField name="average after accuracy decrease" numFmtId="0" formula="'after accuracy decrease'/count" databaseField="0"/>
     <cacheField name="average after retrain accuracy increase" numFmtId="0" formula="'after retrain accuracy increase'/count" databaseField="0"/>
@@ -19073,2933 +18905,518 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="128">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="23">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="categorical"/>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="479.26829268292602"/>
+    <n v="-94.967760022427797"/>
+    <n v="75.133165124754697"/>
+    <n v="4.2052144659377504"/>
+    <n v="16"/>
+    <n v="17.998317914213601"/>
+    <n v="24"/>
+    <n v="-40.622371740958798"/>
+    <n v="28"/>
+    <n v="8"/>
+    <n v="17.998317914213601"/>
+    <n v="14"/>
+    <n v="17.998317914213601"/>
+    <n v="25"/>
+    <n v="-40.622371740958798"/>
+    <n v="36"/>
+  </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <s v="numeric"/>
-    <x v="0"/>
-    <n v="326"/>
-    <n v="20447.282706512899"/>
-    <n v="-2925.1332489614902"/>
-    <n v="3266.4600821000199"/>
-    <n v="2049.027274433"/>
-    <n v="4734"/>
-    <n v="2113.9598644125099"/>
-    <n v="5516"/>
-    <n v="2809.5699287858902"/>
-    <n v="3569"/>
-    <n v="326"/>
-    <n v="1208.241429038"/>
-    <n v="4909"/>
-    <n v="1516.6088646374201"/>
-    <n v="5646"/>
-    <n v="2854.8914710450699"/>
-    <n v="3587"/>
+    <x v="1"/>
+    <n v="323"/>
+    <n v="20221.481840712"/>
+    <n v="-2994.3323831606299"/>
+    <n v="3289.3605150004501"/>
+    <n v="2161.1664895188801"/>
+    <n v="614"/>
+    <n v="3164.9543528336699"/>
+    <n v="713"/>
+    <n v="2402.50133766107"/>
+    <n v="1150"/>
+    <n v="323"/>
+    <n v="1884.4977464527201"/>
+    <n v="703"/>
+    <n v="2494.1320694097799"/>
+    <n v="857"/>
+    <n v="2476.28178031588"/>
+    <n v="1219"/>
   </r>
   <r>
+    <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="101"/>
-    <n v="6707.2510822510803"/>
-    <n v="-928.67965367965303"/>
-    <n v="-1348.4848484848401"/>
-    <n v="385.98484848484799"/>
-    <n v="639"/>
-    <n v="-1537.5"/>
-    <n v="599"/>
-    <n v="488.09523809523802"/>
-    <n v="362"/>
-    <n v="113"/>
-    <n v="-1433.3333333333301"/>
-    <n v="783"/>
-    <n v="-1575"/>
-    <n v="759"/>
-    <n v="708.17099567099501"/>
-    <n v="434"/>
-  </r>
-  <r>
+    <s v="categorical"/>
     <x v="0"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
-    <x v="0"/>
-    <n v="14645"/>
-    <n v="895470.46250280505"/>
-    <n v="-258900.62839272601"/>
-    <n v="156228.77022453601"/>
-    <n v="43692.679721904402"/>
-    <n v="378172"/>
-    <n v="64417.829695441302"/>
-    <n v="421634"/>
-    <n v="68106.045940452299"/>
-    <n v="255530"/>
-    <n v="14645"/>
-    <n v="33000.184770018997"/>
-    <n v="379808"/>
-    <n v="38953.277291527404"/>
-    <n v="423105"/>
-    <n v="69157.821971029203"/>
-    <n v="255941"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="792"/>
-    <n v="52320.779220779201"/>
-    <n v="-16418.398268398199"/>
-    <n v="-14622.619047619"/>
-    <n v="2548.7012987012899"/>
-    <n v="4780"/>
-    <n v="-16219.264069264"/>
-    <n v="4764"/>
-    <n v="2217.53246753246"/>
-    <n v="2584"/>
-    <n v="696"/>
-    <n v="-18450"/>
-    <n v="3996"/>
-    <n v="-18300"/>
-    <n v="3980"/>
-    <n v="3222.5108225108202"/>
-    <n v="2104"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="496783"/>
-    <n v="29312404.700420398"/>
-    <n v="-10062914.087640001"/>
-    <n v="5610594.6239017602"/>
-    <n v="1013936.33437909"/>
-    <n v="15310749"/>
-    <n v="2460596.1020097001"/>
-    <n v="16704538"/>
-    <n v="1568816.99872696"/>
-    <n v="9696153"/>
-    <n v="496783"/>
-    <n v="1311442.5752894499"/>
-    <n v="15327191"/>
-    <n v="1764966.8732074399"/>
-    <n v="16719904"/>
-    <n v="1681330.5770086499"/>
-    <n v="9699558"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="5072"/>
-    <n v="392681.38528138498"/>
-    <n v="-246814.718614718"/>
-    <n v="-129553.787878787"/>
-    <n v="6192.2077922077797"/>
-    <n v="34048"/>
-    <n v="-127599.999999999"/>
-    <n v="36096"/>
-    <n v="22727.272727272699"/>
-    <n v="17920"/>
-    <n v="4432"/>
-    <n v="-57488.744588744499"/>
-    <n v="30752"/>
-    <n v="-56222.0779220779"/>
-    <n v="31216"/>
-    <n v="5961.9047619047496"/>
-    <n v="15360"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="475236"/>
-    <n v="26887392.8712046"/>
-    <n v="5492497.2927764999"/>
-    <n v="5653848.6260933597"/>
-    <n v="1129266.95185096"/>
-    <n v="6802478"/>
-    <n v="889460.36087384797"/>
-    <n v="6949839"/>
-    <n v="1328169.8939449401"/>
-    <n v="3634152"/>
-    <n v="475236"/>
-    <n v="840769.23605985299"/>
-    <n v="6784122"/>
-    <n v="521009.89895046002"/>
-    <n v="6951355"/>
-    <n v="1164938.7009483799"/>
-    <n v="3634152"/>
+    <n v="8"/>
+    <n v="479.26829268292602"/>
+    <n v="-94.967760022427797"/>
+    <n v="75.133165124754697"/>
+    <n v="4.2052144659377504"/>
+    <n v="16"/>
+    <n v="17.998317914213601"/>
+    <n v="24"/>
+    <n v="-40.622371740958798"/>
+    <n v="28"/>
+    <n v="8"/>
+    <n v="17.998317914213601"/>
+    <n v="14"/>
+    <n v="17.998317914213601"/>
+    <n v="25"/>
+    <n v="-40.622371740958798"/>
+    <n v="36"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <s v="numeric"/>
-    <x v="0"/>
-    <n v="313"/>
-    <n v="19233.371459011902"/>
-    <n v="-1640.25090512004"/>
-    <n v="4078.9347476324801"/>
-    <n v="3040.3773291735201"/>
-    <n v="4101"/>
-    <n v="3229.9505136273601"/>
-    <n v="4740"/>
-    <n v="4061.8019325741798"/>
-    <n v="3256"/>
-    <n v="313"/>
-    <n v="1819.4101599509499"/>
-    <n v="4177"/>
-    <n v="2445.3914413396001"/>
-    <n v="4855"/>
-    <n v="4296.6923499938302"/>
-    <n v="3272"/>
+    <x v="1"/>
+    <n v="310"/>
+    <n v="19061.250246890701"/>
+    <n v="-1763.12969299883"/>
+    <n v="4077.5927562904899"/>
+    <n v="3297.1311831062899"/>
+    <n v="550"/>
+    <n v="4385.1417624306796"/>
+    <n v="482"/>
+    <n v="3346.1474090806601"/>
+    <n v="1141"/>
+    <n v="310"/>
+    <n v="2676.0150765793901"/>
+    <n v="642"/>
+    <n v="3720.2337119037402"/>
+    <n v="603"/>
+    <n v="3374.4959292449998"/>
+    <n v="1203"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="221"/>
-    <n v="11159.632034632001"/>
-    <n v="6613.31168831168"/>
-    <n v="2506.6017316017301"/>
-    <n v="877.54329004328997"/>
-    <n v="2275"/>
-    <n v="4251.6774891774803"/>
-    <n v="2075"/>
-    <n v="6442.4242424242402"/>
-    <n v="1082"/>
-    <n v="209"/>
-    <n v="577.92207792207796"/>
-    <n v="2107"/>
-    <n v="1556.1688311688299"/>
-    <n v="1919"/>
-    <n v="5800.3787878787798"/>
-    <n v="1010"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
+    <x v="2"/>
     <x v="0"/>
-    <n v="13878"/>
-    <n v="834718.78470617102"/>
-    <n v="-185798.029213223"/>
-    <n v="196779.57774248399"/>
-    <n v="83333.8056991052"/>
-    <n v="355905"/>
-    <n v="99844.708501337096"/>
-    <n v="395528"/>
-    <n v="104883.42305039099"/>
-    <n v="245303"/>
-    <n v="13878"/>
-    <n v="61688.464193419903"/>
-    <n v="358010"/>
-    <n v="71136.873096064606"/>
-    <n v="396774"/>
-    <n v="112013.386841135"/>
-    <n v="245813"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="3624"/>
-    <n v="163848.48484848399"/>
-    <n v="136270.99567099501"/>
-    <n v="48112.5"/>
-    <n v="15790.909090908999"/>
-    <n v="36956"/>
-    <n v="91515.584415584395"/>
-    <n v="33884"/>
-    <n v="144212.12121212101"/>
-    <n v="16744"/>
-    <n v="2376"/>
-    <n v="8775.54112554112"/>
-    <n v="22716"/>
-    <n v="17729.653679653598"/>
-    <n v="21212"/>
-    <n v="72809.956709956707"/>
-    <n v="10504"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
+    <s v="categorical"/>
     <x v="0"/>
-    <n v="485901"/>
-    <n v="28335474.065964501"/>
-    <n v="-7747158.2698275903"/>
-    <n v="7530138.7045316901"/>
-    <n v="1885337.8480684999"/>
-    <n v="15248578"/>
-    <n v="3190099.9562808098"/>
-    <n v="16515194"/>
-    <n v="2248373.8032974899"/>
-    <n v="9680266"/>
-    <n v="485901"/>
-    <n v="2158312.5809744098"/>
-    <n v="15321283"/>
-    <n v="2428873.8908632598"/>
-    <n v="16526161"/>
-    <n v="2470760.1135165901"/>
-    <n v="9686137"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="29296"/>
-    <n v="1297860.6060605999"/>
-    <n v="1094722.9437229401"/>
-    <n v="480097.94372294302"/>
-    <n v="175125.541125541"/>
-    <n v="257440"/>
-    <n v="726525.10822510801"/>
-    <n v="243008"/>
-    <n v="1183510.8225108201"/>
-    <n v="114816"/>
-    <n v="24112"/>
-    <n v="117931.168831168"/>
-    <n v="209600"/>
-    <n v="196899.13419913399"/>
-    <n v="197312"/>
-    <n v="882180.08658008603"/>
-    <n v="94080"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="561589"/>
-    <n v="32445178.829754401"/>
-    <n v="4032149.8918022602"/>
-    <n v="9616512.0376763009"/>
-    <n v="4516428.6053595999"/>
-    <n v="9301154"/>
-    <n v="6275127.4221784202"/>
-    <n v="9552374"/>
-    <n v="4925262.5082301097"/>
-    <n v="4960290"/>
-    <n v="561589"/>
-    <n v="5667950.5063605402"/>
-    <n v="9255620"/>
-    <n v="6289006.4644373199"/>
-    <n v="9551470"/>
-    <n v="5012960.0488155903"/>
-    <n v="4960290"/>
+    <n v="7"/>
+    <n v="385.01541911970799"/>
+    <n v="174.025791982057"/>
+    <n v="8.6066722736192798"/>
+    <n v="-33.725820016820798"/>
+    <n v="29"/>
+    <n v="-16.484440706476001"/>
+    <n v="30"/>
+    <n v="-33.725820016820798"/>
+    <n v="27"/>
+    <n v="7"/>
+    <n v="-19.932716568545001"/>
+    <n v="33"/>
+    <n v="-16.484440706476001"/>
+    <n v="20"/>
+    <n v="-33.725820016820798"/>
+    <n v="33"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <s v="numeric"/>
-    <x v="0"/>
-    <n v="336"/>
-    <n v="20685.816629510799"/>
-    <n v="643.35940177673899"/>
-    <n v="5162.5731864138697"/>
-    <n v="3054.2444170172598"/>
-    <n v="4817"/>
-    <n v="3185.1543779250401"/>
-    <n v="5297"/>
-    <n v="4290.0097452503796"/>
-    <n v="3574"/>
-    <n v="336"/>
-    <n v="2286.3342128578302"/>
-    <n v="4884"/>
-    <n v="2423.3389047832402"/>
-    <n v="5401"/>
-    <n v="4395.9098615945404"/>
-    <n v="3572"/>
+    <x v="1"/>
+    <n v="333"/>
+    <n v="20512.829616523701"/>
+    <n v="521.34641476375202"/>
+    <n v="5114.9108487515296"/>
+    <n v="3251.5464984918899"/>
+    <n v="604"/>
+    <n v="4743.1288160497297"/>
+    <n v="436"/>
+    <n v="3627.14939571377"/>
+    <n v="1146"/>
+    <n v="333"/>
+    <n v="2602.5485580081199"/>
+    <n v="715"/>
+    <n v="4056.8949373107198"/>
+    <n v="511"/>
+    <n v="3698.7101223857999"/>
+    <n v="1243"/>
   </r>
   <r>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="237"/>
-    <n v="9391.6666666666606"/>
-    <n v="10179.545454545399"/>
-    <n v="6241.5584415584399"/>
-    <n v="5078.4090909090901"/>
-    <n v="2559"/>
-    <n v="6267.6948051948002"/>
-    <n v="2295"/>
-    <n v="9824.2424242424204"/>
-    <n v="1178"/>
-    <n v="237"/>
-    <n v="5057.5757575757498"/>
-    <n v="2559"/>
-    <n v="5049.2424242424204"/>
-    <n v="2295"/>
-    <n v="9470.0757575757507"/>
-    <n v="1178"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
+    <x v="3"/>
     <x v="0"/>
-    <n v="14404"/>
-    <n v="868066.78920369898"/>
-    <n v="-59049.267404298997"/>
-    <n v="227213.74294902699"/>
-    <n v="94542.436474088696"/>
-    <n v="371859"/>
-    <n v="106858.004624422"/>
-    <n v="405530"/>
-    <n v="121127.81710715299"/>
-    <n v="250452"/>
-    <n v="14404"/>
-    <n v="83845.828492316898"/>
-    <n v="371765"/>
-    <n v="79778.120513978894"/>
-    <n v="406643"/>
-    <n v="126380.192337051"/>
-    <n v="250874"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="4392"/>
-    <n v="149860.60606060599"/>
-    <n v="224648.48484848399"/>
-    <n v="140797.78138528101"/>
-    <n v="117415.151515151"/>
-    <n v="46716"/>
-    <n v="142640.692640692"/>
-    <n v="41916"/>
-    <n v="225921.21212121201"/>
-    <n v="20584"/>
-    <n v="4392"/>
-    <n v="116548.484848484"/>
-    <n v="46716"/>
-    <n v="116015.151515151"/>
-    <n v="41916"/>
-    <n v="224954.545454545"/>
-    <n v="20584"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
+    <s v="categorical"/>
     <x v="0"/>
-    <n v="459221"/>
-    <n v="26372802.1249144"/>
-    <n v="-3239743.6239056499"/>
-    <n v="7522892.9242910296"/>
-    <n v="2744667.4013314899"/>
-    <n v="14112190"/>
-    <n v="3632554.8699035901"/>
-    <n v="15077930"/>
-    <n v="2929715.1787236901"/>
-    <n v="8768665"/>
-    <n v="459221"/>
-    <n v="3020402.8124200101"/>
-    <n v="14134768"/>
-    <n v="2834057.4863687698"/>
-    <n v="15078447"/>
-    <n v="3126298.2785575502"/>
-    <n v="8772752"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="54352"/>
-    <n v="1771260.6060605999"/>
-    <n v="2917927.2727272701"/>
-    <n v="1822810.9307359301"/>
-    <n v="1546757.5757575701"/>
-    <n v="491520"/>
-    <n v="1796548.05194805"/>
-    <n v="445440"/>
-    <n v="2967563.6363636302"/>
-    <n v="215040"/>
-    <n v="54352"/>
-    <n v="1544490.9090909001"/>
-    <n v="491520"/>
-    <n v="1544557.5757575701"/>
-    <n v="445440"/>
-    <n v="2965296.9696969702"/>
-    <n v="215040"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="659066"/>
-    <n v="38803404.198473699"/>
-    <n v="4037426.20993821"/>
-    <n v="11817435.8956277"/>
-    <n v="5384311.1690623499"/>
-    <n v="10718791"/>
-    <n v="5107247.70920859"/>
-    <n v="11055962"/>
-    <n v="5358042.4971855003"/>
-    <n v="5770666"/>
-    <n v="659066"/>
-    <n v="6846975.6622845"/>
-    <n v="10590280"/>
-    <n v="5501670.3924874403"/>
-    <n v="11059948"/>
-    <n v="5295955.9655102799"/>
-    <n v="5770666"/>
+    <n v="5"/>
+    <n v="354.02298850574698"/>
+    <n v="18.390804597701099"/>
+    <n v="39.080459770114899"/>
+    <n v="-11.4942528735632"/>
+    <n v="41"/>
+    <n v="5.7471264367816"/>
+    <n v="39"/>
+    <n v="-6.8965517241379297"/>
+    <n v="47"/>
+    <n v="5"/>
+    <n v="6.8965517241379199"/>
+    <n v="38"/>
+    <n v="5.7471264367816"/>
+    <n v="21"/>
+    <n v="-6.8965517241379297"/>
+    <n v="51"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <s v="numeric"/>
-    <x v="0"/>
-    <n v="343"/>
-    <n v="20968.758452811599"/>
-    <n v="1913.8680454989801"/>
-    <n v="5573.8259232842302"/>
-    <n v="3224.6079025968702"/>
-    <n v="5001"/>
-    <n v="3601.7579037250698"/>
-    <n v="5445"/>
-    <n v="4955.6582368010904"/>
-    <n v="3646"/>
-    <n v="343"/>
-    <n v="2476.9311336320802"/>
-    <n v="4979"/>
-    <n v="3023.4754958829299"/>
-    <n v="5539"/>
-    <n v="5132.10131580092"/>
-    <n v="3679"/>
+    <x v="1"/>
+    <n v="339"/>
+    <n v="20716.117760170899"/>
+    <n v="1847.69921433015"/>
+    <n v="5583.3064427647496"/>
+    <n v="3846.5559932073602"/>
+    <n v="629"/>
+    <n v="5173.5168376084002"/>
+    <n v="449"/>
+    <n v="4330.3133216360102"/>
+    <n v="1234"/>
+    <n v="339"/>
+    <n v="3205.0145309183299"/>
+    <n v="745"/>
+    <n v="4500.4531960488303"/>
+    <n v="517"/>
+    <n v="4422.5338910358196"/>
+    <n v="1322"/>
   </r>
   <r>
-    <x v="3"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="293"/>
-    <n v="13786.991341991299"/>
-    <n v="7090.8874458874398"/>
-    <n v="3258.3549783549702"/>
-    <n v="5207.2402597402597"/>
-    <n v="3323"/>
-    <n v="5969.2532467532401"/>
-    <n v="2927"/>
-    <n v="9261.6450216450194"/>
-    <n v="1518"/>
-    <n v="293"/>
-    <n v="5141.38528138528"/>
-    <n v="3323"/>
-    <n v="5159.0259740259698"/>
-    <n v="2927"/>
-    <n v="8907.4783549783497"/>
-    <n v="1518"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
+    <x v="4"/>
     <x v="0"/>
-    <n v="14872"/>
-    <n v="898760.07541655295"/>
-    <n v="-9017.5967924947108"/>
-    <n v="256655.819340735"/>
-    <n v="95446.320381729907"/>
-    <n v="386098"/>
-    <n v="120447.821540912"/>
-    <n v="414043"/>
-    <n v="138982.69207833899"/>
-    <n v="257449"/>
-    <n v="14872"/>
-    <n v="90474.903566523601"/>
-    <n v="382144"/>
-    <n v="96516.333228871794"/>
-    <n v="415584"/>
-    <n v="144045.322804681"/>
-    <n v="257447"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="5592"/>
-    <n v="247438.31168831099"/>
-    <n v="151105.541125541"/>
-    <n v="76637.543290043206"/>
-    <n v="119555.411255411"/>
-    <n v="60396"/>
-    <n v="135482.68398268399"/>
-    <n v="53708"/>
-    <n v="208832.42424242399"/>
-    <n v="26632"/>
-    <n v="5576"/>
-    <n v="116680.86580086499"/>
-    <n v="60212"/>
-    <n v="118093.419913419"/>
-    <n v="53556"/>
-    <n v="209150.04329004299"/>
-    <n v="26536"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <s v="binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="96"/>
-    <n v="6093.3333333333303"/>
-    <n v="1952.38095238095"/>
-    <n v="2299.0476190476102"/>
-    <n v="1986.6666666666599"/>
-    <n v="1036"/>
-    <n v="1986.6666666666599"/>
-    <n v="879"/>
-    <n v="-1780.9523809523801"/>
-    <n v="576"/>
-    <n v="96"/>
-    <n v="1986.6666666666599"/>
-    <n v="1041"/>
-    <n v="1986.6666666666599"/>
-    <n v="880"/>
-    <n v="-1780.9523809523801"/>
-    <n v="576"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
+    <s v="categorical"/>
     <x v="0"/>
-    <n v="488967"/>
-    <n v="28442811.407520801"/>
-    <n v="-2845049.9145265101"/>
-    <n v="9034018.6735555306"/>
-    <n v="2411937.2131627402"/>
-    <n v="15188355"/>
-    <n v="4069963.1702754502"/>
-    <n v="16097492"/>
-    <n v="3231865.33608195"/>
-    <n v="9441758"/>
-    <n v="488967"/>
-    <n v="3190986.6109835599"/>
-    <n v="15032197"/>
-    <n v="3374678.4480760298"/>
-    <n v="16105717"/>
-    <n v="3430506.22152388"/>
-    <n v="9437030"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="68624"/>
-    <n v="2904409.1774891699"/>
-    <n v="2049774.89177489"/>
-    <n v="989723.76623376599"/>
-    <n v="1562026.1471861401"/>
-    <n v="621504"/>
-    <n v="1685940"/>
-    <n v="560576"/>
-    <n v="2806088.39826839"/>
-    <n v="272320"/>
-    <n v="68596"/>
-    <n v="1546039.4805194801"/>
-    <n v="621208"/>
-    <n v="1554771.0822510801"/>
-    <n v="560280"/>
-    <n v="2804092.2077922001"/>
-    <n v="272180"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="binary, binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="864"/>
-    <n v="55577.142857142797"/>
-    <n v="17062.857142857101"/>
-    <n v="19788.571428571398"/>
-    <n v="17874.285714285699"/>
-    <n v="8240"/>
-    <n v="17874.285714285699"/>
-    <n v="7740"/>
-    <n v="-16314.285714285699"/>
-    <n v="4320"/>
-    <n v="1000"/>
-    <n v="10511.4285714285"/>
-    <n v="9436"/>
-    <n v="10511.4285714285"/>
-    <n v="8952"/>
-    <n v="-19215.238095238001"/>
-    <n v="5000"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="binary, numeric, numeric, numeric"/>
-    <x v="1"/>
-    <n v="864"/>
-    <n v="54982.857142857101"/>
-    <n v="17428.571428571398"/>
-    <n v="20989.523809523798"/>
-    <n v="17657.1428571428"/>
-    <n v="7416"/>
-    <n v="17657.1428571428"/>
-    <n v="7200"/>
-    <n v="-16040.9523809523"/>
-    <n v="4320"/>
-    <n v="864"/>
-    <n v="17657.1428571428"/>
-    <n v="7506"/>
-    <n v="17657.1428571428"/>
-    <n v="7200"/>
-    <n v="-16040.9523809523"/>
-    <n v="4320"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="729214"/>
-    <n v="44079013.727127597"/>
-    <n v="8136115.2551998999"/>
-    <n v="13378901.5132741"/>
-    <n v="5830131.81451301"/>
-    <n v="12245283"/>
-    <n v="5514327.2659172704"/>
-    <n v="12589192"/>
-    <n v="6139772.3932733396"/>
-    <n v="6606505"/>
-    <n v="729214"/>
-    <n v="6817618.8167608101"/>
-    <n v="12137906"/>
-    <n v="5483030.8469417002"/>
-    <n v="12591011"/>
-    <n v="6125809.2344763903"/>
-    <n v="6606505"/>
+    <n v="3"/>
+    <n v="205.747126436781"/>
+    <n v="45.9770114942528"/>
+    <n v="14.9425287356321"/>
+    <n v="-6.8965517241379297"/>
+    <n v="39"/>
+    <n v="10.344827586206801"/>
+    <n v="24"/>
+    <n v="-6.8965517241379297"/>
+    <n v="33"/>
+    <n v="3"/>
+    <n v="6.8965517241379199"/>
+    <n v="36"/>
+    <n v="10.344827586206801"/>
+    <n v="15"/>
+    <n v="-6.8965517241379297"/>
+    <n v="33"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
     <s v="numeric"/>
-    <x v="0"/>
-    <n v="340"/>
-    <n v="20851.361569715998"/>
-    <n v="2809.5790713832298"/>
-    <n v="5951.2423738122297"/>
-    <n v="3486.0588923768601"/>
-    <n v="5014"/>
-    <n v="3937.9817776939199"/>
-    <n v="5366"/>
-    <n v="5302.8298819766096"/>
-    <n v="3677"/>
-    <n v="340"/>
-    <n v="2632.84156222398"/>
-    <n v="4954"/>
-    <n v="3277.4281023293001"/>
-    <n v="5437"/>
-    <n v="5332.1440034030002"/>
-    <n v="3680"/>
-  </r>
-  <r>
-    <x v="4"/>
     <x v="1"/>
-    <s v="binary, binary"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="256.19047619047598"/>
-    <n v="79.047619047618994"/>
-    <n v="-10.4761904761904"/>
-    <n v="-2.8571428571428501"/>
-    <n v="52"/>
-    <n v="0"/>
-    <n v="36"/>
-    <n v="-2.8571428571428501"/>
-    <n v="28"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="52"/>
-    <n v="0"/>
-    <n v="36"/>
-    <n v="-2.8571428571428501"/>
-    <n v="28"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="245"/>
-    <n v="10017.3809523809"/>
-    <n v="9512.6190476190495"/>
-    <n v="5916.9913419913401"/>
-    <n v="5444.1233766233699"/>
-    <n v="2523"/>
-    <n v="6092.2835497835404"/>
-    <n v="2259"/>
-    <n v="8505.1082251082207"/>
-    <n v="1234"/>
-    <n v="245"/>
-    <n v="5256.6233766233699"/>
-    <n v="2523"/>
-    <n v="5248.2900432900396"/>
-    <n v="2259"/>
-    <n v="8517.6082251082207"/>
-    <n v="1234"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
-    <x v="0"/>
-    <n v="14541"/>
-    <n v="880787.15049781697"/>
-    <n v="59853.801175864697"/>
-    <n v="281717.303450762"/>
-    <n v="105459.41473581499"/>
-    <n v="371165"/>
-    <n v="134701.270867071"/>
-    <n v="398582"/>
-    <n v="151076.68306346299"/>
-    <n v="246985"/>
-    <n v="14541"/>
-    <n v="96941.401454467705"/>
-    <n v="368229"/>
-    <n v="105354.266609072"/>
-    <n v="400020"/>
-    <n v="152900.69166400901"/>
-    <n v="247421"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <s v="binary, binary, binary"/>
-    <x v="2"/>
-    <n v="64"/>
-    <n v="4106.6666666666597"/>
-    <n v="1257.1428571428501"/>
-    <n v="-173.333333333333"/>
-    <n v="-73.333333333333201"/>
-    <n v="672"/>
-    <n v="0"/>
-    <n v="800"/>
-    <n v="-73.333333333333201"/>
-    <n v="384"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="4552"/>
-    <n v="162786.32034631999"/>
-    <n v="209153.93939393901"/>
-    <n v="125942.738095238"/>
-    <n v="118437.05627705601"/>
-    <n v="45702"/>
-    <n v="131200.77922077899"/>
-    <n v="42042"/>
-    <n v="201418.18181818101"/>
-    <n v="21544"/>
-    <n v="4504"/>
-    <n v="118811.341991341"/>
-    <n v="45188"/>
-    <n v="118312.294372294"/>
-    <n v="41532"/>
-    <n v="205694.37229437201"/>
-    <n v="21256"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <s v="binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="184"/>
-    <n v="11336.190476190401"/>
-    <n v="4084.7619047619"/>
-    <n v="4918.0952380952303"/>
-    <n v="4543.8095238095202"/>
-    <n v="2072"/>
-    <n v="4543.8095238095202"/>
-    <n v="1624"/>
-    <n v="-4595.23809523809"/>
-    <n v="1104"/>
-    <n v="184"/>
-    <n v="4543.8095238095202"/>
-    <n v="2072"/>
-    <n v="4543.8095238095202"/>
-    <n v="1625"/>
-    <n v="-4492.3809523809496"/>
-    <n v="1104"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="449573"/>
-    <n v="25859559.327397"/>
-    <n v="496745.70677252201"/>
-    <n v="9666240.8834377509"/>
-    <n v="2638556.6054152399"/>
-    <n v="13526962"/>
-    <n v="4367621.14806314"/>
-    <n v="14394294"/>
-    <n v="3475846.0472861002"/>
-    <n v="8416104"/>
-    <n v="449573"/>
-    <n v="3307989.2584259999"/>
-    <n v="13467772"/>
-    <n v="3470423.9192901999"/>
-    <n v="14403747"/>
-    <n v="3627621.4647957999"/>
-    <n v="8418618"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="54820"/>
-    <n v="1798932.98701298"/>
-    <n v="2740218.8744588699"/>
-    <n v="1590713.8311688299"/>
-    <n v="1550898.52813852"/>
-    <n v="465720"/>
-    <n v="1631279.5670995601"/>
-    <n v="439428"/>
-    <n v="2716895.9307359299"/>
-    <n v="217380"/>
-    <n v="55264"/>
-    <n v="1552007.0995670899"/>
-    <n v="469328"/>
-    <n v="1552992.8138528101"/>
-    <n v="443960"/>
-    <n v="2715506.4069264"/>
-    <n v="219600"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="3"/>
-    <s v="binary, binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="2338"/>
-    <n v="140980"/>
-    <n v="54966.666666666599"/>
-    <n v="64140"/>
-    <n v="42567.619047619002"/>
-    <n v="22962"/>
-    <n v="48434.285714285703"/>
-    <n v="20606"/>
-    <n v="-49256.190476190401"/>
-    <n v="11690"/>
-    <n v="2904"/>
-    <n v="49130.476190476104"/>
-    <n v="28104"/>
-    <n v="49711.4285714285"/>
-    <n v="25818"/>
-    <n v="-49510.476190476104"/>
-    <n v="14520"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="3"/>
-    <s v="binary, numeric, numeric, numeric"/>
-    <x v="1"/>
-    <n v="1584"/>
-    <n v="97765.714285714203"/>
-    <n v="34988.571428571398"/>
-    <n v="40760"/>
-    <n v="38794.285714285703"/>
-    <n v="14304"/>
-    <n v="38794.285714285703"/>
-    <n v="12456"/>
-    <n v="-39308.571428571398"/>
-    <n v="7920"/>
-    <n v="1584"/>
-    <n v="38794.285714285703"/>
-    <n v="14304"/>
-    <n v="38794.285714285703"/>
-    <n v="12456"/>
-    <n v="-34820.952380952302"/>
-    <n v="7920"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="735577"/>
-    <n v="44595989.885050803"/>
-    <n v="9507868.4717800003"/>
-    <n v="13372202.2265791"/>
-    <n v="5980770.7293368196"/>
-    <n v="12461551"/>
-    <n v="6366508.6965441396"/>
-    <n v="12787689"/>
-    <n v="6599023.66955915"/>
-    <n v="6726240"/>
-    <n v="735577"/>
-    <n v="6806595.36914666"/>
-    <n v="12347734"/>
-    <n v="6351566.9909054898"/>
-    <n v="12792696"/>
-    <n v="6838405.8640138097"/>
-    <n v="6726240"/>
+    <n v="337"/>
+    <n v="20678.374556728999"/>
+    <n v="2696.6569934611598"/>
+    <n v="5939.51077208063"/>
+    <n v="4104.3872114246597"/>
+    <n v="560"/>
+    <n v="5120.7337988309901"/>
+    <n v="395"/>
+    <n v="4344.1479058462101"/>
+    <n v="1225"/>
+    <n v="337"/>
+    <n v="3219.2390222259201"/>
+    <n v="634"/>
+    <n v="4486.4797388137804"/>
+    <n v="458"/>
+    <n v="4379.50217392378"/>
+    <n v="1280"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
-    <s v="binary"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="260.95238095238"/>
-    <n v="74.285714285714207"/>
-    <n v="54.285714285714199"/>
-    <n v="45.714285714285701"/>
-    <n v="23"/>
-    <n v="-48.571428571428498"/>
-    <n v="4"/>
-    <n v="45.714285714285701"/>
-    <n v="12"/>
-    <n v="4"/>
-    <n v="-48.571428571428498"/>
+    <s v="categorical"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="133.333333333333"/>
+    <n v="17.241379310344801"/>
+    <n v="-11.4942528735632"/>
+    <n v="4.59770114942528"/>
+    <n v="26"/>
+    <n v="6.8965517241379199"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="22"/>
+    <n v="2"/>
+    <n v="4.59770114942528"/>
     <n v="24"/>
-    <n v="-48.571428571428498"/>
-    <n v="5"/>
-    <n v="45.714285714285701"/>
-    <n v="15"/>
+    <n v="6.8965517241379199"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="22"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
     <s v="numeric"/>
-    <x v="0"/>
-    <n v="362"/>
-    <n v="22452.429735833099"/>
-    <n v="3378.5366595202099"/>
-    <n v="6336.2937130342298"/>
-    <n v="3650.6267550732"/>
-    <n v="5434"/>
-    <n v="4210.2835830758404"/>
-    <n v="5577"/>
-    <n v="5474.2540021836703"/>
-    <n v="4012"/>
-    <n v="362"/>
-    <n v="2983.2536273831802"/>
-    <n v="5352"/>
-    <n v="3230.2336974351902"/>
-    <n v="5640"/>
-    <n v="5556.1512153762096"/>
-    <n v="4036"/>
-  </r>
-  <r>
-    <x v="5"/>
     <x v="1"/>
-    <s v="binary, binary"/>
-    <x v="2"/>
-    <n v="64"/>
-    <n v="4140.9523809523798"/>
-    <n v="1222.8571428571399"/>
-    <n v="914.28571428571399"/>
-    <n v="731.42857142857099"/>
-    <n v="632"/>
-    <n v="-777.142857142857"/>
-    <n v="740"/>
-    <n v="731.42857142857099"/>
-    <n v="448"/>
-    <n v="80"/>
-    <n v="-971.42857142857099"/>
-    <n v="780"/>
-    <n v="-971.42857142857099"/>
-    <n v="948"/>
-    <n v="914.28571428571399"/>
-    <n v="560"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="363"/>
-    <n v="17450.833333333299"/>
-    <n v="12768.474025973999"/>
-    <n v="4044.1666666666601"/>
-    <n v="5783.7662337662296"/>
-    <n v="3623"/>
-    <n v="5121.2445887445801"/>
-    <n v="3386"/>
-    <n v="9973.4415584415601"/>
-    <n v="1951"/>
-    <n v="363"/>
-    <n v="4128.7662337662296"/>
-    <n v="3612"/>
-    <n v="4162.0995670995599"/>
-    <n v="3358"/>
-    <n v="9860.9415584415601"/>
-    <n v="1951"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
-    <x v="0"/>
-    <n v="15471"/>
-    <n v="941940.76388173702"/>
-    <n v="72170.974018340596"/>
-    <n v="310750.158755143"/>
-    <n v="105418.108839894"/>
-    <n v="395790"/>
-    <n v="139301.33877496701"/>
-    <n v="424065"/>
-    <n v="148601.09428376099"/>
-    <n v="264965"/>
-    <n v="15471"/>
-    <n v="105464.752925352"/>
-    <n v="389038"/>
-    <n v="103388.568196313"/>
-    <n v="425417"/>
-    <n v="152502.34448792401"/>
-    <n v="265262"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <s v="binary, binary, binary"/>
-    <x v="2"/>
-    <n v="320"/>
-    <n v="20236.190476190401"/>
-    <n v="6582.8571428571404"/>
-    <n v="4817.1428571428496"/>
-    <n v="3946.6666666666601"/>
-    <n v="2864"/>
-    <n v="-4053.3333333333298"/>
-    <n v="4128"/>
-    <n v="3946.6666666666601"/>
-    <n v="1920"/>
-    <n v="512"/>
-    <n v="-6217.1428571428496"/>
-    <n v="4560"/>
-    <n v="-6217.1428571428496"/>
-    <n v="6592"/>
-    <n v="5851.4285714285697"/>
-    <n v="3072"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="6154"/>
-    <n v="260545.36796536701"/>
-    <n v="267986.58008658001"/>
-    <n v="89974.7186147186"/>
-    <n v="130551.34199134199"/>
-    <n v="61703"/>
-    <n v="118531.68831168801"/>
-    <n v="61778"/>
-    <n v="229428.65800865801"/>
-    <n v="30668"/>
-    <n v="6485"/>
-    <n v="97236.103896103799"/>
-    <n v="65119"/>
-    <n v="97131.341991341906"/>
-    <n v="65329"/>
-    <n v="230310.56277056201"/>
-    <n v="32654"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <s v="binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="1051"/>
-    <n v="65327.619047619002"/>
-    <n v="22756.190476190401"/>
-    <n v="19667.619047618999"/>
-    <n v="9458.0952380952294"/>
-    <n v="12149"/>
-    <n v="-4939.0476190476202"/>
-    <n v="10071"/>
-    <n v="5776.1904761904698"/>
-    <n v="6306"/>
-    <n v="1051"/>
-    <n v="-4939.0476190476202"/>
-    <n v="11960"/>
-    <n v="-4939.0476190476202"/>
-    <n v="10029"/>
-    <n v="5486.6666666666597"/>
-    <n v="6306"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="482855"/>
-    <n v="27954468.4453381"/>
-    <n v="862257.21408525598"/>
-    <n v="10598222.2084045"/>
-    <n v="2499596.6550889602"/>
-    <n v="14621503"/>
-    <n v="4228793.5806125598"/>
-    <n v="15584875"/>
-    <n v="3363015.3864716599"/>
-    <n v="9128808"/>
-    <n v="482855"/>
-    <n v="3440898.3079084898"/>
-    <n v="14439881"/>
-    <n v="3231443.49833387"/>
-    <n v="15588913"/>
-    <n v="3552269.5283518098"/>
-    <n v="9131095"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, binary"/>
-    <x v="2"/>
-    <n v="512"/>
-    <n v="29870.4761904761"/>
-    <n v="13040"/>
-    <n v="8864.7619047618991"/>
-    <n v="8167.6190476190404"/>
-    <n v="3776"/>
-    <n v="-7558.0952380952303"/>
-    <n v="5632"/>
-    <n v="8167.6190476190404"/>
-    <n v="2560"/>
-    <n v="512"/>
-    <n v="-7558.0952380952303"/>
-    <n v="3776"/>
-    <n v="-7558.0952380952303"/>
-    <n v="5632"/>
-    <n v="8167.6190476190404"/>
-    <n v="2560"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="63624"/>
-    <n v="2347243.46320346"/>
-    <n v="3202357.7489177398"/>
-    <n v="1017188.48484848"/>
-    <n v="1626671.86147186"/>
-    <n v="543975"/>
-    <n v="1595559.1341991301"/>
-    <n v="542710"/>
-    <n v="2896723.5497835502"/>
-    <n v="260680"/>
-    <n v="63189"/>
-    <n v="1448301.38528138"/>
-    <n v="538266"/>
-    <n v="1453656.62337662"/>
-    <n v="538069"/>
-    <n v="2896507.3593073501"/>
-    <n v="258505"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <s v="binary, binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="18248"/>
-    <n v="1124865.7142857099"/>
-    <n v="404490.47619047598"/>
-    <n v="342208.57142857101"/>
-    <n v="137351.428571428"/>
-    <n v="180369"/>
-    <n v="-118940"/>
-    <n v="180560"/>
-    <n v="114553.33333333299"/>
-    <n v="91240"/>
-    <n v="17813"/>
-    <n v="-117704.76190476101"/>
-    <n v="173924"/>
-    <n v="-110210.47619047599"/>
-    <n v="176562"/>
-    <n v="108240"/>
-    <n v="89065"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <s v="binary, numeric, numeric, numeric"/>
-    <x v="1"/>
-    <n v="5650"/>
-    <n v="346468.57142857101"/>
-    <n v="127055.238095238"/>
-    <n v="116339.04761904701"/>
-    <n v="48146.666666666599"/>
-    <n v="57256"/>
-    <n v="-4040"/>
-    <n v="46844"/>
-    <n v="9090.4761904761908"/>
-    <n v="28250"/>
-    <n v="5650"/>
-    <n v="-4040"/>
-    <n v="56334"/>
-    <n v="-4040"/>
-    <n v="46844"/>
-    <n v="4960"/>
-    <n v="28250"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="763241"/>
-    <n v="46571821.744359098"/>
-    <n v="6492208.1373524303"/>
-    <n v="14331107.956400201"/>
-    <n v="6320017.6892671799"/>
-    <n v="12968429"/>
-    <n v="6803888.0362222102"/>
-    <n v="13364512"/>
-    <n v="6692214.8137123296"/>
-    <n v="7002840"/>
-    <n v="763241"/>
-    <n v="7525806.3015651004"/>
-    <n v="12834125"/>
-    <n v="6498068.4521243405"/>
-    <n v="13371990"/>
-    <n v="6822015.2353124302"/>
-    <n v="7002840"/>
+    <n v="357"/>
+    <n v="22158.6093895128"/>
+    <n v="3198.8938023773499"/>
+    <n v="6405.2980420385602"/>
+    <n v="4355.8895783356402"/>
+    <n v="663"/>
+    <n v="5523.4437501942402"/>
+    <n v="409"/>
+    <n v="4529.7614367351898"/>
+    <n v="1297"/>
+    <n v="357"/>
+    <n v="3481.4223312683498"/>
+    <n v="730"/>
+    <n v="4992.5551096711197"/>
+    <n v="460"/>
+    <n v="4635.7924400435004"/>
+    <n v="1349"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
-    <s v="binary"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="260.95238095238"/>
-    <n v="74.285714285714207"/>
-    <n v="98.095238095238102"/>
-    <n v="-0.95238095238095399"/>
-    <n v="28"/>
-    <n v="-48.571428571428498"/>
-    <n v="5"/>
-    <n v="73.3333333333333"/>
-    <n v="15"/>
-    <n v="4"/>
-    <n v="-48.571428571428498"/>
-    <n v="34"/>
-    <n v="-48.571428571428498"/>
-    <n v="6"/>
-    <n v="73.3333333333333"/>
-    <n v="18"/>
+    <s v="categorical"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="133.333333333333"/>
+    <n v="43.678160919540197"/>
+    <n v="3.44827586206896"/>
+    <n v="4.59770114942528"/>
+    <n v="26"/>
+    <n v="1.14942528735632"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="22"/>
+    <n v="2"/>
+    <n v="4.59770114942528"/>
+    <n v="24"/>
+    <n v="1.14942528735632"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="22"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
     <s v="numeric"/>
-    <x v="0"/>
-    <n v="376"/>
-    <n v="23523.347629333199"/>
-    <n v="3975.70570655452"/>
-    <n v="7173.1271381993001"/>
-    <n v="3625.6474771399098"/>
-    <n v="5910"/>
-    <n v="4500.65363020528"/>
-    <n v="5802"/>
-    <n v="5314.7532702134504"/>
-    <n v="4264"/>
-    <n v="376"/>
-    <n v="2855.1243976072001"/>
-    <n v="5792"/>
-    <n v="3434.7828317006702"/>
-    <n v="5862"/>
-    <n v="5510.0875294449997"/>
-    <n v="4273"/>
-  </r>
-  <r>
-    <x v="6"/>
     <x v="1"/>
-    <s v="binary, binary"/>
-    <x v="2"/>
-    <n v="80"/>
-    <n v="5184.7619047619"/>
-    <n v="1520"/>
-    <n v="1878.0952380952299"/>
-    <n v="-19.047619047619101"/>
-    <n v="830"/>
-    <n v="-971.42857142857099"/>
-    <n v="1018"/>
-    <n v="1466.6666666666599"/>
-    <n v="560"/>
-    <n v="64"/>
-    <n v="-777.142857142857"/>
-    <n v="658"/>
-    <n v="-777.142857142857"/>
-    <n v="806"/>
-    <n v="1173.3333333333301"/>
-    <n v="448"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="357"/>
-    <n v="16791.309523809501"/>
-    <n v="12077.9761904761"/>
-    <n v="7775.5627705627703"/>
-    <n v="5726.6233766233699"/>
-    <n v="3654"/>
-    <n v="5291.9264069264"/>
-    <n v="3380"/>
-    <n v="11018.3766233766"/>
-    <n v="1949"/>
-    <n v="357"/>
-    <n v="3728.2900432900401"/>
-    <n v="3625"/>
-    <n v="4028.2900432900401"/>
-    <n v="3367"/>
-    <n v="11313.8528138528"/>
-    <n v="1949"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
-    <x v="0"/>
-    <n v="16161"/>
-    <n v="991627.25185351004"/>
-    <n v="90048.466808820303"/>
-    <n v="344899.96092531399"/>
-    <n v="105250.874848384"/>
-    <n v="415761"/>
-    <n v="152995.843924321"/>
-    <n v="443023"/>
-    <n v="144858.438828596"/>
-    <n v="279726"/>
-    <n v="16161"/>
-    <n v="100881.36552956799"/>
-    <n v="410520"/>
-    <n v="111057.115639864"/>
-    <n v="444510"/>
-    <n v="150148.76311914399"/>
-    <n v="279871"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <s v="binary, binary, binary"/>
-    <x v="2"/>
-    <n v="256"/>
-    <n v="16476.190476190401"/>
-    <n v="4979.0476190476102"/>
-    <n v="5668.5714285714203"/>
-    <n v="-60.9523809523807"/>
-    <n v="2392"/>
-    <n v="-3108.5714285714198"/>
-    <n v="3328"/>
-    <n v="4693.3333333333303"/>
-    <n v="1536"/>
-    <n v="512"/>
-    <n v="-6217.1428571428496"/>
-    <n v="4544"/>
-    <n v="-6217.1428571428496"/>
-    <n v="6592"/>
-    <n v="9386.6666666666606"/>
-    <n v="3072"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="6287"/>
-    <n v="269482.03463203402"/>
-    <n v="250272.337662337"/>
-    <n v="169703.192640692"/>
-    <n v="121858.008658008"/>
-    <n v="62617"/>
-    <n v="124041.601731601"/>
-    <n v="62116"/>
-    <n v="241715.19480519401"/>
-    <n v="30898"/>
-    <n v="6572"/>
-    <n v="95683.246753246698"/>
-    <n v="65210"/>
-    <n v="98037.056277056196"/>
-    <n v="65214"/>
-    <n v="248243.76623376599"/>
-    <n v="32608"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <s v="binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="1117"/>
-    <n v="70400"/>
-    <n v="23215.238095238099"/>
-    <n v="27479.0476190476"/>
-    <n v="5480.9523809523798"/>
-    <n v="13221"/>
-    <n v="-6508.5714285714203"/>
-    <n v="10728"/>
-    <n v="12180"/>
-    <n v="6702"/>
-    <n v="1117"/>
-    <n v="-6508.5714285714203"/>
-    <n v="12836"/>
-    <n v="-6508.5714285714203"/>
-    <n v="10710"/>
-    <n v="11760.9523809523"/>
-    <n v="6702"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="506731"/>
-    <n v="29651469.665951099"/>
-    <n v="900725.29061567399"/>
-    <n v="11663358.4880885"/>
-    <n v="2419861.5819664602"/>
-    <n v="15378929"/>
-    <n v="4674289.0627975399"/>
-    <n v="16413265"/>
-    <n v="3231782.8823308698"/>
-    <n v="9678373"/>
-    <n v="506731"/>
-    <n v="3326083.8507750002"/>
-    <n v="15282317"/>
-    <n v="3574038.4915752499"/>
-    <n v="16419893"/>
-    <n v="3417438.4921439299"/>
-    <n v="9679564"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, binary"/>
-    <x v="2"/>
-    <n v="1024"/>
-    <n v="66335.238095238004"/>
-    <n v="19485.714285714199"/>
-    <n v="21301.904761904701"/>
-    <n v="-243.809523809523"/>
-    <n v="7520"/>
-    <n v="-12434.285714285699"/>
-    <n v="11264"/>
-    <n v="18773.333333333299"/>
-    <n v="5120"/>
-    <n v="512"/>
-    <n v="-7558.0952380952303"/>
-    <n v="3760"/>
-    <n v="-7558.0952380952303"/>
-    <n v="5632"/>
-    <n v="11824.761904761899"/>
-    <n v="2560"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="67279"/>
-    <n v="2592899.6536796498"/>
-    <n v="3080009.3506493499"/>
-    <n v="2028747.8571428501"/>
-    <n v="1550483.29004329"/>
-    <n v="573701"/>
-    <n v="1607537.0562770499"/>
-    <n v="576029"/>
-    <n v="3043314.1991341901"/>
-    <n v="276555"/>
-    <n v="64139"/>
-    <n v="1435068.05194805"/>
-    <n v="544047"/>
-    <n v="1440748.05194805"/>
-    <n v="543273"/>
-    <n v="3012289.4372294298"/>
-    <n v="260855"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="binary, binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="21169"/>
-    <n v="1325465.7142857099"/>
-    <n v="448698.09523809497"/>
-    <n v="517596.19047619001"/>
-    <n v="58742.857142857101"/>
-    <n v="213164"/>
-    <n v="-161518.095238095"/>
-    <n v="206603"/>
-    <n v="241758.095238095"/>
-    <n v="105845"/>
-    <n v="19577"/>
-    <n v="-162373.33333333299"/>
-    <n v="193253"/>
-    <n v="-154660"/>
-    <n v="192471"/>
-    <n v="224262.85714285701"/>
-    <n v="97885"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="binary, numeric, numeric, numeric"/>
-    <x v="1"/>
-    <n v="6307"/>
-    <n v="396126.66666666599"/>
-    <n v="132460"/>
-    <n v="156509.523809523"/>
-    <n v="45761.904761904698"/>
-    <n v="65252"/>
-    <n v="-18213.333333333299"/>
-    <n v="52199"/>
-    <n v="39001.904761904698"/>
-    <n v="31535"/>
-    <n v="6307"/>
-    <n v="-18213.333333333299"/>
-    <n v="63508"/>
-    <n v="-18213.333333333299"/>
-    <n v="52199"/>
-    <n v="36392.380952380903"/>
-    <n v="31535"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="786160"/>
-    <n v="48103573.872894302"/>
-    <n v="9638292.23816102"/>
-    <n v="17123177.411100101"/>
-    <n v="6752848.3787999498"/>
-    <n v="13371875"/>
-    <n v="7251815.2828780599"/>
-    <n v="13690459"/>
-    <n v="7007537.59918899"/>
-    <n v="7187743"/>
-    <n v="786160"/>
-    <n v="7385305.1032596603"/>
-    <n v="13200774"/>
-    <n v="6862829.3667166997"/>
-    <n v="13689171"/>
-    <n v="7088135.8080709903"/>
-    <n v="7187743"/>
+    <n v="373"/>
+    <n v="23362.860616346101"/>
+    <n v="3848.5520269008398"/>
+    <n v="7172.2180472902101"/>
+    <n v="4387.9162501645296"/>
+    <n v="708"/>
+    <n v="5642.5367298559004"/>
+    <n v="426"/>
+    <n v="4605.5370253963902"/>
+    <n v="1425"/>
+    <n v="373"/>
+    <n v="3641.7492731893299"/>
+    <n v="808"/>
+    <n v="5236.9026042944697"/>
+    <n v="474"/>
+    <n v="4663.9062309724104"/>
+    <n v="1491"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
-    <s v="binary"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="260.95238095238"/>
-    <n v="74.285714285714207"/>
-    <n v="95.238095238095198"/>
-    <n v="-38.095238095238102"/>
-    <n v="60"/>
-    <n v="-48.571428571428498"/>
-    <n v="7"/>
-    <n v="1.9047619047619"/>
-    <n v="24"/>
-    <n v="4"/>
-    <n v="-48.571428571428498"/>
-    <n v="53"/>
-    <n v="-48.571428571428498"/>
-    <n v="4"/>
-    <n v="1.9047619047619"/>
-    <n v="24"/>
+    <s v="categorical"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="205.747126436781"/>
+    <n v="59.7701149425287"/>
+    <n v="1.14942528735632"/>
+    <n v="-2.2988505747126502"/>
+    <n v="39"/>
+    <n v="-6.8965517241379297"/>
+    <n v="32"/>
+    <n v="-4.5977011494252897"/>
+    <n v="33"/>
+    <n v="3"/>
+    <n v="6.8965517241379199"/>
+    <n v="36"/>
+    <n v="-6.8965517241379297"/>
+    <n v="21"/>
+    <n v="-4.5977011494252897"/>
+    <n v="33"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <s v="numeric"/>
-    <x v="0"/>
-    <n v="384"/>
-    <n v="24094.890912945099"/>
-    <n v="4282.1726485222398"/>
-    <n v="7553.4367879103102"/>
-    <n v="3634.1940378529498"/>
-    <n v="5913"/>
-    <n v="4350.4148671749899"/>
-    <n v="5873"/>
-    <n v="5635.6331155207199"/>
-    <n v="4281"/>
-    <n v="384"/>
-    <n v="2767.4268569702699"/>
-    <n v="5823"/>
-    <n v="3382.2760739774399"/>
-    <n v="5917"/>
-    <n v="5670.3861866682901"/>
-    <n v="4276"/>
-  </r>
-  <r>
-    <x v="7"/>
     <x v="1"/>
-    <s v="binary, binary"/>
-    <x v="2"/>
-    <n v="96"/>
-    <n v="6245.7142857142799"/>
-    <n v="1800"/>
-    <n v="2288.5714285714198"/>
-    <n v="-914.28571428571399"/>
-    <n v="1210"/>
-    <n v="-1146.6666666666599"/>
-    <n v="1247"/>
-    <n v="45.714285714285701"/>
-    <n v="672"/>
-    <n v="96"/>
-    <n v="-1165.7142857142801"/>
-    <n v="1086"/>
-    <n v="-1146.6666666666599"/>
-    <n v="1238"/>
-    <n v="45.714285714285701"/>
-    <n v="672"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="358"/>
-    <n v="16776.309523809501"/>
-    <n v="12211.655844155801"/>
-    <n v="6377.22943722943"/>
-    <n v="5145.1948051948002"/>
-    <n v="3755"/>
-    <n v="5458.1926406926405"/>
-    <n v="3338"/>
-    <n v="9885.4220779220796"/>
-    <n v="1946"/>
-    <n v="358"/>
-    <n v="3955.6709956709901"/>
-    <n v="3686"/>
-    <n v="4313.1709956709901"/>
-    <n v="3292"/>
-    <n v="9733.3982683982704"/>
-    <n v="1946"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
-    <x v="0"/>
-    <n v="16285"/>
-    <n v="1004777.3573386"/>
-    <n v="121398.546451741"/>
-    <n v="340953.53151604597"/>
-    <n v="102995.565172168"/>
-    <n v="417960"/>
-    <n v="147272.99259106701"/>
-    <n v="443949"/>
-    <n v="154136.74741373301"/>
-    <n v="279773"/>
-    <n v="16285"/>
-    <n v="94698.701135447001"/>
-    <n v="411427"/>
-    <n v="107311.021677785"/>
-    <n v="445146"/>
-    <n v="154725.51075626799"/>
-    <n v="279593"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <s v="binary, binary, binary"/>
-    <x v="2"/>
-    <n v="768"/>
-    <n v="49834.285714285703"/>
-    <n v="14531.4285714285"/>
-    <n v="18330.4761904761"/>
-    <n v="-7314.2857142857101"/>
-    <n v="7840"/>
-    <n v="-9020.9523809523798"/>
-    <n v="9984"/>
-    <n v="365.71428571428601"/>
-    <n v="4608"/>
-    <n v="768"/>
-    <n v="-9325.7142857142808"/>
-    <n v="7104"/>
-    <n v="-9020.9523809523798"/>
-    <n v="9984"/>
-    <n v="365.71428571428601"/>
-    <n v="4608"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="7002"/>
-    <n v="313515.84415584401"/>
-    <n v="268454.37229437201"/>
-    <n v="144572.651515151"/>
-    <n v="108864.675324675"/>
-    <n v="70871"/>
-    <n v="120513.13852813801"/>
-    <n v="69757"/>
-    <n v="218772.38095237999"/>
-    <n v="35068"/>
-    <n v="7002"/>
-    <n v="96488.484848484804"/>
-    <n v="69360"/>
-    <n v="100409.675324675"/>
-    <n v="69663"/>
-    <n v="218132.85714285701"/>
-    <n v="35068"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <s v="binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="1124"/>
-    <n v="69470.476190476096"/>
-    <n v="24731.4285714285"/>
-    <n v="29916.190476190401"/>
-    <n v="4040.9523809523798"/>
-    <n v="13168"/>
-    <n v="-1330.4761904761899"/>
-    <n v="10758"/>
-    <n v="2793.3333333333298"/>
-    <n v="6744"/>
-    <n v="1124"/>
-    <n v="-2049.5238095238101"/>
-    <n v="12652"/>
-    <n v="-1330.4761904761899"/>
-    <n v="10746"/>
-    <n v="2379.0476190476202"/>
-    <n v="6744"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="506419"/>
-    <n v="29729241.227063499"/>
-    <n v="2032336.02931941"/>
-    <n v="11324860.729980599"/>
-    <n v="2308360.9408865101"/>
-    <n v="15405396"/>
-    <n v="4607565.7499579899"/>
-    <n v="16377758"/>
-    <n v="3373287.32124223"/>
-    <n v="9638640"/>
-    <n v="506419"/>
-    <n v="3122283.93837468"/>
-    <n v="15227010"/>
-    <n v="3483061.2124113599"/>
-    <n v="16382046"/>
-    <n v="3439868.28372342"/>
-    <n v="9633532"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, binary"/>
-    <x v="2"/>
-    <n v="2048"/>
-    <n v="132590.47619047601"/>
-    <n v="39051.4285714285"/>
-    <n v="48952.380952380903"/>
-    <n v="-19504.761904761901"/>
-    <n v="16000"/>
-    <n v="-23649.523809523798"/>
-    <n v="22528"/>
-    <n v="975.23809523809598"/>
-    <n v="10240"/>
-    <n v="2048"/>
-    <n v="-24868.571428571398"/>
-    <n v="14464"/>
-    <n v="-23649.523809523798"/>
-    <n v="22528"/>
-    <n v="975.23809523809598"/>
-    <n v="10240"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="73487"/>
-    <n v="2963109.1774891699"/>
-    <n v="3219531.1688311598"/>
-    <n v="1548961.64502164"/>
-    <n v="1452975.6709956699"/>
-    <n v="631713"/>
-    <n v="1551041.73160173"/>
-    <n v="642071"/>
-    <n v="2861072.0779220699"/>
-    <n v="307275"/>
-    <n v="73487"/>
-    <n v="1375585.19480519"/>
-    <n v="622582"/>
-    <n v="1397845.19480519"/>
-    <n v="642041"/>
-    <n v="2854173.0303030298"/>
-    <n v="307275"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="3"/>
-    <s v="binary, binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="25117"/>
-    <n v="1537376.1904761901"/>
-    <n v="567667.61904761905"/>
-    <n v="678593.33333333302"/>
-    <n v="36923.809523809497"/>
-    <n v="252304"/>
-    <n v="-82218.095238095193"/>
-    <n v="242062"/>
-    <n v="81729.523809523802"/>
-    <n v="125585"/>
-    <n v="25117"/>
-    <n v="-106159.04761904701"/>
-    <n v="242527"/>
-    <n v="-82218.095238095193"/>
-    <n v="242000"/>
-    <n v="75794.285714285696"/>
-    <n v="125585"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="3"/>
-    <s v="binary, numeric, numeric, numeric"/>
-    <x v="1"/>
-    <n v="6659"/>
-    <n v="410174.28571428498"/>
-    <n v="147913.33333333299"/>
-    <n v="177538.095238095"/>
-    <n v="59589.523809523802"/>
-    <n v="66409"/>
-    <n v="19137.1428571428"/>
-    <n v="55658"/>
-    <n v="13700"/>
-    <n v="33295"/>
-    <n v="6659"/>
-    <n v="13939.9999999999"/>
-    <n v="64004"/>
-    <n v="19137.1428571428"/>
-    <n v="55656"/>
-    <n v="10906.666666666601"/>
-    <n v="33295"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="779593"/>
-    <n v="47752876.787912399"/>
-    <n v="10839570.890808299"/>
-    <n v="16943710.939911999"/>
-    <n v="6696325.5514648296"/>
-    <n v="13456875"/>
-    <n v="7240241.2671807501"/>
-    <n v="13794020"/>
-    <n v="7065971.3205936402"/>
-    <n v="7217587"/>
-    <n v="779593"/>
-    <n v="7331549.9378001802"/>
-    <n v="13286606"/>
-    <n v="6898436.2118982105"/>
-    <n v="13802711"/>
-    <n v="7243754.1630774802"/>
-    <n v="7217587"/>
+    <n v="380"/>
+    <n v="23871.903899958099"/>
+    <n v="4143.4929948425797"/>
+    <n v="7538.8372208107503"/>
+    <n v="4510.3255413110201"/>
+    <n v="729"/>
+    <n v="5660.2743389048501"/>
+    <n v="434"/>
+    <n v="4682.0426087075002"/>
+    <n v="1496"/>
+    <n v="380"/>
+    <n v="3456.6957278069099"/>
+    <n v="816"/>
+    <n v="5292.2080486717896"/>
+    <n v="464"/>
+    <n v="4616.6203530327602"/>
+    <n v="1530"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
-    <s v="binary"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="185.71428571428501"/>
-    <n v="59.999999999999901"/>
-    <n v="84.761904761904702"/>
-    <n v="-40"/>
-    <n v="19"/>
-    <n v="-40"/>
-    <n v="6"/>
-    <n v="0.952380952380949"/>
-    <n v="9"/>
-    <n v="3"/>
-    <n v="-40"/>
-    <n v="30"/>
-    <n v="-40"/>
-    <n v="6"/>
-    <n v="0.952380952380949"/>
-    <n v="18"/>
+    <s v="categorical"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="383.72582001682002"/>
+    <n v="185.66021867115199"/>
+    <n v="121.082141855901"/>
+    <n v="-5.8592654892066296"/>
+    <n v="39"/>
+    <n v="-20.801794224838801"/>
+    <n v="25"/>
+    <n v="-16.2040930754135"/>
+    <n v="33"/>
+    <n v="7"/>
+    <n v="-5.8592654892066296"/>
+    <n v="36"/>
+    <n v="-20.801794224838801"/>
+    <n v="16"/>
+    <n v="-11.6063919259882"/>
+    <n v="33"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
     <s v="numeric"/>
-    <x v="0"/>
-    <n v="390"/>
-    <n v="24452.710094587201"/>
-    <n v="5612.7855047902303"/>
-    <n v="7772.7730139916303"/>
-    <n v="3925.89265713028"/>
-    <n v="5862"/>
-    <n v="4652.2476702560798"/>
-    <n v="5817"/>
-    <n v="6016.2239918547402"/>
-    <n v="4256"/>
-    <n v="390"/>
-    <n v="2940.9152989017298"/>
-    <n v="5744"/>
-    <n v="3490.3670424888101"/>
-    <n v="5861"/>
-    <n v="6021.4192616598202"/>
-    <n v="4279"/>
-  </r>
-  <r>
-    <x v="8"/>
     <x v="1"/>
-    <s v="binary, binary"/>
-    <x v="2"/>
-    <n v="78"/>
-    <n v="4900"/>
-    <n v="1499.99999999999"/>
-    <n v="2080.9523809523798"/>
-    <n v="-1011.42857142857"/>
-    <n v="723"/>
-    <n v="-971.42857142857099"/>
-    <n v="941"/>
-    <n v="68.571428571428598"/>
-    <n v="546"/>
-    <n v="78"/>
-    <n v="-1011.42857142857"/>
-    <n v="742"/>
-    <n v="-971.42857142857099"/>
-    <n v="929"/>
-    <n v="68.571428571428598"/>
-    <n v="546"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="443"/>
-    <n v="23152.543290043199"/>
-    <n v="9469.0800865800793"/>
-    <n v="7522.8463203463198"/>
-    <n v="4924.7619047619"/>
-    <n v="4476"/>
-    <n v="5598.0519480519397"/>
-    <n v="3960"/>
-    <n v="10140.6168831168"/>
-    <n v="2337"/>
-    <n v="443"/>
-    <n v="4238.9935064934998"/>
-    <n v="4479"/>
-    <n v="4058.6580086580002"/>
-    <n v="3937"/>
-    <n v="10015.974025973999"/>
-    <n v="2337"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
-    <x v="0"/>
-    <n v="16359"/>
-    <n v="1007974.92153444"/>
-    <n v="207877.10115120499"/>
-    <n v="358953.62598140398"/>
-    <n v="111965.81090276899"/>
-    <n v="415670"/>
-    <n v="152218.68467761201"/>
-    <n v="441663"/>
-    <n v="165758.15838972499"/>
-    <n v="280070"/>
-    <n v="16359"/>
-    <n v="100988.401563846"/>
-    <n v="411154"/>
-    <n v="111394.36639977799"/>
-    <n v="442771"/>
-    <n v="166704.502841423"/>
-    <n v="280270"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="2"/>
-    <s v="binary, binary, binary"/>
-    <x v="2"/>
-    <n v="660"/>
-    <n v="41800"/>
-    <n v="12411.4285714285"/>
-    <n v="16704.761904761901"/>
-    <n v="-8400"/>
-    <n v="5513"/>
-    <n v="-7851.4285714285697"/>
-    <n v="8422"/>
-    <n v="822.857142857143"/>
-    <n v="3960"/>
-    <n v="660"/>
-    <n v="-8400"/>
-    <n v="5465"/>
-    <n v="-7851.4285714285697"/>
-    <n v="8420"/>
-    <n v="822.857142857143"/>
-    <n v="3960"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="8664"/>
-    <n v="438200.519480519"/>
-    <n v="203420.30303030301"/>
-    <n v="163659.74025974001"/>
-    <n v="103911.68831168801"/>
-    <n v="84971"/>
-    <n v="119418.484848484"/>
-    <n v="80502"/>
-    <n v="227967.09956709901"/>
-    <n v="41808"/>
-    <n v="8664"/>
-    <n v="94965.584415584395"/>
-    <n v="84134"/>
-    <n v="96258.257575757496"/>
-    <n v="80365"/>
-    <n v="226104.004329004"/>
-    <n v="41808"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="2"/>
-    <s v="binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="1169"/>
-    <n v="73157.142857142797"/>
-    <n v="23100.952380952302"/>
-    <n v="30942.857142857101"/>
-    <n v="679.99999999999898"/>
-    <n v="13614"/>
-    <n v="-3740.9523809523798"/>
-    <n v="10833"/>
-    <n v="1668.57142857142"/>
-    <n v="7014"/>
-    <n v="1169"/>
-    <n v="-4377.1428571428496"/>
-    <n v="13211"/>
-    <n v="-3740.9523809523798"/>
-    <n v="10819"/>
-    <n v="900"/>
-    <n v="7014"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="504508"/>
-    <n v="29539002.989170399"/>
-    <n v="5984091.2167334398"/>
-    <n v="11808500.4693198"/>
-    <n v="2600263.3837863998"/>
-    <n v="15238962"/>
-    <n v="4706479.8301763004"/>
-    <n v="16163418"/>
-    <n v="3640121.8422945798"/>
-    <n v="9575573"/>
-    <n v="504508"/>
-    <n v="3294956.9339622702"/>
-    <n v="15172359"/>
-    <n v="3630255.3550481"/>
-    <n v="16167814"/>
-    <n v="3764186.33430538"/>
-    <n v="9577034"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, binary"/>
-    <x v="2"/>
-    <n v="1832"/>
-    <n v="116584.76190476101"/>
-    <n v="33952.380952380903"/>
-    <n v="44279.047619047597"/>
-    <n v="-23017.1428571428"/>
-    <n v="12439"/>
-    <n v="-21099.0476190476"/>
-    <n v="20140"/>
-    <n v="2742.8571428571399"/>
-    <n v="9160"/>
-    <n v="1832"/>
-    <n v="-23017.1428571428"/>
-    <n v="12439"/>
-    <n v="-21099.0476190476"/>
-    <n v="20140"/>
-    <n v="2742.8571428571399"/>
-    <n v="9160"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="92511"/>
-    <n v="4456165.7142857099"/>
-    <n v="2338403.0303030298"/>
-    <n v="1804355.1839826801"/>
-    <n v="1412764.0692640599"/>
-    <n v="785374"/>
-    <n v="1558114.71861471"/>
-    <n v="768803"/>
-    <n v="2930430.6493506399"/>
-    <n v="376795"/>
-    <n v="92511"/>
-    <n v="1353419.5670995601"/>
-    <n v="778781"/>
-    <n v="1375664.71861471"/>
-    <n v="768777"/>
-    <n v="2922624.93506493"/>
-    <n v="376795"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="3"/>
-    <s v="binary, binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="26439"/>
-    <n v="1645293.33333333"/>
-    <n v="530555.23809523799"/>
-    <n v="695752.38095238095"/>
-    <n v="-56737.142857142797"/>
-    <n v="262014"/>
-    <n v="-148046.66666666599"/>
-    <n v="250505"/>
-    <n v="69790.476190476198"/>
-    <n v="132195"/>
-    <n v="26439"/>
-    <n v="-176223.809523809"/>
-    <n v="254622"/>
-    <n v="-148046.66666666599"/>
-    <n v="250543"/>
-    <n v="60649.523809523802"/>
-    <n v="132195"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="3"/>
-    <s v="binary, numeric, numeric, numeric"/>
-    <x v="1"/>
-    <n v="7118"/>
-    <n v="445773.33333333302"/>
-    <n v="141364.76190476099"/>
-    <n v="185869.523809523"/>
-    <n v="43541.904761904698"/>
-    <n v="70992"/>
-    <n v="5912.3809523809496"/>
-    <n v="57265"/>
-    <n v="3454.2857142857101"/>
-    <n v="35590"/>
-    <n v="7118"/>
-    <n v="2112.38095238094"/>
-    <n v="69348"/>
-    <n v="5912.3809523809496"/>
-    <n v="57258"/>
-    <n v="-3029.5238095238001"/>
-    <n v="35590"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="790483"/>
-    <n v="48355862.530691899"/>
-    <n v="10447195.547292599"/>
-    <n v="17686332.788721301"/>
-    <n v="6852772.4261773601"/>
-    <n v="13461255"/>
-    <n v="7506214.8300379496"/>
-    <n v="13810869"/>
-    <n v="7364239.1363588599"/>
-    <n v="7239534"/>
-    <n v="790483"/>
-    <n v="7649173.2967111999"/>
-    <n v="13297963"/>
-    <n v="7118727.8087288402"/>
-    <n v="13812046"/>
-    <n v="7574944.2948929798"/>
-    <n v="7239534"/>
+    <n v="385"/>
+    <n v="24137.569401946501"/>
+    <n v="5510.9565004612296"/>
+    <n v="7756.1712823898997"/>
+    <n v="4884.0535195822804"/>
+    <n v="652"/>
+    <n v="6086.3071354491203"/>
+    <n v="419"/>
+    <n v="5152.1107563320602"/>
+    <n v="1467"/>
+    <n v="385"/>
+    <n v="3936.2479287047599"/>
+    <n v="748"/>
+    <n v="5550.1129357669897"/>
+    <n v="454"/>
+    <n v="5197.63061830276"/>
+    <n v="1507"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
-    <s v="binary"/>
-    <x v="2"/>
-    <n v="6"/>
-    <n v="398.21428571428498"/>
-    <n v="90.714285714285694"/>
-    <n v="114.404761904761"/>
-    <n v="-40"/>
-    <n v="112"/>
-    <n v="-52.5"/>
-    <n v="73"/>
-    <n v="-12.5"/>
-    <n v="54"/>
-    <n v="6"/>
-    <n v="-40"/>
-    <n v="123"/>
-    <n v="-52.5"/>
-    <n v="72"/>
-    <n v="-37.499999999999901"/>
-    <n v="60"/>
+    <s v="categorical"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="611.31202691337205"/>
+    <n v="185.996635828427"/>
+    <n v="109.16736753574401"/>
+    <n v="7.9338379590692103"/>
+    <n v="78"/>
+    <n v="-17.353518362769801"/>
+    <n v="62"/>
+    <n v="-10.456966638631901"/>
+    <n v="66"/>
+    <n v="10"/>
+    <n v="11.3821138211381"/>
+    <n v="71"/>
+    <n v="-17.353518362769801"/>
+    <n v="48"/>
+    <n v="-10.456966638631901"/>
+    <n v="66"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <s v="numeric"/>
-    <x v="0"/>
+    <x v="1"/>
+    <n v="381"/>
+    <n v="23721.7688015641"/>
+    <n v="5445.2107859369999"/>
+    <n v="7903.1238478724599"/>
+    <n v="4872.5475410831696"/>
+    <n v="642"/>
+    <n v="6072.5652802079703"/>
     <n v="384"/>
-    <n v="23894.755814551099"/>
-    <n v="5596.3904396166599"/>
-    <n v="7873.18878293739"/>
-    <n v="3919.2634878342001"/>
-    <n v="5640"/>
-    <n v="4955.5515044869499"/>
-    <n v="5624"/>
-    <n v="6028.9141427838304"/>
-    <n v="4087"/>
-    <n v="384"/>
-    <n v="3082.5904864071699"/>
-    <n v="5541"/>
-    <n v="3660.0560136132499"/>
-    <n v="5713"/>
-    <n v="6191.6581840707104"/>
-    <n v="4088"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-    <s v="binary, binary"/>
-    <x v="2"/>
-    <n v="131"/>
-    <n v="8677.1428571428496"/>
-    <n v="2079.0476190476102"/>
-    <n v="2497.61904761904"/>
-    <n v="-954.28571428571399"/>
-    <n v="2172"/>
-    <n v="-1178.0952380952299"/>
-    <n v="2098"/>
-    <n v="-134.76190476190399"/>
-    <n v="1205"/>
-    <n v="131"/>
-    <n v="-954.28571428571399"/>
-    <n v="2212"/>
-    <n v="-1178.0952380952299"/>
-    <n v="2086"/>
-    <n v="-484.76190476190402"/>
-    <n v="1205"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="406"/>
-    <n v="19770.5952380952"/>
-    <n v="13637.803030302999"/>
-    <n v="9107.3917748917702"/>
-    <n v="1027.3160173160099"/>
-    <n v="3433"/>
-    <n v="5887.5216450216403"/>
-    <n v="3490"/>
-    <n v="10199.707792207701"/>
-    <n v="2050"/>
-    <n v="406"/>
-    <n v="3888.5281385281301"/>
-    <n v="3438"/>
-    <n v="4528.64718614718"/>
-    <n v="3465"/>
-    <n v="10199.707792207701"/>
-    <n v="2050"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
-    <x v="0"/>
-    <n v="16066"/>
-    <n v="985051.28281748702"/>
-    <n v="153575.90763683099"/>
-    <n v="357380.368046686"/>
-    <n v="111734.310845484"/>
-    <n v="407539"/>
-    <n v="161450.801619465"/>
-    <n v="429382"/>
-    <n v="166920.56933448999"/>
-    <n v="273062"/>
-    <n v="16066"/>
-    <n v="99882.670567585694"/>
-    <n v="401868"/>
-    <n v="111778.516277028"/>
-    <n v="430560"/>
-    <n v="175799.21947916399"/>
-    <n v="273199"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="2"/>
-    <s v="binary, binary, binary"/>
-    <x v="2"/>
-    <n v="904"/>
-    <n v="59300.952380952302"/>
-    <n v="15571.4285714285"/>
-    <n v="17476.190476190401"/>
-    <n v="-8045.7142857142799"/>
-    <n v="11328"/>
-    <n v="-8732.3809523809505"/>
-    <n v="12899"/>
-    <n v="224.76190476190399"/>
-    <n v="6576"/>
-    <n v="904"/>
-    <n v="-8045.7142857142799"/>
-    <n v="11456"/>
-    <n v="-8732.3809523809505"/>
-    <n v="12891"/>
-    <n v="-975.23809523809405"/>
-    <n v="6576"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="7469"/>
-    <n v="339987.27272727201"/>
-    <n v="286747.18614718597"/>
-    <n v="191091.94805194801"/>
-    <n v="8119.99999999999"/>
-    <n v="65960"/>
-    <n v="123605.28138528101"/>
-    <n v="69541"/>
-    <n v="229987.85714285701"/>
-    <n v="35406"/>
-    <n v="7469"/>
-    <n v="92570.2705627705"/>
-    <n v="64862"/>
-    <n v="99106.580086579997"/>
-    <n v="69429"/>
-    <n v="229957.38095237999"/>
-    <n v="35406"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="2"/>
-    <s v="binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="1141"/>
-    <n v="71121.904761904705"/>
-    <n v="24504.761904761901"/>
-    <n v="29137.1428571428"/>
-    <n v="909.52380952380895"/>
-    <n v="13140"/>
-    <n v="-2278.0952380952299"/>
-    <n v="10773"/>
-    <n v="873.33333333333405"/>
-    <n v="6846"/>
-    <n v="1141"/>
-    <n v="-3981.9047619047601"/>
-    <n v="12925"/>
-    <n v="-2278.0952380952299"/>
-    <n v="10765"/>
-    <n v="741.90476190476295"/>
-    <n v="6846"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="493827"/>
-    <n v="28762763.692056999"/>
-    <n v="2599311.40262947"/>
-    <n v="11642342.4593927"/>
-    <n v="2725609.4648029702"/>
-    <n v="14909341"/>
-    <n v="4930616.4749527099"/>
-    <n v="15768488"/>
-    <n v="3843605.1320033101"/>
-    <n v="9342651"/>
-    <n v="493827"/>
-    <n v="3262297.0327355498"/>
-    <n v="14807029"/>
-    <n v="3605219.9029577798"/>
-    <n v="15769265"/>
-    <n v="4273783.4513032502"/>
-    <n v="9343936"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, binary"/>
-    <x v="2"/>
-    <n v="1968"/>
-    <n v="126739.04761904701"/>
-    <n v="38198.0952380952"/>
-    <n v="38600"/>
-    <n v="-24182.857142857101"/>
-    <n v="14208"/>
-    <n v="-21306.666666666599"/>
-    <n v="21636"/>
-    <n v="4525.7142857142799"/>
-    <n v="9840"/>
-    <n v="1968"/>
-    <n v="-24182.857142857101"/>
-    <n v="14208"/>
-    <n v="-21306.666666666599"/>
-    <n v="21636"/>
-    <n v="4525.7142857142799"/>
-    <n v="9840"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="75067"/>
-    <n v="3058689.1774891699"/>
-    <n v="3326463.7229437199"/>
-    <n v="2119197.5757575701"/>
-    <n v="130774.19913419901"/>
-    <n v="597281"/>
-    <n v="1597103.11688311"/>
-    <n v="635758"/>
-    <n v="2961369.6969696898"/>
-    <n v="306215"/>
-    <n v="75067"/>
-    <n v="1348876.1471861401"/>
-    <n v="589146"/>
-    <n v="1378644.2424242401"/>
-    <n v="635629"/>
-    <n v="2960971.6017315998"/>
-    <n v="306215"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="3"/>
-    <s v="binary, binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="25834"/>
-    <n v="1600953.33333333"/>
-    <n v="563907.61904761905"/>
-    <n v="647493.33333333302"/>
-    <n v="-50059.047619047597"/>
-    <n v="256622"/>
-    <n v="-112988.571428571"/>
-    <n v="244313"/>
-    <n v="52846.666666666599"/>
-    <n v="129170"/>
-    <n v="25834"/>
-    <n v="-161360"/>
-    <n v="249339"/>
-    <n v="-112988.571428571"/>
-    <n v="244279"/>
-    <n v="50390.476190476104"/>
-    <n v="129170"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="3"/>
-    <s v="binary, numeric, numeric, numeric"/>
-    <x v="1"/>
-    <n v="6876"/>
-    <n v="428014.28571428498"/>
-    <n v="148260"/>
-    <n v="176463.809523809"/>
-    <n v="45820"/>
-    <n v="67654"/>
-    <n v="20201.904761904701"/>
-    <n v="58077"/>
-    <n v="1713.3333333333301"/>
-    <n v="34380"/>
-    <n v="6876"/>
-    <n v="5792.3809523809396"/>
-    <n v="66261"/>
-    <n v="20201.904761904701"/>
-    <n v="58082"/>
-    <n v="43.809523809527697"/>
-    <n v="34380"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="770631"/>
-    <n v="46826325.072315499"/>
-    <n v="11219543.781494901"/>
-    <n v="17779116.4424401"/>
-    <n v="6775391.5166450599"/>
-    <n v="12975519"/>
-    <n v="7670056.9048528299"/>
-    <n v="13295703"/>
-    <n v="7136684.3895765198"/>
-    <n v="6989357"/>
-    <n v="770631"/>
-    <n v="7474881.1961028501"/>
-    <n v="12829035"/>
-    <n v="6981266.09521857"/>
-    <n v="13300790"/>
-    <n v="7373651.4501600899"/>
-    <n v="6989357"/>
+    <n v="4960.2193645911202"/>
+    <n v="1411"/>
+    <n v="381"/>
+    <n v="3902.9610507707098"/>
+    <n v="728"/>
+    <n v="5543.1118237101"/>
+    <n v="434"/>
+    <n v="5184.8339443021496"/>
+    <n v="1408"/>
   </r>
   <r>
     <x v="10"/>
     <x v="0"/>
-    <s v="binary"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="260.95238095238"/>
-    <n v="74.285714285714207"/>
-    <n v="95.238095238095198"/>
-    <n v="-48.571428571428498"/>
-    <n v="59"/>
-    <n v="-48.571428571428498"/>
-    <n v="7"/>
-    <n v="0"/>
-    <n v="24"/>
-    <n v="4"/>
-    <n v="-48.571428571428498"/>
-    <n v="58"/>
-    <n v="-48.571428571428498"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="24"/>
+    <s v="categorical"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="689.47294645360205"/>
+    <n v="205.67703952901499"/>
+    <n v="135.085506027474"/>
+    <n v="-13.905242500700799"/>
+    <n v="91"/>
+    <n v="-9.30754135127561"/>
+    <n v="62"/>
+    <n v="-13.905242500700799"/>
+    <n v="77"/>
+    <n v="11"/>
+    <n v="13.6809643958508"/>
+    <n v="84"/>
+    <n v="-9.30754135127561"/>
+    <n v="53"/>
+    <n v="-13.905242500700799"/>
+    <n v="77"/>
   </r>
   <r>
     <x v="10"/>
     <x v="0"/>
     <s v="numeric"/>
-    <x v="0"/>
-    <n v="383"/>
-    <n v="23847.465590876702"/>
-    <n v="5765.0688662223201"/>
-    <n v="8196.2700455429094"/>
-    <n v="3899.1747560126801"/>
-    <n v="5839"/>
-    <n v="4903.2676485832499"/>
-    <n v="5757"/>
-    <n v="6005.4037433716503"/>
-    <n v="4169"/>
-    <n v="383"/>
-    <n v="3140.2732185831601"/>
-    <n v="5701"/>
-    <n v="3604.8163393580198"/>
-    <n v="5821"/>
-    <n v="6099.7187569310299"/>
-    <n v="4175"/>
-  </r>
-  <r>
-    <x v="10"/>
     <x v="1"/>
-    <s v="binary, binary"/>
-    <x v="2"/>
-    <n v="96"/>
-    <n v="6245.7142857142799"/>
-    <n v="1800"/>
-    <n v="2201.9047619047601"/>
-    <n v="-1165.7142857142801"/>
-    <n v="1185"/>
-    <n v="-1067.61904761904"/>
-    <n v="1105"/>
-    <n v="0"/>
-    <n v="672"/>
-    <n v="96"/>
-    <n v="-1165.7142857142801"/>
-    <n v="1168"/>
-    <n v="-1067.61904761904"/>
-    <n v="1103"/>
-    <n v="0"/>
-    <n v="672"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="1"/>
-    <s v="binary, numeric"/>
-    <x v="1"/>
-    <n v="421"/>
-    <n v="21545.995670995599"/>
-    <n v="10887.456709956699"/>
-    <n v="9845.4437229437208"/>
-    <n v="875.19480519480499"/>
-    <n v="4122"/>
-    <n v="6051.7207792207701"/>
-    <n v="3907"/>
-    <n v="10267.196969696901"/>
-    <n v="2297"/>
-    <n v="421"/>
-    <n v="4444.9567099567103"/>
-    <n v="4150"/>
-    <n v="4624.0151515151501"/>
-    <n v="3878"/>
-    <n v="10267.196969696901"/>
-    <n v="2297"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="1"/>
-    <s v="numeric, numeric"/>
-    <x v="0"/>
-    <n v="15977"/>
-    <n v="980994.90410371101"/>
-    <n v="202425.72622261901"/>
-    <n v="372691.55138763197"/>
-    <n v="111109.951057093"/>
-    <n v="406254"/>
-    <n v="160973.34332914001"/>
-    <n v="428175"/>
-    <n v="168531.55743606499"/>
-    <n v="272043"/>
-    <n v="15977"/>
-    <n v="103254.984766332"/>
-    <n v="400278"/>
-    <n v="110382.578894751"/>
-    <n v="429240"/>
-    <n v="176856.64948632801"/>
-    <n v="272180"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="2"/>
-    <s v="binary, binary, binary"/>
-    <x v="2"/>
-    <n v="768"/>
-    <n v="49834.285714285703"/>
-    <n v="14531.4285714285"/>
-    <n v="17340.952380952302"/>
-    <n v="-9325.7142857142808"/>
-    <n v="7646"/>
-    <n v="-7920"/>
-    <n v="9876"/>
-    <n v="0"/>
-    <n v="4608"/>
-    <n v="768"/>
-    <n v="-9325.7142857142808"/>
-    <n v="7552"/>
-    <n v="-7920"/>
-    <n v="9876"/>
-    <n v="0"/>
-    <n v="4608"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="2"/>
-    <s v="binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="8474"/>
-    <n v="424570.04329004302"/>
-    <n v="236172.337662337"/>
-    <n v="197007.727272727"/>
-    <n v="6280.9090909090901"/>
-    <n v="80357"/>
-    <n v="129101.233766233"/>
-    <n v="80393"/>
-    <n v="230025.86580086499"/>
-    <n v="41724"/>
-    <n v="8474"/>
-    <n v="99351.515151515094"/>
-    <n v="80151"/>
-    <n v="103085.757575757"/>
-    <n v="80404"/>
-    <n v="229945.86580086499"/>
-    <n v="41724"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="2"/>
-    <s v="binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="1076"/>
-    <n v="66356.190476190401"/>
-    <n v="25194.285714285699"/>
-    <n v="27474.285714285699"/>
-    <n v="1797.1428571428501"/>
-    <n v="12541"/>
-    <n v="-160.95238095238099"/>
-    <n v="10114"/>
-    <n v="-3127.61904761904"/>
-    <n v="6456"/>
-    <n v="1076"/>
-    <n v="-1089.5238095238101"/>
-    <n v="12267"/>
-    <n v="-160.95238095238099"/>
-    <n v="10134"/>
-    <n v="-3127.61904761904"/>
-    <n v="6456"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="2"/>
-    <s v="numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="486907"/>
-    <n v="28341965.26599"/>
-    <n v="5722305.6121400902"/>
-    <n v="12186659.5145678"/>
-    <n v="2810696.0813494199"/>
-    <n v="14616660"/>
-    <n v="4912389.2937643202"/>
-    <n v="15498953"/>
-    <n v="3975003.6342223398"/>
-    <n v="9186316"/>
-    <n v="486907"/>
-    <n v="3372631.8061524699"/>
-    <n v="14515880"/>
-    <n v="3560973.51376537"/>
-    <n v="15502546"/>
-    <n v="4399651.7000295101"/>
-    <n v="9187695"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, binary"/>
-    <x v="2"/>
-    <n v="2048"/>
-    <n v="132590.47619047601"/>
-    <n v="39051.4285714285"/>
-    <n v="46345.714285714203"/>
-    <n v="-24868.571428571398"/>
-    <n v="15528"/>
-    <n v="-19820.952380952302"/>
-    <n v="22528"/>
-    <n v="0"/>
-    <n v="10240"/>
-    <n v="2048"/>
-    <n v="-24868.571428571398"/>
-    <n v="15360"/>
-    <n v="-19820.952380952302"/>
-    <n v="22528"/>
-    <n v="0"/>
-    <n v="10240"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="3"/>
-    <s v="binary, binary, binary, numeric"/>
-    <x v="1"/>
-    <n v="91838"/>
-    <n v="4408327.6190476101"/>
-    <n v="2721550.4761904702"/>
-    <n v="2080150.55194805"/>
-    <n v="105731.774891774"/>
-    <n v="753730"/>
-    <n v="1657338.44155844"/>
-    <n v="770189"/>
-    <n v="2966397.8354978301"/>
-    <n v="376630"/>
-    <n v="91838"/>
-    <n v="1394366.32034632"/>
-    <n v="750594"/>
-    <n v="1419626.1471861401"/>
-    <n v="771384"/>
-    <n v="2965777.8354978301"/>
-    <n v="376630"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="3"/>
-    <s v="binary, binary, numeric, numeric"/>
-    <x v="1"/>
-    <n v="24102"/>
-    <n v="1472324.76190476"/>
-    <n v="565206.66666666605"/>
-    <n v="627146.66666666605"/>
-    <n v="-36123.809523809497"/>
-    <n v="238980"/>
-    <n v="-53933.333333333299"/>
-    <n v="226352"/>
-    <n v="-25495.238095238099"/>
-    <n v="120510"/>
-    <n v="24102"/>
-    <n v="-94533.333333333299"/>
-    <n v="233649"/>
-    <n v="-53933.333333333299"/>
-    <n v="226381"/>
-    <n v="-27448.571428571398"/>
-    <n v="120510"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="3"/>
-    <s v="binary, numeric, numeric, numeric"/>
-    <x v="1"/>
-    <n v="6401"/>
-    <n v="392298.09523809497"/>
-    <n v="156509.523809523"/>
-    <n v="165838.095238095"/>
-    <n v="46093.333333333299"/>
-    <n v="63089"/>
-    <n v="32595.238095238001"/>
-    <n v="53195"/>
-    <n v="-29690.4761904761"/>
-    <n v="32005"/>
-    <n v="6401"/>
-    <n v="23950.4761904761"/>
-    <n v="61684"/>
-    <n v="32595.238095238001"/>
-    <n v="53225"/>
-    <n v="-29639.0476190476"/>
-    <n v="32005"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="3"/>
-    <s v="numeric, numeric, numeric, numeric"/>
-    <x v="0"/>
-    <n v="774208"/>
-    <n v="47093074.301977701"/>
-    <n v="11784858.330156401"/>
-    <n v="19097095.700796299"/>
-    <n v="6856182.4815736301"/>
-    <n v="13088004"/>
-    <n v="7764357.5593357198"/>
-    <n v="13350341"/>
-    <n v="7319897.3136682501"/>
-    <n v="7015194"/>
-    <n v="774208"/>
-    <n v="7452767.61591163"/>
-    <n v="12931496"/>
-    <n v="7051750.3397597298"/>
-    <n v="13353393"/>
-    <n v="7414189.8882262995"/>
-    <n v="7015194"/>
+    <n v="378"/>
+    <n v="23544.824898235998"/>
+    <n v="5629.8524160058696"/>
+    <n v="8210.8912576641196"/>
+    <n v="4758.44407065001"/>
+    <n v="657"/>
+    <n v="6065.9318551424303"/>
+    <n v="393"/>
+    <n v="5096.7596026516703"/>
+    <n v="1463"/>
+    <n v="378"/>
+    <n v="3941.2703415732699"/>
+    <n v="757"/>
+    <n v="5467.8062898569297"/>
+    <n v="435"/>
+    <n v="5244.0578076252104"/>
+    <n v="1464"/>
   </r>
   <r>
     <x v="11"/>
-    <x v="4"/>
+    <x v="1"/>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -22022,7 +19439,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E372528D-AEC0-434B-87ED-F52BD71FBBB2}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="37" rowHeaderCaption="after size">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E372528D-AEC0-434B-87ED-F52BD71FBBB2}" name="PivotTable1" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="37" rowHeaderCaption="after size">
   <location ref="A5:F6" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="36">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -22045,20 +19462,20 @@
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="6">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -22203,7 +19620,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{29BA5BA9-F541-4EAF-BF63-2FAFC05DFC17}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="36" rowHeaderCaption="after size">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{29BA5BA9-F541-4EAF-BF63-2FAFC05DFC17}" name="PivotTable1" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="36" rowHeaderCaption="after size">
   <location ref="A5:H6" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="36">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -22226,20 +19643,20 @@
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="6">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item h="1" x="4"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -22518,7 +19935,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58009BBD-F97C-4DC0-AB42-11A675C4A8A5}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="36" rowHeaderCaption="after size">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58009BBD-F97C-4DC0-AB42-11A675C4A8A5}" name="PivotTable1" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="36" rowHeaderCaption="after size">
   <location ref="A5:G17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="36">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
@@ -22541,20 +19958,20 @@
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="6">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item h="1" x="4"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -22736,8 +20153,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF41BFB9-4D29-48EE-8C29-9F5E40C3B2EA}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="38" rowHeaderCaption="drift size">
-  <location ref="A5:G9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF41BFB9-4D29-48EE-8C29-9F5E40C3B2EA}" name="PivotTable1" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="38" rowHeaderCaption="drift size">
+  <location ref="A5:G7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="36">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
@@ -22759,20 +20176,20 @@
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="6">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -22812,15 +20229,9 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -23038,7 +20449,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C170A04-F675-4EC3-A246-381DE41B0E8A}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="36" rowHeaderCaption="after size">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C170A04-F675-4EC3-A246-381DE41B0E8A}" name="PivotTable1" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="36" rowHeaderCaption="after size">
   <location ref="A5:I17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="36">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
@@ -23061,20 +20472,20 @@
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item h="1" m="1" x="2"/>
+        <item h="1" m="1" x="3"/>
+        <item h="1" m="1" x="4"/>
         <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -23498,8 +20909,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6C05B2F-78BB-4EE7-B274-4A6EDF84BD59}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="34" rowHeaderCaption="drift size">
-  <location ref="A5:I9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6C05B2F-78BB-4EE7-B274-4A6EDF84BD59}" name="PivotTable1" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="34" rowHeaderCaption="drift size">
+  <location ref="A5:I7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="36">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
@@ -23521,20 +20932,20 @@
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="6">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -23574,15 +20985,9 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -24108,42 +21513,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F855C8-0C2D-4100-B4FB-E8E8BCF6113E}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A8" zoomScale="71" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView rightToLeft="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="54.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="61.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="66.4140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="53.08203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="51.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="58.08203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="28.08203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="44" width="59.4140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="69.296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="51.19921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="49.796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="58.09765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="44" width="59.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
+      <c r="B1" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -24151,7 +21557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -24159,7 +21565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -24179,24 +21585,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>30.064070661351636</v>
+        <v>1.8798586572438163</v>
       </c>
       <c r="B6" s="3">
-        <v>32.084263971873163</v>
+        <v>1.3387178192831903</v>
       </c>
       <c r="C6" s="3">
-        <v>29.909193083825127</v>
+        <v>2.1292276627965676</v>
       </c>
       <c r="D6" s="3">
-        <v>32.100882119338891</v>
+        <v>1.4974760222110046</v>
       </c>
       <c r="E6" s="3">
-        <v>18.868941004528327</v>
+        <v>3.753407370015144</v>
       </c>
       <c r="F6" s="3">
-        <v>18.873021575490338</v>
+        <v>3.9015648662291773</v>
       </c>
     </row>
   </sheetData>
@@ -24209,43 +21615,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB362A3-FDA4-4E63-9F8E-5B7A18C16D01}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A7" zoomScale="61" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="61.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="66.4140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="53.08203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="51.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="58.08203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="28.08203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="44" width="59.4140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="69.296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="51.19921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="49.796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="58.09765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="44" width="59.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
+      <c r="B1" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -24253,7 +21659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -24261,7 +21667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -24287,30 +21693,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>8.3863201719979337</v>
+        <v>7.277052173182895</v>
       </c>
       <c r="B6" s="3">
-        <v>20.304248170185506</v>
+        <v>17.557434499666257</v>
       </c>
       <c r="C6" s="3">
-        <v>7.1767239384685801</v>
+        <v>11.201747491894595</v>
       </c>
       <c r="D6" s="3">
-        <v>9.1937061321386171</v>
+        <v>14.545135128218421</v>
       </c>
       <c r="E6" s="3">
-        <v>8.3069373395282131</v>
+        <v>9.0895543606655078</v>
       </c>
       <c r="F6" s="3">
-        <v>8.0568346578396142</v>
+        <v>12.955623721845447</v>
       </c>
       <c r="G6" s="3">
-        <v>9.3327306285102729</v>
+        <v>11.838153077748728</v>
       </c>
       <c r="H6" s="3">
-        <v>9.5409636313540691</v>
+        <v>12.045692913181046</v>
       </c>
     </row>
   </sheetData>
@@ -24323,34 +21729,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42166CC-14C0-4644-8AC5-54235010DB3F}">
   <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A24" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView rightToLeft="1" topLeftCell="A4" zoomScale="98" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.9140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.9140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="25.9140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="61.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="66.4140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="53.08203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="51.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="58.08203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="28.08203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="44" width="59.4140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="69.296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="51.19921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="49.796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="58.09765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="44" width="59.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -24358,15 +21764,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
+      <c r="B3" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -24389,280 +21795,280 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.5</v>
       </c>
       <c r="B6" s="3">
-        <v>22.695489725113426</v>
+        <v>1.9033232628398791</v>
       </c>
       <c r="C6" s="3">
-        <v>24.294138203644678</v>
+        <v>2.226586102719033</v>
       </c>
       <c r="D6" s="3">
-        <v>22.707979291112654</v>
+        <v>2.1661631419939575</v>
       </c>
       <c r="E6" s="3">
-        <v>24.324945501601945</v>
+        <v>2.6646525679758306</v>
       </c>
       <c r="F6" s="3">
-        <v>13.706834650110025</v>
+        <v>3.5589123867069485</v>
       </c>
       <c r="G6" s="3">
-        <v>13.717708880290981</v>
+        <v>3.7915407854984893</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>23.02329419759559</v>
+        <v>1.779874213836478</v>
       </c>
       <c r="C7" s="3">
-        <v>24.430275423767515</v>
+        <v>1.5911949685534592</v>
       </c>
       <c r="D7" s="3">
-        <v>23.129384276418669</v>
+        <v>2.0628930817610063</v>
       </c>
       <c r="E7" s="3">
-        <v>24.531645255600537</v>
+        <v>1.9748427672955975</v>
       </c>
       <c r="F7" s="3">
-        <v>13.720729945141768</v>
+        <v>3.6761006289308176</v>
       </c>
       <c r="G7" s="3">
-        <v>13.782992673501301</v>
+        <v>3.8962264150943398</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="3">
-        <v>21.600905363051254</v>
+        <v>1.861764705882353</v>
       </c>
       <c r="C8" s="3">
-        <v>22.679688391353078</v>
+        <v>1.3705882352941177</v>
       </c>
       <c r="D8" s="3">
-        <v>21.512013342192333</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E8" s="3">
-        <v>22.68448701686566</v>
+        <v>1.5617647058823529</v>
       </c>
       <c r="F8" s="3">
-        <v>12.609109167052569</v>
+        <v>3.45</v>
       </c>
       <c r="G8" s="3">
-        <v>12.612890181945088</v>
+        <v>3.7529411764705882</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" s="3">
-        <v>21.780575981748896</v>
+        <v>1.9476744186046511</v>
       </c>
       <c r="C9" s="3">
-        <v>22.706378189686568</v>
+        <v>1.4186046511627908</v>
       </c>
       <c r="D9" s="3">
-        <v>21.575430535928191</v>
+        <v>2.2761627906976742</v>
       </c>
       <c r="E9" s="3">
-        <v>22.714283860161046</v>
+        <v>1.5639534883720929</v>
       </c>
       <c r="F9" s="3">
-        <v>12.688918089161957</v>
+        <v>3.7238372093023258</v>
       </c>
       <c r="G9" s="3">
-        <v>12.68477982869415</v>
+        <v>3.9912790697674421</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>4</v>
       </c>
       <c r="B10" s="3">
-        <v>21.299438528526959</v>
+        <v>1.7617647058823529</v>
       </c>
       <c r="C10" s="3">
-        <v>22.238243993220564</v>
+        <v>1.2323529411764707</v>
       </c>
       <c r="D10" s="3">
-        <v>21.151132266430515</v>
+        <v>1.9705882352941178</v>
       </c>
       <c r="E10" s="3">
-        <v>22.241749952558671</v>
+        <v>1.3911764705882352</v>
       </c>
       <c r="F10" s="3">
-        <v>12.386467398098782</v>
+        <v>3.7</v>
       </c>
       <c r="G10" s="3">
-        <v>12.383469068252261</v>
+        <v>3.861764705882353</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>5</v>
       </c>
       <c r="B11" s="3">
-        <v>21.251286711504882</v>
+        <v>1.9192200557103065</v>
       </c>
       <c r="C11" s="3">
-        <v>22.265600525509988</v>
+        <v>1.1894150417827298</v>
       </c>
       <c r="D11" s="3">
-        <v>21.012819058506704</v>
+        <v>2.1002785515320332</v>
       </c>
       <c r="E11" s="3">
-        <v>22.278723736509161</v>
+        <v>1.3091922005571031</v>
       </c>
       <c r="F11" s="3">
-        <v>12.39003210058921</v>
+        <v>3.6740947075208914</v>
       </c>
       <c r="G11" s="3">
-        <v>12.394165976717531</v>
+        <v>3.818941504178273</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>6</v>
       </c>
       <c r="B12" s="3">
-        <v>21.308061653935308</v>
+        <v>1.9573333333333334</v>
       </c>
       <c r="C12" s="3">
-        <v>22.273431552074989</v>
+        <v>1.2</v>
       </c>
       <c r="D12" s="3">
-        <v>21.149446715826972</v>
+        <v>2.2186666666666666</v>
       </c>
       <c r="E12" s="3">
-        <v>22.31999965923346</v>
+        <v>1.296</v>
       </c>
       <c r="F12" s="3">
-        <v>12.460709908951198</v>
+        <v>3.8586666666666667</v>
       </c>
       <c r="G12" s="3">
-        <v>12.487022829228398</v>
+        <v>4.0346666666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6.9999999999999902</v>
       </c>
       <c r="B13" s="3">
-        <v>21.382747240978929</v>
+        <v>2.0052219321148823</v>
       </c>
       <c r="C13" s="3">
-        <v>22.31947293961154</v>
+        <v>1.2167101827676241</v>
       </c>
       <c r="D13" s="3">
-        <v>21.114249963363356</v>
+        <v>2.2245430809399478</v>
       </c>
       <c r="E13" s="3">
-        <v>22.329309878366345</v>
+        <v>1.2663185378590078</v>
       </c>
       <c r="F13" s="3">
-        <v>12.446410454407106</v>
+        <v>3.9921671018276763</v>
       </c>
       <c r="G13" s="3">
-        <v>12.442681266838765</v>
+        <v>4.0809399477806787</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>8</v>
       </c>
       <c r="B14" s="3">
-        <v>20.929747004288402</v>
+        <v>1.7627551020408163</v>
       </c>
       <c r="C14" s="3">
-        <v>21.799187540541975</v>
+        <v>1.1326530612244898</v>
       </c>
       <c r="D14" s="3">
-        <v>20.756437255671052</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3">
-        <v>21.80369722132799</v>
+        <v>1.1989795918367347</v>
       </c>
       <c r="F14" s="3">
-        <v>12.207466685784441</v>
+        <v>3.8265306122448979</v>
       </c>
       <c r="G14" s="3">
-        <v>12.208633743193602</v>
+        <v>3.9285714285714284</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>9</v>
       </c>
       <c r="B15" s="3">
-        <v>20.939344332517081</v>
+        <v>1.8414322250639386</v>
       </c>
       <c r="C15" s="3">
-        <v>21.815975469583282</v>
+        <v>1.1406649616368287</v>
       </c>
       <c r="D15" s="3">
-        <v>20.744795853531425</v>
+        <v>2.0434782608695654</v>
       </c>
       <c r="E15" s="3">
-        <v>21.820835147889284</v>
+        <v>1.2327365728900255</v>
       </c>
       <c r="F15" s="3">
-        <v>12.237293229861999</v>
+        <v>3.7774936061381075</v>
       </c>
       <c r="G15" s="3">
-        <v>12.238313426762142</v>
+        <v>3.7698209718670075</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>10</v>
       </c>
       <c r="B16" s="3">
-        <v>20.736130665822895</v>
+        <v>1.9228791773778919</v>
       </c>
       <c r="C16" s="3">
-        <v>21.562134433069087</v>
+        <v>1.1696658097686374</v>
       </c>
       <c r="D16" s="3">
-        <v>20.542171992272969</v>
+        <v>2.1619537275064267</v>
       </c>
       <c r="E16" s="3">
-        <v>21.568523603333468</v>
+        <v>1.2544987146529563</v>
       </c>
       <c r="F16" s="3">
-        <v>12.085263498414033</v>
+        <v>3.9588688946015425</v>
       </c>
       <c r="G16" s="3">
-        <v>12.086340865702132</v>
+        <v>3.961439588688946</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="3">
-        <v>21.473580297200645</v>
+        <v>1.8798586572438163</v>
       </c>
       <c r="C17" s="3">
-        <v>22.489800270156991</v>
+        <v>1.3387178192831903</v>
       </c>
       <c r="D17" s="3">
-        <v>21.321748951457426</v>
+        <v>2.1292276627965676</v>
       </c>
       <c r="E17" s="3">
-        <v>22.508562051414625</v>
+        <v>1.4974760222110046</v>
       </c>
       <c r="F17" s="3">
-        <v>12.57755537348152</v>
+        <v>3.753407370015144</v>
       </c>
       <c r="G17" s="3">
-        <v>12.585119666016379</v>
+        <v>3.9015648662291773</v>
       </c>
     </row>
   </sheetData>
@@ -24673,36 +22079,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1C9577-C526-4612-9FB4-889244921267}">
-  <dimension ref="A2:G9"/>
+  <dimension ref="A2:G7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A17" zoomScale="67" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView rightToLeft="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.9140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="25.9140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="61.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="66.4140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="53.08203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="51.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="58.08203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="28.08203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="44" width="59.4140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="69.296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="51.19921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="49.796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="58.09765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="44" width="59.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -24710,7 +22116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -24718,7 +22124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -24741,96 +22147,50 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>14.781928319030792</v>
+        <v>1.8798586572438163</v>
       </c>
       <c r="C6" s="3">
-        <v>15.375063099444725</v>
+        <v>1.3387178192831903</v>
       </c>
       <c r="D6" s="3">
-        <v>14.683997980817768</v>
+        <v>2.1292276627965676</v>
       </c>
       <c r="E6" s="3">
-        <v>15.595658758202928</v>
+        <v>1.4974760222110046</v>
       </c>
       <c r="F6" s="3">
-        <v>10.835184250378596</v>
+        <v>3.753407370015144</v>
       </c>
       <c r="G6" s="3">
-        <v>10.872286723876829</v>
+        <v>3.9015648662291773</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>2</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="3">
-        <v>25.272419245538739</v>
+        <v>1.8798586572438163</v>
       </c>
       <c r="C7" s="3">
-        <v>27.131732434420485</v>
+        <v>1.3387178192831903</v>
       </c>
       <c r="D7" s="3">
-        <v>25.051542689672349</v>
+        <v>2.1292276627965676</v>
       </c>
       <c r="E7" s="3">
-        <v>27.212802557731404</v>
+        <v>1.4974760222110046</v>
       </c>
       <c r="F7" s="3">
-        <v>16.955355539724188</v>
+        <v>3.753407370015144</v>
       </c>
       <c r="G7" s="3">
-        <v>16.969910745831235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3">
-        <v>30.227415060404105</v>
-      </c>
-      <c r="C8" s="3">
-        <v>32.253758882524018</v>
-      </c>
-      <c r="D8" s="3">
-        <v>30.07460481944381</v>
-      </c>
-      <c r="E8" s="3">
-        <v>32.268193613817445</v>
-      </c>
-      <c r="F8" s="3">
-        <v>18.935581279142333</v>
-      </c>
-      <c r="G8" s="3">
-        <v>18.93931003292742</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3">
-        <v>30.064070661351636</v>
-      </c>
-      <c r="C9" s="3">
-        <v>32.084263971873163</v>
-      </c>
-      <c r="D9" s="3">
-        <v>29.909193083825127</v>
-      </c>
-      <c r="E9" s="3">
-        <v>32.100882119338891</v>
-      </c>
-      <c r="F9" s="3">
-        <v>18.868941004528327</v>
-      </c>
-      <c r="G9" s="3">
-        <v>18.873021575490338</v>
+        <v>3.9015648662291773</v>
       </c>
     </row>
   </sheetData>
@@ -24843,35 +22203,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2791CC83-05E7-452A-907A-78EFC74A9A34}">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" zoomScale="83" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView rightToLeft="1" topLeftCell="A8" zoomScale="83" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="61.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="66.4140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="53.08203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="51.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="58.08203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="28.08203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="44" width="59.4140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="69.296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="51.19921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="49.796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="58.09765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="44" width="59.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -24879,7 +22239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -24887,7 +22247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -24916,352 +22276,352 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.5</v>
       </c>
       <c r="B6" s="3">
-        <v>-8.9728013771824848</v>
+        <v>-9.3332330609760046</v>
       </c>
       <c r="C6" s="3">
-        <v>10.019816202760797</v>
+        <v>10.164633474698503</v>
       </c>
       <c r="D6" s="3">
-        <v>6.2853597375245398</v>
+        <v>6.5419084712532261</v>
       </c>
       <c r="E6" s="3">
-        <v>6.4845394613880671</v>
+        <v>9.6161712107186812</v>
       </c>
       <c r="F6" s="3">
-        <v>3.7062620522638037</v>
+        <v>5.7477222488426998</v>
       </c>
       <c r="G6" s="3">
-        <v>4.6521744314031288</v>
+        <v>7.5895177864773222</v>
       </c>
       <c r="H6" s="3">
-        <v>8.6183126649873927</v>
+        <v>7.1355859997586437</v>
       </c>
       <c r="I6" s="3">
-        <v>8.7573358007517488</v>
+        <v>7.3584876391991578</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>-5.2404182272205748</v>
+        <v>-5.8430737516391762</v>
       </c>
       <c r="C7" s="3">
-        <v>13.031740407771503</v>
+        <v>13.058886545330958</v>
       </c>
       <c r="D7" s="3">
-        <v>9.7136655884138019</v>
+        <v>10.381560998654804</v>
       </c>
       <c r="E7" s="3">
-        <v>10.31933071446441</v>
+        <v>13.846352453914758</v>
       </c>
       <c r="F7" s="3">
-        <v>5.8128120126228433</v>
+        <v>8.4717402342566164</v>
       </c>
       <c r="G7" s="3">
-        <v>7.8127522087527161</v>
+        <v>11.755446634647653</v>
       </c>
       <c r="H7" s="3">
-        <v>12.977002979470223</v>
+        <v>10.394732821822959</v>
       </c>
       <c r="I7" s="3">
-        <v>13.727451597424377</v>
+        <v>10.483879111647928</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="3">
-        <v>1.9147601243355328</v>
+        <v>2.0452123727817915</v>
       </c>
       <c r="C8" s="3">
-        <v>15.364801150041279</v>
+        <v>15.069169179485733</v>
       </c>
       <c r="D8" s="3">
-        <v>9.0900131458847024</v>
+        <v>9.4641784661031441</v>
       </c>
       <c r="E8" s="3">
-        <v>9.4796261247769049</v>
+        <v>13.901895221597806</v>
       </c>
       <c r="F8" s="3">
-        <v>6.8045661096959229</v>
+        <v>7.595928945410515</v>
       </c>
       <c r="G8" s="3">
-        <v>7.2123181689977383</v>
+        <v>11.883560284130128</v>
       </c>
       <c r="H8" s="3">
-        <v>12.76788614657851</v>
+        <v>10.56889286969691</v>
       </c>
       <c r="I8" s="3">
-        <v>13.083065064269466</v>
+        <v>10.779365595202879</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" s="3">
-        <v>5.5797902201136447</v>
+        <v>5.424680287580963</v>
       </c>
       <c r="C9" s="3">
-        <v>16.250221350682885</v>
+        <v>16.344147972485072</v>
       </c>
       <c r="D9" s="3">
-        <v>9.4011892203990381</v>
+        <v>11.148435291668015</v>
       </c>
       <c r="E9" s="3">
-        <v>10.500751905903993</v>
+        <v>15.055999895480179</v>
       </c>
       <c r="F9" s="3">
-        <v>7.2213735674404669</v>
+        <v>9.3369508216350816</v>
       </c>
       <c r="G9" s="3">
-        <v>8.8147973640901753</v>
+        <v>13.099419542109336</v>
       </c>
       <c r="H9" s="3">
-        <v>14.447983197670817</v>
+        <v>12.568072005557768</v>
       </c>
       <c r="I9" s="3">
-        <v>14.962394506708222</v>
+        <v>12.83615505613861</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>4</v>
       </c>
       <c r="B10" s="3">
-        <v>8.2634678570095002</v>
+        <v>8.066570602810037</v>
       </c>
       <c r="C10" s="3">
-        <v>17.503654040624205</v>
+        <v>17.513097943577243</v>
       </c>
       <c r="D10" s="3">
-        <v>10.253114389343706</v>
+        <v>12.051443116766242</v>
       </c>
       <c r="E10" s="3">
-        <v>11.582299346158587</v>
+        <v>15.091407724756461</v>
       </c>
       <c r="F10" s="3">
-        <v>7.7436516535999411</v>
+        <v>9.4886340410295826</v>
       </c>
       <c r="G10" s="3">
-        <v>9.6394944186155893</v>
+        <v>13.225954607058785</v>
       </c>
       <c r="H10" s="3">
-        <v>15.596558476401793</v>
+        <v>12.756621629770802</v>
       </c>
       <c r="I10" s="3">
-        <v>15.68277648059706</v>
+        <v>12.860604771175419</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>5</v>
       </c>
       <c r="B11" s="3">
-        <v>9.4339409120380449</v>
+        <v>8.9585938208570877</v>
       </c>
       <c r="C11" s="3">
-        <v>17.460599528196568</v>
+        <v>17.810038409930353</v>
       </c>
       <c r="D11" s="3">
-        <v>10.099292461167995</v>
+        <v>12.146204121128315</v>
       </c>
       <c r="E11" s="3">
-        <v>11.370798236350852</v>
+        <v>15.404847637655649</v>
       </c>
       <c r="F11" s="3">
-        <v>8.0182573738025997</v>
+        <v>9.710362207291853</v>
       </c>
       <c r="G11" s="3">
-        <v>8.6930663083709341</v>
+        <v>13.926049196087067</v>
       </c>
       <c r="H11" s="3">
-        <v>15.0818805680272</v>
+        <v>12.617719879485209</v>
       </c>
       <c r="I11" s="3">
-        <v>15.305643445602445</v>
+        <v>12.913070863630921</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>6</v>
       </c>
       <c r="B12" s="3">
-        <v>10.65787216010588</v>
+        <v>10.379280500854346</v>
       </c>
       <c r="C12" s="3">
-        <v>19.134795727090893</v>
+        <v>19.135110195072745</v>
       </c>
       <c r="D12" s="3">
-        <v>9.5386713057566563</v>
+        <v>11.713370536837212</v>
       </c>
       <c r="E12" s="3">
-        <v>11.716005793773293</v>
+        <v>15.049829747048685</v>
       </c>
       <c r="F12" s="3">
-        <v>7.3856657079888723</v>
+        <v>9.723591931570013</v>
       </c>
       <c r="G12" s="3">
-        <v>8.9110826398137934</v>
+        <v>13.968138745551537</v>
       </c>
       <c r="H12" s="3">
-        <v>14.179175272491536</v>
+        <v>12.281432067723706</v>
       </c>
       <c r="I12" s="3">
-        <v>14.693212796785087</v>
+        <v>12.437083282593095</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6.9999999999999902</v>
       </c>
       <c r="B13" s="3">
-        <v>11.22798547115452</v>
+        <v>10.974577310143886</v>
       </c>
       <c r="C13" s="3">
-        <v>19.713079595743313</v>
+        <v>19.686649206522471</v>
       </c>
       <c r="D13" s="3">
-        <v>9.2682958756642062</v>
+        <v>11.770304675551717</v>
       </c>
       <c r="E13" s="3">
-        <v>11.087225357225673</v>
+        <v>14.760777512221182</v>
       </c>
       <c r="F13" s="3">
-        <v>7.0073593515434061</v>
+        <v>9.0433218786711436</v>
       </c>
       <c r="G13" s="3">
-        <v>8.5920222819742555</v>
+        <v>13.799768921534339</v>
       </c>
       <c r="H13" s="3">
-        <v>14.529736797488354</v>
+        <v>12.212649889185574</v>
       </c>
       <c r="I13" s="3">
-        <v>14.619306568487247</v>
+        <v>12.041834600217586</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>8</v>
       </c>
       <c r="B14" s="3">
-        <v>14.434568714478958</v>
+        <v>14.532185507990768</v>
       </c>
       <c r="C14" s="3">
-        <v>19.993727528634949</v>
+        <v>20.095034245525</v>
       </c>
       <c r="D14" s="3">
-        <v>9.8877675753951149</v>
+        <v>12.444373097176209</v>
       </c>
       <c r="E14" s="3">
-        <v>11.735999160956945</v>
+        <v>15.473227911286433</v>
       </c>
       <c r="F14" s="3">
-        <v>7.3814638648898976</v>
+        <v>10.026501691876412</v>
       </c>
       <c r="G14" s="3">
-        <v>8.7795599045516788</v>
+        <v>14.105385565158548</v>
       </c>
       <c r="H14" s="3">
-        <v>15.310881355743311</v>
+        <v>13.101802712389404</v>
       </c>
       <c r="I14" s="3">
-        <v>15.32410087178677</v>
+        <v>13.229653638716254</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>9</v>
       </c>
       <c r="B15" s="3">
-        <v>14.582319808540886</v>
+        <v>14.402065017302883</v>
       </c>
       <c r="C15" s="3">
-        <v>20.481009089338848</v>
+        <v>20.491793389790804</v>
       </c>
       <c r="D15" s="3">
-        <v>9.946829455985128</v>
+        <v>12.482049562767873</v>
       </c>
       <c r="E15" s="3">
-        <v>12.571926934581922</v>
+        <v>15.486475094233249</v>
       </c>
       <c r="F15" s="3">
-        <v>7.8015140677106922</v>
+        <v>10.011107837830814</v>
       </c>
       <c r="G15" s="3">
-        <v>9.2501436246493594</v>
+        <v>14.13237418247399</v>
       </c>
       <c r="H15" s="3">
-        <v>15.426702930214949</v>
+        <v>12.659238869443705</v>
       </c>
       <c r="I15" s="3">
-        <v>15.779892779668488</v>
+        <v>13.233700710136874</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>10</v>
       </c>
       <c r="B16" s="3">
-        <v>15.088771525860553</v>
+        <v>15.001361068213072</v>
       </c>
       <c r="C16" s="3">
-        <v>21.425085635093037</v>
+        <v>21.454953120029803</v>
       </c>
       <c r="D16" s="3">
-        <v>9.9498793990730015</v>
+        <v>12.196757912980228</v>
       </c>
       <c r="E16" s="3">
-        <v>12.544434677033131</v>
+        <v>15.569728313087802</v>
       </c>
       <c r="F16" s="3">
-        <v>7.9888935142422008</v>
+        <v>10.166969938223961</v>
       </c>
       <c r="G16" s="3">
-        <v>9.1892633353658688</v>
+        <v>14.032130458883431</v>
       </c>
       <c r="H16" s="3">
-        <v>15.517839130159302</v>
+        <v>13.066463650773699</v>
       </c>
       <c r="I16" s="3">
-        <v>15.761547175532376</v>
+        <v>13.445122275384342</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="3">
-        <v>7.5365823656387541</v>
+        <v>7.277052173182895</v>
       </c>
       <c r="C17" s="3">
-        <v>17.536635437754267</v>
+        <v>17.557434499666257</v>
       </c>
       <c r="D17" s="3">
-        <v>9.4364488199737462</v>
+        <v>11.201747491894595</v>
       </c>
       <c r="E17" s="3">
-        <v>10.94256376246355</v>
+        <v>14.545135128218421</v>
       </c>
       <c r="F17" s="3">
-        <v>7.046707892294255</v>
+        <v>9.0895543606655078</v>
       </c>
       <c r="G17" s="3">
-        <v>8.3801083021858034</v>
+        <v>12.955623721845447</v>
       </c>
       <c r="H17" s="3">
-        <v>14.135400492988637</v>
+        <v>11.838153077748728</v>
       </c>
       <c r="I17" s="3">
-        <v>14.423413654188083</v>
+        <v>12.045692913181046</v>
       </c>
     </row>
   </sheetData>
@@ -25272,37 +22632,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EAC832-D305-4AAF-916C-446F27EDFB7F}">
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:I7"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.4140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="61.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="66.4140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="53.08203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="51.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="58.08203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="28.08203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="44" width="59.4140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="69.296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="51.19921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="49.796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="58.09765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="44" width="59.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -25310,7 +22670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -25318,7 +22678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -25347,120 +22707,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>7.4706838175777488</v>
+        <v>7.2087266614272254</v>
       </c>
       <c r="C6" s="3">
-        <v>17.51031897253203</v>
+        <v>17.708218950963509</v>
       </c>
       <c r="D6" s="3">
-        <v>9.5273342612752678</v>
+        <v>11.403994834927037</v>
       </c>
       <c r="E6" s="3">
-        <v>11.084892898442034</v>
+        <v>14.794285076362415</v>
       </c>
       <c r="F6" s="3">
-        <v>7.1611232876696844</v>
+        <v>9.2268125224583688</v>
       </c>
       <c r="G6" s="3">
-        <v>8.5061658134482769</v>
+        <v>13.17784662871105</v>
       </c>
       <c r="H6" s="3">
-        <v>14.197371600537519</v>
+        <v>12.083339364566648</v>
       </c>
       <c r="I6" s="3">
-        <v>14.493563661668384</v>
+        <v>12.293214910468446</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>2</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="3">
-        <v>2.3395431116197707</v>
+        <v>7.2087266614272254</v>
       </c>
       <c r="C7" s="3">
-        <v>18.998241483228103</v>
+        <v>17.708218950963509</v>
       </c>
       <c r="D7" s="3">
-        <v>6.3497902790745533</v>
+        <v>11.403994834927037</v>
       </c>
       <c r="E7" s="3">
-        <v>8.5407991280972571</v>
+        <v>14.794285076362415</v>
       </c>
       <c r="F7" s="3">
-        <v>5.7579000169862127</v>
+        <v>9.2268125224583688</v>
       </c>
       <c r="G7" s="3">
-        <v>6.208094663344581</v>
+        <v>13.17784662871105</v>
       </c>
       <c r="H7" s="3">
-        <v>9.0892465087909233</v>
+        <v>12.083339364566648</v>
       </c>
       <c r="I7" s="3">
-        <v>9.3753336957301787</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3">
-        <v>-0.98795183005735665</v>
-      </c>
-      <c r="C8" s="3">
-        <v>20.252530298172974</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4.8601865810713818</v>
-      </c>
-      <c r="E8" s="3">
-        <v>8.53853023239569</v>
-      </c>
-      <c r="F8" s="3">
-        <v>6.119017225905905</v>
-      </c>
-      <c r="G8" s="3">
-        <v>6.5199553782457906</v>
-      </c>
-      <c r="H8" s="3">
-        <v>6.5056764847143729</v>
-      </c>
-      <c r="I8" s="3">
-        <v>6.9350709524642156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3">
-        <v>-0.88052814377412369</v>
-      </c>
-      <c r="C9" s="3">
-        <v>20.212354726676004</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4.9089028080762791</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8.5404108174856521</v>
-      </c>
-      <c r="F9" s="3">
-        <v>6.1087534131491399</v>
-      </c>
-      <c r="G9" s="3">
-        <v>6.5118642912204789</v>
-      </c>
-      <c r="H9" s="3">
-        <v>6.5898832589844742</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7.0148156386483533</v>
+        <v>12.293214910468446</v>
       </c>
     </row>
   </sheetData>

--- a/data/results/results_sfldt.xlsx
+++ b/data/results/results_sfldt.xlsx
@@ -5,34 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoavz\AppData\Roaming\MobaXterm\slash\RemoteFiles\3215648_2_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoavz\AppData\Roaming\MobaXterm\slash\RemoteFiles\3215648_2_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D2F01C-F111-47B4-B4CF-2186FA742FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561FDA40-D7AB-40D2-80C9-C4A0A7B49985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="total accuracy increase" sheetId="2" r:id="rId1"/>
-    <sheet name="total wasted effort" sheetId="1" r:id="rId2"/>
-    <sheet name="after size x accuracy increase" sheetId="5" r:id="rId3"/>
-    <sheet name="drift size x accuracy increase" sheetId="6" r:id="rId4"/>
-    <sheet name="after size x wasted effort" sheetId="3" r:id="rId5"/>
-    <sheet name="drift size x wasted effort" sheetId="4" r:id="rId6"/>
+    <sheet name="total accuracy increase" sheetId="1" r:id="rId1"/>
+    <sheet name="total wasted effort" sheetId="2" r:id="rId2"/>
+    <sheet name="after size x accuracy increase" sheetId="3" r:id="rId3"/>
+    <sheet name="drift size x accuracy increase" sheetId="4" r:id="rId4"/>
+    <sheet name="after size x wasted effort" sheetId="5" r:id="rId5"/>
+    <sheet name="drift size x wasted effort" sheetId="6" r:id="rId6"/>
     <sheet name="merged_results" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">merged_results!$A$1:$AA$23</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId8"/>
+    <pivotCache cacheId="42" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="48">
   <si>
     <t>drift size</t>
   </si>
@@ -49,22 +46,7 @@
     <t>(פריטים מרובים)</t>
   </si>
   <si>
-    <t xml:space="preserve"> average SFLDT wasted effort</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> average STAT_SFLDT wasted effort</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> average fuzzy participation SFLDT wasted effort</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> average fuzzy participation STAT_SFLDT wasted effort</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> average SFLDT_Features wasted effort</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> average fuzzy participation SFLDT_Features wasted effort</t>
+    <t>ערכים</t>
   </si>
   <si>
     <t xml:space="preserve"> average after retrain accuracy increase</t>
@@ -91,13 +73,31 @@
     <t xml:space="preserve"> average fuzzy participation SFLDT_Features fix increase</t>
   </si>
   <si>
-    <t>סכום כולל</t>
+    <t xml:space="preserve"> average SFLDT wasted effort</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> average STAT_SFLDT wasted effort</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> average fuzzy participation SFLDT wasted effort</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> average fuzzy participation STAT_SFLDT wasted effort</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> average SFLDT_Features wasted effort</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> average fuzzy participation SFLDT_Features wasted effort</t>
+  </si>
+  <si>
+    <t>drifted features types</t>
   </si>
   <si>
     <t>numeric</t>
   </si>
   <si>
-    <t>drifted features types</t>
+    <t>סכום כולל</t>
   </si>
   <si>
     <t>count</t>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>binary</t>
-  </si>
-  <si>
-    <t>ערכים</t>
   </si>
 </sst>
 </file>
@@ -293,6 +290,126 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:delete val="1"/>
@@ -302,10 +419,10 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -324,10 +441,100 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="2"/>
+        <c:idx val="10"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -346,7 +553,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="3"/>
+        <c:idx val="17"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -359,321 +566,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="11"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="12"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="13"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="14"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="15"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="16"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="17"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="18"/>
@@ -838,14 +730,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.2770521731829039</c:v>
+                  <c:v>7.5984163281755031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AEA4-421A-828E-F809A1BDB7D3}"/>
+              <c16:uniqueId val="{00000000-488D-4DCD-A9C2-3A5F05CE7C05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -891,14 +783,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17.557434499666265</c:v>
+                  <c:v>17.391133083194219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AEA4-421A-828E-F809A1BDB7D3}"/>
+              <c16:uniqueId val="{00000001-488D-4DCD-A9C2-3A5F05CE7C05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -944,14 +836,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11.201747491894611</c:v>
+                  <c:v>10.938270572471884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AEA4-421A-828E-F809A1BDB7D3}"/>
+              <c16:uniqueId val="{00000002-488D-4DCD-A9C2-3A5F05CE7C05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -997,14 +889,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.545135128218433</c:v>
+                  <c:v>14.444290574547784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AEA4-421A-828E-F809A1BDB7D3}"/>
+              <c16:uniqueId val="{00000003-488D-4DCD-A9C2-3A5F05CE7C05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1050,14 +942,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.089554360665522</c:v>
+                  <c:v>9.1323561058274123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AEA4-421A-828E-F809A1BDB7D3}"/>
+              <c16:uniqueId val="{00000004-488D-4DCD-A9C2-3A5F05CE7C05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1103,14 +995,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12.955623721845457</c:v>
+                  <c:v>12.831260026088856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-AEA4-421A-828E-F809A1BDB7D3}"/>
+              <c16:uniqueId val="{00000005-488D-4DCD-A9C2-3A5F05CE7C05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1158,14 +1050,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11.838153077748739</c:v>
+                  <c:v>11.880414625890797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-AEA4-421A-828E-F809A1BDB7D3}"/>
+              <c16:uniqueId val="{00000006-488D-4DCD-A9C2-3A5F05CE7C05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1213,14 +1105,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12.045692913181062</c:v>
+                  <c:v>12.060587424164398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-AEA4-421A-828E-F809A1BDB7D3}"/>
+              <c16:uniqueId val="{00000007-488D-4DCD-A9C2-3A5F05CE7C05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1422,13 +1314,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -1444,13 +1329,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -1466,13 +1344,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
@@ -1488,13 +1359,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
@@ -1510,13 +1374,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
@@ -1532,13 +1389,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
@@ -1554,13 +1404,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="7"/>
@@ -1576,13 +1419,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="8"/>
@@ -1598,13 +1434,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
@@ -1620,13 +1449,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
@@ -1642,13 +1464,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="11"/>
@@ -1664,13 +1479,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="12"/>
@@ -1686,13 +1494,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="13"/>
@@ -1708,13 +1509,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="14"/>
@@ -1730,13 +1524,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="15"/>
@@ -1752,13 +1539,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="16"/>
@@ -1774,13 +1554,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="17"/>
@@ -1796,13 +1569,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="18"/>
@@ -1818,13 +1584,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="19"/>
@@ -1840,13 +1599,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="20"/>
@@ -1862,13 +1614,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="21"/>
@@ -1884,13 +1629,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="22"/>
@@ -1906,13 +1644,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="23"/>
@@ -1928,13 +1659,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="24"/>
@@ -1950,13 +1674,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="25"/>
@@ -1972,13 +1689,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="26"/>
@@ -1994,13 +1704,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="27"/>
@@ -2016,13 +1719,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="28"/>
@@ -2038,13 +1734,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="29"/>
@@ -2060,13 +1749,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="30"/>
@@ -2249,14 +1931,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.8798586572438163</c:v>
+                  <c:v>1.8785998013902681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C524-415C-957E-5BA9D55132A6}"/>
+              <c16:uniqueId val="{00000000-752A-43E7-88C9-2F207F7FF53A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2302,14 +1984,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.3387178192831903</c:v>
+                  <c:v>1.3130585898709037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C524-415C-957E-5BA9D55132A6}"/>
+              <c16:uniqueId val="{00000001-752A-43E7-88C9-2F207F7FF53A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2355,14 +2037,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.1292276627965676</c:v>
+                  <c:v>2.1206554121151937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C524-415C-957E-5BA9D55132A6}"/>
+              <c16:uniqueId val="{00000002-752A-43E7-88C9-2F207F7FF53A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2408,14 +2090,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.4974760222110046</c:v>
+                  <c:v>1.471449851042701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C524-415C-957E-5BA9D55132A6}"/>
+              <c16:uniqueId val="{00000003-752A-43E7-88C9-2F207F7FF53A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2461,14 +2143,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.753407370015144</c:v>
+                  <c:v>3.7202085402184708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C524-415C-957E-5BA9D55132A6}"/>
+              <c16:uniqueId val="{00000004-752A-43E7-88C9-2F207F7FF53A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2514,14 +2196,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.9015648662291773</c:v>
+                  <c:v>3.8607249255213505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C524-415C-957E-5BA9D55132A6}"/>
+              <c16:uniqueId val="{00000005-752A-43E7-88C9-2F207F7FF53A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2726,13 +2408,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -2751,13 +2426,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -2776,13 +2444,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
@@ -2801,13 +2462,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
@@ -2826,13 +2480,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
@@ -2851,13 +2498,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
@@ -2876,13 +2516,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="7"/>
@@ -2901,13 +2534,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="8"/>
@@ -2926,13 +2552,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
@@ -2951,13 +2570,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
@@ -2976,13 +2588,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="11"/>
@@ -3001,13 +2606,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="12"/>
@@ -3026,13 +2624,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="13"/>
@@ -3051,13 +2642,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="14"/>
@@ -3076,13 +2660,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="15"/>
@@ -3101,13 +2678,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="16"/>
@@ -3126,13 +2696,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="17"/>
@@ -3151,13 +2714,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="18"/>
@@ -3176,13 +2732,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="19"/>
@@ -3201,13 +2750,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="20"/>
@@ -3226,13 +2768,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="21"/>
@@ -3251,13 +2786,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="22"/>
@@ -3276,13 +2804,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="23"/>
@@ -3301,13 +2822,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="24"/>
@@ -3326,13 +2840,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="25"/>
@@ -3351,13 +2858,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="26"/>
@@ -3376,13 +2876,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="27"/>
@@ -3401,13 +2894,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="28"/>
@@ -3426,13 +2912,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="29"/>
@@ -3679,22 +3158,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-5.6875151387059262</c:v>
+                  <c:v>-5.2404182272206068</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5656048491403989</c:v>
+                  <c:v>1.9147601243355348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4504401602659351</c:v>
+                  <c:v>5.5797902201136536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9604868413931449</c:v>
+                  <c:v>9.3329741975696408</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.317833852281094</c:v>
+                  <c:v>10.573685389772685</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.893789460333013</c:v>
+                  <c:v>15.052399128517829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3702,7 +3181,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-02D5-4B40-8BD7-E588F8483D71}"/>
+              <c16:uniqueId val="{00000000-508E-4AFF-ABFC-3E5FCBFF4010}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3765,22 +3244,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13.153525020291905</c:v>
+                  <c:v>13.031740407771508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.360092638893487</c:v>
+                  <c:v>15.364801150041277</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.469930509630554</c:v>
+                  <c:v>16.25022135068291</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.94201132223688</c:v>
+                  <c:v>17.50357379291226</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.228466614719075</c:v>
+                  <c:v>19.077465793083263</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.721934544084981</c:v>
+                  <c:v>21.400182886535017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3788,7 +3267,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-02D5-4B40-8BD7-E588F8483D71}"/>
+              <c16:uniqueId val="{00000001-508E-4AFF-ABFC-3E5FCBFF4010}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3851,22 +3330,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10.635907042278358</c:v>
+                  <c:v>10.644818379563135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.764403899375063</c:v>
+                  <c:v>9.4274665165897229</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.346772841319677</c:v>
+                  <c:v>11.046778923313548</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.201371367886971</c:v>
+                  <c:v>11.836603915184222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.763850536634132</c:v>
+                  <c:v>11.505810235193964</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.588476377380989</c:v>
+                  <c:v>12.287258037143006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3874,7 +3353,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-02D5-4B40-8BD7-E588F8483D71}"/>
+              <c16:uniqueId val="{00000002-508E-4AFF-ABFC-3E5FCBFF4010}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3937,22 +3416,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14.145618588486069</c:v>
+                  <c:v>14.082337484219014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.243630078227433</c:v>
+                  <c:v>14.190247584357465</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.261111615364017</c:v>
+                  <c:v>15.154164167550652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.471831233037097</c:v>
+                  <c:v>15.413922248868365</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.127444315967562</c:v>
+                  <c:v>15.034839096858168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.047438770218079</c:v>
+                  <c:v>15.99267865380288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3960,7 +3439,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-02D5-4B40-8BD7-E588F8483D71}"/>
+              <c16:uniqueId val="{00000003-508E-4AFF-ABFC-3E5FCBFF4010}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4023,22 +3502,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.6323066986432107</c:v>
+                  <c:v>8.6417850253771</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8154611351595413</c:v>
+                  <c:v>7.9449625966279784</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4543201502015748</c:v>
+                  <c:v>9.5418052660146007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7518832808637459</c:v>
+                  <c:v>9.8597086714380229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7634028771831893</c:v>
+                  <c:v>9.9300748607664993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.426641115273206</c:v>
+                  <c:v>10.532885161613441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4046,7 +3525,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-02D5-4B40-8BD7-E588F8483D71}"/>
+              <c16:uniqueId val="{00000004-508E-4AFF-ABFC-3E5FCBFF4010}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4109,22 +3588,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.000753909366932</c:v>
+                  <c:v>11.926081731736803</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.18286767961178</c:v>
+                  <c:v>12.118122945253258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.275673144686818</c:v>
+                  <c:v>13.16272497933033</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.984748206361703</c:v>
+                  <c:v>13.919754733611139</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.039953362719777</c:v>
+                  <c:v>13.929429188450127</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.465096004912526</c:v>
+                  <c:v>14.383125393701491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4132,7 +3611,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-02D5-4B40-8BD7-E588F8483D71}"/>
+              <c16:uniqueId val="{00000005-508E-4AFF-ABFC-3E5FCBFF4010}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4197,22 +3676,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10.794023900260202</c:v>
+                  <c:v>11.017420459699228</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.89234052766898</c:v>
+                  <c:v>11.08024132150434</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.773785609545779</c:v>
+                  <c:v>12.901630347177571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.688407385812871</c:v>
+                  <c:v>12.654354020303625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.347284250392486</c:v>
+                  <c:v>12.485597458627701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.483491012306013</c:v>
+                  <c:v>13.539966636290583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4220,7 +3699,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-02D5-4B40-8BD7-E588F8483D71}"/>
+              <c16:uniqueId val="{00000006-508E-4AFF-ABFC-3E5FCBFF4010}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4285,22 +3764,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10.88547073950002</c:v>
+                  <c:v>11.42523214328031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.107237604762165</c:v>
+                  <c:v>11.181612531837764</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.045822687421312</c:v>
+                  <c:v>13.061165534932105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.985412997320751</c:v>
+                  <c:v>12.901216828705966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.503770056226312</c:v>
+                  <c:v>12.596508466365336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.873168803241311</c:v>
+                  <c:v>13.924557249798523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4308,7 +3787,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-02D5-4B40-8BD7-E588F8483D71}"/>
+              <c16:uniqueId val="{00000007-508E-4AFF-ABFC-3E5FCBFF4010}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4724,14 +4203,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.2087266614272334</c:v>
+                  <c:v>7.470683817577755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-95B1-4C41-9CA5-61179CC61EAF}"/>
+              <c16:uniqueId val="{00000000-5D97-4A14-B8D1-2E0BE4ACC40D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4777,14 +4256,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17.708218950963523</c:v>
+                  <c:v>17.510318972532044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-95B1-4C41-9CA5-61179CC61EAF}"/>
+              <c16:uniqueId val="{00000001-5D97-4A14-B8D1-2E0BE4ACC40D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4830,14 +4309,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11.403994834927051</c:v>
+                  <c:v>11.172489057150452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-95B1-4C41-9CA5-61179CC61EAF}"/>
+              <c16:uniqueId val="{00000002-5D97-4A14-B8D1-2E0BE4ACC40D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4883,14 +4362,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.794285076362428</c:v>
+                  <c:v>14.746768097409033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-95B1-4C41-9CA5-61179CC61EAF}"/>
+              <c16:uniqueId val="{00000003-5D97-4A14-B8D1-2E0BE4ACC40D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4936,14 +4415,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.226812522458383</c:v>
+                  <c:v>9.324473912951504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-95B1-4C41-9CA5-61179CC61EAF}"/>
+              <c16:uniqueId val="{00000004-5D97-4A14-B8D1-2E0BE4ACC40D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4989,14 +4468,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13.177846628711061</c:v>
+                  <c:v>13.099114843988563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-95B1-4C41-9CA5-61179CC61EAF}"/>
+              <c16:uniqueId val="{00000005-5D97-4A14-B8D1-2E0BE4ACC40D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5044,14 +4523,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12.083339364566658</c:v>
+                  <c:v>12.199952749269878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-95B1-4C41-9CA5-61179CC61EAF}"/>
+              <c16:uniqueId val="{00000006-5D97-4A14-B8D1-2E0BE4ACC40D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5099,14 +4578,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12.293214910468459</c:v>
+                  <c:v>12.3767722388042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-95B1-4C41-9CA5-61179CC61EAF}"/>
+              <c16:uniqueId val="{00000007-5D97-4A14-B8D1-2E0BE4ACC40D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5311,13 +4790,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -5336,13 +4808,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -5361,13 +4826,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
@@ -5386,13 +4844,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
@@ -5411,13 +4862,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
@@ -5436,13 +4880,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
@@ -5461,13 +4898,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="7"/>
@@ -5486,13 +4916,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="8"/>
@@ -5511,13 +4934,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
@@ -5536,13 +4952,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
@@ -5561,13 +4970,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="11"/>
@@ -5586,13 +4988,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="12"/>
@@ -5611,13 +5006,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="13"/>
@@ -5636,13 +5024,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="14"/>
@@ -5661,13 +5042,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="15"/>
@@ -5686,13 +5060,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="16"/>
@@ -5711,13 +5078,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="17"/>
@@ -5736,13 +5096,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="18"/>
@@ -5761,13 +5114,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="19"/>
@@ -5786,13 +5132,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="20"/>
@@ -5811,13 +5150,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="21"/>
@@ -5836,13 +5168,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="22"/>
@@ -5861,13 +5186,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="23"/>
@@ -5886,13 +5204,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="24"/>
@@ -5911,13 +5222,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="25"/>
@@ -5936,13 +5240,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="26"/>
@@ -5961,13 +5258,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="27"/>
@@ -5986,13 +5276,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="28"/>
@@ -6011,13 +5294,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="29"/>
@@ -6036,13 +5312,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="30"/>
@@ -6061,13 +5330,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="31"/>
@@ -6086,13 +5348,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="32"/>
@@ -6111,13 +5366,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="33"/>
@@ -6136,13 +5384,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="34"/>
@@ -6161,13 +5402,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="35"/>
@@ -6186,13 +5420,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="36"/>
@@ -6211,13 +5438,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="37"/>
@@ -6416,22 +5636,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.779874213836478</c:v>
+                  <c:v>1.7570093457943925</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.861764705882353</c:v>
+                  <c:v>1.8483965014577259</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9476744186046511</c:v>
+                  <c:v>1.9425287356321839</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9192200557103065</c:v>
+                  <c:v>1.9048913043478262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9573333333333334</c:v>
+                  <c:v>1.963350785340314</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9228791773778919</c:v>
+                  <c:v>1.9472361809045227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6439,7 +5659,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D798-4C13-AA2F-DA6F3EF8D65D}"/>
+              <c16:uniqueId val="{00000000-6CB0-4533-98F3-51E512F3C8AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6502,22 +5722,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.5911949685534592</c:v>
+                  <c:v>1.5669781931464175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3705882352941177</c:v>
+                  <c:v>1.3556851311953353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4186046511627908</c:v>
+                  <c:v>1.3994252873563218</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1894150417827298</c:v>
+                  <c:v>1.1576086956521738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1753926701570681</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1696658097686374</c:v>
+                  <c:v>1.1381909547738693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6525,7 +5745,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D798-4C13-AA2F-DA6F3EF8D65D}"/>
+              <c16:uniqueId val="{00000001-6CB0-4533-98F3-51E512F3C8AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6588,22 +5808,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.0628930817610063</c:v>
+                  <c:v>2.0373831775700935</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>2.174927113702624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2761627906976742</c:v>
+                  <c:v>2.2586206896551726</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1002785515320332</c:v>
+                  <c:v>2.0760869565217392</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2186666666666666</c:v>
+                  <c:v>2.2041884816753927</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1619537275064267</c:v>
+                  <c:v>2.1809045226130652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6611,7 +5831,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D798-4C13-AA2F-DA6F3EF8D65D}"/>
+              <c16:uniqueId val="{00000002-6CB0-4533-98F3-51E512F3C8AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6674,22 +5894,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.9748427672955975</c:v>
+                  <c:v>1.9501557632398754</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5617647058823529</c:v>
+                  <c:v>1.5481049562682216</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5639534883720929</c:v>
+                  <c:v>1.5459770114942528</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3091922005571031</c:v>
+                  <c:v>1.2771739130434783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.296</c:v>
+                  <c:v>1.2722513089005236</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2544987146529563</c:v>
+                  <c:v>1.2236180904522613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6697,7 +5917,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D798-4C13-AA2F-DA6F3EF8D65D}"/>
+              <c16:uniqueId val="{00000003-6CB0-4533-98F3-51E512F3C8AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6760,22 +5980,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.6761006289308176</c:v>
+                  <c:v>3.6417445482866042</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.45</c:v>
+                  <c:v>3.4198250728862973</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7238372093023258</c:v>
+                  <c:v>3.6954022988505746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6740947075208914</c:v>
+                  <c:v>3.6086956521739131</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8586666666666667</c:v>
+                  <c:v>3.8167539267015709</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9588688946015425</c:v>
+                  <c:v>3.9145728643216082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6783,7 +6003,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D798-4C13-AA2F-DA6F3EF8D65D}"/>
+              <c16:uniqueId val="{00000004-6CB0-4533-98F3-51E512F3C8AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6846,22 +6066,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.8962264150943398</c:v>
+                  <c:v>3.8535825545171338</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7529411764705882</c:v>
+                  <c:v>3.7230320699708455</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9912790697674421</c:v>
+                  <c:v>3.9626436781609193</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.818941504178273</c:v>
+                  <c:v>3.7581521739130435</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0346666666666664</c:v>
+                  <c:v>3.9895287958115184</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.961439588688946</c:v>
+                  <c:v>3.9170854271356785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6869,7 +6089,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-D798-4C13-AA2F-DA6F3EF8D65D}"/>
+              <c16:uniqueId val="{00000005-6CB0-4533-98F3-51E512F3C8AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7070,13 +6290,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -7092,13 +6305,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -7114,13 +6320,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
@@ -7136,13 +6335,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
@@ -7158,13 +6350,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
@@ -7180,13 +6365,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
@@ -7202,13 +6380,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="7"/>
@@ -7224,13 +6395,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="8"/>
@@ -7246,13 +6410,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
@@ -7268,13 +6425,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
@@ -7290,13 +6440,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="11"/>
@@ -7312,13 +6455,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="12"/>
@@ -7334,13 +6470,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="13"/>
@@ -7356,13 +6485,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="14"/>
@@ -7378,13 +6500,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="15"/>
@@ -7400,13 +6515,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="16"/>
@@ -7422,13 +6530,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="17"/>
@@ -7444,13 +6545,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="18"/>
@@ -7466,13 +6560,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="19"/>
@@ -7488,13 +6575,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="20"/>
@@ -7510,13 +6590,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="21"/>
@@ -7532,13 +6605,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="22"/>
@@ -7721,14 +6787,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.8798586572438163</c:v>
+                  <c:v>1.8785998013902681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C69B-4251-BD14-3FDA151B256B}"/>
+              <c16:uniqueId val="{00000000-BFBD-44DC-809E-5B2EE3F9526D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7774,14 +6840,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.3387178192831903</c:v>
+                  <c:v>1.3130585898709037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C69B-4251-BD14-3FDA151B256B}"/>
+              <c16:uniqueId val="{00000001-BFBD-44DC-809E-5B2EE3F9526D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7827,14 +6893,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.1292276627965676</c:v>
+                  <c:v>2.1206554121151937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C69B-4251-BD14-3FDA151B256B}"/>
+              <c16:uniqueId val="{00000002-BFBD-44DC-809E-5B2EE3F9526D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7880,14 +6946,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.4974760222110046</c:v>
+                  <c:v>1.471449851042701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C69B-4251-BD14-3FDA151B256B}"/>
+              <c16:uniqueId val="{00000003-BFBD-44DC-809E-5B2EE3F9526D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7933,14 +6999,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.753407370015144</c:v>
+                  <c:v>3.7202085402184708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C69B-4251-BD14-3FDA151B256B}"/>
+              <c16:uniqueId val="{00000004-BFBD-44DC-809E-5B2EE3F9526D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7986,14 +7052,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.9015648662291773</c:v>
+                  <c:v>3.8607249255213505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C69B-4251-BD14-3FDA151B256B}"/>
+              <c16:uniqueId val="{00000005-BFBD-44DC-809E-5B2EE3F9526D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8181,7 +7247,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8222,7 +7288,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8263,7 +7329,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8304,7 +7370,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8345,7 +7411,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8386,7 +7452,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8408,7 +7474,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yoav Zelinger" refreshedDate="45781.860407986111" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="23" xr:uid="{6A8C33F8-D53B-41B3-BCFF-8D1AA47CC031}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yoav Zelinger" refreshedDate="45781.874914004627" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="29" xr:uid="{00000000-000A-0000-FFFF-FFFF06000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AA1048576" sheet="merged_results"/>
   </cacheSource>
@@ -8436,9 +7502,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="drifted features types" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
+      <sharedItems containsBlank="1" count="4">
         <s v="categorical"/>
         <s v="numeric"/>
+        <s v="binary"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -8450,73 +7517,73 @@
       </sharedItems>
     </cacheField>
     <cacheField name="count" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="385"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="390"/>
     </cacheField>
     <cacheField name="after accuracy decrease" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="133.33333333333329" maxValue="24137.56940194657"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="133.33333333333329" maxValue="24452.71009458727"/>
     </cacheField>
     <cacheField name="after retrain accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-2994.332383160634" maxValue="5629.8524160058787"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-2925.1332489615002" maxValue="5765.0688662223283"/>
     </cacheField>
     <cacheField name="before after retrain accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-11.49425287356323" maxValue="8210.8912576641233"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-11.49425287356323" maxValue="8196.2700455429112"/>
     </cacheField>
     <cacheField name="SFLDT fix accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-33.725820016820862" maxValue="4884.0535195822822"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-33.725820016820862" maxValue="4839.150922179685"/>
     </cacheField>
     <cacheField name="SFLDT wasted effort" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="16" maxValue="729"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="9" maxValue="729"/>
     </cacheField>
     <cacheField name="SFLDT correctly_identified" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="216"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="219"/>
     </cacheField>
     <cacheField name="STAT_SFLDT fix accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-20.801794224838819" maxValue="6086.3071354491249"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-20.801794224838819" maxValue="6162.7276178703087"/>
     </cacheField>
     <cacheField name="STAT_SFLDT wasted effort" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="18" maxValue="713"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="710"/>
     </cacheField>
     <cacheField name="STAT_SFLDT correctly_identified" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="265"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="272"/>
     </cacheField>
     <cacheField name="SFLDT_Features fix accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-40.622371740958798" maxValue="5152.1107563320611"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-40.622371740958798" maxValue="5263.723310444615"/>
     </cacheField>
     <cacheField name="SFLDT_Features wasted effort" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="22" maxValue="1496"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="6" maxValue="1497"/>
     </cacheField>
     <cacheField name="SFLDT_Features correctly_identified" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="193"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="196"/>
     </cacheField>
     <cacheField name="fuzzy count" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="385"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="390"/>
     </cacheField>
     <cacheField name="fuzzy participation SFLDT fix accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-19.932716568545011" maxValue="3941.2703415732722"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-19.932716568545011" maxValue="4034.095016897948"/>
     </cacheField>
     <cacheField name="fuzzy participation SFLDT wasted effort" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="14" maxValue="816"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="12" maxValue="814"/>
     </cacheField>
     <cacheField name="fuzzy participation SFLDT correctly_identified" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="184"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="186"/>
     </cacheField>
     <cacheField name="fuzzy participation STAT_SFLDT fix accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-20.801794224838819" maxValue="5550.1129357669934"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-20.801794224838819" maxValue="5606.607494705775"/>
     </cacheField>
     <cacheField name="fuzzy participation STAT_SFLDT wasted effort" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="857"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="855"/>
     </cacheField>
     <cacheField name="fuzzy participation STAT_SFLDT correctly_identified" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="244"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="250"/>
     </cacheField>
     <cacheField name="fuzzy participation SFLDT_Features fix accuracy increase" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-40.622371740958798" maxValue="5244.0578076252159"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-40.622371740958798" maxValue="5333.1054266728343"/>
     </cacheField>
     <cacheField name="fuzzy participation SFLDT_Features wasted effort" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="22" maxValue="1530"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="9" maxValue="1533"/>
     </cacheField>
     <cacheField name="fuzzy participation SFLDT_Features correctly_identified" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="195"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="197"/>
     </cacheField>
     <cacheField name="average after accuracy decrease" numFmtId="0" formula="'after accuracy decrease'/count" databaseField="0"/>
     <cacheField name="average after retrain accuracy increase" numFmtId="0" formula="'after retrain accuracy increase'/count" databaseField="0"/>
@@ -8543,7 +7610,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="23">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="29">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -8578,29 +7645,29 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="323"/>
-    <n v="20221.481840712051"/>
-    <n v="-2994.332383160634"/>
-    <n v="3289.360515000456"/>
-    <n v="2161.1664895188878"/>
-    <n v="614"/>
-    <n v="141"/>
-    <n v="3164.9543528336771"/>
-    <n v="713"/>
-    <n v="181"/>
-    <n v="2402.5013376610718"/>
+    <n v="326"/>
+    <n v="20447.28270651292"/>
+    <n v="-2925.1332489615002"/>
+    <n v="3266.4600821000231"/>
+    <n v="2191.5344548868529"/>
+    <n v="615"/>
+    <n v="143"/>
+    <n v="3184.1210195003432"/>
+    <n v="710"/>
+    <n v="186"/>
+    <n v="2448.0965757563099"/>
     <n v="1150"/>
+    <n v="152"/>
+    <n v="326"/>
+    <n v="1909.032378487359"/>
+    <n v="704"/>
+    <n v="139"/>
+    <n v="2503.2987360764519"/>
+    <n v="855"/>
+    <n v="154"/>
+    <n v="2484.3770184111258"/>
+    <n v="1220"/>
     <n v="149"/>
-    <n v="323"/>
-    <n v="1884.4977464527269"/>
-    <n v="703"/>
-    <n v="137"/>
-    <n v="2494.1320694097849"/>
-    <n v="857"/>
-    <n v="150"/>
-    <n v="2476.2817803158869"/>
-    <n v="1219"/>
-    <n v="147"/>
   </r>
   <r>
     <x v="1"/>
@@ -8636,29 +7703,29 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="310"/>
-    <n v="19061.250246890759"/>
-    <n v="-1763.1296929988371"/>
-    <n v="4077.5927562904908"/>
-    <n v="3297.1311831062908"/>
-    <n v="550"/>
-    <n v="160"/>
-    <n v="4385.1417624306814"/>
-    <n v="482"/>
-    <n v="203"/>
-    <n v="3346.1474090806628"/>
+    <n v="313"/>
+    <n v="19233.371459011971"/>
+    <n v="-1640.25090512005"/>
+    <n v="4078.934747632482"/>
+    <n v="3331.8281528032612"/>
+    <n v="548"/>
+    <n v="165"/>
+    <n v="4407.7716325605516"/>
+    <n v="479"/>
+    <n v="208"/>
+    <n v="3448.452603885858"/>
     <n v="1141"/>
-    <n v="150"/>
-    <n v="310"/>
-    <n v="2676.0150765793951"/>
-    <n v="642"/>
-    <n v="139"/>
-    <n v="3720.2337119037488"/>
-    <n v="603"/>
-    <n v="175"/>
-    <n v="3374.4959292450062"/>
-    <n v="1203"/>
-    <n v="147"/>
+    <n v="153"/>
+    <n v="313"/>
+    <n v="2704.878712943032"/>
+    <n v="640"/>
+    <n v="141"/>
+    <n v="3732.863582033619"/>
+    <n v="601"/>
+    <n v="179"/>
+    <n v="3576.0976608467372"/>
+    <n v="1201"/>
+    <n v="152"/>
   </r>
   <r>
     <x v="2"/>
@@ -8694,29 +7761,29 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="333"/>
-    <n v="20512.829616523781"/>
-    <n v="521.34641476375282"/>
-    <n v="5114.9108487515314"/>
-    <n v="3251.5464984918958"/>
-    <n v="604"/>
+    <n v="336"/>
+    <n v="20685.816629510791"/>
+    <n v="643.35940177673967"/>
+    <n v="5162.5731864138688"/>
+    <n v="3167.6287495741472"/>
+    <n v="605"/>
+    <n v="165"/>
+    <n v="4767.923188344108"/>
+    <n v="435"/>
+    <n v="225"/>
+    <n v="3722.9610840254581"/>
+    <n v="1146"/>
     <n v="163"/>
-    <n v="4743.1288160497352"/>
-    <n v="436"/>
-    <n v="221"/>
-    <n v="3627.14939571377"/>
-    <n v="1146"/>
-    <n v="160"/>
-    <n v="333"/>
-    <n v="2602.5485580081272"/>
-    <n v="715"/>
-    <n v="142"/>
-    <n v="4056.894937310723"/>
+    <n v="336"/>
+    <n v="2669.5074324670009"/>
+    <n v="713"/>
+    <n v="144"/>
+    <n v="4071.6893096050949"/>
     <n v="511"/>
-    <n v="190"/>
-    <n v="3698.7101223858008"/>
-    <n v="1243"/>
-    <n v="162"/>
+    <n v="193"/>
+    <n v="3757.0218106974889"/>
+    <n v="1244"/>
+    <n v="164"/>
   </r>
   <r>
     <x v="3"/>
@@ -8752,29 +7819,29 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="339"/>
-    <n v="20716.117760170931"/>
-    <n v="1847.699214330152"/>
-    <n v="5583.3064427647578"/>
-    <n v="3846.5559932073702"/>
-    <n v="629"/>
-    <n v="177"/>
-    <n v="5173.5168376084021"/>
-    <n v="449"/>
-    <n v="226"/>
-    <n v="4330.3133216360193"/>
-    <n v="1234"/>
-    <n v="165"/>
-    <n v="339"/>
-    <n v="3205.014530918334"/>
-    <n v="745"/>
-    <n v="148"/>
-    <n v="4500.4531960488312"/>
+    <n v="343"/>
+    <n v="20968.75845281162"/>
+    <n v="1913.8680454989831"/>
+    <n v="5573.8259232842383"/>
+    <n v="3789.0451706965468"/>
+    <n v="635"/>
+    <n v="179"/>
+    <n v="5197.8783094698738"/>
+    <n v="448"/>
+    <n v="231"/>
+    <n v="4425.2592090819071"/>
+    <n v="1239"/>
+    <n v="168"/>
+    <n v="343"/>
+    <n v="3272.839206243008"/>
+    <n v="748"/>
+    <n v="150"/>
+    <n v="4514.8146679103029"/>
     <n v="517"/>
-    <n v="200"/>
-    <n v="4422.533891035825"/>
-    <n v="1322"/>
-    <n v="171"/>
+    <n v="204"/>
+    <n v="4479.9797784817119"/>
+    <n v="1328"/>
+    <n v="173"/>
   </r>
   <r>
     <x v="4"/>
@@ -8810,29 +7877,58 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="337"/>
-    <n v="20678.374556729079"/>
-    <n v="2696.6569934611621"/>
-    <n v="5939.5107720806309"/>
-    <n v="4104.3872114246687"/>
-    <n v="560"/>
-    <n v="186"/>
-    <n v="5120.7337988309919"/>
-    <n v="395"/>
-    <n v="221"/>
-    <n v="4344.1479058462182"/>
+    <n v="340"/>
+    <n v="20851.361569716089"/>
+    <n v="2809.5790713832398"/>
+    <n v="5951.2423738122334"/>
+    <n v="4049.4737915112491"/>
+    <n v="561"/>
+    <n v="188"/>
+    <n v="5143.7965693937622"/>
+    <n v="394"/>
+    <n v="225"/>
+    <n v="4436.0634902618031"/>
     <n v="1225"/>
-    <n v="173"/>
-    <n v="337"/>
-    <n v="3219.2390222259251"/>
-    <n v="634"/>
-    <n v="158"/>
-    <n v="4486.479738813784"/>
+    <n v="176"/>
+    <n v="340"/>
+    <n v="3286.1978966847992"/>
+    <n v="632"/>
+    <n v="160"/>
+    <n v="4499.5425093765543"/>
     <n v="458"/>
-    <n v="198"/>
-    <n v="4379.5021739237882"/>
-    <n v="1280"/>
-    <n v="176"/>
+    <n v="201"/>
+    <n v="4433.9177583393721"/>
+    <n v="1281"/>
+    <n v="178"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="260.95238095238102"/>
+    <n v="74.285714285714292"/>
+    <n v="54.285714285714278"/>
+    <n v="45.714285714285708"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="15.23809523809523"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="5.7142857142857162"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="5.7142857142857162"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="15.23809523809523"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="5.7142857142857162"/>
+    <n v="9"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="5"/>
@@ -8868,29 +7964,58 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="357"/>
-    <n v="22158.60938951284"/>
-    <n v="3198.893802377353"/>
-    <n v="6405.2980420385666"/>
-    <n v="4355.8895783356484"/>
+    <n v="362"/>
+    <n v="22452.42973583319"/>
+    <n v="3378.5366595202099"/>
+    <n v="6336.293713034238"/>
+    <n v="4284.8506172966881"/>
     <n v="663"/>
-    <n v="185"/>
-    <n v="5523.4437501942439"/>
-    <n v="409"/>
-    <n v="236"/>
-    <n v="4529.7614367351953"/>
-    <n v="1297"/>
-    <n v="175"/>
-    <n v="357"/>
-    <n v="3481.4223312683571"/>
-    <n v="730"/>
-    <n v="166"/>
-    <n v="4992.5551096711279"/>
+    <n v="190"/>
+    <n v="5579.8398540903481"/>
+    <n v="408"/>
+    <n v="242"/>
+    <n v="4580.8761553499126"/>
+    <n v="1298"/>
+    <n v="179"/>
+    <n v="362"/>
+    <n v="3569.2145390605642"/>
+    <n v="728"/>
+    <n v="170"/>
+    <n v="5038.9512135672321"/>
     <n v="460"/>
-    <n v="218"/>
-    <n v="4635.7924400435077"/>
-    <n v="1349"/>
-    <n v="178"/>
+    <n v="223"/>
+    <n v="4670.2404919915598"/>
+    <n v="1352"/>
+    <n v="181"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="260.95238095238102"/>
+    <n v="74.285714285714292"/>
+    <n v="98.095238095238102"/>
+    <n v="73.333333333333329"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="15.23809523809523"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0.95238095238094911"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0.95238095238094911"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="15.23809523809523"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0.95238095238094911"/>
+    <n v="10"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -8926,29 +8051,58 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="373"/>
-    <n v="23362.860616346181"/>
-    <n v="3848.552026900848"/>
-    <n v="7172.2180472902146"/>
-    <n v="4387.9162501645314"/>
-    <n v="708"/>
-    <n v="199"/>
-    <n v="5642.5367298559004"/>
-    <n v="426"/>
-    <n v="245"/>
-    <n v="4605.5370253963974"/>
-    <n v="1425"/>
-    <n v="180"/>
-    <n v="373"/>
-    <n v="3641.7492731893299"/>
-    <n v="808"/>
-    <n v="171"/>
-    <n v="5236.902604294477"/>
+    <n v="376"/>
+    <n v="23523.347629333199"/>
+    <n v="3975.7057065545291"/>
+    <n v="7173.1271381993074"/>
+    <n v="4326.1846484329308"/>
+    <n v="709"/>
+    <n v="201"/>
+    <n v="5653.0995004186707"/>
+    <n v="425"/>
+    <n v="249"/>
+    <n v="4694.5846444440158"/>
+    <n v="1427"/>
+    <n v="182"/>
+    <n v="376"/>
+    <n v="3733.708147648204"/>
+    <n v="806"/>
+    <n v="173"/>
+    <n v="5237.4653748572482"/>
     <n v="474"/>
-    <n v="232"/>
-    <n v="4663.9062309724141"/>
-    <n v="1491"/>
-    <n v="181"/>
+    <n v="235"/>
+    <n v="4736.2871833533663"/>
+    <n v="1492"/>
+    <n v="183"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="260.95238095238102"/>
+    <n v="74.285714285714292"/>
+    <n v="95.238095238095212"/>
+    <n v="1.9047619047619091"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="25.714285714285701"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1.9047619047619091"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="1.9047619047619091"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="15.23809523809523"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="1.9047619047619091"/>
+    <n v="12"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="7"/>
@@ -8984,29 +8138,58 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="380"/>
-    <n v="23871.90389995815"/>
-    <n v="4143.492994842587"/>
-    <n v="7538.8372208107521"/>
-    <n v="4510.3255413110264"/>
+    <n v="384"/>
+    <n v="24094.89091294516"/>
+    <n v="4282.1726485222407"/>
+    <n v="7553.4367879103193"/>
+    <n v="4468.0203465058312"/>
     <n v="729"/>
-    <n v="207"/>
-    <n v="5660.2743389048564"/>
+    <n v="211"/>
+    <n v="5692.10334323386"/>
     <n v="434"/>
-    <n v="251"/>
-    <n v="4682.0426087075048"/>
-    <n v="1496"/>
+    <n v="255"/>
+    <n v="4754.4235610884571"/>
+    <n v="1497"/>
+    <n v="190"/>
+    <n v="384"/>
+    <n v="3536.1546022657908"/>
+    <n v="814"/>
+    <n v="178"/>
+    <n v="5314.037053000794"/>
+    <n v="465"/>
+    <n v="238"/>
+    <n v="4676.5013054137144"/>
+    <n v="1533"/>
     <n v="187"/>
-    <n v="380"/>
-    <n v="3456.6957278069171"/>
-    <n v="816"/>
-    <n v="175"/>
-    <n v="5292.2080486717896"/>
-    <n v="464"/>
-    <n v="235"/>
-    <n v="4616.6203530327621"/>
-    <n v="1530"/>
-    <n v="185"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="185.71428571428569"/>
+    <n v="59.999999999999993"/>
+    <n v="84.761904761904745"/>
+    <n v="0.952380952380949"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="31.42857142857142"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0.952380952380949"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0.952380952380949"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="31.42857142857142"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0.952380952380949"/>
+    <n v="9"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -9042,29 +8225,58 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="385"/>
-    <n v="24137.56940194657"/>
-    <n v="5510.9565004612323"/>
-    <n v="7756.1712823899024"/>
-    <n v="4884.0535195822822"/>
-    <n v="652"/>
-    <n v="216"/>
-    <n v="6086.3071354491249"/>
-    <n v="419"/>
-    <n v="265"/>
-    <n v="5152.1107563320611"/>
-    <n v="1467"/>
-    <n v="193"/>
-    <n v="385"/>
-    <n v="3936.2479287047672"/>
-    <n v="748"/>
-    <n v="184"/>
-    <n v="5550.1129357669934"/>
-    <n v="454"/>
-    <n v="244"/>
-    <n v="5197.6306183027646"/>
-    <n v="1507"/>
-    <n v="195"/>
+    <n v="390"/>
+    <n v="24452.71009458727"/>
+    <n v="5612.7855047902367"/>
+    <n v="7772.773013991633"/>
+    <n v="4839.150922179685"/>
+    <n v="658"/>
+    <n v="219"/>
+    <n v="6143.5690402110286"/>
+    <n v="417"/>
+    <n v="272"/>
+    <n v="5263.723310444615"/>
+    <n v="1474"/>
+    <n v="196"/>
+    <n v="390"/>
+    <n v="4016.5726040294421"/>
+    <n v="752"/>
+    <n v="186"/>
+    <n v="5543.208173862231"/>
+    <n v="453"/>
+    <n v="250"/>
+    <n v="5300.9098390819854"/>
+    <n v="1515"/>
+    <n v="197"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="398.21428571428572"/>
+    <n v="90.714285714285708"/>
+    <n v="114.4047619047619"/>
+    <n v="0"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="31.42857142857142"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="-12.5"/>
+    <n v="43"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="31.42857142857142"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="12.5"/>
+    <n v="9"/>
+    <n v="3"/>
   </r>
   <r>
     <x v="9"/>
@@ -9100,29 +8312,58 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="381"/>
-    <n v="23721.76880156418"/>
-    <n v="5445.210785937008"/>
-    <n v="7903.1238478724626"/>
-    <n v="4872.5475410831768"/>
+    <n v="384"/>
+    <n v="23894.75581455119"/>
+    <n v="5596.3904396166618"/>
+    <n v="7873.1887829373973"/>
+    <n v="4832.3527358883712"/>
     <n v="642"/>
-    <n v="211"/>
-    <n v="6072.5652802079712"/>
+    <n v="214"/>
+    <n v="6162.7276178703087"/>
+    <n v="382"/>
+    <n v="264"/>
+    <n v="5070.9661178378728"/>
+    <n v="1413"/>
+    <n v="185"/>
     <n v="384"/>
-    <n v="259"/>
-    <n v="4960.2193645911202"/>
-    <n v="1411"/>
+    <n v="3978.2532585629219"/>
+    <n v="729"/>
     <n v="183"/>
-    <n v="381"/>
-    <n v="3902.9610507707139"/>
-    <n v="728"/>
-    <n v="182"/>
-    <n v="5543.1118237101036"/>
-    <n v="434"/>
-    <n v="239"/>
-    <n v="5184.8339443021514"/>
-    <n v="1408"/>
-    <n v="191"/>
+    <n v="5606.607494705775"/>
+    <n v="433"/>
+    <n v="243"/>
+    <n v="5278.9140308822389"/>
+    <n v="1412"/>
+    <n v="192"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="260.95238095238102"/>
+    <n v="74.285714285714292"/>
+    <n v="95.238095238095227"/>
+    <n v="0"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="15.23809523809523"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="15.23809523809523"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="12"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="10"/>
@@ -9158,34 +8399,34 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="378"/>
-    <n v="23544.82489823602"/>
-    <n v="5629.8524160058787"/>
-    <n v="8210.8912576641233"/>
-    <n v="4758.4440706500136"/>
-    <n v="657"/>
-    <n v="210"/>
-    <n v="6065.931855142434"/>
-    <n v="393"/>
-    <n v="251"/>
-    <n v="5096.759602651673"/>
-    <n v="1463"/>
-    <n v="183"/>
-    <n v="378"/>
-    <n v="3941.2703415732722"/>
-    <n v="757"/>
-    <n v="180"/>
-    <n v="5467.8062898569351"/>
-    <n v="435"/>
-    <n v="234"/>
-    <n v="5244.0578076252159"/>
-    <n v="1464"/>
-    <n v="188"/>
+    <n v="383"/>
+    <n v="23847.46559087672"/>
+    <n v="5765.0688662223283"/>
+    <n v="8196.2700455429112"/>
+    <n v="4706.0198282257716"/>
+    <n v="660"/>
+    <n v="214"/>
+    <n v="6125.1959244065029"/>
+    <n v="391"/>
+    <n v="258"/>
+    <n v="5185.8072216992932"/>
+    <n v="1469"/>
+    <n v="186"/>
+    <n v="383"/>
+    <n v="4034.095016897948"/>
+    <n v="760"/>
+    <n v="184"/>
+    <n v="5508.737025787671"/>
+    <n v="434"/>
+    <n v="240"/>
+    <n v="5333.1054266728343"/>
+    <n v="1470"/>
+    <n v="191"/>
   </r>
   <r>
     <x v="11"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -9215,7 +8456,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{260C4758-4AA7-42C2-A7F4-A3DEB79E723A}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="36" rowHeaderCaption="after size">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="36" rowHeaderCaption="after size">
   <location ref="A5:H7" firstHeaderRow="1" firstDataRow="2" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="42">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -9529,7 +8770,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7F6B6228-2E0A-43D0-A048-2045A6018039}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="37" rowHeaderCaption="after size">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable1" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="37" rowHeaderCaption="after size">
   <location ref="A5:F7" firstHeaderRow="1" firstDataRow="2" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="42">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -9709,7 +8950,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FD2868BA-2F50-4ECC-B5CA-D87D5F44E301}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="36" rowHeaderCaption="after size">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable1" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="36" rowHeaderCaption="after size">
   <location ref="A5:I13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="42">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
@@ -9737,9 +8978,10 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
+      <items count="5">
         <item h="1" x="0"/>
         <item x="1"/>
+        <item h="1" x="3"/>
         <item h="1" x="2"/>
         <item t="default"/>
       </items>
@@ -10161,7 +9403,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C6B70FE-D244-4E8F-9CB7-F6D525EAC431}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="34" rowHeaderCaption="drift size">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable1" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="34" rowHeaderCaption="drift size">
   <location ref="A5:I8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="42">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -10446,7 +9688,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9AD32ADD-B482-4EC7-8778-74B679F872A6}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="36" rowHeaderCaption="after size">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000004000000}" name="PivotTable1" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="36" rowHeaderCaption="after size">
   <location ref="A5:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="42">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
@@ -10648,7 +9890,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E545BCC7-D724-41F3-8B2E-80331F73569A}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="38" rowHeaderCaption="drift size">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000005000000}" name="PivotTable1" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="38" rowHeaderCaption="drift size">
   <location ref="A5:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="42">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -11258,11 +10500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11315,59 +10557,59 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>7.2770521731829039</v>
+        <v>7.5984163281755031</v>
       </c>
       <c r="B7" s="4">
-        <v>17.557434499666265</v>
+        <v>17.391133083194219</v>
       </c>
       <c r="C7" s="4">
-        <v>11.201747491894611</v>
+        <v>10.938270572471884</v>
       </c>
       <c r="D7" s="4">
-        <v>14.545135128218433</v>
+        <v>14.444290574547784</v>
       </c>
       <c r="E7" s="4">
-        <v>9.089554360665522</v>
+        <v>9.1323561058274123</v>
       </c>
       <c r="F7" s="4">
-        <v>12.955623721845457</v>
+        <v>12.831260026088856</v>
       </c>
       <c r="G7" s="4">
-        <v>11.838153077748739</v>
+        <v>11.880414625890797</v>
       </c>
       <c r="H7" s="4">
-        <v>12.045692913181062</v>
+        <v>12.060587424164398</v>
       </c>
     </row>
   </sheetData>
@@ -11377,11 +10619,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11434,47 +10676,47 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>1.8798586572438163</v>
+        <v>1.8785998013902681</v>
       </c>
       <c r="B7" s="4">
-        <v>1.3387178192831903</v>
+        <v>1.3130585898709037</v>
       </c>
       <c r="C7" s="4">
-        <v>2.1292276627965676</v>
+        <v>2.1206554121151937</v>
       </c>
       <c r="D7" s="4">
-        <v>1.4974760222110046</v>
+        <v>1.471449851042701</v>
       </c>
       <c r="E7" s="4">
-        <v>3.753407370015144</v>
+        <v>3.7202085402184708</v>
       </c>
       <c r="F7" s="4">
-        <v>3.9015648662291773</v>
+        <v>3.8607249255213505</v>
       </c>
     </row>
   </sheetData>
@@ -11484,11 +10726,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A11" zoomScale="83" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView rightToLeft="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11533,15 +10775,15 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -11549,28 +10791,28 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -11578,28 +10820,28 @@
         <v>1</v>
       </c>
       <c r="B7" s="4">
-        <v>-5.6875151387059262</v>
+        <v>-5.2404182272206068</v>
       </c>
       <c r="C7" s="4">
-        <v>13.153525020291905</v>
+        <v>13.031740407771508</v>
       </c>
       <c r="D7" s="4">
-        <v>10.635907042278358</v>
+        <v>10.644818379563135</v>
       </c>
       <c r="E7" s="4">
-        <v>14.145618588486069</v>
+        <v>14.082337484219014</v>
       </c>
       <c r="F7" s="4">
-        <v>8.6323066986432107</v>
+        <v>8.6417850253771</v>
       </c>
       <c r="G7" s="4">
-        <v>12.000753909366932</v>
+        <v>11.926081731736803</v>
       </c>
       <c r="H7" s="4">
-        <v>10.794023900260202</v>
+        <v>11.017420459699228</v>
       </c>
       <c r="I7" s="4">
-        <v>10.88547073950002</v>
+        <v>11.42523214328031</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -11607,28 +10849,28 @@
         <v>2</v>
       </c>
       <c r="B8" s="4">
-        <v>1.5656048491403989</v>
+        <v>1.9147601243355348</v>
       </c>
       <c r="C8" s="4">
-        <v>15.360092638893487</v>
+        <v>15.364801150041277</v>
       </c>
       <c r="D8" s="4">
-        <v>9.764403899375063</v>
+        <v>9.4274665165897229</v>
       </c>
       <c r="E8" s="4">
-        <v>14.243630078227433</v>
+        <v>14.190247584357465</v>
       </c>
       <c r="F8" s="4">
-        <v>7.8154611351595413</v>
+        <v>7.9449625966279784</v>
       </c>
       <c r="G8" s="4">
-        <v>12.18286767961178</v>
+        <v>12.118122945253258</v>
       </c>
       <c r="H8" s="4">
-        <v>10.89234052766898</v>
+        <v>11.08024132150434</v>
       </c>
       <c r="I8" s="4">
-        <v>11.107237604762165</v>
+        <v>11.181612531837764</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -11636,28 +10878,28 @@
         <v>3</v>
       </c>
       <c r="B9" s="4">
-        <v>5.4504401602659351</v>
+        <v>5.5797902201136536</v>
       </c>
       <c r="C9" s="4">
-        <v>16.469930509630554</v>
+        <v>16.25022135068291</v>
       </c>
       <c r="D9" s="4">
-        <v>11.346772841319677</v>
+        <v>11.046778923313548</v>
       </c>
       <c r="E9" s="4">
-        <v>15.261111615364017</v>
+        <v>15.154164167550652</v>
       </c>
       <c r="F9" s="4">
-        <v>9.4543201502015748</v>
+        <v>9.5418052660146007</v>
       </c>
       <c r="G9" s="4">
-        <v>13.275673144686818</v>
+        <v>13.16272497933033</v>
       </c>
       <c r="H9" s="4">
-        <v>12.773785609545779</v>
+        <v>12.901630347177571</v>
       </c>
       <c r="I9" s="4">
-        <v>13.045822687421312</v>
+        <v>13.061165534932105</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -11665,28 +10907,28 @@
         <v>5</v>
       </c>
       <c r="B10" s="4">
-        <v>8.9604868413931449</v>
+        <v>9.3329741975696408</v>
       </c>
       <c r="C10" s="4">
-        <v>17.94201132223688</v>
+        <v>17.50357379291226</v>
       </c>
       <c r="D10" s="4">
-        <v>12.201371367886971</v>
+        <v>11.836603915184222</v>
       </c>
       <c r="E10" s="4">
-        <v>15.471831233037097</v>
+        <v>15.413922248868365</v>
       </c>
       <c r="F10" s="4">
-        <v>9.7518832808637459</v>
+        <v>9.8597086714380229</v>
       </c>
       <c r="G10" s="4">
-        <v>13.984748206361703</v>
+        <v>13.919754733611139</v>
       </c>
       <c r="H10" s="4">
-        <v>12.688407385812871</v>
+        <v>12.654354020303625</v>
       </c>
       <c r="I10" s="4">
-        <v>12.985412997320751</v>
+        <v>12.901216828705966</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -11694,28 +10936,28 @@
         <v>6</v>
       </c>
       <c r="B11" s="4">
-        <v>10.317833852281094</v>
+        <v>10.573685389772685</v>
       </c>
       <c r="C11" s="4">
-        <v>19.228466614719075</v>
+        <v>19.077465793083263</v>
       </c>
       <c r="D11" s="4">
-        <v>11.763850536634132</v>
+        <v>11.505810235193964</v>
       </c>
       <c r="E11" s="4">
-        <v>15.127444315967562</v>
+        <v>15.034839096858168</v>
       </c>
       <c r="F11" s="4">
-        <v>9.7634028771831893</v>
+        <v>9.9300748607664993</v>
       </c>
       <c r="G11" s="4">
-        <v>14.039953362719777</v>
+        <v>13.929429188450127</v>
       </c>
       <c r="H11" s="4">
-        <v>12.347284250392486</v>
+        <v>12.485597458627701</v>
       </c>
       <c r="I11" s="4">
-        <v>12.503770056226312</v>
+        <v>12.596508466365336</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -11723,57 +10965,57 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>14.893789460333013</v>
+        <v>15.052399128517829</v>
       </c>
       <c r="C12" s="4">
-        <v>21.721934544084981</v>
+        <v>21.400182886535017</v>
       </c>
       <c r="D12" s="4">
-        <v>12.588476377380989</v>
+        <v>12.287258037143006</v>
       </c>
       <c r="E12" s="4">
-        <v>16.047438770218079</v>
+        <v>15.99267865380288</v>
       </c>
       <c r="F12" s="4">
-        <v>10.426641115273206</v>
+        <v>10.532885161613441</v>
       </c>
       <c r="G12" s="4">
-        <v>14.465096004912526</v>
+        <v>14.383125393701491</v>
       </c>
       <c r="H12" s="4">
-        <v>13.483491012306013</v>
+        <v>13.539966636290583</v>
       </c>
       <c r="I12" s="4">
-        <v>13.873168803241311</v>
+        <v>13.924557249798523</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4">
-        <v>6.3556048714732762</v>
+        <v>6.6428243135128913</v>
       </c>
       <c r="C13" s="4">
-        <v>17.494840858755826</v>
+        <v>17.283968175157142</v>
       </c>
       <c r="D13" s="4">
-        <v>11.434202666964474</v>
+        <v>11.171584082834521</v>
       </c>
       <c r="E13" s="4">
-        <v>15.087894617837987</v>
+        <v>15.017372649924305</v>
       </c>
       <c r="F13" s="4">
-        <v>9.3531196705917772</v>
+        <v>9.4577581899005008</v>
       </c>
       <c r="G13" s="4">
-        <v>13.385093707696575</v>
+        <v>13.300767237937135</v>
       </c>
       <c r="H13" s="4">
-        <v>12.218023057996994</v>
+        <v>12.332201097248674</v>
       </c>
       <c r="I13" s="4">
-        <v>12.459089196797976</v>
+        <v>12.566366470441885</v>
       </c>
     </row>
   </sheetData>
@@ -11783,11 +11025,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:I8"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11819,7 +11061,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -11832,7 +11074,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -11840,28 +11082,28 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -11869,57 +11111,57 @@
         <v>1</v>
       </c>
       <c r="B7" s="4">
-        <v>7.2087266614272334</v>
+        <v>7.470683817577755</v>
       </c>
       <c r="C7" s="4">
-        <v>17.708218950963523</v>
+        <v>17.510318972532044</v>
       </c>
       <c r="D7" s="4">
-        <v>11.403994834927051</v>
+        <v>11.172489057150452</v>
       </c>
       <c r="E7" s="4">
-        <v>14.794285076362428</v>
+        <v>14.746768097409033</v>
       </c>
       <c r="F7" s="4">
-        <v>9.226812522458383</v>
+        <v>9.324473912951504</v>
       </c>
       <c r="G7" s="4">
-        <v>13.177846628711061</v>
+        <v>13.099114843988563</v>
       </c>
       <c r="H7" s="4">
-        <v>12.083339364566658</v>
+        <v>12.199952749269878</v>
       </c>
       <c r="I7" s="4">
-        <v>12.293214910468459</v>
+        <v>12.3767722388042</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4">
-        <v>7.2087266614272334</v>
+        <v>7.470683817577755</v>
       </c>
       <c r="C8" s="4">
-        <v>17.708218950963523</v>
+        <v>17.510318972532044</v>
       </c>
       <c r="D8" s="4">
-        <v>11.403994834927051</v>
+        <v>11.172489057150452</v>
       </c>
       <c r="E8" s="4">
-        <v>14.794285076362428</v>
+        <v>14.746768097409033</v>
       </c>
       <c r="F8" s="4">
-        <v>9.226812522458383</v>
+        <v>9.324473912951504</v>
       </c>
       <c r="G8" s="4">
-        <v>13.177846628711061</v>
+        <v>13.099114843988563</v>
       </c>
       <c r="H8" s="4">
-        <v>12.083339364566658</v>
+        <v>12.199952749269878</v>
       </c>
       <c r="I8" s="4">
-        <v>12.293214910468459</v>
+        <v>12.3767722388042</v>
       </c>
     </row>
   </sheetData>
@@ -11929,11 +11171,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A6" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11977,7 +11219,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -11985,22 +11227,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -12008,22 +11250,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="4">
-        <v>1.779874213836478</v>
+        <v>1.7570093457943925</v>
       </c>
       <c r="C7" s="4">
-        <v>1.5911949685534592</v>
+        <v>1.5669781931464175</v>
       </c>
       <c r="D7" s="4">
-        <v>2.0628930817610063</v>
+        <v>2.0373831775700935</v>
       </c>
       <c r="E7" s="4">
-        <v>1.9748427672955975</v>
+        <v>1.9501557632398754</v>
       </c>
       <c r="F7" s="4">
-        <v>3.6761006289308176</v>
+        <v>3.6417445482866042</v>
       </c>
       <c r="G7" s="4">
-        <v>3.8962264150943398</v>
+        <v>3.8535825545171338</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -12031,22 +11273,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="4">
-        <v>1.861764705882353</v>
+        <v>1.8483965014577259</v>
       </c>
       <c r="C8" s="4">
-        <v>1.3705882352941177</v>
+        <v>1.3556851311953353</v>
       </c>
       <c r="D8" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.174927113702624</v>
       </c>
       <c r="E8" s="4">
-        <v>1.5617647058823529</v>
+        <v>1.5481049562682216</v>
       </c>
       <c r="F8" s="4">
-        <v>3.45</v>
+        <v>3.4198250728862973</v>
       </c>
       <c r="G8" s="4">
-        <v>3.7529411764705882</v>
+        <v>3.7230320699708455</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -12054,22 +11296,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="4">
-        <v>1.9476744186046511</v>
+        <v>1.9425287356321839</v>
       </c>
       <c r="C9" s="4">
-        <v>1.4186046511627908</v>
+        <v>1.3994252873563218</v>
       </c>
       <c r="D9" s="4">
-        <v>2.2761627906976742</v>
+        <v>2.2586206896551726</v>
       </c>
       <c r="E9" s="4">
-        <v>1.5639534883720929</v>
+        <v>1.5459770114942528</v>
       </c>
       <c r="F9" s="4">
-        <v>3.7238372093023258</v>
+        <v>3.6954022988505746</v>
       </c>
       <c r="G9" s="4">
-        <v>3.9912790697674421</v>
+        <v>3.9626436781609193</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -12077,22 +11319,22 @@
         <v>5</v>
       </c>
       <c r="B10" s="4">
-        <v>1.9192200557103065</v>
+        <v>1.9048913043478262</v>
       </c>
       <c r="C10" s="4">
-        <v>1.1894150417827298</v>
+        <v>1.1576086956521738</v>
       </c>
       <c r="D10" s="4">
-        <v>2.1002785515320332</v>
+        <v>2.0760869565217392</v>
       </c>
       <c r="E10" s="4">
-        <v>1.3091922005571031</v>
+        <v>1.2771739130434783</v>
       </c>
       <c r="F10" s="4">
-        <v>3.6740947075208914</v>
+        <v>3.6086956521739131</v>
       </c>
       <c r="G10" s="4">
-        <v>3.818941504178273</v>
+        <v>3.7581521739130435</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -12100,22 +11342,22 @@
         <v>6</v>
       </c>
       <c r="B11" s="4">
-        <v>1.9573333333333334</v>
+        <v>1.963350785340314</v>
       </c>
       <c r="C11" s="4">
-        <v>1.2</v>
+        <v>1.1753926701570681</v>
       </c>
       <c r="D11" s="4">
-        <v>2.2186666666666666</v>
+        <v>2.2041884816753927</v>
       </c>
       <c r="E11" s="4">
-        <v>1.296</v>
+        <v>1.2722513089005236</v>
       </c>
       <c r="F11" s="4">
-        <v>3.8586666666666667</v>
+        <v>3.8167539267015709</v>
       </c>
       <c r="G11" s="4">
-        <v>4.0346666666666664</v>
+        <v>3.9895287958115184</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -12123,45 +11365,45 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>1.9228791773778919</v>
+        <v>1.9472361809045227</v>
       </c>
       <c r="C12" s="4">
-        <v>1.1696658097686374</v>
+        <v>1.1381909547738693</v>
       </c>
       <c r="D12" s="4">
-        <v>2.1619537275064267</v>
+        <v>2.1809045226130652</v>
       </c>
       <c r="E12" s="4">
-        <v>1.2544987146529563</v>
+        <v>1.2236180904522613</v>
       </c>
       <c r="F12" s="4">
-        <v>3.9588688946015425</v>
+        <v>3.9145728643216082</v>
       </c>
       <c r="G12" s="4">
-        <v>3.961439588688946</v>
+        <v>3.9170854271356785</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4">
-        <v>1.9011764705882352</v>
+        <v>1.8981481481481481</v>
       </c>
       <c r="C13" s="4">
-        <v>1.3138823529411765</v>
+        <v>1.2884259259259259</v>
       </c>
       <c r="D13" s="4">
-        <v>2.1712941176470588</v>
+        <v>2.1574074074074074</v>
       </c>
       <c r="E13" s="4">
-        <v>1.4781176470588235</v>
+        <v>1.4527777777777777</v>
       </c>
       <c r="F13" s="4">
-        <v>3.7312941176470589</v>
+        <v>3.6907407407407407</v>
       </c>
       <c r="G13" s="4">
-        <v>3.9119999999999999</v>
+        <v>3.8699074074074074</v>
       </c>
     </row>
   </sheetData>
@@ -12171,11 +11413,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12219,7 +11461,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -12227,22 +11469,22 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -12250,45 +11492,45 @@
         <v>1</v>
       </c>
       <c r="B7" s="4">
-        <v>1.8798586572438163</v>
+        <v>1.8785998013902681</v>
       </c>
       <c r="C7" s="4">
-        <v>1.3387178192831903</v>
+        <v>1.3130585898709037</v>
       </c>
       <c r="D7" s="4">
-        <v>2.1292276627965676</v>
+        <v>2.1206554121151937</v>
       </c>
       <c r="E7" s="4">
-        <v>1.4974760222110046</v>
+        <v>1.471449851042701</v>
       </c>
       <c r="F7" s="4">
-        <v>3.753407370015144</v>
+        <v>3.7202085402184708</v>
       </c>
       <c r="G7" s="4">
-        <v>3.9015648662291773</v>
+        <v>3.8607249255213505</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4">
-        <v>1.8798586572438163</v>
+        <v>1.8785998013902681</v>
       </c>
       <c r="C8" s="4">
-        <v>1.3387178192831903</v>
+        <v>1.3130585898709037</v>
       </c>
       <c r="D8" s="4">
-        <v>2.1292276627965676</v>
+        <v>2.1206554121151937</v>
       </c>
       <c r="E8" s="4">
-        <v>1.4974760222110046</v>
+        <v>1.471449851042701</v>
       </c>
       <c r="F8" s="4">
-        <v>3.753407370015144</v>
+        <v>3.7202085402184708</v>
       </c>
       <c r="G8" s="4">
-        <v>3.9015648662291773</v>
+        <v>3.8607249255213505</v>
       </c>
     </row>
   </sheetData>
@@ -12299,11 +11541,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -12315,79 +11555,79 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -12398,10 +11638,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -12481,79 +11721,79 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F3">
-        <v>20221.481840712051</v>
+        <v>20447.28270651292</v>
       </c>
       <c r="G3">
-        <v>-2994.332383160634</v>
+        <v>-2925.1332489615002</v>
       </c>
       <c r="H3">
-        <v>3289.360515000456</v>
+        <v>3266.4600821000231</v>
       </c>
       <c r="I3">
-        <v>2161.1664895188878</v>
+        <v>2191.5344548868529</v>
       </c>
       <c r="J3">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K3">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L3">
-        <v>3164.9543528336771</v>
+        <v>3184.1210195003432</v>
       </c>
       <c r="M3">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="N3">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="O3">
-        <v>2402.5013376610718</v>
+        <v>2448.0965757563099</v>
       </c>
       <c r="P3">
         <v>1150</v>
       </c>
       <c r="Q3">
+        <v>152</v>
+      </c>
+      <c r="R3">
+        <v>326</v>
+      </c>
+      <c r="S3">
+        <v>1909.032378487359</v>
+      </c>
+      <c r="T3">
+        <v>704</v>
+      </c>
+      <c r="U3">
+        <v>139</v>
+      </c>
+      <c r="V3">
+        <v>2503.2987360764519</v>
+      </c>
+      <c r="W3">
+        <v>855</v>
+      </c>
+      <c r="X3">
+        <v>154</v>
+      </c>
+      <c r="Y3">
+        <v>2484.3770184111258</v>
+      </c>
+      <c r="Z3">
+        <v>1220</v>
+      </c>
+      <c r="AA3">
         <v>149</v>
-      </c>
-      <c r="R3">
-        <v>323</v>
-      </c>
-      <c r="S3">
-        <v>1884.4977464527269</v>
-      </c>
-      <c r="T3">
-        <v>703</v>
-      </c>
-      <c r="U3">
-        <v>137</v>
-      </c>
-      <c r="V3">
-        <v>2494.1320694097849</v>
-      </c>
-      <c r="W3">
-        <v>857</v>
-      </c>
-      <c r="X3">
-        <v>150</v>
-      </c>
-      <c r="Y3">
-        <v>2476.2817803158869</v>
-      </c>
-      <c r="Z3">
-        <v>1219</v>
-      </c>
-      <c r="AA3">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -12564,10 +11804,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -12647,79 +11887,79 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F5">
-        <v>19061.250246890759</v>
+        <v>19233.371459011971</v>
       </c>
       <c r="G5">
-        <v>-1763.1296929988371</v>
+        <v>-1640.25090512005</v>
       </c>
       <c r="H5">
-        <v>4077.5927562904908</v>
+        <v>4078.934747632482</v>
       </c>
       <c r="I5">
-        <v>3297.1311831062908</v>
+        <v>3331.8281528032612</v>
       </c>
       <c r="J5">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K5">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L5">
-        <v>4385.1417624306814</v>
+        <v>4407.7716325605516</v>
       </c>
       <c r="M5">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="N5">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O5">
-        <v>3346.1474090806628</v>
+        <v>3448.452603885858</v>
       </c>
       <c r="P5">
         <v>1141</v>
       </c>
       <c r="Q5">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="R5">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="S5">
-        <v>2676.0150765793951</v>
+        <v>2704.878712943032</v>
       </c>
       <c r="T5">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="U5">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="V5">
-        <v>3720.2337119037488</v>
+        <v>3732.863582033619</v>
       </c>
       <c r="W5">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="X5">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Y5">
-        <v>3374.4959292450062</v>
+        <v>3576.0976608467372</v>
       </c>
       <c r="Z5">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="AA5">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -12730,10 +11970,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -12813,79 +12053,79 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F7">
-        <v>20512.829616523781</v>
+        <v>20685.816629510791</v>
       </c>
       <c r="G7">
-        <v>521.34641476375282</v>
+        <v>643.35940177673967</v>
       </c>
       <c r="H7">
-        <v>5114.9108487515314</v>
+        <v>5162.5731864138688</v>
       </c>
       <c r="I7">
-        <v>3251.5464984918958</v>
+        <v>3167.6287495741472</v>
       </c>
       <c r="J7">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K7">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L7">
-        <v>4743.1288160497352</v>
+        <v>4767.923188344108</v>
       </c>
       <c r="M7">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N7">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="O7">
-        <v>3627.14939571377</v>
+        <v>3722.9610840254581</v>
       </c>
       <c r="P7">
         <v>1146</v>
       </c>
       <c r="Q7">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="R7">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="S7">
-        <v>2602.5485580081272</v>
+        <v>2669.5074324670009</v>
       </c>
       <c r="T7">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="U7">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V7">
-        <v>4056.894937310723</v>
+        <v>4071.6893096050949</v>
       </c>
       <c r="W7">
         <v>511</v>
       </c>
       <c r="X7">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Y7">
-        <v>3698.7101223858008</v>
+        <v>3757.0218106974889</v>
       </c>
       <c r="Z7">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="AA7">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -12896,10 +12136,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -12979,79 +12219,79 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F9">
-        <v>20716.117760170931</v>
+        <v>20968.75845281162</v>
       </c>
       <c r="G9">
-        <v>1847.699214330152</v>
+        <v>1913.8680454989831</v>
       </c>
       <c r="H9">
-        <v>5583.3064427647578</v>
+        <v>5573.8259232842383</v>
       </c>
       <c r="I9">
-        <v>3846.5559932073702</v>
+        <v>3789.0451706965468</v>
       </c>
       <c r="J9">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="K9">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L9">
-        <v>5173.5168376084021</v>
+        <v>5197.8783094698738</v>
       </c>
       <c r="M9">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N9">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="O9">
-        <v>4330.3133216360193</v>
+        <v>4425.2592090819071</v>
       </c>
       <c r="P9">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="Q9">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="R9">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="S9">
-        <v>3205.014530918334</v>
+        <v>3272.839206243008</v>
       </c>
       <c r="T9">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="U9">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="V9">
-        <v>4500.4531960488312</v>
+        <v>4514.8146679103029</v>
       </c>
       <c r="W9">
         <v>517</v>
       </c>
       <c r="X9">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Y9">
-        <v>4422.533891035825</v>
+        <v>4479.9797784817119</v>
       </c>
       <c r="Z9">
-        <v>1322</v>
+        <v>1328</v>
       </c>
       <c r="AA9">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -13062,10 +12302,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -13145,79 +12385,79 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F11">
-        <v>20678.374556729079</v>
+        <v>20851.361569716089</v>
       </c>
       <c r="G11">
-        <v>2696.6569934611621</v>
+        <v>2809.5790713832398</v>
       </c>
       <c r="H11">
-        <v>5939.5107720806309</v>
+        <v>5951.2423738122334</v>
       </c>
       <c r="I11">
-        <v>4104.3872114246687</v>
+        <v>4049.4737915112491</v>
       </c>
       <c r="J11">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L11">
-        <v>5120.7337988309919</v>
+        <v>5143.7965693937622</v>
       </c>
       <c r="M11">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N11">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="O11">
-        <v>4344.1479058462182</v>
+        <v>4436.0634902618031</v>
       </c>
       <c r="P11">
         <v>1225</v>
       </c>
       <c r="Q11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="R11">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="S11">
-        <v>3219.2390222259251</v>
+        <v>3286.1978966847992</v>
       </c>
       <c r="T11">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="U11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V11">
-        <v>4486.479738813784</v>
+        <v>4499.5425093765543</v>
       </c>
       <c r="W11">
         <v>458</v>
       </c>
       <c r="X11">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Y11">
-        <v>4379.5021739237882</v>
+        <v>4433.9177583393721</v>
       </c>
       <c r="Z11">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="AA11">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -13228,76 +12468,76 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>133.33333333333329</v>
+        <v>260.95238095238102</v>
       </c>
       <c r="G12">
-        <v>17.241379310344819</v>
+        <v>74.285714285714292</v>
       </c>
       <c r="H12">
-        <v>-11.49425287356323</v>
+        <v>54.285714285714278</v>
       </c>
       <c r="I12">
-        <v>4.5977011494252817</v>
+        <v>45.714285714285708</v>
       </c>
       <c r="J12">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.8965517241379226</v>
+        <v>15.23809523809523</v>
       </c>
       <c r="M12">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>5.7142857142857162</v>
       </c>
       <c r="P12">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S12">
-        <v>4.5977011494252817</v>
+        <v>5.7142857142857162</v>
       </c>
       <c r="T12">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12">
-        <v>6.8965517241379226</v>
+        <v>15.23809523809523</v>
       </c>
       <c r="W12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>5.7142857142857162</v>
       </c>
       <c r="Z12">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -13311,162 +12551,162 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E13">
-        <v>357</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>22158.60938951284</v>
+        <v>133.33333333333329</v>
       </c>
       <c r="G13">
-        <v>3198.893802377353</v>
+        <v>17.241379310344819</v>
       </c>
       <c r="H13">
-        <v>6405.2980420385666</v>
+        <v>-11.49425287356323</v>
       </c>
       <c r="I13">
-        <v>4355.8895783356484</v>
+        <v>4.5977011494252817</v>
       </c>
       <c r="J13">
-        <v>663</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>5523.4437501942439</v>
+        <v>6.8965517241379226</v>
       </c>
       <c r="M13">
-        <v>409</v>
+        <v>18</v>
       </c>
       <c r="N13">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>4529.7614367351953</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1297</v>
+        <v>22</v>
       </c>
       <c r="Q13">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>357</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>3481.4223312683571</v>
+        <v>4.5977011494252817</v>
       </c>
       <c r="T13">
-        <v>730</v>
+        <v>24</v>
       </c>
       <c r="U13">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>4992.5551096711279</v>
+        <v>6.8965517241379226</v>
       </c>
       <c r="W13">
-        <v>460</v>
+        <v>10</v>
       </c>
       <c r="X13">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>4635.7924400435077</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>1349</v>
+        <v>22</v>
       </c>
       <c r="AA13">
-        <v>178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>362</v>
       </c>
       <c r="F14">
-        <v>133.33333333333329</v>
+        <v>22452.42973583319</v>
       </c>
       <c r="G14">
-        <v>43.678160919540232</v>
+        <v>3378.5366595202099</v>
       </c>
       <c r="H14">
-        <v>3.4482758620689609</v>
+        <v>6336.293713034238</v>
       </c>
       <c r="I14">
-        <v>4.5977011494252817</v>
+        <v>4284.8506172966881</v>
       </c>
       <c r="J14">
-        <v>26</v>
+        <v>663</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="L14">
-        <v>1.14942528735632</v>
+        <v>5579.8398540903481</v>
       </c>
       <c r="M14">
-        <v>24</v>
+        <v>408</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>4580.8761553499126</v>
       </c>
       <c r="P14">
-        <v>22</v>
+        <v>1298</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>362</v>
       </c>
       <c r="S14">
-        <v>4.5977011494252817</v>
+        <v>3569.2145390605642</v>
       </c>
       <c r="T14">
-        <v>24</v>
+        <v>728</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="V14">
-        <v>1.14942528735632</v>
+        <v>5038.9512135672321</v>
       </c>
       <c r="W14">
-        <v>12</v>
+        <v>460</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>4670.2404919915598</v>
       </c>
       <c r="Z14">
-        <v>22</v>
+        <v>1352</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -13477,159 +12717,159 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E15">
-        <v>373</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>23362.860616346181</v>
+        <v>260.95238095238102</v>
       </c>
       <c r="G15">
-        <v>3848.552026900848</v>
+        <v>74.285714285714292</v>
       </c>
       <c r="H15">
-        <v>7172.2180472902146</v>
+        <v>98.095238095238102</v>
       </c>
       <c r="I15">
-        <v>4387.9162501645314</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="J15">
-        <v>708</v>
+        <v>15</v>
       </c>
       <c r="K15">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>5642.5367298559004</v>
+        <v>15.23809523809523</v>
       </c>
       <c r="M15">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="O15">
-        <v>4605.5370253963974</v>
+        <v>0.95238095238094911</v>
       </c>
       <c r="P15">
-        <v>1425</v>
+        <v>9</v>
       </c>
       <c r="Q15">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>373</v>
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>3641.7492731893299</v>
+        <v>0.95238095238094911</v>
       </c>
       <c r="T15">
-        <v>808</v>
+        <v>12</v>
       </c>
       <c r="U15">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>5236.902604294477</v>
+        <v>15.23809523809523</v>
       </c>
       <c r="W15">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>232</v>
+        <v>4</v>
       </c>
       <c r="Y15">
-        <v>4663.9062309724141</v>
+        <v>0.95238095238094911</v>
       </c>
       <c r="Z15">
-        <v>1491</v>
+        <v>10</v>
       </c>
       <c r="AA15">
-        <v>181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>6.9999999999999991</v>
+        <v>6</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>205.7471264367816</v>
+        <v>133.33333333333329</v>
       </c>
       <c r="G16">
-        <v>59.770114942528743</v>
+        <v>43.678160919540232</v>
       </c>
       <c r="H16">
-        <v>1.14942528735632</v>
+        <v>3.4482758620689609</v>
       </c>
       <c r="I16">
-        <v>-2.298850574712652</v>
+        <v>4.5977011494252817</v>
       </c>
       <c r="J16">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>-6.8965517241379342</v>
+        <v>1.14942528735632</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>-4.5977011494252924</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>6.8965517241379226</v>
+        <v>4.5977011494252817</v>
       </c>
       <c r="T16">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>-6.8965517241379342</v>
+        <v>1.14942528735632</v>
       </c>
       <c r="W16">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>-4.5977011494252924</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -13637,497 +12877,497 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>6.9999999999999991</v>
+        <v>6</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F17">
-        <v>23871.90389995815</v>
+        <v>23523.347629333199</v>
       </c>
       <c r="G17">
-        <v>4143.492994842587</v>
+        <v>3975.7057065545291</v>
       </c>
       <c r="H17">
-        <v>7538.8372208107521</v>
+        <v>7173.1271381993074</v>
       </c>
       <c r="I17">
-        <v>4510.3255413110264</v>
+        <v>4326.1846484329308</v>
       </c>
       <c r="J17">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="K17">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L17">
-        <v>5660.2743389048564</v>
+        <v>5653.0995004186707</v>
       </c>
       <c r="M17">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="N17">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O17">
-        <v>4682.0426087075048</v>
+        <v>4694.5846444440158</v>
       </c>
       <c r="P17">
-        <v>1496</v>
+        <v>1427</v>
       </c>
       <c r="Q17">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="R17">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="S17">
-        <v>3456.6957278069171</v>
+        <v>3733.708147648204</v>
       </c>
       <c r="T17">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="U17">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V17">
-        <v>5292.2080486717896</v>
+        <v>5237.4653748572482</v>
       </c>
       <c r="W17">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="X17">
         <v>235</v>
       </c>
       <c r="Y17">
-        <v>4616.6203530327621</v>
+        <v>4736.2871833533663</v>
       </c>
       <c r="Z17">
-        <v>1530</v>
+        <v>1492</v>
       </c>
       <c r="AA17">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>8.0000000000000018</v>
+        <v>6.9999999999999991</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>383.72582001682088</v>
+        <v>260.95238095238102</v>
       </c>
       <c r="G18">
-        <v>185.66021867115231</v>
+        <v>74.285714285714292</v>
       </c>
       <c r="H18">
-        <v>121.0821418559013</v>
+        <v>95.238095238095212</v>
       </c>
       <c r="I18">
-        <v>-5.8592654892066376</v>
+        <v>1.9047619047619091</v>
       </c>
       <c r="J18">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>25.714285714285701</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>1.9047619047619091</v>
+      </c>
+      <c r="P18">
+        <v>12</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>4</v>
       </c>
-      <c r="L18">
-        <v>-20.801794224838819</v>
-      </c>
-      <c r="M18">
-        <v>25</v>
-      </c>
-      <c r="N18">
-        <v>4</v>
-      </c>
-      <c r="O18">
-        <v>-16.204093075413532</v>
-      </c>
-      <c r="P18">
-        <v>33</v>
-      </c>
-      <c r="Q18">
-        <v>4</v>
-      </c>
-      <c r="R18">
-        <v>7</v>
-      </c>
       <c r="S18">
-        <v>-5.8592654892066376</v>
+        <v>1.9047619047619091</v>
       </c>
       <c r="T18">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="U18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>-20.801794224838819</v>
+        <v>15.23809523809523</v>
       </c>
       <c r="W18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="X18">
         <v>4</v>
       </c>
       <c r="Y18">
-        <v>-11.606391925988239</v>
+        <v>1.9047619047619091</v>
       </c>
       <c r="Z18">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="AA18">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>8.0000000000000018</v>
+        <v>6.9999999999999991</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E19">
-        <v>385</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>24137.56940194657</v>
+        <v>205.7471264367816</v>
       </c>
       <c r="G19">
-        <v>5510.9565004612323</v>
+        <v>59.770114942528743</v>
       </c>
       <c r="H19">
-        <v>7756.1712823899024</v>
+        <v>1.14942528735632</v>
       </c>
       <c r="I19">
-        <v>4884.0535195822822</v>
+        <v>-2.298850574712652</v>
       </c>
       <c r="J19">
-        <v>652</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6086.3071354491249</v>
+        <v>-6.8965517241379342</v>
       </c>
       <c r="M19">
-        <v>419</v>
+        <v>32</v>
       </c>
       <c r="N19">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>5152.1107563320611</v>
+        <v>-4.5977011494252924</v>
       </c>
       <c r="P19">
-        <v>1467</v>
+        <v>33</v>
       </c>
       <c r="Q19">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>385</v>
+        <v>3</v>
       </c>
       <c r="S19">
-        <v>3936.2479287047672</v>
+        <v>6.8965517241379226</v>
       </c>
       <c r="T19">
-        <v>748</v>
+        <v>36</v>
       </c>
       <c r="U19">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>5550.1129357669934</v>
+        <v>-6.8965517241379342</v>
       </c>
       <c r="W19">
-        <v>454</v>
+        <v>21</v>
       </c>
       <c r="X19">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>5197.6306183027646</v>
+        <v>-4.5977011494252924</v>
       </c>
       <c r="Z19">
-        <v>1507</v>
+        <v>33</v>
       </c>
       <c r="AA19">
-        <v>195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>9.0000000000000018</v>
+        <v>6.9999999999999991</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>384</v>
       </c>
       <c r="F20">
-        <v>611.31202691337262</v>
+        <v>24094.89091294516</v>
       </c>
       <c r="G20">
-        <v>185.99663582842729</v>
+        <v>4282.1726485222407</v>
       </c>
       <c r="H20">
-        <v>109.1673675357443</v>
+        <v>7553.4367879103193</v>
       </c>
       <c r="I20">
-        <v>7.9338379590692192</v>
+        <v>4468.0203465058312</v>
       </c>
       <c r="J20">
-        <v>78</v>
+        <v>729</v>
       </c>
       <c r="K20">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="L20">
-        <v>-17.35351836276984</v>
+        <v>5692.10334323386</v>
       </c>
       <c r="M20">
-        <v>62</v>
+        <v>434</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="O20">
-        <v>-10.45696663863192</v>
+        <v>4754.4235610884571</v>
       </c>
       <c r="P20">
-        <v>66</v>
+        <v>1497</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="R20">
-        <v>10</v>
+        <v>384</v>
       </c>
       <c r="S20">
-        <v>11.38211382113818</v>
+        <v>3536.1546022657908</v>
       </c>
       <c r="T20">
-        <v>71</v>
+        <v>814</v>
       </c>
       <c r="U20">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="V20">
-        <v>-17.35351836276984</v>
+        <v>5314.037053000794</v>
       </c>
       <c r="W20">
-        <v>48</v>
+        <v>465</v>
       </c>
       <c r="X20">
-        <v>4</v>
+        <v>238</v>
       </c>
       <c r="Y20">
-        <v>-10.45696663863192</v>
+        <v>4676.5013054137144</v>
       </c>
       <c r="Z20">
-        <v>66</v>
+        <v>1533</v>
       </c>
       <c r="AA20">
-        <v>4</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>9.0000000000000018</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E21">
-        <v>381</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>23721.76880156418</v>
+        <v>185.71428571428569</v>
       </c>
       <c r="G21">
-        <v>5445.210785937008</v>
+        <v>59.999999999999993</v>
       </c>
       <c r="H21">
-        <v>7903.1238478724626</v>
+        <v>84.761904761904745</v>
       </c>
       <c r="I21">
-        <v>4872.5475410831768</v>
+        <v>0.952380952380949</v>
       </c>
       <c r="J21">
-        <v>642</v>
+        <v>9</v>
       </c>
       <c r="K21">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6072.5652802079712</v>
+        <v>31.42857142857142</v>
       </c>
       <c r="M21">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>259</v>
+        <v>3</v>
       </c>
       <c r="O21">
-        <v>4960.2193645911202</v>
+        <v>0.952380952380949</v>
       </c>
       <c r="P21">
-        <v>1411</v>
+        <v>6</v>
       </c>
       <c r="Q21">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>381</v>
+        <v>3</v>
       </c>
       <c r="S21">
-        <v>3902.9610507707139</v>
+        <v>0.952380952380949</v>
       </c>
       <c r="T21">
-        <v>728</v>
+        <v>12</v>
       </c>
       <c r="U21">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>5543.1118237101036</v>
+        <v>31.42857142857142</v>
       </c>
       <c r="W21">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>239</v>
+        <v>3</v>
       </c>
       <c r="Y21">
-        <v>5184.8339443021514</v>
+        <v>0.952380952380949</v>
       </c>
       <c r="Z21">
-        <v>1408</v>
+        <v>9</v>
       </c>
       <c r="AA21">
-        <v>191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>10</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <v>689.4729464536025</v>
+        <v>383.72582001682088</v>
       </c>
       <c r="G22">
-        <v>205.67703952901601</v>
+        <v>185.66021867115231</v>
       </c>
       <c r="H22">
-        <v>135.08550602747411</v>
+        <v>121.0821418559013</v>
       </c>
       <c r="I22">
-        <v>-13.90524250070089</v>
+        <v>-5.8592654892066376</v>
       </c>
       <c r="J22">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="K22">
         <v>4</v>
       </c>
       <c r="L22">
-        <v>-9.30754135127561</v>
+        <v>-20.801794224838819</v>
       </c>
       <c r="M22">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>4</v>
       </c>
       <c r="O22">
-        <v>-13.90524250070089</v>
+        <v>-16.204093075413532</v>
       </c>
       <c r="P22">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="Q22">
         <v>4</v>
       </c>
       <c r="R22">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="S22">
-        <v>13.680964395850831</v>
+        <v>-5.8592654892066376</v>
       </c>
       <c r="T22">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="U22">
         <v>4</v>
       </c>
       <c r="V22">
-        <v>-9.30754135127561</v>
+        <v>-20.801794224838819</v>
       </c>
       <c r="W22">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="X22">
         <v>4</v>
       </c>
       <c r="Y22">
-        <v>-13.90524250070089</v>
+        <v>-11.606391925988239</v>
       </c>
       <c r="Z22">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="AA22">
         <v>4</v>
@@ -14135,85 +13375,583 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>10</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="F23">
-        <v>23544.82489823602</v>
+        <v>24452.71009458727</v>
       </c>
       <c r="G23">
-        <v>5629.8524160058787</v>
+        <v>5612.7855047902367</v>
       </c>
       <c r="H23">
-        <v>8210.8912576641233</v>
+        <v>7772.773013991633</v>
       </c>
       <c r="I23">
-        <v>4758.4440706500136</v>
+        <v>4839.150922179685</v>
       </c>
       <c r="J23">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="K23">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="L23">
-        <v>6065.931855142434</v>
+        <v>6143.5690402110286</v>
       </c>
       <c r="M23">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="N23">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="O23">
-        <v>5096.759602651673</v>
+        <v>5263.723310444615</v>
       </c>
       <c r="P23">
-        <v>1463</v>
+        <v>1474</v>
       </c>
       <c r="Q23">
+        <v>196</v>
+      </c>
+      <c r="R23">
+        <v>390</v>
+      </c>
+      <c r="S23">
+        <v>4016.5726040294421</v>
+      </c>
+      <c r="T23">
+        <v>752</v>
+      </c>
+      <c r="U23">
+        <v>186</v>
+      </c>
+      <c r="V23">
+        <v>5543.208173862231</v>
+      </c>
+      <c r="W23">
+        <v>453</v>
+      </c>
+      <c r="X23">
+        <v>250</v>
+      </c>
+      <c r="Y23">
+        <v>5300.9098390819854</v>
+      </c>
+      <c r="Z23">
+        <v>1515</v>
+      </c>
+      <c r="AA23">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>9.0000000000000018</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>398.21428571428572</v>
+      </c>
+      <c r="G24">
+        <v>90.714285714285708</v>
+      </c>
+      <c r="H24">
+        <v>114.4047619047619</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>31.42857142857142</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>6</v>
+      </c>
+      <c r="O24">
+        <v>-12.5</v>
+      </c>
+      <c r="P24">
+        <v>43</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>6</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>22</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>31.42857142857142</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>6</v>
+      </c>
+      <c r="Y24">
+        <v>12.5</v>
+      </c>
+      <c r="Z24">
+        <v>9</v>
+      </c>
+      <c r="AA24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>9.0000000000000018</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>611.31202691337262</v>
+      </c>
+      <c r="G25">
+        <v>185.99663582842729</v>
+      </c>
+      <c r="H25">
+        <v>109.1673675357443</v>
+      </c>
+      <c r="I25">
+        <v>7.9338379590692192</v>
+      </c>
+      <c r="J25">
+        <v>78</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>-17.35351836276984</v>
+      </c>
+      <c r="M25">
+        <v>62</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <v>-10.45696663863192</v>
+      </c>
+      <c r="P25">
+        <v>66</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>10</v>
+      </c>
+      <c r="S25">
+        <v>11.38211382113818</v>
+      </c>
+      <c r="T25">
+        <v>71</v>
+      </c>
+      <c r="U25">
+        <v>4</v>
+      </c>
+      <c r="V25">
+        <v>-17.35351836276984</v>
+      </c>
+      <c r="W25">
+        <v>48</v>
+      </c>
+      <c r="X25">
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <v>-10.45696663863192</v>
+      </c>
+      <c r="Z25">
+        <v>66</v>
+      </c>
+      <c r="AA25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>9.0000000000000018</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>384</v>
+      </c>
+      <c r="F26">
+        <v>23894.75581455119</v>
+      </c>
+      <c r="G26">
+        <v>5596.3904396166618</v>
+      </c>
+      <c r="H26">
+        <v>7873.1887829373973</v>
+      </c>
+      <c r="I26">
+        <v>4832.3527358883712</v>
+      </c>
+      <c r="J26">
+        <v>642</v>
+      </c>
+      <c r="K26">
+        <v>214</v>
+      </c>
+      <c r="L26">
+        <v>6162.7276178703087</v>
+      </c>
+      <c r="M26">
+        <v>382</v>
+      </c>
+      <c r="N26">
+        <v>264</v>
+      </c>
+      <c r="O26">
+        <v>5070.9661178378728</v>
+      </c>
+      <c r="P26">
+        <v>1413</v>
+      </c>
+      <c r="Q26">
+        <v>185</v>
+      </c>
+      <c r="R26">
+        <v>384</v>
+      </c>
+      <c r="S26">
+        <v>3978.2532585629219</v>
+      </c>
+      <c r="T26">
+        <v>729</v>
+      </c>
+      <c r="U26">
         <v>183</v>
       </c>
-      <c r="R23">
-        <v>378</v>
-      </c>
-      <c r="S23">
-        <v>3941.2703415732722</v>
-      </c>
-      <c r="T23">
-        <v>757</v>
-      </c>
-      <c r="U23">
-        <v>180</v>
-      </c>
-      <c r="V23">
-        <v>5467.8062898569351</v>
-      </c>
-      <c r="W23">
-        <v>435</v>
-      </c>
-      <c r="X23">
-        <v>234</v>
-      </c>
-      <c r="Y23">
-        <v>5244.0578076252159</v>
-      </c>
-      <c r="Z23">
-        <v>1464</v>
-      </c>
-      <c r="AA23">
-        <v>188</v>
+      <c r="V26">
+        <v>5606.607494705775</v>
+      </c>
+      <c r="W26">
+        <v>433</v>
+      </c>
+      <c r="X26">
+        <v>243</v>
+      </c>
+      <c r="Y26">
+        <v>5278.9140308822389</v>
+      </c>
+      <c r="Z26">
+        <v>1412</v>
+      </c>
+      <c r="AA26">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>10</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>260.95238095238102</v>
+      </c>
+      <c r="G27">
+        <v>74.285714285714292</v>
+      </c>
+      <c r="H27">
+        <v>95.238095238095227</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>24</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>15.23809523809523</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>12</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>24</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>15.23809523809523</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>4</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>12</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>10</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>689.4729464536025</v>
+      </c>
+      <c r="G28">
+        <v>205.67703952901601</v>
+      </c>
+      <c r="H28">
+        <v>135.08550602747411</v>
+      </c>
+      <c r="I28">
+        <v>-13.90524250070089</v>
+      </c>
+      <c r="J28">
+        <v>91</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>-9.30754135127561</v>
+      </c>
+      <c r="M28">
+        <v>62</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <v>-13.90524250070089</v>
+      </c>
+      <c r="P28">
+        <v>77</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <v>11</v>
+      </c>
+      <c r="S28">
+        <v>13.680964395850831</v>
+      </c>
+      <c r="T28">
+        <v>84</v>
+      </c>
+      <c r="U28">
+        <v>4</v>
+      </c>
+      <c r="V28">
+        <v>-9.30754135127561</v>
+      </c>
+      <c r="W28">
+        <v>53</v>
+      </c>
+      <c r="X28">
+        <v>4</v>
+      </c>
+      <c r="Y28">
+        <v>-13.90524250070089</v>
+      </c>
+      <c r="Z28">
+        <v>77</v>
+      </c>
+      <c r="AA28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>383</v>
+      </c>
+      <c r="F29">
+        <v>23847.46559087672</v>
+      </c>
+      <c r="G29">
+        <v>5765.0688662223283</v>
+      </c>
+      <c r="H29">
+        <v>8196.2700455429112</v>
+      </c>
+      <c r="I29">
+        <v>4706.0198282257716</v>
+      </c>
+      <c r="J29">
+        <v>660</v>
+      </c>
+      <c r="K29">
+        <v>214</v>
+      </c>
+      <c r="L29">
+        <v>6125.1959244065029</v>
+      </c>
+      <c r="M29">
+        <v>391</v>
+      </c>
+      <c r="N29">
+        <v>258</v>
+      </c>
+      <c r="O29">
+        <v>5185.8072216992932</v>
+      </c>
+      <c r="P29">
+        <v>1469</v>
+      </c>
+      <c r="Q29">
+        <v>186</v>
+      </c>
+      <c r="R29">
+        <v>383</v>
+      </c>
+      <c r="S29">
+        <v>4034.095016897948</v>
+      </c>
+      <c r="T29">
+        <v>760</v>
+      </c>
+      <c r="U29">
+        <v>184</v>
+      </c>
+      <c r="V29">
+        <v>5508.737025787671</v>
+      </c>
+      <c r="W29">
+        <v>434</v>
+      </c>
+      <c r="X29">
+        <v>240</v>
+      </c>
+      <c r="Y29">
+        <v>5333.1054266728343</v>
+      </c>
+      <c r="Z29">
+        <v>1470</v>
+      </c>
+      <c r="AA29">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
